--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -3090,7 +3090,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -3230,7 +3230,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
@@ -3650,7 +3650,7 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H8" s="59" t="inlineStr">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="H10" s="12" t="inlineStr">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>MNC COMPANY LTD 0813410</t>
+          <t>MNC COMPANY LTD 1214808</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -13430,7 +13430,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>MNC COMPANY LTD 0813410</t>
+          <t>MNC COMPANY LTD 1214808</t>
         </is>
       </c>
       <c r="D2" s="50" t="inlineStr">
@@ -13440,7 +13440,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>0813410</t>
+          <t>1214808</t>
         </is>
       </c>
       <c r="F2" s="51" t="inlineStr">

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899B841B-C9B7-4EE3-857D-360D26F44E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A8B2AC-DFCB-4090-94B5-1AD5F6160B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="3960" windowWidth="15705" windowHeight="8490" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="842">
   <si>
     <t>rowid</t>
   </si>
@@ -2752,7 +2752,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2843,7 +2843,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3488,9 +3487,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AQ19"/>
+  <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4181,167 +4182,6 @@
         <v>254</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="W6" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="W7" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W9" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="W10" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W11" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="W12" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="W13" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-      <c r="W14" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="W15" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="W16" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="17" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-      <c r="W17" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>28</v>
-      </c>
-      <c r="W18" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AQ18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="4:43" x14ac:dyDescent="0.2">
-      <c r="D19" t="s">
-        <v>28</v>
-      </c>
-      <c r="W19" t="s">
-        <v>506</v>
-      </c>
-      <c r="AC19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AQ19" t="s">
         <v>357</v>
       </c>
     </row>
@@ -4659,80 +4499,80 @@
     <col min="25" max="25" width="19.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="57" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="56" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="56" t="s">
         <v>537</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="56" t="s">
         <v>607</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="56" t="s">
         <v>627</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="56" t="s">
         <v>628</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="56" t="s">
         <v>629</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="56" t="s">
         <v>630</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="56" t="s">
         <v>631</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="56" t="s">
         <v>632</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="56" t="s">
         <v>633</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="57" t="s">
+      <c r="U1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="56" t="s">
         <v>634</v>
       </c>
     </row>
@@ -5208,7 +5048,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="57" t="s">
         <v>393</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -5229,7 +5069,7 @@
       <c r="G8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="58" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -5250,16 +5090,16 @@
       <c r="N8" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="O8" s="59" t="s">
+      <c r="O8" s="58" t="s">
         <v>648</v>
       </c>
-      <c r="P8" s="59" t="s">
+      <c r="P8" s="58" t="s">
         <v>177</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="58" t="s">
         <v>26</v>
       </c>
       <c r="S8" s="10" t="s">
@@ -5277,7 +5117,7 @@
       <c r="W8" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="X8" s="58" t="s">
+      <c r="X8" s="57" t="s">
         <v>36</v>
       </c>
       <c r="Y8" s="10" t="s">
@@ -5635,10 +5475,10 @@
       <c r="I1" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="59" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="21" t="s">
@@ -6447,7 +6287,7 @@
       <c r="P3" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="Q3" s="80" t="s">
+      <c r="Q3" s="79" t="s">
         <v>710</v>
       </c>
       <c r="R3" s="1" t="s">
@@ -6489,10 +6329,10 @@
       <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="34" t="s">
@@ -6816,53 +6656,53 @@
     <col min="25" max="25" width="23.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="62" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:25" s="61" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>699</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>720</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="61" t="s">
         <v>722</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="61" t="s">
         <v>723</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="61" t="s">
         <v>724</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="61" t="s">
         <v>725</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="61" t="s">
         <v>726</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="61" t="s">
         <v>727</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="61" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -6871,16 +6711,16 @@
       <c r="R1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="62" t="s">
+      <c r="S1" s="61" t="s">
         <v>728</v>
       </c>
-      <c r="T1" s="62" t="s">
+      <c r="T1" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="62" t="s">
+      <c r="U1" s="61" t="s">
         <v>598</v>
       </c>
-      <c r="V1" s="62" t="s">
+      <c r="V1" s="61" t="s">
         <v>717</v>
       </c>
       <c r="W1" s="2" t="s">
@@ -6894,7 +6734,7 @@
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6971,7 +6811,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -6980,7 +6820,7 @@
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>736</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -7001,7 +6841,7 @@
       <c r="J3" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="K3" s="78">
+      <c r="K3" s="77">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -7010,7 +6850,7 @@
       <c r="M3" s="9" t="s">
         <v>734</v>
       </c>
-      <c r="N3" s="78">
+      <c r="N3" s="77">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
@@ -7048,7 +6888,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -7078,7 +6918,7 @@
       <c r="J4" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="77" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="15" t="s">
@@ -7215,7 +7055,7 @@
       <c r="K17" s="40"/>
       <c r="L17" s="14"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="79"/>
+      <c r="N17" s="78"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
@@ -7383,7 +7223,7 @@
       <c r="G2" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="63" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="1">
@@ -7404,7 +7244,7 @@
       <c r="N2" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="O2" s="65">
+      <c r="O2" s="64">
         <v>7125114</v>
       </c>
       <c r="P2" s="18" t="s">
@@ -7475,7 +7315,7 @@
       <c r="G3" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="63" t="s">
         <v>187</v>
       </c>
       <c r="I3" s="1">
@@ -7496,7 +7336,7 @@
       <c r="N3" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="O3" s="65">
+      <c r="O3" s="64">
         <v>7125114</v>
       </c>
       <c r="P3" s="18" t="s">
@@ -7567,7 +7407,7 @@
       <c r="G4" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="63" t="s">
         <v>187</v>
       </c>
       <c r="I4" s="1">
@@ -7588,7 +7428,7 @@
       <c r="N4" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O4" s="65">
+      <c r="O4" s="64">
         <v>7125114</v>
       </c>
       <c r="P4" s="18" t="s">
@@ -7637,11 +7477,11 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" s="66" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+    <row r="5" spans="1:48" s="65" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="66" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="67" t="s">
         <v>746</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -7650,49 +7490,49 @@
       <c r="D5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="66" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>753</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="66" t="s">
         <v>747</v>
       </c>
-      <c r="H5" s="69" t="s">
+      <c r="H5" s="68" t="s">
         <v>187</v>
       </c>
       <c r="I5" s="10">
         <v>7125114</v>
       </c>
-      <c r="J5" s="58" t="s">
+      <c r="J5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="66" t="s">
         <v>754</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="69" t="s">
         <v>527</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="70">
         <v>7125114</v>
       </c>
-      <c r="P5" s="72" t="s">
+      <c r="P5" s="71" t="s">
         <v>42</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="R5" s="73" t="s">
+      <c r="R5" s="72" t="s">
         <v>749</v>
       </c>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="73" t="s">
         <v>755</v>
       </c>
       <c r="T5" s="10" t="s">
@@ -7751,7 +7591,7 @@
       <c r="G6" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="63" t="s">
         <v>187</v>
       </c>
       <c r="I6" s="1">
@@ -7772,7 +7612,7 @@
       <c r="N6" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="O6" s="65">
+      <c r="O6" s="64">
         <v>7125114</v>
       </c>
       <c r="P6" s="18" t="s">
@@ -7843,7 +7683,7 @@
       <c r="G7" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="63" t="s">
         <v>187</v>
       </c>
       <c r="I7" s="1">
@@ -7864,7 +7704,7 @@
       <c r="N7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O7" s="65">
+      <c r="O7" s="64">
         <v>7125114</v>
       </c>
       <c r="P7" s="18" t="s">
@@ -7935,7 +7775,7 @@
       <c r="G8" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="63" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1">
@@ -7956,7 +7796,7 @@
       <c r="N8" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="64">
         <v>7125114</v>
       </c>
       <c r="P8" s="18" t="s">
@@ -8038,7 +7878,7 @@
       <c r="N9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="65">
+      <c r="O9" s="64">
         <v>7125114</v>
       </c>
       <c r="P9" s="18" t="s">
@@ -8097,7 +7937,7 @@
       <c r="N10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="65">
+      <c r="O10" s="64">
         <v>7125114</v>
       </c>
       <c r="P10" s="18" t="s">
@@ -8152,13 +7992,13 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="75"/>
+      <c r="I18" s="74"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="75"/>
+      <c r="I19" s="74"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -8170,28 +8010,28 @@
         <v>28</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="I21" s="75"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="I22" s="75"/>
+      <c r="I22" s="74"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="I23" s="75"/>
+      <c r="I23" s="74"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="I24" s="75"/>
+      <c r="I24" s="74"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8393,10 +8233,10 @@
       <c r="E2" t="s">
         <v>769</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>575</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -8449,10 +8289,10 @@
       <c r="E3" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="75" t="s">
         <v>575</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -8484,10 +8324,10 @@
       <c r="E4" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="75" t="s">
         <v>575</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -8519,10 +8359,10 @@
       <c r="E5" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>575</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="75" t="s">
         <v>575</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -8662,7 +8502,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="76" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -8695,7 +8535,7 @@
       <c r="K3" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="L3" s="65">
+      <c r="L3" s="64">
         <v>7125114</v>
       </c>
       <c r="M3" s="9" t="s">
@@ -8706,7 +8546,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -8739,7 +8579,7 @@
       <c r="K4" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="L4" s="65">
+      <c r="L4" s="64">
         <v>7125114</v>
       </c>
       <c r="M4" s="9" t="s">
@@ -8750,7 +8590,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="76" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -8783,7 +8623,7 @@
       <c r="K5" s="9" t="s">
         <v>772</v>
       </c>
-      <c r="L5" s="65">
+      <c r="L5" s="64">
         <v>7125114</v>
       </c>
       <c r="M5" s="9" t="s">
@@ -9153,7 +8993,7 @@
       <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>839</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -11522,8 +11362,8 @@
   </sheetPr>
   <dimension ref="A1:BS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11826,7 +11666,7 @@
       <c r="D2" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>841</v>
       </c>
       <c r="F2" s="51" t="s">
@@ -12677,7 +12517,9 @@
   </sheetPr>
   <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A8B2AC-DFCB-4090-94B5-1AD5F6160B6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEBAB7-E808-4DCD-9226-74699F11E1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="3960" windowWidth="15705" windowHeight="8490" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -2562,13 +2562,13 @@
     <t>CUSTSHORT11112</t>
   </si>
   <si>
-    <t>1813410</t>
-  </si>
-  <si>
     <t>CTBAAU2SXXX</t>
   </si>
   <si>
-    <t>0813410</t>
+    <t>1413932</t>
+  </si>
+  <si>
+    <t>1414010</t>
   </si>
 </sst>
 </file>
@@ -3203,7 +3203,9 @@
   </sheetPr>
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3489,7 +3491,7 @@
   </sheetPr>
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -8713,8 +8715,8 @@
   <dimension ref="A1:CP2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8994,7 +8996,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="80" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>96</v>
@@ -11362,8 +11364,8 @@
   </sheetPr>
   <dimension ref="A1:BS28"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11838,7 +11840,7 @@
         <v>387</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>96</v>
@@ -11932,7 +11934,7 @@
         <v>387</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>96</v>
@@ -12518,7 +12520,7 @@
   <dimension ref="A1:BP6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CEBAB7-E808-4DCD-9226-74699F11E1B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68826F2B-54E3-4E8C-8F86-3476BBDD129D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2568,7 +2568,7 @@
     <t>1413932</t>
   </si>
   <si>
-    <t>1414010</t>
+    <t>48</t>
   </si>
 </sst>
 </file>
@@ -2640,7 +2640,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2662,6 +2662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,7 +2758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2884,6 +2890,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11365,7 +11372,7 @@
   <dimension ref="A1:BS28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11453,7 +11460,7 @@
       <c r="D1" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="81" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="33" t="s">

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68826F2B-54E3-4E8C-8F86-3476BBDD129D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886C166-C43E-4004-99B4-4664DCCD2508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="2145" windowWidth="15705" windowHeight="8490" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="843">
   <si>
     <t>rowid</t>
   </si>
@@ -825,9 +825,6 @@
   </si>
   <si>
     <t>TL_BASE_01</t>
-  </si>
-  <si>
-    <t>\DataSet\TL_DataSet\UATDeal_BaseRate\</t>
   </si>
   <si>
     <t>FINASTRA_CCB_BASERATE_SY_GROUP1_UAT3.csv</t>
@@ -2569,6 +2566,12 @@
   </si>
   <si>
     <t>48</t>
+  </si>
+  <si>
+    <t>\DataSet\CBAUATDeal_DataSet\UATDeal_BaseRate\</t>
+  </si>
+  <si>
+    <t>\DataSet\TL_DataSet\UATDeal_BaseRate\</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2590,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2720,6 +2723,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2741,17 +2755,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2813,15 +2816,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2849,7 +2843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2860,7 +2854,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2891,6 +2885,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3540,14 +3543,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -3556,118 +3559,118 @@
         <v>5</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>534</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>570</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3678,7 +3681,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
@@ -3690,7 +3693,7 @@
         <v>40</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>256</v>
@@ -3705,13 +3708,13 @@
         <v>260</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>575</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>34</v>
@@ -3720,25 +3723,25 @@
         <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>248</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>177</v>
@@ -3750,25 +3753,25 @@
         <v>177</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>177</v>
@@ -3783,7 +3786,7 @@
         <v>177</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>177</v>
@@ -3798,7 +3801,7 @@
         <v>177</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3809,7 +3812,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -3821,7 +3824,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>257</v>
@@ -3836,13 +3839,13 @@
         <v>260</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>34</v>
@@ -3854,25 +3857,25 @@
         <v>177</v>
       </c>
       <c r="R3" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>248</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>40</v>
@@ -3881,55 +3884,55 @@
         <v>177</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>581</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>582</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AP3" s="9" t="s">
         <v>254</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3940,7 +3943,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -3952,7 +3955,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>258</v>
@@ -3961,19 +3964,19 @@
         <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>260</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>34</v>
@@ -3985,22 +3988,22 @@
         <v>177</v>
       </c>
       <c r="R4" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="V4" s="9" t="s">
         <v>248</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>177</v>
@@ -4012,25 +4015,25 @@
         <v>177</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="AF4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>177</v>
@@ -4045,13 +4048,13 @@
         <v>177</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO4" s="9" t="s">
         <v>177</v>
@@ -4060,7 +4063,7 @@
         <v>254</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4071,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -4083,7 +4086,7 @@
         <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>259</v>
@@ -4092,19 +4095,19 @@
         <v>40</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>260</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>34</v>
@@ -4116,22 +4119,22 @@
         <v>177</v>
       </c>
       <c r="R5" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>578</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>579</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>248</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>177</v>
@@ -4140,28 +4143,28 @@
         <v>40</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>581</v>
-      </c>
       <c r="AF5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>177</v>
@@ -4170,19 +4173,19 @@
         <v>40</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AO5" s="9" t="s">
         <v>177</v>
@@ -4191,7 +4194,7 @@
         <v>254</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4252,13 +4255,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>7</v>
@@ -4267,52 +4270,52 @@
         <v>14</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>278</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>608</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -4326,58 +4329,58 @@
         <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>44</v>
@@ -4386,7 +4389,7 @@
         <v>46</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -4400,58 +4403,58 @@
         <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>621</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>622</v>
-      </c>
       <c r="K3" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>614</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>615</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>619</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>44</v>
@@ -4508,81 +4511,81 @@
     <col min="25" max="25" width="19.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="56" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="53" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="53" t="s">
         <v>624</v>
       </c>
-      <c r="D1" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="E1" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="56" t="s">
+      <c r="H1" s="53" t="s">
+        <v>606</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="53" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="56" t="s">
-        <v>607</v>
-      </c>
-      <c r="I1" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="56" t="s">
+      <c r="K1" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="K1" s="56" t="s">
+      <c r="M1" s="53" t="s">
+        <v>627</v>
+      </c>
+      <c r="N1" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>631</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>632</v>
+      </c>
+      <c r="S1" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="56" t="s">
-        <v>627</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>628</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>629</v>
-      </c>
-      <c r="O1" s="56" t="s">
-        <v>630</v>
-      </c>
-      <c r="P1" s="56" t="s">
-        <v>631</v>
-      </c>
-      <c r="Q1" s="56" t="s">
-        <v>632</v>
-      </c>
-      <c r="R1" s="56" t="s">
+      <c r="T1" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="53" t="s">
         <v>633</v>
-      </c>
-      <c r="S1" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="56" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4590,10 +4593,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>636</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>40</v>
@@ -4611,7 +4614,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>187</v>
@@ -4620,25 +4623,25 @@
         <v>40</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>642</v>
-      </c>
       <c r="R2" s="12" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>40</v>
@@ -4653,7 +4656,7 @@
         <v>48</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>36</v>
@@ -4662,13 +4665,13 @@
         <v>177</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4676,10 +4679,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>644</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>645</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>40</v>
@@ -4697,7 +4700,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>187</v>
@@ -4709,22 +4712,22 @@
         <v>257</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="O3" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>648</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>649</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>40</v>
@@ -4739,7 +4742,7 @@
         <v>48</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>36</v>
@@ -4748,13 +4751,13 @@
         <v>177</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4762,10 +4765,10 @@
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>651</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>40</v>
@@ -4783,7 +4786,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>187</v>
@@ -4792,22 +4795,22 @@
         <v>40</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>642</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>196</v>
@@ -4825,7 +4828,7 @@
         <v>48</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>36</v>
@@ -4834,13 +4837,13 @@
         <v>177</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4848,10 +4851,10 @@
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>655</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>40</v>
@@ -4878,22 +4881,22 @@
         <v>40</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>26</v>
@@ -4911,33 +4914,33 @@
         <v>48</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>659</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>661</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>40</v>
@@ -4955,7 +4958,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>33</v>
@@ -4964,22 +4967,22 @@
         <v>40</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>663</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>664</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>26</v>
@@ -4997,33 +5000,33 @@
         <v>48</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Z6" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>665</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>666</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>40</v>
@@ -5041,33 +5044,33 @@
         <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
-        <v>393</v>
+      <c r="A8" s="54" t="s">
+        <v>392</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>669</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -5078,41 +5081,41 @@
       <c r="G8" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="58" t="s">
+      <c r="H8" s="55" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>200</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>670</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>647</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>672</v>
       </c>
-      <c r="N8" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="O8" s="58" t="s">
-        <v>648</v>
-      </c>
-      <c r="P8" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="R8" s="58" t="s">
+      <c r="R8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T8" s="1">
         <v>7125114</v>
@@ -5121,39 +5124,39 @@
         <v>37</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X8" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y8" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="X8" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="10" t="s">
-        <v>675</v>
-      </c>
       <c r="Z8" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB8" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>677</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -5168,37 +5171,37 @@
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>201</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>679</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>680</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="T9" s="1">
         <v>7125114</v>
@@ -5207,39 +5210,39 @@
         <v>37</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="X9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB9" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>683</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -5254,37 +5257,37 @@
         <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>200</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>177</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="T10" s="1">
         <v>7125114</v>
@@ -5293,25 +5296,25 @@
         <v>37</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>644</v>
-      </c>
       <c r="AB10" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -5470,31 +5473,31 @@
         <v>5</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>686</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>687</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>689</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>690</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>24</v>
@@ -5506,7 +5509,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
@@ -5566,7 +5569,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -5575,7 +5578,7 @@
         <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F2" s="1">
         <v>7125114</v>
@@ -5584,13 +5587,13 @@
         <v>39406.910000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>
@@ -5599,7 +5602,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>48</v>
@@ -5608,13 +5611,13 @@
         <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>693</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="40" t="s">
         <v>694</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>695</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -5710,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -5719,7 +5722,7 @@
         <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F3" s="1">
         <v>7125114</v>
@@ -5728,13 +5731,13 @@
         <v>1836.32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>30</v>
@@ -5743,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>48</v>
@@ -5752,10 +5755,10 @@
         <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5852,7 +5855,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -5861,7 +5864,7 @@
         <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F4" s="1">
         <v>7125114</v>
@@ -5870,13 +5873,13 @@
         <v>433.04</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
@@ -5885,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>48</v>
@@ -5894,10 +5897,10 @@
         <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -6146,19 +6149,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>24</v>
@@ -6167,19 +6170,19 @@
         <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -6193,7 +6196,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -6205,13 +6208,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I2" s="1">
         <v>7125114</v>
@@ -6223,25 +6226,25 @@
         <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>260</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>709</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>36</v>
@@ -6252,7 +6255,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -6264,13 +6267,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I3" s="1">
         <v>7125114</v>
@@ -6282,25 +6285,25 @@
         <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>260</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>708</v>
-      </c>
-      <c r="Q3" s="79" t="s">
-        <v>710</v>
+      <c r="Q3" s="76" t="s">
+        <v>709</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>36</v>
@@ -6332,26 +6335,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="57" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>711</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>712</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>25</v>
@@ -6360,25 +6363,25 @@
         <v>24</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>712</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>714</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>715</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>716</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6401,10 +6404,10 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>48</v>
@@ -6425,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -6451,10 +6454,10 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>48</v>
@@ -6475,7 +6478,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -6501,10 +6504,10 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>48</v>
@@ -6525,7 +6528,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -6665,53 +6668,53 @@
     <col min="25" max="25" width="23.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="61" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:25" s="58" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="61" t="s">
-        <v>699</v>
-      </c>
-      <c r="G1" s="61" t="s">
+      <c r="F1" s="58" t="s">
+        <v>698</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>719</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>720</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="I1" s="58" t="s">
         <v>721</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="J1" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="58" t="s">
         <v>722</v>
       </c>
-      <c r="J1" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="61" t="s">
+      <c r="L1" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="M1" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="N1" s="58" t="s">
         <v>725</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="O1" s="58" t="s">
         <v>726</v>
       </c>
-      <c r="O1" s="61" t="s">
-        <v>727</v>
-      </c>
-      <c r="P1" s="61" t="s">
+      <c r="P1" s="58" t="s">
         <v>16</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -6720,17 +6723,17 @@
       <c r="R1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="61" t="s">
-        <v>728</v>
-      </c>
-      <c r="T1" s="61" t="s">
+      <c r="S1" s="58" t="s">
+        <v>727</v>
+      </c>
+      <c r="T1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="61" t="s">
-        <v>598</v>
-      </c>
-      <c r="V1" s="61" t="s">
-        <v>717</v>
+      <c r="U1" s="58" t="s">
+        <v>597</v>
+      </c>
+      <c r="V1" s="58" t="s">
+        <v>716</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
@@ -6739,11 +6742,11 @@
         <v>24</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -6759,34 +6762,34 @@
         <v>31</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>732</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>733</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>40</v>
@@ -6798,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>41</v>
@@ -6816,11 +6819,11 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="59" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -6829,41 +6832,41 @@
       <c r="C3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="77" t="s">
-        <v>736</v>
+      <c r="D3" s="74" t="s">
+        <v>735</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="K3" s="74">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>733</v>
       </c>
-      <c r="K3" s="77">
+      <c r="N3" s="74">
         <v>1</v>
       </c>
-      <c r="L3" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="N3" s="77">
-        <v>1</v>
-      </c>
       <c r="O3" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>40</v>
@@ -6875,7 +6878,7 @@
         <v>37</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>41</v>
@@ -6893,11 +6896,11 @@
         <v>48</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="59" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -6913,37 +6916,37 @@
         <v>31</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="K4" s="77" t="s">
+        <v>736</v>
+      </c>
+      <c r="K4" s="74" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>36</v>
@@ -6952,7 +6955,7 @@
         <v>37</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>41</v>
@@ -6967,10 +6970,10 @@
         <v>7125114</v>
       </c>
       <c r="X4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7064,7 +7067,7 @@
       <c r="K17" s="40"/>
       <c r="L17" s="14"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="78"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
@@ -7159,13 +7162,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -7174,40 +7177,40 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>744</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7215,7 +7218,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -7227,12 +7230,12 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H2" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H2" s="60" t="s">
         <v>187</v>
       </c>
       <c r="I2" s="1">
@@ -7242,37 +7245,37 @@
         <v>48</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="O2" s="64">
+        <v>526</v>
+      </c>
+      <c r="O2" s="61">
         <v>7125114</v>
       </c>
       <c r="P2" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -7307,7 +7310,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -7319,12 +7322,12 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H3" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H3" s="60" t="s">
         <v>187</v>
       </c>
       <c r="I3" s="1">
@@ -7334,31 +7337,31 @@
         <v>48</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="O3" s="64">
+        <v>648</v>
+      </c>
+      <c r="O3" s="61">
         <v>7125114</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
@@ -7399,7 +7402,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -7411,12 +7414,12 @@
         <v>29</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H4" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H4" s="60" t="s">
         <v>187</v>
       </c>
       <c r="I4" s="1">
@@ -7426,37 +7429,37 @@
         <v>48</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O4" s="64">
+      <c r="O4" s="61">
         <v>7125114</v>
       </c>
       <c r="P4" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -7486,12 +7489,12 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
     </row>
-    <row r="5" spans="1:48" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:48" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="67" t="s">
-        <v>746</v>
+      <c r="B5" s="64" t="s">
+        <v>745</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
@@ -7499,56 +7502,56 @@
       <c r="D5" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="G5" s="66" t="s">
-        <v>747</v>
-      </c>
-      <c r="H5" s="68" t="s">
+        <v>752</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H5" s="65" t="s">
         <v>187</v>
       </c>
       <c r="I5" s="10">
         <v>7125114</v>
       </c>
-      <c r="J5" s="57" t="s">
+      <c r="J5" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="L5" s="65" t="s">
+      <c r="K5" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="L5" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="63" t="s">
+        <v>753</v>
+      </c>
+      <c r="N5" s="66" t="s">
+        <v>526</v>
+      </c>
+      <c r="O5" s="67">
+        <v>7125114</v>
+      </c>
+      <c r="P5" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="R5" s="69" t="s">
+        <v>748</v>
+      </c>
+      <c r="S5" s="70" t="s">
         <v>754</v>
-      </c>
-      <c r="N5" s="69" t="s">
-        <v>527</v>
-      </c>
-      <c r="O5" s="70">
-        <v>7125114</v>
-      </c>
-      <c r="P5" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="R5" s="72" t="s">
-        <v>749</v>
-      </c>
-      <c r="S5" s="73" t="s">
-        <v>755</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -7580,10 +7583,10 @@
     </row>
     <row r="6" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -7595,12 +7598,12 @@
         <v>29</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H6" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H6" s="60" t="s">
         <v>187</v>
       </c>
       <c r="I6" s="1">
@@ -7610,31 +7613,31 @@
         <v>48</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="O6" s="64">
+        <v>648</v>
+      </c>
+      <c r="O6" s="61">
         <v>7125114</v>
       </c>
       <c r="P6" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>750</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>751</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>26</v>
@@ -7672,10 +7675,10 @@
     </row>
     <row r="7" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -7687,12 +7690,12 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H7" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H7" s="60" t="s">
         <v>187</v>
       </c>
       <c r="I7" s="1">
@@ -7702,37 +7705,37 @@
         <v>48</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="O7" s="64">
+      <c r="O7" s="61">
         <v>7125114</v>
       </c>
       <c r="P7" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -7764,10 +7767,10 @@
     </row>
     <row r="8" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -7779,33 +7782,33 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="H8" s="63" t="s">
+        <v>746</v>
+      </c>
+      <c r="H8" s="60" t="s">
         <v>33</v>
       </c>
       <c r="I8" s="1">
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>756</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>757</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>757</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="N8" s="17" t="s">
-        <v>759</v>
-      </c>
-      <c r="O8" s="64">
+      <c r="O8" s="61">
         <v>7125114</v>
       </c>
       <c r="P8" s="18" t="s">
@@ -7846,10 +7849,10 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -7861,10 +7864,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>200</v>
@@ -7873,31 +7876,31 @@
         <v>7125114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="64">
+      <c r="O9" s="61">
         <v>7125114</v>
       </c>
       <c r="P9" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>26</v>
@@ -7905,10 +7908,10 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -7920,10 +7923,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>201</v>
@@ -7932,31 +7935,31 @@
         <v>7125114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>762</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>763</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="64">
+      <c r="O10" s="61">
         <v>7125114</v>
       </c>
       <c r="P10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>26</v>
@@ -8001,13 +8004,13 @@
       <c r="C18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="74"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="74"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
@@ -8019,28 +8022,28 @@
         <v>28</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="I21" s="74"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>28</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="I22" s="74"/>
+      <c r="I22" s="71"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="I23" s="74"/>
+      <c r="I23" s="71"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>28</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="I24" s="74"/>
+      <c r="I24" s="71"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8128,25 +8131,25 @@
         <v>5</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>763</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>768</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -8231,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -8240,22 +8243,22 @@
         <v>174</v>
       </c>
       <c r="E2" t="s">
+        <v>768</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="G2" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>771</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>772</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>26</v>
@@ -8287,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -8296,22 +8299,22 @@
         <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="F3" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="G3" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>26</v>
@@ -8322,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -8331,22 +8334,22 @@
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="G4" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>26</v>
@@ -8357,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -8366,22 +8369,22 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>574</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="F5" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="G5" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>26</v>
@@ -8439,22 +8442,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>777</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>778</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>22</v>
@@ -8471,7 +8474,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -8483,22 +8486,22 @@
         <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L2" s="1">
         <v>7125114</v>
@@ -8507,15 +8510,15 @@
         <v>48</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="73" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -8527,39 +8530,39 @@
         <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="L3" s="64">
+        <v>771</v>
+      </c>
+      <c r="L3" s="61">
         <v>7125114</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -8571,39 +8574,39 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="L4" s="64">
+        <v>771</v>
+      </c>
+      <c r="L4" s="61">
         <v>7125114</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="73" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -8615,31 +8618,31 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>779</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>780</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>781</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>782</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="L5" s="64">
+        <v>771</v>
+      </c>
+      <c r="L5" s="61">
         <v>7125114</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>48</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9002,8 +9005,8 @@
       <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F2" s="80" t="s">
-        <v>840</v>
+      <c r="F2" s="77" t="s">
+        <v>839</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>96</v>
@@ -9195,49 +9198,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>791</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>792</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>8</v>
@@ -9246,112 +9249,112 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>811</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>739</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>740</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AW1" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="AY1" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>717</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>722</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9359,7 +9362,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -9371,119 +9374,119 @@
         <v>31</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>747</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>818</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>819</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>820</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>821</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>821</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>823</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>823</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>825</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>826</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>829</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="13" t="s">
+        <v>637</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>830</v>
       </c>
-      <c r="AN2" s="13" t="s">
-        <v>638</v>
-      </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AP2" s="14" t="s">
         <v>831</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>832</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>47</v>
@@ -9498,10 +9501,10 @@
         <v>40</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>47</v>
@@ -9510,13 +9513,13 @@
         <v>42</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>26</v>
@@ -9597,211 +9600,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="FW2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="GA2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="GB2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FG2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="FW2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="FZ2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GC2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="HB2" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>838</v>
       </c>
     </row>
   </sheetData>
@@ -10964,59 +10967,61 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="41" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="41" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="41" customWidth="1"/>
+    <col min="3" max="3" width="46.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53.42578125" style="41" customWidth="1"/>
     <col min="5" max="5" width="21.7109375" style="41" customWidth="1"/>
     <col min="6" max="6" width="35.140625" style="41" customWidth="1"/>
     <col min="7" max="7" width="41.28515625" style="41" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" style="41" customWidth="1"/>
+    <col min="8" max="9" width="46.5703125" style="41" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.7109375" style="41" customWidth="1"/>
     <col min="11" max="11" width="44.140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="41.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="81" t="s">
         <v>213</v>
       </c>
     </row>
@@ -11028,34 +11033,34 @@
         <v>261</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="E2" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11066,34 +11071,34 @@
         <v>261</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>271</v>
+        <v>841</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>270</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11104,34 +11109,34 @@
         <v>261</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>272</v>
+        <v>841</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>271</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11142,110 +11147,110 @@
         <v>261</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>273</v>
+        <v>841</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>272</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>261</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>275</v>
+        <v>841</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>274</v>
       </c>
       <c r="E6" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>261</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="D7" s="45" t="s">
-        <v>277</v>
+        <v>841</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>276</v>
       </c>
       <c r="E7" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="39" t="s">
+        <v>841</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>269</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -11273,10 +11278,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="28" t="s">
@@ -11286,7 +11291,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11303,7 +11308,7 @@
         <v>174</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11320,7 +11325,7 @@
         <v>191</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11337,7 +11342,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11354,7 +11359,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -11371,7 +11376,7 @@
   </sheetPr>
   <dimension ref="A1:BS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -11455,411 +11460,411 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>281</v>
-      </c>
-      <c r="E1" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>282</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AS1" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="AS1" s="47" t="s">
+      <c r="AT1" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AU1" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="AU1" s="48" t="s">
+      <c r="AV1" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="AV1" s="48" t="s">
+      <c r="AW1" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="AW1" s="48" t="s">
+      <c r="AX1" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="AX1" s="48" t="s">
+      <c r="AY1" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="AY1" s="48" t="s">
+      <c r="AZ1" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="AZ1" s="48" t="s">
+      <c r="BA1" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="BA1" s="48" t="s">
+      <c r="BB1" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="BB1" s="48" t="s">
+      <c r="BC1" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="BC1" s="48" t="s">
+      <c r="BD1" s="45" t="s">
         <v>330</v>
       </c>
-      <c r="BD1" s="48" t="s">
+      <c r="BE1" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="BE1" s="49" t="s">
+      <c r="BF1" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="BF1" s="48" t="s">
+      <c r="BG1" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="BG1" s="48" t="s">
+      <c r="BH1" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="BH1" s="48" t="s">
+      <c r="BI1" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="BI1" s="48" t="s">
+      <c r="BJ1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="BJ1" s="48" t="s">
+      <c r="BK1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="BK1" s="48" t="s">
+      <c r="BL1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="BL1" s="48" t="s">
+      <c r="BM1" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="BM1" s="48" t="s">
+      <c r="BN1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="BN1" s="48" t="s">
+      <c r="BO1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="BO1" s="48" t="s">
+      <c r="BP1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="BP1" s="48" t="s">
+      <c r="BQ1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="BQ1" s="48" t="s">
+      <c r="BR1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="BR1" s="48" t="s">
+      <c r="BS1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="BS1" s="48" t="s">
+    </row>
+    <row r="2" spans="1:71" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="47" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="2" spans="1:71" s="50" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>347</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>840</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>348</v>
       </c>
-      <c r="E2" s="80" t="s">
-        <v>841</v>
-      </c>
-      <c r="F2" s="51" t="s">
+      <c r="G2" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="H2" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="L2" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M2" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="N2" s="49" t="s">
+        <v>355</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="P2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q2" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="R2" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="S2" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="T2" s="49" t="s">
+        <v>361</v>
+      </c>
+      <c r="U2" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="V2" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="X2" s="49" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y2" s="49" t="s">
+        <v>365</v>
+      </c>
+      <c r="Z2" s="49" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA2" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC2" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD2" s="49" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE2" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF2" s="49" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG2" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="AH2" s="49" t="s">
+        <v>372</v>
+      </c>
+      <c r="AI2" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="AJ2" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="AL2" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM2" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="M2" s="52" t="s">
-        <v>355</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>356</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="P2" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q2" s="52" t="s">
+      <c r="AN2" s="49" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO2" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="AP2" s="49" t="s">
+        <v>377</v>
+      </c>
+      <c r="AQ2" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="AR2" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="R2" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="S2" s="52" t="s">
-        <v>361</v>
-      </c>
-      <c r="T2" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="U2" s="52" t="s">
-        <v>363</v>
-      </c>
-      <c r="V2" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="52" t="s">
-        <v>359</v>
-      </c>
-      <c r="X2" s="52" t="s">
-        <v>365</v>
-      </c>
-      <c r="Y2" s="52" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z2" s="52" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA2" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD2" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="AE2" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="AF2" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="AG2" s="52" t="s">
-        <v>372</v>
-      </c>
-      <c r="AH2" s="52" t="s">
-        <v>373</v>
-      </c>
-      <c r="AI2" s="52" t="s">
-        <v>374</v>
-      </c>
-      <c r="AJ2" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="AK2" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL2" s="52" t="s">
-        <v>376</v>
-      </c>
-      <c r="AM2" s="52" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN2" s="52" t="s">
-        <v>375</v>
-      </c>
-      <c r="AO2" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="AP2" s="52" t="s">
+      <c r="AS2" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="AQ2" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="AR2" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS2" s="52" t="s">
+      <c r="AT2" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="AT2" s="52" t="s">
+      <c r="AU2" s="49" t="s">
         <v>380</v>
       </c>
-      <c r="AU2" s="52" t="s">
+      <c r="AV2" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="AV2" s="50" t="s">
+      <c r="AW2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AW2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX2" s="51" t="s">
+      <c r="AY2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC2" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="51" t="s">
+      <c r="BD2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE2" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="BF2" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AZ2" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA2" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB2" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC2" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BD2" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BE2" s="54" t="s">
+      <c r="BG2" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH2" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="BF2" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG2" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH2" s="51" t="s">
+      <c r="BI2" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="BI2" s="51" t="s">
-        <v>387</v>
-      </c>
       <c r="BJ2" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL2" s="51"/>
-      <c r="BM2" s="51"/>
-      <c r="BN2" s="51"/>
-      <c r="BO2" s="51" t="s">
+      <c r="BL2" s="48"/>
+      <c r="BM2" s="48"/>
+      <c r="BN2" s="48"/>
+      <c r="BO2" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="BP2" s="47" t="s">
         <v>388</v>
-      </c>
-      <c r="BP2" s="50" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
@@ -11867,16 +11872,16 @@
         <v>50</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
@@ -11884,10 +11889,10 @@
         <v>194</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>96</v>
@@ -11897,94 +11902,94 @@
       <c r="A5" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AU5" s="52" t="s">
-        <v>381</v>
-      </c>
-      <c r="AV5" s="50" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW5" s="50" t="s">
+      <c r="AU5" s="49" t="s">
+        <v>380</v>
+      </c>
+      <c r="AV5" s="47" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW5" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="AX5" s="51" t="s">
+      <c r="AX5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD5" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AY5" s="51" t="s">
+      <c r="BE5" s="51"/>
+      <c r="BF5" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AZ5" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA5" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB5" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC5" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD5" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG5" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH5" s="51" t="s">
+      <c r="BG5" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH5" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BI5" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="BI5" s="51" t="s">
-        <v>387</v>
-      </c>
       <c r="BJ5" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL5" s="51"/>
-      <c r="BM5" s="51"/>
-      <c r="BN5" s="51"/>
-      <c r="BO5" s="51" t="s">
+      <c r="BL5" s="48"/>
+      <c r="BM5" s="48"/>
+      <c r="BN5" s="48"/>
+      <c r="BO5" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="BP5" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="BP5" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="BQ5" s="50"/>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50"/>
+      <c r="BQ5" s="47"/>
+      <c r="BR5" s="47"/>
+      <c r="BS5" s="47"/>
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="AV6" s="50" t="s">
-        <v>392</v>
+        <v>273</v>
+      </c>
+      <c r="AV6" s="47" t="s">
+        <v>391</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="AV7" s="50" t="s">
-        <v>392</v>
+        <v>275</v>
+      </c>
+      <c r="AV7" s="47" t="s">
+        <v>391</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>96</v>
@@ -11992,98 +11997,98 @@
     </row>
     <row r="8" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="AU8" s="49" t="s">
         <v>393</v>
       </c>
-      <c r="AU8" s="52" t="s">
+      <c r="AV8" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="47" t="s">
         <v>395</v>
       </c>
-      <c r="AW8" s="50" t="s">
+      <c r="AX8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC8" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE8" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="AX8" s="51" t="s">
+      <c r="BF8" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AY8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC8" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BD8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BE8" s="54" t="s">
+      <c r="BG8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH8" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BI8" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ8" s="48" t="s">
         <v>397</v>
-      </c>
-      <c r="BF8" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG8" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH8" s="51" t="s">
-        <v>386</v>
-      </c>
-      <c r="BI8" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="BJ8" s="51" t="s">
-        <v>398</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL8" s="51"/>
-      <c r="BM8" s="51"/>
-      <c r="BN8" s="51"/>
-      <c r="BO8" s="51" t="s">
+      <c r="BL8" s="48"/>
+      <c r="BM8" s="48"/>
+      <c r="BN8" s="48"/>
+      <c r="BO8" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="BP8" s="47" t="s">
         <v>388</v>
       </c>
-      <c r="BP8" s="50" t="s">
-        <v>389</v>
-      </c>
-      <c r="BQ8" s="50"/>
-      <c r="BR8" s="50"/>
-      <c r="BS8" s="50"/>
+      <c r="BQ8" s="47"/>
+      <c r="BR8" s="47"/>
+      <c r="BS8" s="47"/>
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>96</v>
@@ -12091,91 +12096,91 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AU11" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV11" s="47" t="s">
         <v>402</v>
       </c>
-      <c r="AU11" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV11" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="AW11" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="AX11" s="51" t="s">
+      <c r="AW11" s="47" t="s">
+        <v>395</v>
+      </c>
+      <c r="AX11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD11" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AY11" s="51" t="s">
+      <c r="BE11" s="51"/>
+      <c r="BF11" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AZ11" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA11" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB11" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC11" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD11" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BE11" s="54"/>
-      <c r="BF11" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG11" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH11" s="51" t="s">
+      <c r="BG11" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH11" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BI11" s="48" t="s">
         <v>386</v>
       </c>
-      <c r="BI11" s="51" t="s">
+      <c r="BJ11" s="48" t="s">
+        <v>397</v>
+      </c>
+      <c r="BK11" s="48"/>
+      <c r="BL11" s="48"/>
+      <c r="BM11" s="48"/>
+      <c r="BN11" s="48"/>
+      <c r="BO11" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="BJ11" s="51" t="s">
-        <v>398</v>
-      </c>
-      <c r="BK11" s="51"/>
-      <c r="BL11" s="51"/>
-      <c r="BM11" s="51"/>
-      <c r="BN11" s="51"/>
-      <c r="BO11" s="51" t="s">
+      <c r="BP11" s="47" t="s">
         <v>388</v>
-      </c>
-      <c r="BP11" s="50" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="AV12" s="50" t="s">
         <v>403</v>
       </c>
+      <c r="AV12" s="47" t="s">
+        <v>402</v>
+      </c>
       <c r="BI12" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AV13" s="50" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="AV13" s="47" t="s">
+        <v>402</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>96</v>
@@ -12183,79 +12188,79 @@
     </row>
     <row r="14" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU14" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="AU14" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="47" t="s">
         <v>407</v>
       </c>
-      <c r="AW14" s="50" t="s">
+      <c r="AX14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC14" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="BD14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE14" s="51" t="s">
         <v>408</v>
       </c>
-      <c r="AX14" s="51" t="s">
+      <c r="BF14" s="48" t="s">
         <v>383</v>
       </c>
-      <c r="AY14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC14" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BD14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BE14" s="54" t="s">
+      <c r="BG14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH14" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="BF14" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG14" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH14" s="51" t="s">
+      <c r="BI14" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="BI14" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BL14" s="51"/>
-      <c r="BM14" s="51" t="s">
-        <v>412</v>
-      </c>
-      <c r="BN14" s="51"/>
-      <c r="BO14" s="51"/>
-      <c r="BP14" s="50"/>
+      <c r="BL14" s="48"/>
+      <c r="BM14" s="48" t="s">
+        <v>411</v>
+      </c>
+      <c r="BN14" s="48"/>
+      <c r="BO14" s="48"/>
+      <c r="BP14" s="47"/>
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>96</v>
@@ -12263,16 +12268,16 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI16" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>96</v>
@@ -12280,19 +12285,19 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI17" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="AV17" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BG17" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BI17" s="1" t="s">
+      <c r="BJ17" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="BJ17" s="1" t="s">
-        <v>417</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>96</v>
@@ -12300,71 +12305,71 @@
     </row>
     <row r="18" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="BI18" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BJ18" s="48" t="s">
         <v>418</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BI18" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="BJ18" s="51" t="s">
-        <v>419</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BO18" s="51" t="s">
+      <c r="BO18" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="BP18" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="BP18" s="1" t="s">
+      <c r="BS18" s="52" t="s">
         <v>421</v>
-      </c>
-      <c r="BS18" s="55" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI19" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="AV19" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BG19" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>424</v>
-      </c>
       <c r="BJ19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>96</v>
@@ -12372,36 +12377,36 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>96</v>
@@ -12409,107 +12414,107 @@
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="AU23" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AV23" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="AU23" s="52" t="s">
-        <v>394</v>
-      </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AY23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="AZ23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BA23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BB23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BC23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD23" s="48" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="BI23" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BK23" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="AX23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="AY23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="AZ23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BA23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BB23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BC23" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD23" s="51" t="s">
-        <v>384</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="BI23" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="BK23" s="1" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="BK24" s="1" t="s">
         <v>432</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="BG25" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK25" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BO26" s="51" t="s">
-        <v>420</v>
+        <v>385</v>
+      </c>
+      <c r="BO26" s="48" t="s">
+        <v>419</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -12606,199 +12611,199 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>439</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>440</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>442</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>443</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="34" t="s">
+        <v>443</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AR1" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AS1" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="AS1" s="34" t="s">
+      <c r="AT1" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="AT1" s="34" t="s">
+      <c r="AU1" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="AU1" s="34" t="s">
+      <c r="AV1" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="AV1" s="34" t="s">
+      <c r="AW1" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="AW1" s="34" t="s">
+      <c r="AX1" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="AX1" s="34" t="s">
+      <c r="AY1" s="34" t="s">
         <v>484</v>
-      </c>
-      <c r="AY1" s="34" t="s">
-        <v>485</v>
       </c>
       <c r="AZ1" s="34" t="s">
         <v>239</v>
       </c>
       <c r="BA1" s="34" t="s">
+        <v>485</v>
+      </c>
+      <c r="BB1" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BE1" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="BE1" s="34" t="s">
+      <c r="BF1" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BG1" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="BG1" s="34" t="s">
+      <c r="BH1" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="BH1" s="34" t="s">
+      <c r="BI1" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BJ1" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="BJ1" s="34" t="s">
+      <c r="BK1" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BL1" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BM1" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BN1" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BO1" s="34" t="s">
         <v>499</v>
-      </c>
-      <c r="BO1" s="34" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -12806,46 +12811,46 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>248</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>248</v>
@@ -12854,7 +12859,7 @@
         <v>254</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>253</v>
@@ -12863,10 +12868,10 @@
         <v>48</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>512</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>260</v>
@@ -12878,55 +12883,55 @@
         <v>260</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>514</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>515</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>197</v>
       </c>
       <c r="AI2" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN2" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>522</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>178</v>
@@ -12935,19 +12940,19 @@
         <v>198</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>34</v>
@@ -12962,31 +12967,31 @@
         <v>48</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="BD2" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="BF2" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="BE2" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>525</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>526</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>183</v>
       </c>
       <c r="BI2" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BK2" s="9" t="s">
         <v>528</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>529</v>
       </c>
       <c r="BL2" s="9" t="s">
         <v>34</v>
@@ -12995,13 +13000,13 @@
         <v>248</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BO2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
@@ -13009,58 +13014,58 @@
         <v>50</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>200</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
@@ -13071,34 +13076,34 @@
         <v>33</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
@@ -13109,72 +13114,72 @@
         <v>201</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7886C166-C43E-4004-99B4-4664DCCD2508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC8E0F8-AEC9-4718-B56E-A21228B1C03A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="2145" windowWidth="15705" windowHeight="8490" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="843">
   <si>
     <t>rowid</t>
   </si>
@@ -690,9 +690,6 @@
   </si>
   <si>
     <t>TL_FXRATES_01</t>
-  </si>
-  <si>
-    <t>\DataSet\TL_DataSet\UATDeal_FXRate\</t>
   </si>
   <si>
     <t>FINASTRA_CCB_FX_NY_1UAT3.csv</t>
@@ -2572,6 +2569,9 @@
   </si>
   <si>
     <t>\DataSet\TL_DataSet\UATDeal_BaseRate\</t>
+  </si>
+  <si>
+    <t>\DataSet\CBAUATDeal_DataSet\UATDeal_FXRate\</t>
   </si>
 </sst>
 </file>
@@ -3550,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>2</v>
@@ -3559,118 +3559,118 @@
         <v>5</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>533</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>534</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>536</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>538</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>539</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>541</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>543</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>544</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>545</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>546</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>547</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>548</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>549</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>550</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>569</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3681,7 +3681,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>28</v>
@@ -3693,28 +3693,28 @@
         <v>40</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>574</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>34</v>
@@ -3723,25 +3723,25 @@
         <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="T2" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="V2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>177</v>
@@ -3753,25 +3753,25 @@
         <v>177</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>177</v>
@@ -3786,7 +3786,7 @@
         <v>177</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>177</v>
@@ -3801,7 +3801,7 @@
         <v>177</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -3824,28 +3824,28 @@
         <v>40</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>34</v>
@@ -3857,25 +3857,25 @@
         <v>177</v>
       </c>
       <c r="R3" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="T3" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="T3" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="V3" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>40</v>
@@ -3884,55 +3884,55 @@
         <v>177</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>580</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>581</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3943,7 +3943,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -3955,28 +3955,28 @@
         <v>40</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>590</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>34</v>
@@ -3988,22 +3988,22 @@
         <v>177</v>
       </c>
       <c r="R4" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="V4" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>177</v>
@@ -4015,25 +4015,25 @@
         <v>177</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>580</v>
-      </c>
       <c r="AF4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>177</v>
@@ -4048,22 +4048,22 @@
         <v>177</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO4" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4074,7 +4074,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>28</v>
@@ -4086,28 +4086,28 @@
         <v>40</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>40</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>34</v>
@@ -4119,22 +4119,22 @@
         <v>177</v>
       </c>
       <c r="R5" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="T5" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="U5" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>578</v>
-      </c>
       <c r="V5" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>177</v>
@@ -4143,28 +4143,28 @@
         <v>40</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>580</v>
-      </c>
       <c r="AF5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>177</v>
@@ -4173,28 +4173,28 @@
         <v>40</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AO5" s="9" t="s">
         <v>177</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4255,13 +4255,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>7</v>
@@ -4270,52 +4270,52 @@
         <v>14</v>
       </c>
       <c r="I1" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>596</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>597</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>598</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>599</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>600</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>603</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>604</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>605</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>606</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>607</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -4329,58 +4329,58 @@
         <v>28</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>617</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>618</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>44</v>
@@ -4389,7 +4389,7 @@
         <v>46</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -4403,58 +4403,58 @@
         <v>28</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>174</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>40</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>620</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>621</v>
-      </c>
       <c r="K3" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>42</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T3" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>617</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>618</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>44</v>
@@ -4519,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>2</v>
@@ -4531,40 +4531,40 @@
         <v>5</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I1" s="53" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K1" s="53" t="s">
         <v>16</v>
       </c>
       <c r="L1" s="53" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" s="53" t="s">
         <v>626</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="53" t="s">
         <v>627</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="53" t="s">
         <v>629</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>630</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>631</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>632</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>16</v>
@@ -4585,7 +4585,7 @@
         <v>10</v>
       </c>
       <c r="Y1" s="53" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4593,10 +4593,10 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>634</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>635</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>40</v>
@@ -4614,7 +4614,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>187</v>
@@ -4623,25 +4623,25 @@
         <v>40</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>641</v>
-      </c>
       <c r="R2" s="12" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>40</v>
@@ -4656,7 +4656,7 @@
         <v>48</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>36</v>
@@ -4665,13 +4665,13 @@
         <v>177</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4679,10 +4679,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>40</v>
@@ -4700,7 +4700,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>187</v>
@@ -4709,25 +4709,25 @@
         <v>40</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>639</v>
-      </c>
       <c r="O3" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>647</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>648</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>40</v>
@@ -4742,7 +4742,7 @@
         <v>48</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>36</v>
@@ -4751,13 +4751,13 @@
         <v>177</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4765,10 +4765,10 @@
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>649</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>650</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>40</v>
@@ -4786,7 +4786,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>187</v>
@@ -4795,22 +4795,22 @@
         <v>40</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>640</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>641</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>196</v>
@@ -4828,7 +4828,7 @@
         <v>48</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>36</v>
@@ -4837,13 +4837,13 @@
         <v>177</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -4851,10 +4851,10 @@
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>654</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>40</v>
@@ -4881,22 +4881,22 @@
         <v>40</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>656</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>657</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>26</v>
@@ -4914,33 +4914,33 @@
         <v>48</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>660</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>40</v>
@@ -4958,7 +4958,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>33</v>
@@ -4967,22 +4967,22 @@
         <v>40</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>662</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>663</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>26</v>
@@ -5000,33 +5000,33 @@
         <v>48</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Z6" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>40</v>
@@ -5044,33 +5044,33 @@
         <v>29</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>668</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>28</v>
@@ -5085,37 +5085,37 @@
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>200</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>669</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>646</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>671</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>647</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>672</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T8" s="1">
         <v>7125114</v>
@@ -5124,39 +5124,39 @@
         <v>37</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X8" s="54" t="s">
         <v>36</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB8" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>676</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>28</v>
@@ -5171,37 +5171,37 @@
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>201</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>678</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>679</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T9" s="1">
         <v>7125114</v>
@@ -5210,39 +5210,39 @@
         <v>37</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="X9" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB9" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>680</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>682</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>28</v>
@@ -5257,37 +5257,37 @@
         <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>200</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>177</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>26</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="T10" s="1">
         <v>7125114</v>
@@ -5296,25 +5296,25 @@
         <v>37</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>36</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>643</v>
-      </c>
       <c r="AB10" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5473,19 +5473,19 @@
         <v>5</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>686</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>687</v>
       </c>
       <c r="J1" s="56" t="s">
         <v>3</v>
@@ -5494,10 +5494,10 @@
         <v>4</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>687</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>688</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>689</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>24</v>
@@ -5509,7 +5509,7 @@
         <v>11</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
@@ -5569,7 +5569,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -5578,7 +5578,7 @@
         <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F2" s="1">
         <v>7125114</v>
@@ -5587,13 +5587,13 @@
         <v>39406.910000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>30</v>
@@ -5602,7 +5602,7 @@
         <v>26</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>48</v>
@@ -5611,13 +5611,13 @@
         <v>36</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>692</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="40" t="s">
         <v>693</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>694</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -5713,7 +5713,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -5722,7 +5722,7 @@
         <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F3" s="1">
         <v>7125114</v>
@@ -5731,13 +5731,13 @@
         <v>1836.32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>30</v>
@@ -5746,7 +5746,7 @@
         <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>48</v>
@@ -5755,10 +5755,10 @@
         <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -5855,7 +5855,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -5864,7 +5864,7 @@
         <v>174</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F4" s="1">
         <v>7125114</v>
@@ -5873,13 +5873,13 @@
         <v>433.04</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>30</v>
@@ -5888,7 +5888,7 @@
         <v>50</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>48</v>
@@ -5897,10 +5897,10 @@
         <v>36</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -6149,19 +6149,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>24</v>
@@ -6170,19 +6170,19 @@
         <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -6196,7 +6196,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -6208,13 +6208,13 @@
         <v>31</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I2" s="1">
         <v>7125114</v>
@@ -6226,25 +6226,25 @@
         <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>708</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>36</v>
@@ -6255,7 +6255,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -6267,13 +6267,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I3" s="1">
         <v>7125114</v>
@@ -6285,25 +6285,25 @@
         <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O3" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="P3" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>707</v>
-      </c>
       <c r="Q3" s="76" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>36</v>
@@ -6351,10 +6351,10 @@
         <v>22</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>709</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>710</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>711</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>25</v>
@@ -6363,25 +6363,25 @@
         <v>24</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>711</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>712</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>713</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>714</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>715</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -6404,10 +6404,10 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>48</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>46</v>
@@ -6454,10 +6454,10 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>48</v>
@@ -6478,7 +6478,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>46</v>
@@ -6504,10 +6504,10 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>48</v>
@@ -6528,7 +6528,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>46</v>
@@ -6685,34 +6685,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G1" s="58" t="s">
+        <v>718</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>719</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>720</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>721</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="58" t="s">
+        <v>721</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>722</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>723</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="58" t="s">
         <v>724</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="O1" s="58" t="s">
         <v>725</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>726</v>
       </c>
       <c r="P1" s="58" t="s">
         <v>16</v>
@@ -6724,16 +6724,16 @@
         <v>11</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="T1" s="58" t="s">
         <v>15</v>
       </c>
       <c r="U1" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="V1" s="58" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
@@ -6742,7 +6742,7 @@
         <v>24</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6762,34 +6762,34 @@
         <v>31</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>729</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>732</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>40</v>
@@ -6801,7 +6801,7 @@
         <v>37</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>41</v>
@@ -6819,7 +6819,7 @@
         <v>48</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6833,40 +6833,40 @@
         <v>28</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>732</v>
       </c>
       <c r="K3" s="74">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N3" s="74">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>40</v>
@@ -6878,7 +6878,7 @@
         <v>37</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>41</v>
@@ -6896,7 +6896,7 @@
         <v>48</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6916,37 +6916,37 @@
         <v>31</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K4" s="74" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>36</v>
@@ -6955,7 +6955,7 @@
         <v>37</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>41</v>
@@ -6970,10 +6970,10 @@
         <v>7125114</v>
       </c>
       <c r="X4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -7162,13 +7162,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -7177,40 +7177,40 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7218,7 +7218,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -7230,10 +7230,10 @@
         <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H2" s="60" t="s">
         <v>187</v>
@@ -7245,16 +7245,16 @@
         <v>48</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O2" s="61">
         <v>7125114</v>
@@ -7263,19 +7263,19 @@
         <v>42</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -7310,7 +7310,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -7322,10 +7322,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>187</v>
@@ -7337,16 +7337,16 @@
         <v>48</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O3" s="61">
         <v>7125114</v>
@@ -7355,19 +7355,19 @@
         <v>42</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -7402,7 +7402,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -7414,10 +7414,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>187</v>
@@ -7429,13 +7429,13 @@
         <v>48</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>196</v>
@@ -7447,19 +7447,19 @@
         <v>42</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -7494,7 +7494,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>28</v>
@@ -7506,10 +7506,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>187</v>
@@ -7521,16 +7521,16 @@
         <v>48</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>40</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O5" s="67">
         <v>7125114</v>
@@ -7539,19 +7539,19 @@
         <v>42</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R5" s="69" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -7583,10 +7583,10 @@
     </row>
     <row r="6" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>28</v>
@@ -7598,10 +7598,10 @@
         <v>29</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>187</v>
@@ -7613,16 +7613,16 @@
         <v>48</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O6" s="61">
         <v>7125114</v>
@@ -7631,19 +7631,19 @@
         <v>42</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -7675,10 +7675,10 @@
     </row>
     <row r="7" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>28</v>
@@ -7690,10 +7690,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>187</v>
@@ -7705,13 +7705,13 @@
         <v>48</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>196</v>
@@ -7723,19 +7723,19 @@
         <v>42</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -7767,10 +7767,10 @@
     </row>
     <row r="8" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>28</v>
@@ -7782,10 +7782,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>33</v>
@@ -7794,19 +7794,19 @@
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>754</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>40</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>757</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>758</v>
       </c>
       <c r="O8" s="61">
         <v>7125114</v>
@@ -7849,10 +7849,10 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>28</v>
@@ -7864,10 +7864,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>200</v>
@@ -7876,16 +7876,16 @@
         <v>7125114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>26</v>
@@ -7897,10 +7897,10 @@
         <v>42</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>26</v>
@@ -7908,10 +7908,10 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -7923,10 +7923,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>201</v>
@@ -7935,16 +7935,16 @@
         <v>7125114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>761</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>762</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>26</v>
@@ -7956,10 +7956,10 @@
         <v>42</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>26</v>
@@ -8131,25 +8131,25 @@
         <v>5</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>766</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>767</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -8234,7 +8234,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -8243,22 +8243,22 @@
         <v>174</v>
       </c>
       <c r="E2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>770</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>771</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>26</v>
@@ -8290,7 +8290,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -8299,22 +8299,22 @@
         <v>191</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>26</v>
@@ -8325,7 +8325,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -8334,22 +8334,22 @@
         <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>26</v>
@@ -8360,7 +8360,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -8369,22 +8369,22 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>573</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>768</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>574</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>769</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>26</v>
@@ -8442,22 +8442,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>775</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>776</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>777</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>22</v>
@@ -8474,7 +8474,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -8486,22 +8486,22 @@
         <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L2" s="1">
         <v>7125114</v>
@@ -8510,7 +8510,7 @@
         <v>48</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8518,7 +8518,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>28</v>
@@ -8530,22 +8530,22 @@
         <v>191</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L3" s="61">
         <v>7125114</v>
@@ -8554,7 +8554,7 @@
         <v>48</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
         <v>194</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>28</v>
@@ -8574,22 +8574,22 @@
         <v>51</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L4" s="61">
         <v>7125114</v>
@@ -8598,7 +8598,7 @@
         <v>48</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8606,7 +8606,7 @@
         <v>197</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
@@ -8618,22 +8618,22 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>180</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>781</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L5" s="61">
         <v>7125114</v>
@@ -8642,7 +8642,7 @@
         <v>48</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9006,7 +9006,7 @@
         <v>96</v>
       </c>
       <c r="F2" s="77" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>96</v>
@@ -9198,49 +9198,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>8</v>
@@ -9249,112 +9249,112 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>744</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>810</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>738</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>739</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AW1" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="AY1" s="7" t="s">
-        <v>710</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9362,7 +9362,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>28</v>
@@ -9374,119 +9374,119 @@
         <v>31</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>746</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>817</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>818</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>818</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>820</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>822</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>823</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>824</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>825</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="12" t="s">
         <v>827</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="13" t="s">
+        <v>636</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>829</v>
       </c>
-      <c r="AN2" s="13" t="s">
-        <v>637</v>
-      </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AP2" s="14" t="s">
         <v>830</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>831</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>47</v>
@@ -9501,10 +9501,10 @@
         <v>40</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>47</v>
@@ -9513,13 +9513,13 @@
         <v>42</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>26</v>
@@ -9600,211 +9600,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="FW2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="GA2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="GB2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="FG2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="FW2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="FZ2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="GC2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="HB2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -10659,7 +10659,9 @@
   </sheetPr>
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10731,37 +10733,37 @@
         <v>216</v>
       </c>
       <c r="C2" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="39" t="s">
+        <v>842</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>225</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>226</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>40</v>
@@ -10816,67 +10818,67 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -10905,52 +10907,52 @@
         <v>34</v>
       </c>
       <c r="I2" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="J2" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="K2" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="M2" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="R2" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" s="30" t="s">
-        <v>249</v>
-      </c>
-      <c r="R2" s="30" t="s">
+      <c r="S2" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="T2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="U2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="V2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="W2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X2" s="40" t="s">
         <v>259</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="40" t="s">
-        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -10967,7 +10969,7 @@
   </sheetPr>
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -11030,37 +11032,37 @@
         <v>26</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="D2" s="42" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="E2" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="39" t="s">
-        <v>842</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -11068,37 +11070,37 @@
         <v>50</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E3" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="H3" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="J3" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="L3" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -11106,37 +11108,37 @@
         <v>194</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E4" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="G4" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="H4" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H4" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="I4" s="18" t="s">
+      <c r="J4" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="K4" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="L4" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -11144,113 +11146,113 @@
         <v>197</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E5" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="H5" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="K5" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="L5" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="D6" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>274</v>
-      </c>
       <c r="E6" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="I6" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="D7" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>276</v>
-      </c>
       <c r="E7" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H7" s="39" t="s">
+        <v>840</v>
+      </c>
+      <c r="I7" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="H7" s="39" t="s">
-        <v>841</v>
-      </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="18" t="s">
         <v>268</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -11291,7 +11293,7 @@
         <v>5</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -11308,7 +11310,7 @@
         <v>174</v>
       </c>
       <c r="E2" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -11325,7 +11327,7 @@
         <v>191</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -11342,7 +11344,7 @@
         <v>51</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -11359,7 +11361,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -11460,211 +11462,211 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>57</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>287</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>295</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>297</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AS1" s="44" t="s">
         <v>318</v>
       </c>
-      <c r="AS1" s="44" t="s">
+      <c r="AT1" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AU1" s="45" t="s">
         <v>320</v>
       </c>
-      <c r="AU1" s="45" t="s">
+      <c r="AV1" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="AV1" s="45" t="s">
+      <c r="AW1" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="AW1" s="45" t="s">
+      <c r="AX1" s="45" t="s">
         <v>323</v>
       </c>
-      <c r="AX1" s="45" t="s">
+      <c r="AY1" s="45" t="s">
         <v>324</v>
       </c>
-      <c r="AY1" s="45" t="s">
+      <c r="AZ1" s="45" t="s">
         <v>325</v>
       </c>
-      <c r="AZ1" s="45" t="s">
+      <c r="BA1" s="45" t="s">
         <v>326</v>
       </c>
-      <c r="BA1" s="45" t="s">
+      <c r="BB1" s="45" t="s">
         <v>327</v>
       </c>
-      <c r="BB1" s="45" t="s">
+      <c r="BC1" s="45" t="s">
         <v>328</v>
       </c>
-      <c r="BC1" s="45" t="s">
+      <c r="BD1" s="45" t="s">
         <v>329</v>
       </c>
-      <c r="BD1" s="45" t="s">
+      <c r="BE1" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="BE1" s="46" t="s">
+      <c r="BF1" s="45" t="s">
         <v>331</v>
       </c>
-      <c r="BF1" s="45" t="s">
+      <c r="BG1" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="BG1" s="45" t="s">
+      <c r="BH1" s="45" t="s">
         <v>333</v>
       </c>
-      <c r="BH1" s="45" t="s">
+      <c r="BI1" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="BI1" s="45" t="s">
+      <c r="BJ1" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="BJ1" s="45" t="s">
+      <c r="BK1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="BK1" s="45" t="s">
+      <c r="BL1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="BL1" s="45" t="s">
+      <c r="BM1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="BM1" s="45" t="s">
+      <c r="BN1" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="BN1" s="45" t="s">
+      <c r="BO1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="BO1" s="45" t="s">
+      <c r="BP1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="BP1" s="45" t="s">
+      <c r="BQ1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="BQ1" s="45" t="s">
+      <c r="BR1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="BR1" s="45" t="s">
+      <c r="BS1" s="45" t="s">
         <v>344</v>
-      </c>
-      <c r="BS1" s="45" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -11672,82 +11674,82 @@
         <v>26</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="77" t="s">
+        <v>839</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="E2" s="77" t="s">
-        <v>840</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>348</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>349</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>350</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>351</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>352</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="L2" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="49" t="s">
         <v>353</v>
       </c>
-      <c r="L2" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="49" t="s">
+      <c r="N2" s="49" t="s">
         <v>354</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="O2" s="47" t="s">
         <v>355</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="P2" s="49" t="s">
         <v>356</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="Q2" s="49" t="s">
         <v>357</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>358</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="S2" s="49" t="s">
         <v>359</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="T2" s="49" t="s">
         <v>360</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="U2" s="49" t="s">
         <v>361</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="V2" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="W2" s="49" t="s">
+        <v>357</v>
+      </c>
+      <c r="X2" s="49" t="s">
         <v>363</v>
       </c>
-      <c r="W2" s="49" t="s">
-        <v>358</v>
-      </c>
-      <c r="X2" s="49" t="s">
+      <c r="Y2" s="49" t="s">
         <v>364</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Z2" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="AA2" s="49" t="s">
         <v>366</v>
-      </c>
-      <c r="AA2" s="49" t="s">
-        <v>367</v>
       </c>
       <c r="AB2" s="49" t="s">
         <v>104</v>
@@ -11756,103 +11758,103 @@
         <v>104</v>
       </c>
       <c r="AD2" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE2" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AF2" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AG2" s="49" t="s">
         <v>370</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AH2" s="49" t="s">
         <v>371</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AI2" s="49" t="s">
         <v>372</v>
-      </c>
-      <c r="AI2" s="49" t="s">
-        <v>373</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>101</v>
       </c>
       <c r="AK2" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="AL2" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="AL2" s="49" t="s">
+      <c r="AM2" s="49" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN2" s="49" t="s">
+        <v>373</v>
+      </c>
+      <c r="AO2" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="AM2" s="49" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN2" s="49" t="s">
-        <v>374</v>
-      </c>
-      <c r="AO2" s="49" t="s">
+      <c r="AP2" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AQ2" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="AR2" s="49" t="s">
+        <v>358</v>
+      </c>
+      <c r="AS2" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="AQ2" s="49" t="s">
-        <v>376</v>
-      </c>
-      <c r="AR2" s="49" t="s">
-        <v>359</v>
-      </c>
-      <c r="AS2" s="49" t="s">
+      <c r="AT2" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="AT2" s="49" t="s">
+      <c r="AU2" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="AU2" s="49" t="s">
+      <c r="AV2" s="47" t="s">
         <v>380</v>
-      </c>
-      <c r="AV2" s="47" t="s">
-        <v>381</v>
       </c>
       <c r="AW2" s="47" t="s">
         <v>40</v>
       </c>
       <c r="AX2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AY2" s="48" t="s">
+      <c r="BD2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE2" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AZ2" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA2" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB2" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC2" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD2" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BG2" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH2" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="BF2" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BG2" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH2" s="48" t="s">
+      <c r="BI2" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="BI2" s="48" t="s">
-        <v>386</v>
-      </c>
       <c r="BJ2" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>96</v>
@@ -11861,10 +11863,10 @@
       <c r="BM2" s="48"/>
       <c r="BN2" s="48"/>
       <c r="BO2" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP2" s="47" t="s">
         <v>387</v>
-      </c>
-      <c r="BP2" s="47" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
@@ -11872,16 +11874,16 @@
         <v>50</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
@@ -11889,10 +11891,10 @@
         <v>194</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>96</v>
@@ -11903,50 +11905,50 @@
         <v>197</v>
       </c>
       <c r="AU5" s="49" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AV5" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AW5" s="47" t="s">
         <v>40</v>
       </c>
       <c r="AX5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC5" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD5" s="48" t="s">
         <v>382</v>
-      </c>
-      <c r="AY5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC5" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD5" s="48" t="s">
-        <v>383</v>
       </c>
       <c r="BE5" s="51"/>
       <c r="BF5" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG5" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH5" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI5" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="BI5" s="48" t="s">
-        <v>386</v>
-      </c>
       <c r="BJ5" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>96</v>
@@ -11955,10 +11957,10 @@
       <c r="BM5" s="48"/>
       <c r="BN5" s="48"/>
       <c r="BO5" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP5" s="47" t="s">
         <v>387</v>
-      </c>
-      <c r="BP5" s="47" t="s">
-        <v>388</v>
       </c>
       <c r="BQ5" s="47"/>
       <c r="BR5" s="47"/>
@@ -11966,30 +11968,30 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AV6" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AV7" s="47" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>96</v>
@@ -11997,55 +11999,55 @@
     </row>
     <row r="8" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="AU8" s="49" t="s">
         <v>392</v>
       </c>
-      <c r="AU8" s="49" t="s">
+      <c r="AV8" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="47" t="s">
         <v>394</v>
       </c>
-      <c r="AW8" s="47" t="s">
+      <c r="AX8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC8" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE8" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="AX8" s="48" t="s">
+      <c r="BF8" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AY8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC8" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BE8" s="51" t="s">
+      <c r="BG8" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH8" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI8" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ8" s="48" t="s">
         <v>396</v>
-      </c>
-      <c r="BF8" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BG8" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH8" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="BI8" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="BJ8" s="48" t="s">
-        <v>397</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>96</v>
@@ -12054,10 +12056,10 @@
       <c r="BM8" s="48"/>
       <c r="BN8" s="48"/>
       <c r="BO8" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP8" s="47" t="s">
         <v>387</v>
-      </c>
-      <c r="BP8" s="47" t="s">
-        <v>388</v>
       </c>
       <c r="BQ8" s="47"/>
       <c r="BR8" s="47"/>
@@ -12065,30 +12067,30 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>96</v>
@@ -12096,91 +12098,91 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AU11" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV11" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="AU11" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV11" s="47" t="s">
-        <v>402</v>
-      </c>
       <c r="AW11" s="47" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AX11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC11" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD11" s="48" t="s">
         <v>382</v>
-      </c>
-      <c r="AY11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC11" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD11" s="48" t="s">
-        <v>383</v>
       </c>
       <c r="BE11" s="51"/>
       <c r="BF11" s="48" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="BG11" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH11" s="48" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI11" s="48" t="s">
         <v>385</v>
       </c>
-      <c r="BI11" s="48" t="s">
-        <v>386</v>
-      </c>
       <c r="BJ11" s="48" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
       <c r="BM11" s="48"/>
       <c r="BN11" s="48"/>
       <c r="BO11" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="BP11" s="47" t="s">
         <v>387</v>
-      </c>
-      <c r="BP11" s="47" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AV12" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV13" s="47" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>96</v>
@@ -12188,62 +12190,62 @@
     </row>
     <row r="14" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AU14" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="AU14" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="47" t="s">
         <v>406</v>
       </c>
-      <c r="AW14" s="47" t="s">
+      <c r="AX14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC14" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BD14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BE14" s="51" t="s">
         <v>407</v>
       </c>
-      <c r="AX14" s="48" t="s">
+      <c r="BF14" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="AY14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC14" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BD14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BE14" s="51" t="s">
+      <c r="BG14" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH14" s="48" t="s">
         <v>408</v>
       </c>
-      <c r="BF14" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BG14" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH14" s="48" t="s">
+      <c r="BI14" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="BI14" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BL14" s="48"/>
       <c r="BM14" s="48" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BN14" s="48"/>
       <c r="BO14" s="48"/>
@@ -12251,16 +12253,16 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>96</v>
@@ -12268,16 +12270,16 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI16" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>96</v>
@@ -12285,19 +12287,19 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI17" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="AV17" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BG17" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BI17" s="1" t="s">
+      <c r="BJ17" s="1" t="s">
         <v>415</v>
-      </c>
-      <c r="BJ17" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>96</v>
@@ -12305,71 +12307,71 @@
     </row>
     <row r="18" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="BI18" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BJ18" s="48" t="s">
         <v>417</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="BI18" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="BJ18" s="48" t="s">
-        <v>418</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BO18" s="48" t="s">
+        <v>418</v>
+      </c>
+      <c r="BP18" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="BP18" s="1" t="s">
+      <c r="BS18" s="52" t="s">
         <v>420</v>
-      </c>
-      <c r="BS18" s="52" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI19" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="AV19" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="BG19" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="BJ19" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>96</v>
@@ -12377,36 +12379,36 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>96</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>96</v>
@@ -12414,107 +12416,107 @@
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="AU23" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="AV23" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="AU23" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="AX23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AY23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="AZ23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BA23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BB23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BC23" s="48" t="s">
+        <v>381</v>
+      </c>
+      <c r="BD23" s="48" t="s">
+        <v>382</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="BI23" s="48" t="s">
+        <v>385</v>
+      </c>
+      <c r="BK23" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="AX23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AY23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="AZ23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BA23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BB23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BC23" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="BD23" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="BI23" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="BK23" s="1" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="BK24" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="BG25" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="BK25" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BO26" s="48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -12611,199 +12613,199 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>438</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>439</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>441</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>442</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>443</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>445</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>454</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>456</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>458</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AR1" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AS1" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="AS1" s="34" t="s">
+      <c r="AT1" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="AT1" s="34" t="s">
+      <c r="AU1" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="AU1" s="34" t="s">
+      <c r="AV1" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="AV1" s="34" t="s">
+      <c r="AW1" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="AW1" s="34" t="s">
+      <c r="AX1" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="AX1" s="34" t="s">
+      <c r="AY1" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="AY1" s="34" t="s">
+      <c r="AZ1" s="34" t="s">
+        <v>238</v>
+      </c>
+      <c r="BA1" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="AZ1" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="BA1" s="34" t="s">
+      <c r="BB1" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BE1" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="BE1" s="34" t="s">
+      <c r="BF1" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BG1" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="BG1" s="34" t="s">
+      <c r="BH1" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="BH1" s="34" t="s">
+      <c r="BI1" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BJ1" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="BJ1" s="34" t="s">
+      <c r="BK1" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BL1" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BM1" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BN1" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BO1" s="34" t="s">
         <v>498</v>
-      </c>
-      <c r="BO1" s="34" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -12811,127 +12813,127 @@
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>502</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>507</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="S2" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="W2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="Z2" s="9" t="s">
+      <c r="AA2" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>187</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>197</v>
       </c>
       <c r="AI2" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN2" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>178</v>
@@ -12940,73 +12942,73 @@
         <v>198</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AY2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BB2" s="9" t="s">
         <v>48</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="BD2" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="BF2" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="BE2" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BG2" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>525</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>183</v>
       </c>
       <c r="BI2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="BJ2" s="9" t="s">
+      <c r="BK2" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="BL2" s="9" t="s">
         <v>34</v>
       </c>
       <c r="BM2" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BO2" s="9" t="s">
         <v>36</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
@@ -13014,58 +13016,58 @@
         <v>50</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>200</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>521</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>179</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
@@ -13076,34 +13078,34 @@
         <v>33</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
@@ -13114,72 +13116,72 @@
         <v>201</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>197</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>520</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -3,29 +3,30 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="2" activeTab="8" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="9795" yWindow="4320" windowWidth="15705" windowHeight="8490" tabRatio="600" firstSheet="3" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED08_FacilityFeeSetup" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FXRates_Fields" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_Primaries" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BaseRate_Fields" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitmentFee" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01A_LoanDrawdown" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV18_FeeOnLenderSharesPayment" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_Payments" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_CommitmentFeePayment" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_Paperclip" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08C_ComprehensiveRepricing" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH05_ExtendFacility" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_UpfrontFee" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COM06_LoanMerge" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding (2)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV40_BreakFunding" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED08_FacilityFeeSetup" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FXRates_Fields" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_Primaries" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BaseRate_Fields" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CommitmentFee" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ORIG03_Customer" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01A_LoanDrawdown" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV18_FeeOnLenderSharesPayment" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_Payments" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_CommitmentFeePayment" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV23_Paperclip" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV08C_ComprehensiveRepricing" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AMCH05_ExtendFacility" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_UpfrontFee" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COM06_LoanMerge" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -97,6 +98,11 @@
       <color indexed="30"/>
       <sz val="10"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="6">
@@ -215,9 +221,9 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -350,6 +356,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,435 +667,553 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:CP2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="9" min="1" max="1"/>
-    <col width="12.42578125" customWidth="1" style="9" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="9" min="3" max="3"/>
-    <col width="5.42578125" customWidth="1" style="9" min="4" max="4"/>
-    <col width="11.28515625" customWidth="1" style="9" min="5" max="5"/>
-    <col width="25.140625" customWidth="1" style="9" min="6" max="6"/>
-    <col width="11" customWidth="1" style="9" min="7" max="7"/>
-    <col width="14.5703125" customWidth="1" style="9" min="8" max="8"/>
-    <col width="31.28515625" customWidth="1" style="9" min="9" max="9"/>
-    <col width="20.42578125" customWidth="1" style="9" min="10" max="10"/>
-    <col width="29.85546875" customWidth="1" style="9" min="11" max="11"/>
-    <col width="40.7109375" customWidth="1" style="9" min="12" max="12"/>
-    <col width="36.28515625" customWidth="1" style="9" min="13" max="13"/>
-    <col width="34.140625" customWidth="1" style="9" min="14" max="14"/>
-    <col width="9.140625" customWidth="1" style="9" min="15" max="15"/>
-    <col width="18.140625" customWidth="1" style="9" min="16" max="16"/>
-    <col width="14.85546875" customWidth="1" style="9" min="17" max="17"/>
-    <col width="14.7109375" customWidth="1" style="9" min="18" max="18"/>
-    <col width="21" customWidth="1" style="9" min="19" max="19"/>
-    <col width="28" customWidth="1" style="9" min="20" max="20"/>
-    <col width="21.42578125" customWidth="1" style="9" min="21" max="21"/>
-    <col width="27.140625" customWidth="1" style="9" min="22" max="22"/>
-    <col width="20.85546875" customWidth="1" style="9" min="23" max="23"/>
-    <col width="31.28515625" customWidth="1" style="9" min="24" max="24"/>
-    <col width="22.140625" customWidth="1" style="9" min="25" max="25"/>
-    <col width="22.85546875" customWidth="1" style="9" min="26" max="26"/>
+    <col width="6.140625" customWidth="1" style="83" min="1" max="1"/>
+    <col width="41.85546875" customWidth="1" style="83" min="2" max="2"/>
+    <col width="53" customWidth="1" style="83" min="3" max="3"/>
+    <col width="24" customWidth="1" style="83" min="4" max="4"/>
+    <col width="42.28515625" customWidth="1" style="83" min="5" max="5"/>
+    <col width="8.5703125" customWidth="1" style="83" min="6" max="6"/>
+    <col width="31.7109375" customWidth="1" style="83" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" style="83" min="8" max="8"/>
+    <col width="16.7109375" customWidth="1" style="83" min="9" max="9"/>
+    <col width="11.140625" customWidth="1" style="83" min="10" max="10"/>
+    <col width="46.5703125" customWidth="1" style="83" min="11" max="11"/>
+    <col width="15" customWidth="1" style="83" min="12" max="12"/>
+    <col width="19.140625" customWidth="1" style="83" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="83" min="14" max="14"/>
+    <col width="13.28515625" customWidth="1" style="83" min="15" max="15"/>
+    <col width="23" customWidth="1" style="83" min="16" max="17"/>
+    <col width="20" customWidth="1" style="83" min="18" max="18"/>
+    <col width="28.5703125" customWidth="1" style="83" min="19" max="19"/>
+    <col width="15.28515625" customWidth="1" style="83" min="20" max="20"/>
+    <col width="14.42578125" customWidth="1" style="83" min="21" max="21"/>
+    <col width="15.5703125" customWidth="1" style="83" min="22" max="24"/>
+    <col width="13.7109375" customWidth="1" style="83" min="25" max="25"/>
+    <col width="15.5703125" customWidth="1" style="83" min="26" max="26"/>
+    <col width="10.5703125" customWidth="1" style="83" min="27" max="27"/>
+    <col width="35.42578125" customWidth="1" style="83" min="28" max="28"/>
+    <col width="15.28515625" customWidth="1" style="83" min="29" max="29"/>
+    <col width="10.42578125" customWidth="1" style="83" min="30" max="30"/>
+    <col width="14.85546875" customWidth="1" style="83" min="31" max="31"/>
+    <col width="19.7109375" customWidth="1" style="83" min="32" max="32"/>
+    <col width="14" customWidth="1" style="83" min="33" max="33"/>
+    <col width="14.42578125" customWidth="1" style="83" min="34" max="34"/>
+    <col width="20.7109375" customWidth="1" style="83" min="35" max="35"/>
+    <col width="13.85546875" customWidth="1" style="83" min="36" max="36"/>
+    <col width="10" customWidth="1" style="83" min="37" max="37"/>
+    <col width="38.28515625" customWidth="1" style="83" min="38" max="38"/>
+    <col width="21.140625" customWidth="1" style="83" min="39" max="39"/>
+    <col width="24.28515625" customWidth="1" style="83" min="40" max="40"/>
+    <col width="18.42578125" customWidth="1" style="83" min="41" max="41"/>
+    <col width="28.85546875" customWidth="1" style="83" min="42" max="42"/>
+    <col width="14.28515625" customWidth="1" style="83" min="43" max="43"/>
+    <col width="23" customWidth="1" style="83" min="44" max="44"/>
+    <col width="19.85546875" customWidth="1" style="83" min="45" max="48"/>
+    <col width="24.7109375" customWidth="1" style="83" min="49" max="50"/>
+    <col width="25" customWidth="1" style="83" min="51" max="51"/>
+    <col width="24.42578125" customWidth="1" style="83" min="52" max="52"/>
+    <col width="30.42578125" customWidth="1" style="83" min="53" max="53"/>
+    <col width="36" customWidth="1" style="83" min="54" max="54"/>
+    <col width="34.42578125" customWidth="1" style="83" min="55" max="55"/>
+    <col width="26.7109375" customWidth="1" style="83" min="56" max="56"/>
+    <col width="17.28515625" customWidth="1" style="83" min="57" max="58"/>
+    <col width="34.140625" customWidth="1" style="83" min="59" max="59"/>
+    <col width="28.42578125" customWidth="1" style="83" min="60" max="60"/>
+    <col width="24.7109375" customWidth="1" style="83" min="61" max="61"/>
+    <col width="30.28515625" customWidth="1" style="83" min="62" max="62"/>
+    <col width="17.5703125" customWidth="1" style="83" min="63" max="63"/>
+    <col width="20.28515625" customWidth="1" style="83" min="64" max="64"/>
+    <col width="12.140625" customWidth="1" style="83" min="65" max="65"/>
+    <col width="21.42578125" customWidth="1" style="83" min="66" max="66"/>
+    <col width="24.140625" customWidth="1" style="83" min="67" max="67"/>
+    <col width="16" customWidth="1" style="83" min="68" max="68"/>
+    <col width="14" customWidth="1" style="83" min="69" max="69"/>
+    <col width="16.7109375" customWidth="1" style="83" min="70" max="70"/>
+    <col width="10.42578125" customWidth="1" style="83" min="71" max="71"/>
+    <col width="37.7109375" customWidth="1" style="83" min="72" max="72"/>
+    <col width="16.7109375" customWidth="1" style="83" min="73" max="74"/>
+    <col width="20.140625" customWidth="1" style="83" min="75" max="77"/>
+    <col width="17.7109375" customWidth="1" style="83" min="78" max="78"/>
+    <col width="24.5703125" customWidth="1" style="83" min="79" max="79"/>
+    <col width="19.42578125" customWidth="1" style="83" min="80" max="82"/>
+    <col width="21.140625" customWidth="1" style="83" min="83" max="83"/>
+    <col width="32.42578125" customWidth="1" style="83" min="84" max="84"/>
+    <col width="17.28515625" customWidth="1" style="83" min="85" max="86"/>
+    <col width="17.5703125" customWidth="1" style="83" min="87" max="89"/>
+    <col width="26.28515625" customWidth="1" style="83" min="90" max="90"/>
+    <col width="35" customWidth="1" style="83" min="91" max="91"/>
+    <col width="26.5703125" customWidth="1" style="83" min="92" max="92"/>
+    <col width="24.85546875" customWidth="1" style="83" min="93" max="93"/>
+    <col width="20" customWidth="1" style="83" min="94" max="94"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="26" thickBot="1">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" customFormat="1" s="82">
+      <c r="A1" s="32" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="20" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E1" s="20" t="inlineStr">
-        <is>
-          <t>Search_By</t>
-        </is>
-      </c>
-      <c r="F1" s="27" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="G1" s="27" t="inlineStr">
-        <is>
-          <t>Loan_Alias</t>
-        </is>
-      </c>
-      <c r="H1" s="20" t="inlineStr">
-        <is>
-          <t>Pricing_Option</t>
-        </is>
-      </c>
-      <c r="I1" s="20" t="inlineStr">
-        <is>
-          <t>Legal_Entity</t>
-        </is>
-      </c>
-      <c r="J1" s="20" t="inlineStr">
-        <is>
-          <t>Legal_Entity_Amount</t>
-        </is>
-      </c>
-      <c r="K1" s="20" t="inlineStr">
-        <is>
-          <t>HostBankSharePct</t>
-        </is>
-      </c>
-      <c r="L1" s="27" t="inlineStr">
-        <is>
-          <t>Host_Bank</t>
-        </is>
-      </c>
-      <c r="M1" s="27" t="inlineStr">
-        <is>
-          <t>Expense_Code</t>
-        </is>
-      </c>
-      <c r="N1" s="20" t="inlineStr">
-        <is>
-          <t>Pricing_Option_From_Breakfunding</t>
-        </is>
-      </c>
-      <c r="O1" s="20" t="inlineStr">
-        <is>
-          <t>Currency</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Remittance_Status</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>Notice_Status</t>
-        </is>
-      </c>
-      <c r="S1" s="28" t="inlineStr">
-        <is>
-          <t>WIP_TransactionType</t>
-        </is>
-      </c>
-      <c r="T1" s="28" t="inlineStr">
-        <is>
-          <t>WIP_AwaitingApprovalStatus</t>
-        </is>
-      </c>
-      <c r="U1" s="28" t="inlineStr">
-        <is>
-          <t>WIP_OutstandingType</t>
-        </is>
-      </c>
-      <c r="V1" s="28" t="inlineStr">
-        <is>
-          <t>WIP_AwaitingReleaseStatus</t>
-        </is>
-      </c>
-      <c r="W1" s="29" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="X1" s="29" t="inlineStr">
-        <is>
-          <t>Lender_ShortName</t>
-        </is>
-      </c>
-      <c r="Y1" s="29" t="inlineStr">
-        <is>
-          <t>Remittance_Instruction</t>
-        </is>
-      </c>
-      <c r="Z1" s="29" t="inlineStr">
-        <is>
-          <t>Remittance_Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="9">
-      <c r="A2" s="15" t="inlineStr">
+      <c r="C1" s="34" t="inlineStr">
+        <is>
+          <t>Enterprise_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="34" t="inlineStr">
+        <is>
+          <t>AutoGen_EnterpriseName</t>
+        </is>
+      </c>
+      <c r="E1" s="34" t="inlineStr">
+        <is>
+          <t>Enterprise_Prefix</t>
+        </is>
+      </c>
+      <c r="F1" s="34" t="inlineStr">
+        <is>
+          <t>Party_ID</t>
+        </is>
+      </c>
+      <c r="G1" s="34" t="inlineStr">
+        <is>
+          <t>Short_Name</t>
+        </is>
+      </c>
+      <c r="H1" s="34" t="inlineStr">
+        <is>
+          <t>Locality</t>
+        </is>
+      </c>
+      <c r="I1" s="34" t="inlineStr">
+        <is>
+          <t>Branch_Code</t>
+        </is>
+      </c>
+      <c r="J1" s="34" t="inlineStr">
+        <is>
+          <t>Party_Type</t>
+        </is>
+      </c>
+      <c r="K1" s="34" t="inlineStr">
+        <is>
+          <t>Party_Sub_Type</t>
+        </is>
+      </c>
+      <c r="L1" s="34" t="inlineStr">
+        <is>
+          <t>Party_Category</t>
+        </is>
+      </c>
+      <c r="M1" s="34" t="inlineStr">
+        <is>
+          <t>Registered_Number</t>
+        </is>
+      </c>
+      <c r="N1" s="34" t="inlineStr">
+        <is>
+          <t>Country_of_Tax_Domicile</t>
+        </is>
+      </c>
+      <c r="O1" s="34" t="inlineStr">
+        <is>
+          <t>Date_Formed</t>
+        </is>
+      </c>
+      <c r="P1" s="34" t="inlineStr">
+        <is>
+          <t>Country_of_Registration</t>
+        </is>
+      </c>
+      <c r="Q1" s="34" t="inlineStr">
+        <is>
+          <t>Business_Country</t>
+        </is>
+      </c>
+      <c r="R1" s="34" t="inlineStr">
+        <is>
+          <t>Industry_Sector</t>
+        </is>
+      </c>
+      <c r="S1" s="34" t="inlineStr">
+        <is>
+          <t>Business_Activity</t>
+        </is>
+      </c>
+      <c r="T1" s="34" t="inlineStr">
+        <is>
+          <t>Business_Focus</t>
+        </is>
+      </c>
+      <c r="U1" s="34" t="inlineStr">
+        <is>
+          <t>Business_Type</t>
+        </is>
+      </c>
+      <c r="V1" s="34" t="inlineStr">
+        <is>
+          <t>Is_Main_Activity</t>
+        </is>
+      </c>
+      <c r="W1" s="34" t="inlineStr">
+        <is>
+          <t>Is_Primary_Activity</t>
+        </is>
+      </c>
+      <c r="X1" s="34" t="inlineStr">
+        <is>
+          <t>GSTID</t>
+        </is>
+      </c>
+      <c r="Y1" s="34" t="inlineStr">
+        <is>
+          <t>Address_Type</t>
+        </is>
+      </c>
+      <c r="Z1" s="34" t="inlineStr">
+        <is>
+          <t>Country_Region</t>
+        </is>
+      </c>
+      <c r="AA1" s="34" t="inlineStr">
+        <is>
+          <t>Post_Code</t>
+        </is>
+      </c>
+      <c r="AB1" s="34" t="inlineStr">
+        <is>
+          <t>Address_Line_1</t>
+        </is>
+      </c>
+      <c r="AC1" s="34" t="inlineStr">
+        <is>
+          <t>Address_Line_2</t>
+        </is>
+      </c>
+      <c r="AD1" s="34" t="inlineStr">
+        <is>
+          <t>Town_City</t>
+        </is>
+      </c>
+      <c r="AE1" s="34" t="inlineStr">
+        <is>
+          <t>State_Province</t>
+        </is>
+      </c>
+      <c r="AF1" s="34" t="inlineStr">
+        <is>
+          <t>Email_Contact_Type</t>
+        </is>
+      </c>
+      <c r="AG1" s="34" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="AH1" s="34" t="inlineStr">
+        <is>
+          <t>Confirm_Email</t>
+        </is>
+      </c>
+      <c r="AI1" s="34" t="inlineStr">
+        <is>
+          <t>Mobile_Contact_Type</t>
+        </is>
+      </c>
+      <c r="AJ1" s="34" t="inlineStr">
+        <is>
+          <t>Country_Code</t>
+        </is>
+      </c>
+      <c r="AK1" s="34" t="inlineStr">
+        <is>
+          <t>Number</t>
+        </is>
+      </c>
+      <c r="AL1" s="34" t="inlineStr">
+        <is>
+          <t>Document_Collection_Status</t>
+        </is>
+      </c>
+      <c r="AM1" s="34" t="inlineStr">
+        <is>
+          <t>Selected_Module</t>
+        </is>
+      </c>
+      <c r="AN1" s="34" t="inlineStr">
+        <is>
+          <t>Task_ID_from_Supervisor</t>
+        </is>
+      </c>
+      <c r="AO1" s="34" t="inlineStr">
+        <is>
+          <t>Task_ID_from_User</t>
+        </is>
+      </c>
+      <c r="AP1" s="34" t="n"/>
+      <c r="AQ1" s="34" t="n"/>
+      <c r="AR1" s="34" t="n"/>
+      <c r="AS1" s="34" t="n"/>
+      <c r="AT1" s="34" t="n"/>
+      <c r="AU1" s="34" t="n"/>
+      <c r="AV1" s="34" t="n"/>
+      <c r="AW1" s="34" t="n"/>
+      <c r="AX1" s="34" t="n"/>
+      <c r="AY1" s="34" t="n"/>
+      <c r="AZ1" s="34" t="n"/>
+      <c r="BA1" s="34" t="n"/>
+      <c r="BB1" s="34" t="n"/>
+      <c r="BC1" s="34" t="n"/>
+      <c r="BD1" s="34" t="n"/>
+      <c r="BE1" s="34" t="n"/>
+      <c r="BF1" s="34" t="n"/>
+      <c r="BG1" s="34" t="n"/>
+      <c r="BH1" s="34" t="n"/>
+      <c r="BI1" s="34" t="n"/>
+      <c r="BJ1" s="34" t="n"/>
+      <c r="BK1" s="34" t="n"/>
+      <c r="BL1" s="34" t="n"/>
+      <c r="BM1" s="34" t="n"/>
+      <c r="BN1" s="34" t="n"/>
+      <c r="BO1" s="34" t="n"/>
+      <c r="BP1" s="34" t="n"/>
+      <c r="BQ1" s="34" t="n"/>
+      <c r="BR1" s="34" t="n"/>
+      <c r="BS1" s="34" t="n"/>
+      <c r="BT1" s="34" t="n"/>
+      <c r="BU1" s="34" t="n"/>
+      <c r="BV1" s="34" t="n"/>
+      <c r="BW1" s="34" t="n"/>
+      <c r="BX1" s="34" t="n"/>
+      <c r="BY1" s="34" t="n"/>
+      <c r="BZ1" s="34" t="n"/>
+      <c r="CA1" s="34" t="n"/>
+      <c r="CB1" s="34" t="n"/>
+      <c r="CC1" s="34" t="n"/>
+      <c r="CD1" s="34" t="n"/>
+      <c r="CE1" s="34" t="n"/>
+      <c r="CF1" s="34" t="n"/>
+      <c r="CG1" s="34" t="n"/>
+      <c r="CH1" s="34" t="n"/>
+      <c r="CI1" s="34" t="n"/>
+      <c r="CJ1" s="34" t="n"/>
+      <c r="CK1" s="34" t="n"/>
+      <c r="CL1" s="34" t="n"/>
+      <c r="CM1" s="34" t="n"/>
+      <c r="CN1" s="34" t="n"/>
+      <c r="CO1" s="34" t="n"/>
+      <c r="CP1" s="34" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>CBA_UAT_03</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>UAT3_05092020131214</t>
-        </is>
-      </c>
-      <c r="D2" s="30" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="E2" s="30" t="inlineStr">
-        <is>
-          <t>Deal/Facility</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>TCAF_08102019155309PPE</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>60000090</t>
-        </is>
-      </c>
-      <c r="H2" s="30" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="I2" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="J2" s="9" t="inlineStr">
-        <is>
-          <t>2,000</t>
+      <c r="B2" s="83" t="inlineStr">
+        <is>
+          <t>Create Quick Party Onboarding for CBA UAT Deal 2 - PTY001</t>
+        </is>
+      </c>
+      <c r="C2" s="83" t="inlineStr">
+        <is>
+          <t>MNC COMPANY LTD1215112</t>
+        </is>
+      </c>
+      <c r="D2" s="83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E2" s="83" t="inlineStr">
+        <is>
+          <t>MNC COMPANY LTD</t>
+        </is>
+      </c>
+      <c r="F2" s="83" t="n">
+        <v>7125114</v>
+      </c>
+      <c r="G2" s="83" t="inlineStr">
+        <is>
+          <t>MNC COMPANY LTD</t>
+        </is>
+      </c>
+      <c r="H2" s="11" t="inlineStr">
+        <is>
+          <t>Local Private</t>
+        </is>
+      </c>
+      <c r="I2" s="11" t="inlineStr">
+        <is>
+          <t>00000001</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>Enterprise</t>
         </is>
       </c>
       <c r="K2" s="30" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L2" s="9" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/NR_COL</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="inlineStr">
-        <is>
-          <t>RE_RES-Real Estate Solutions</t>
-        </is>
-      </c>
-      <c r="N2" s="30" t="inlineStr">
-        <is>
-          <t>BBSY</t>
-        </is>
-      </c>
-      <c r="O2" s="30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="P2" s="30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q2" s="30" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="R2" s="30" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="S2" s="9" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="inlineStr">
-        <is>
-          <t>Awaiting Approval</t>
-        </is>
-      </c>
-      <c r="U2" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Break Cost Fee </t>
-        </is>
-      </c>
-      <c r="V2" s="18" t="inlineStr">
-        <is>
-          <t>Awaiting Release</t>
-        </is>
-      </c>
-      <c r="W2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT57117</t>
-        </is>
-      </c>
-      <c r="X2" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="Y2" s="15" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="Z2" s="9" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3211</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="9">
-      <c r="A3" s="15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" s="9" t="inlineStr">
-        <is>
-          <t>CBA_UAT_03</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>UAT3_05092020131214</t>
-        </is>
-      </c>
-      <c r="D3" s="30" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="E3" s="30" t="inlineStr">
-        <is>
-          <t>Deal/Facility</t>
-        </is>
-      </c>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>SCAF_08102019154546PJL</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>06000214</t>
-        </is>
-      </c>
-      <c r="H3" s="30" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="I3" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="J3" s="9" t="inlineStr">
-        <is>
-          <t>1,000</t>
-        </is>
-      </c>
-      <c r="K3" s="30" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>CB001/Hold for Investment - Australia/NR_COL</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>RE_RES-Real Estate Solutions</t>
-        </is>
-      </c>
-      <c r="N3" s="30" t="inlineStr">
-        <is>
-          <t>BBSY</t>
-        </is>
-      </c>
-      <c r="O3" s="30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="P3" s="30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="Q3" s="30" t="inlineStr">
-        <is>
-          <t>Approved</t>
-        </is>
-      </c>
-      <c r="R3" s="30" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="S3" s="9" t="inlineStr">
-        <is>
-          <t>Payments</t>
-        </is>
-      </c>
-      <c r="T3" s="9" t="inlineStr">
-        <is>
-          <t>Awaiting Approval</t>
-        </is>
-      </c>
-      <c r="U3" s="9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Break Cost Fee </t>
-        </is>
-      </c>
-      <c r="V3" s="18" t="inlineStr">
-        <is>
-          <t>Awaiting Release</t>
-        </is>
-      </c>
-      <c r="W3" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT57117</t>
-        </is>
-      </c>
-      <c r="X3" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="Y3" s="15" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="Z3" s="9" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3211</t>
+          <t>Unlisted Company, Foreign Public Company Registered with ASIC</t>
+        </is>
+      </c>
+      <c r="L2" s="11" t="inlineStr">
+        <is>
+          <t>Full</t>
+        </is>
+      </c>
+      <c r="M2" s="83" t="inlineStr">
+        <is>
+          <t>1014001</t>
+        </is>
+      </c>
+      <c r="N2" s="11" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="O2" s="22" t="inlineStr">
+        <is>
+          <t>2015-04-06</t>
+        </is>
+      </c>
+      <c r="P2" s="22" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="Q2" s="22" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="R2" s="11" t="inlineStr">
+        <is>
+          <t>Electricity, Gas and Water Supply</t>
+        </is>
+      </c>
+      <c r="S2" s="11" t="inlineStr">
+        <is>
+          <t>Gas Supply</t>
+        </is>
+      </c>
+      <c r="T2" s="11" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="U2" s="11" t="inlineStr">
+        <is>
+          <t>Affinity</t>
+        </is>
+      </c>
+      <c r="V2" s="11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="W2" s="11" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="X2" s="11" t="inlineStr">
+        <is>
+          <t>10075843210</t>
+        </is>
+      </c>
+      <c r="Y2" s="11" t="inlineStr">
+        <is>
+          <t>Legal Address</t>
+        </is>
+      </c>
+      <c r="Z2" s="11" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="AA2" s="23" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="AB2" s="11" t="inlineStr">
+        <is>
+          <t>LOWER GRND FL SHOP 11 213 PITT ST</t>
+        </is>
+      </c>
+      <c r="AC2" s="11" t="n"/>
+      <c r="AD2" s="24" t="inlineStr">
+        <is>
+          <t>SYDNEY</t>
+        </is>
+      </c>
+      <c r="AE2" s="24" t="inlineStr">
+        <is>
+          <t>New South Wales</t>
+        </is>
+      </c>
+      <c r="AF2" s="24" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="AG2" s="25" t="inlineStr">
+        <is>
+          <t>evrl3@test.com</t>
+        </is>
+      </c>
+      <c r="AH2" s="25" t="inlineStr">
+        <is>
+          <t>evrl3@test.com</t>
+        </is>
+      </c>
+      <c r="AI2" s="24" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="AJ2" s="24" t="inlineStr">
+        <is>
+          <t>+61</t>
+        </is>
+      </c>
+      <c r="AK2" s="24" t="inlineStr">
+        <is>
+          <t>442345679</t>
+        </is>
+      </c>
+      <c r="AL2" s="11" t="inlineStr">
+        <is>
+          <t>Documents not collected</t>
+        </is>
+      </c>
+      <c r="AM2" s="11" t="inlineStr">
+        <is>
+          <t>Quick Party Onboarding</t>
+        </is>
+      </c>
+      <c r="AN2" s="83" t="inlineStr">
+        <is>
+          <t>1164f57726c6GBld</t>
+        </is>
+      </c>
+      <c r="AO2" s="83" t="inlineStr">
+        <is>
+          <t>1164f57780d0GBvY</t>
         </is>
       </c>
     </row>
@@ -1099,6 +1225,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BP6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC5" sqref="BC5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="3" max="3"/>
+    <col width="16.140625" customWidth="1" style="1" min="4" max="4"/>
+    <col width="20.85546875" customWidth="1" style="1" min="5" max="5"/>
+    <col width="19.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="14.42578125" customWidth="1" style="1" min="7" max="7"/>
+    <col width="16.85546875" customWidth="1" style="1" min="8" max="8"/>
+    <col width="20.85546875" customWidth="1" style="1" min="9" max="9"/>
+    <col width="21" customWidth="1" style="1" min="10" max="10"/>
+    <col width="18.85546875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="19.7109375" customWidth="1" style="1" min="12" max="12"/>
+    <col width="23" customWidth="1" style="1" min="13" max="13"/>
+    <col width="26.85546875" customWidth="1" style="1" min="14" max="14"/>
+    <col width="17.5703125" customWidth="1" style="1" min="15" max="15"/>
+    <col width="21.42578125" customWidth="1" style="1" min="16" max="16"/>
+    <col width="20.5703125" customWidth="1" style="1" min="17" max="17"/>
+    <col width="21.5703125" customWidth="1" style="1" min="18" max="18"/>
+    <col width="25.85546875" customWidth="1" style="1" min="19" max="19"/>
+    <col width="22.140625" customWidth="1" style="1" min="20" max="20"/>
+    <col width="23.28515625" customWidth="1" style="1" min="21" max="21"/>
+    <col width="22.85546875" customWidth="1" style="1" min="22" max="22"/>
+    <col width="20.5703125" customWidth="1" style="1" min="23" max="23"/>
+    <col width="19.28515625" customWidth="1" style="1" min="24" max="24"/>
+    <col width="15.42578125" customWidth="1" style="1" min="25" max="25"/>
+    <col width="18.5703125" customWidth="1" style="1" min="26" max="26"/>
+    <col width="21.85546875" customWidth="1" style="1" min="27" max="27"/>
+    <col width="16.85546875" customWidth="1" style="1" min="28" max="28"/>
+    <col width="18.85546875" customWidth="1" style="1" min="29" max="29"/>
+    <col width="15.85546875" customWidth="1" style="1" min="30" max="30"/>
+    <col width="44.85546875" customWidth="1" style="1" min="31" max="31"/>
+    <col width="18" customWidth="1" style="1" min="32" max="32"/>
+    <col width="25" customWidth="1" style="1" min="33" max="33"/>
+    <col width="26.140625" customWidth="1" style="1" min="34" max="34"/>
+    <col width="24.42578125" customWidth="1" style="1" min="35" max="35"/>
+    <col width="27.28515625" customWidth="1" style="1" min="36" max="36"/>
+    <col width="27.85546875" customWidth="1" style="1" min="37" max="37"/>
+    <col width="28.85546875" customWidth="1" style="1" min="38" max="38"/>
+    <col width="29.28515625" customWidth="1" style="1" min="39" max="39"/>
+    <col width="36" customWidth="1" style="1" min="40" max="40"/>
+    <col width="34.42578125" customWidth="1" style="1" min="41" max="41"/>
+    <col width="24.85546875" customWidth="1" style="1" min="42" max="42"/>
+    <col width="25" customWidth="1" style="1" min="43" max="43"/>
+    <col width="19.7109375" customWidth="1" style="1" min="44" max="45"/>
+    <col width="34.140625" customWidth="1" style="1" min="46" max="46"/>
+    <col width="35.140625" customWidth="1" style="1" min="47" max="47"/>
+    <col width="28.85546875" customWidth="1" style="1" min="48" max="49"/>
+    <col width="22" customWidth="1" style="1" min="50" max="50"/>
+    <col width="31.28515625" customWidth="1" style="1" min="51" max="51"/>
+    <col width="24" bestFit="1" customWidth="1" style="1" min="52" max="52"/>
+    <col width="26.140625" customWidth="1" style="1" min="53" max="53"/>
+    <col width="22.42578125" customWidth="1" style="1" min="54" max="54"/>
+    <col width="19" customWidth="1" style="1" min="55" max="55"/>
+    <col width="26.28515625" customWidth="1" style="1" min="56" max="56"/>
+    <col width="23.5703125" customWidth="1" style="1" min="57" max="57"/>
+    <col width="28" customWidth="1" style="1" min="58" max="58"/>
+    <col width="25.140625" customWidth="1" style="1" min="59" max="59"/>
+    <col width="23.140625" customWidth="1" style="1" min="60" max="60"/>
+    <col width="18.5703125" customWidth="1" style="1" min="61" max="61"/>
+    <col width="23.5703125" customWidth="1" style="1" min="62" max="62"/>
+    <col width="21.140625" customWidth="1" style="1" min="63" max="63"/>
+    <col width="31.28515625" customWidth="1" style="1" min="64" max="64"/>
+    <col width="28.28515625" customWidth="1" style="1" min="65" max="65"/>
+    <col width="24.140625" customWidth="1" style="1" min="66" max="67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" s="34">
+      <c r="A1" s="34" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="34" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_NamePrefix</t>
+        </is>
+      </c>
+      <c r="D1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_AliasPrefix</t>
+        </is>
+      </c>
+      <c r="E1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="F1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Alias</t>
+        </is>
+      </c>
+      <c r="G1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Currency</t>
+        </is>
+      </c>
+      <c r="H1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_SalesGroup</t>
+        </is>
+      </c>
+      <c r="I1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="J1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_Location</t>
+        </is>
+      </c>
+      <c r="K1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_SG_Alias</t>
+        </is>
+      </c>
+      <c r="L1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_SG_Name</t>
+        </is>
+      </c>
+      <c r="M1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_ContactName</t>
+        </is>
+      </c>
+      <c r="N1" s="34" t="inlineStr">
+        <is>
+          <t>Borrower_PreferredRIMthd1</t>
+        </is>
+      </c>
+      <c r="O1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_AdminAgent</t>
+        </is>
+      </c>
+      <c r="P1" s="34" t="inlineStr">
+        <is>
+          <t>AdminAgent_Location</t>
+        </is>
+      </c>
+      <c r="Q1" s="34" t="inlineStr">
+        <is>
+          <t>AdminAgent_SGAlias</t>
+        </is>
+      </c>
+      <c r="R1" s="34" t="inlineStr">
+        <is>
+          <t>AdminAgent_SGName</t>
+        </is>
+      </c>
+      <c r="S1" s="34" t="inlineStr">
+        <is>
+          <t>AdminAgent_ContactName</t>
+        </is>
+      </c>
+      <c r="T1" s="34" t="inlineStr">
+        <is>
+          <t>AdminAgent_RIMethod</t>
+        </is>
+      </c>
+      <c r="U1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_ClassificationCode</t>
+        </is>
+      </c>
+      <c r="V1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_ClassificationDesc</t>
+        </is>
+      </c>
+      <c r="W1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_AgreementDate</t>
+        </is>
+      </c>
+      <c r="X1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_ApprovedDate</t>
+        </is>
+      </c>
+      <c r="Y1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_CloseDate</t>
+        </is>
+      </c>
+      <c r="Z1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_ProposedCmt</t>
+        </is>
+      </c>
+      <c r="AA1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_DepartmentCode</t>
+        </is>
+      </c>
+      <c r="AB1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Department</t>
+        </is>
+      </c>
+      <c r="AC1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_ExpenseCode</t>
+        </is>
+      </c>
+      <c r="AD1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_Calendar</t>
+        </is>
+      </c>
+      <c r="AE1" s="34" t="inlineStr">
+        <is>
+          <t>Deal_PricingOption</t>
+        </is>
+      </c>
+      <c r="AF1" s="34" t="inlineStr">
+        <is>
+          <t>InitialFractionRate</t>
+        </is>
+      </c>
+      <c r="AG1" s="34" t="inlineStr">
+        <is>
+          <t>InitialFractionRate_Round</t>
+        </is>
+      </c>
+      <c r="AH1" s="34" t="inlineStr">
+        <is>
+          <t>RoundingDecimalPrecision</t>
+        </is>
+      </c>
+      <c r="AI1" s="34" t="inlineStr">
+        <is>
+          <t>RoundingDecimal_Round</t>
+        </is>
+      </c>
+      <c r="AJ1" s="34" t="inlineStr">
+        <is>
+          <t>RoundingApplicationMethod</t>
+        </is>
+      </c>
+      <c r="AK1" s="34" t="inlineStr">
+        <is>
+          <t>PercentOfRateFormulaUsage</t>
+        </is>
+      </c>
+      <c r="AL1" s="34" t="inlineStr">
+        <is>
+          <t>NonBusinessDayRule</t>
+        </is>
+      </c>
+      <c r="AM1" s="34" t="inlineStr">
+        <is>
+          <t>RepricingNonBusinessDayRule</t>
+        </is>
+      </c>
+      <c r="AN1" s="34" t="inlineStr">
+        <is>
+          <t>PricingOption_MatrixChangeAppMthd</t>
+        </is>
+      </c>
+      <c r="AO1" s="34" t="inlineStr">
+        <is>
+          <t>PricingOption_RateChangeAppMthd</t>
+        </is>
+      </c>
+      <c r="AP1" s="34" t="inlineStr">
+        <is>
+          <t>MinimumPaymentAmount</t>
+        </is>
+      </c>
+      <c r="AQ1" s="34" t="inlineStr">
+        <is>
+          <t>MinimumAmountMultiples</t>
+        </is>
+      </c>
+      <c r="AR1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_Fee</t>
+        </is>
+      </c>
+      <c r="AS1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_Fee2</t>
+        </is>
+      </c>
+      <c r="AT1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_MatrixChangeAppMthd</t>
+        </is>
+      </c>
+      <c r="AU1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_MatrixChangeAppMthd2</t>
+        </is>
+      </c>
+      <c r="AV1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_NonBussDayRule</t>
+        </is>
+      </c>
+      <c r="AW1" s="34" t="inlineStr">
+        <is>
+          <t>PricingRule_NonBussDayRule2</t>
+        </is>
+      </c>
+      <c r="AX1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_Type</t>
+        </is>
+      </c>
+      <c r="AY1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_BankName</t>
+        </is>
+      </c>
+      <c r="AZ1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_SGAlias</t>
+        </is>
+      </c>
+      <c r="BA1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_SGContactName</t>
+        </is>
+      </c>
+      <c r="BB1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_SGRIMethod</t>
+        </is>
+      </c>
+      <c r="BC1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_SGName</t>
+        </is>
+      </c>
+      <c r="BD1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_Portfolio</t>
+        </is>
+      </c>
+      <c r="BE1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_ExpenseCode</t>
+        </is>
+      </c>
+      <c r="BF1" s="34" t="inlineStr">
+        <is>
+          <t>BankRole_ExpenseCodeDesc</t>
+        </is>
+      </c>
+      <c r="BG1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_IncomeMethod</t>
+        </is>
+      </c>
+      <c r="BH1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_AmountType</t>
+        </is>
+      </c>
+      <c r="BI1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_Amount</t>
+        </is>
+      </c>
+      <c r="BJ1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_EffectiveDate</t>
+        </is>
+      </c>
+      <c r="BK1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_Frequency</t>
+        </is>
+      </c>
+      <c r="BL1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_Customer</t>
+        </is>
+      </c>
+      <c r="BM1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_CustomerLocation</t>
+        </is>
+      </c>
+      <c r="BN1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_ExpenseCode</t>
+        </is>
+      </c>
+      <c r="BO1" s="34" t="inlineStr">
+        <is>
+          <t>AdminFee_PercentOfFee</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="9">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>CBA UAT Deal 3</t>
+        </is>
+      </c>
+      <c r="C2" s="9" t="inlineStr">
+        <is>
+          <t>UAT3_</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>UAT3</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>UAT3_05092020213342</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>UAT305092020213342</t>
+        </is>
+      </c>
+      <c r="G2" s="9" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="H2" s="9" t="inlineStr">
+        <is>
+          <t>Sales Group 1</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER1111</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="K2" s="9" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Bear,  Grylls</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Bear,  Grylls</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="R2" s="9" t="inlineStr">
+        <is>
+          <t>LENDING</t>
+        </is>
+      </c>
+      <c r="S2" s="9" t="inlineStr">
+        <is>
+          <t>Lending,  Ops</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="U2" s="9" t="inlineStr">
+        <is>
+          <t>GCP</t>
+        </is>
+      </c>
+      <c r="V2" s="9" t="inlineStr">
+        <is>
+          <t>General Corp Purpose</t>
+        </is>
+      </c>
+      <c r="W2" s="9" t="inlineStr">
+        <is>
+          <t>31-Mar-2017</t>
+        </is>
+      </c>
+      <c r="X2" s="9" t="inlineStr">
+        <is>
+          <t>31-Mar-2017</t>
+        </is>
+      </c>
+      <c r="Y2" s="9" t="inlineStr">
+        <is>
+          <t>31-Mar-2017</t>
+        </is>
+      </c>
+      <c r="Z2" s="9" t="inlineStr">
+        <is>
+          <t>440,000,000.00</t>
+        </is>
+      </c>
+      <c r="AA2" s="9" t="inlineStr">
+        <is>
+          <t>GLB</t>
+        </is>
+      </c>
+      <c r="AB2" s="9" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="AC2" s="9" t="inlineStr">
+        <is>
+          <t>RE_RES</t>
+        </is>
+      </c>
+      <c r="AD2" s="9" t="inlineStr">
+        <is>
+          <t>Sydney, Australia</t>
+        </is>
+      </c>
+      <c r="AE2" s="9" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="AG2" s="9" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AH2" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI2" s="9" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="AJ2" s="9" t="inlineStr">
+        <is>
+          <t>Base Rate Only By Formula</t>
+        </is>
+      </c>
+      <c r="AK2" s="9" t="inlineStr">
+        <is>
+          <t>(Base + Spread + RAC) * PCT</t>
+        </is>
+      </c>
+      <c r="AL2" s="9" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AM2" s="9" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AN2" s="9" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AO2" s="9" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AP2" s="9" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AQ2" s="9" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AR2" s="9" t="inlineStr">
+        <is>
+          <t>Commitment Fee</t>
+        </is>
+      </c>
+      <c r="AS2" s="9" t="inlineStr">
+        <is>
+          <t>Line Fee</t>
+        </is>
+      </c>
+      <c r="AT2" s="9" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AU2" s="9" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AV2" s="9" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AW2" s="9" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AX2" s="9" t="inlineStr">
+        <is>
+          <t>SBLC/Guarantee Issuer</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>COMMONWEALTHBANKOFAUSTCB001</t>
+        </is>
+      </c>
+      <c r="AZ2" s="9" t="inlineStr">
+        <is>
+          <t>AGENCY</t>
+        </is>
+      </c>
+      <c r="BA2" s="9" t="inlineStr">
+        <is>
+          <t>AGENCY</t>
+        </is>
+      </c>
+      <c r="BB2" s="9" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="BC2" s="9" t="inlineStr">
+        <is>
+          <t>AGENCY</t>
+        </is>
+      </c>
+      <c r="BD2" s="9" t="inlineStr">
+        <is>
+          <t>Hold for Investment - Australia</t>
+        </is>
+      </c>
+      <c r="BE2" s="9" t="inlineStr">
+        <is>
+          <t>RE_RES</t>
+        </is>
+      </c>
+      <c r="BF2" s="9" t="inlineStr">
+        <is>
+          <t>Real Estate Solutions</t>
+        </is>
+      </c>
+      <c r="BG2" s="9" t="inlineStr">
+        <is>
+          <t>Accrue</t>
+        </is>
+      </c>
+      <c r="BH2" s="9" t="inlineStr">
+        <is>
+          <t>Formula</t>
+        </is>
+      </c>
+      <c r="BI2" s="9" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="BJ2" s="9" t="inlineStr">
+        <is>
+          <t>26-Jun-2018</t>
+        </is>
+      </c>
+      <c r="BK2" s="9" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="BL2" s="9" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AU-DBU</t>
+        </is>
+      </c>
+      <c r="BM2" s="9" t="inlineStr">
+        <is>
+          <t>Sydney, NSW,Australia</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>RE_RES</t>
+        </is>
+      </c>
+      <c r="BO2" s="9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>440,000,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD3" s="1" t="inlineStr">
+        <is>
+          <t>Perth, Australia</t>
+        </is>
+      </c>
+      <c r="AE3" s="1" t="inlineStr">
+        <is>
+          <t>USD LIBOR Option</t>
+        </is>
+      </c>
+      <c r="AG3" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AH3" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI3" s="1" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="AJ3" s="1" t="inlineStr">
+        <is>
+          <t>Base Rate Only By Formula</t>
+        </is>
+      </c>
+      <c r="AK3" s="1" t="inlineStr">
+        <is>
+          <t>(Base + Spread + RAC) * PCT</t>
+        </is>
+      </c>
+      <c r="AL3" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AM3" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AN3" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AO3" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AP3" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AQ3" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AR3" s="1" t="inlineStr">
+        <is>
+          <t>Issuance Fee (BG/LC)</t>
+        </is>
+      </c>
+      <c r="AT3" s="1" t="inlineStr">
+        <is>
+          <t>Start of next cycle</t>
+        </is>
+      </c>
+      <c r="AV3" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="BE3" s="9" t="inlineStr">
+        <is>
+          <t>RE_RES</t>
+        </is>
+      </c>
+      <c r="BF3" s="9" t="inlineStr">
+        <is>
+          <t>Real Estate Solutions</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>Nearest</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>Base Rate Only By Formula</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="inlineStr">
+        <is>
+          <t>(Base + Spread + RAC) * PCT</t>
+        </is>
+      </c>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>GBP LIBOR Option</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>Nearest</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>Base Rate Only By Formula</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>(Base + Spread + RAC) * PCT</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE6" s="1" t="inlineStr">
+        <is>
+          <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
+        </is>
+      </c>
+      <c r="AG6" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AI6" s="1" t="inlineStr">
+        <is>
+          <t>Actual</t>
+        </is>
+      </c>
+      <c r="AJ6" s="1" t="inlineStr">
+        <is>
+          <t>Base Rate Only By Formula</t>
+        </is>
+      </c>
+      <c r="AK6" s="1" t="inlineStr">
+        <is>
+          <t>(Base + Spread + RAC) * PCT</t>
+        </is>
+      </c>
+      <c r="AL6" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AM6" s="1" t="inlineStr">
+        <is>
+          <t>Modified Following Business Day</t>
+        </is>
+      </c>
+      <c r="AN6" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AO6" s="1" t="inlineStr">
+        <is>
+          <t>Effective date of change</t>
+        </is>
+      </c>
+      <c r="AP6" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+      <c r="AQ6" s="1" t="inlineStr">
+        <is>
+          <t>1,000,000.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1382,7 +2552,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -1477,7 +2647,7 @@
       </c>
       <c r="W2" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="X2" s="9" t="inlineStr">
@@ -1599,7 +2769,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -1694,7 +2864,7 @@
       </c>
       <c r="W3" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="X3" s="9" t="inlineStr">
@@ -1816,7 +2986,7 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -1911,7 +3081,7 @@
       </c>
       <c r="W4" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="X4" s="9" t="inlineStr">
@@ -2033,7 +3203,7 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -2128,7 +3298,7 @@
       </c>
       <c r="W5" s="1" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="X5" s="9" t="inlineStr">
@@ -2239,7 +3409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2415,7 +3585,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
@@ -2537,7 +3707,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr">
@@ -2653,7 +3823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2842,7 +4012,7 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
@@ -2982,7 +4152,7 @@
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F3" s="1" t="inlineStr">
@@ -3122,7 +4292,7 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
@@ -3262,7 +4432,7 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
@@ -3402,7 +4572,7 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
@@ -3542,7 +4712,7 @@
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
@@ -3609,7 +4779,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -3749,7 +4919,7 @@
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
@@ -3889,7 +5059,7 @@
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
@@ -4013,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4301,7 +5471,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -4477,7 +5647,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -4649,7 +5819,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -4811,49 +5981,49 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="Q11" s="40" t="n"/>
@@ -4867,14 +6037,14 @@
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="T13" s="14" t="n"/>
@@ -4885,21 +6055,21 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="N16" s="14" t="n"/>
@@ -4907,14 +6077,14 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="I18" s="40" t="n"/>
@@ -4926,7 +6096,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="N19" s="14" t="n"/>
@@ -4934,7 +6104,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="R20" s="14" t="n"/>
@@ -4947,7 +6117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5091,7 +6261,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
@@ -5184,7 +6354,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -5271,7 +6441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5387,7 +6557,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -5455,7 +6625,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -5523,7 +6693,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -5586,7 +6756,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -5598,84 +6768,84 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="M17" s="40" t="n"/>
@@ -5683,7 +6853,7 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="Q18" s="14" t="n"/>
@@ -5691,7 +6861,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="R19" s="14" t="n"/>
@@ -5699,7 +6869,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="Q20" s="14" t="n"/>
@@ -5712,7 +6882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5889,7 +7059,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -6012,7 +7182,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="74" t="inlineStr">
@@ -6131,7 +7301,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="n">
@@ -6240,63 +7410,63 @@
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="I13" s="14" t="n"/>
@@ -6307,7 +7477,7 @@
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H14" s="14" t="n"/>
@@ -6321,7 +7491,7 @@
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="I15" s="14" t="n"/>
@@ -6332,7 +7502,7 @@
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H16" s="14" t="n"/>
@@ -6346,7 +7516,7 @@
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H17" s="14" t="n"/>
@@ -6360,7 +7530,7 @@
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H18" s="14" t="n"/>
@@ -6374,7 +7544,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H19" s="14" t="n"/>
@@ -6388,7 +7558,7 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="H20" s="14" t="n"/>
@@ -6406,7 +7576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6562,7 +7732,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -6692,7 +7862,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -6822,7 +7992,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -6952,7 +8122,7 @@
       </c>
       <c r="C5" s="10" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr">
@@ -7082,7 +8252,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -7212,7 +8382,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -7342,7 +8512,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -7452,7 +8622,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -7545,7 +8715,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D10" s="1" t="inlineStr">
@@ -7628,56 +8798,56 @@
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="C15" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="C16" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="C17" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="C18" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="I18" s="71" t="n"/>
@@ -7685,7 +8855,7 @@
     <row r="19">
       <c r="C19" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="I19" s="71" t="n"/>
@@ -7693,14 +8863,14 @@
     <row r="20">
       <c r="C20" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="C21" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
@@ -7709,7 +8879,7 @@
     <row r="22">
       <c r="C22" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
@@ -7718,7 +8888,7 @@
     <row r="23">
       <c r="C23" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
@@ -7727,7 +8897,7 @@
     <row r="24">
       <c r="C24" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
@@ -7740,7 +8910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7951,7 +9121,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -8027,7 +9197,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -8080,7 +9250,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -8133,7 +9303,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -8182,7 +9352,452 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="9" min="1" max="1"/>
+    <col width="12.42578125" customWidth="1" style="9" min="2" max="2"/>
+    <col width="20.85546875" customWidth="1" style="9" min="3" max="3"/>
+    <col width="5.42578125" customWidth="1" style="9" min="4" max="4"/>
+    <col width="11.28515625" customWidth="1" style="9" min="5" max="5"/>
+    <col width="25.140625" customWidth="1" style="9" min="6" max="6"/>
+    <col width="11" customWidth="1" style="9" min="7" max="7"/>
+    <col width="14.5703125" customWidth="1" style="9" min="8" max="8"/>
+    <col width="31.28515625" customWidth="1" style="9" min="9" max="9"/>
+    <col width="20.42578125" customWidth="1" style="9" min="10" max="10"/>
+    <col width="29.85546875" customWidth="1" style="9" min="11" max="11"/>
+    <col width="40.7109375" customWidth="1" style="9" min="12" max="12"/>
+    <col width="36.28515625" customWidth="1" style="9" min="13" max="13"/>
+    <col width="34.140625" customWidth="1" style="9" min="14" max="14"/>
+    <col width="9.140625" customWidth="1" style="9" min="15" max="15"/>
+    <col width="18.140625" customWidth="1" style="9" min="16" max="16"/>
+    <col width="14.85546875" customWidth="1" style="9" min="17" max="17"/>
+    <col width="14.7109375" customWidth="1" style="9" min="18" max="18"/>
+    <col width="21" customWidth="1" style="9" min="19" max="19"/>
+    <col width="28" customWidth="1" style="9" min="20" max="20"/>
+    <col width="21.42578125" customWidth="1" style="9" min="21" max="21"/>
+    <col width="27.140625" customWidth="1" style="9" min="22" max="22"/>
+    <col width="20.85546875" customWidth="1" style="9" min="23" max="23"/>
+    <col width="31.28515625" customWidth="1" style="9" min="24" max="24"/>
+    <col width="22.140625" customWidth="1" style="9" min="25" max="25"/>
+    <col width="22.85546875" customWidth="1" style="9" min="26" max="26"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="26" thickBot="1">
+      <c r="A1" s="20" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="20" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="27" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="20" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="E1" s="20" t="inlineStr">
+        <is>
+          <t>Search_By</t>
+        </is>
+      </c>
+      <c r="F1" s="27" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="G1" s="27" t="inlineStr">
+        <is>
+          <t>Loan_Alias</t>
+        </is>
+      </c>
+      <c r="H1" s="20" t="inlineStr">
+        <is>
+          <t>Pricing_Option</t>
+        </is>
+      </c>
+      <c r="I1" s="20" t="inlineStr">
+        <is>
+          <t>Legal_Entity</t>
+        </is>
+      </c>
+      <c r="J1" s="20" t="inlineStr">
+        <is>
+          <t>Legal_Entity_Amount</t>
+        </is>
+      </c>
+      <c r="K1" s="20" t="inlineStr">
+        <is>
+          <t>HostBankSharePct</t>
+        </is>
+      </c>
+      <c r="L1" s="27" t="inlineStr">
+        <is>
+          <t>Host_Bank</t>
+        </is>
+      </c>
+      <c r="M1" s="27" t="inlineStr">
+        <is>
+          <t>Expense_Code</t>
+        </is>
+      </c>
+      <c r="N1" s="20" t="inlineStr">
+        <is>
+          <t>Pricing_Option_From_Breakfunding</t>
+        </is>
+      </c>
+      <c r="O1" s="20" t="inlineStr">
+        <is>
+          <t>Currency</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Remittance_Status</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>Notice_Status</t>
+        </is>
+      </c>
+      <c r="S1" s="28" t="inlineStr">
+        <is>
+          <t>WIP_TransactionType</t>
+        </is>
+      </c>
+      <c r="T1" s="28" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingApprovalStatus</t>
+        </is>
+      </c>
+      <c r="U1" s="28" t="inlineStr">
+        <is>
+          <t>WIP_OutstandingType</t>
+        </is>
+      </c>
+      <c r="V1" s="28" t="inlineStr">
+        <is>
+          <t>WIP_AwaitingReleaseStatus</t>
+        </is>
+      </c>
+      <c r="W1" s="29" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="X1" s="29" t="inlineStr">
+        <is>
+          <t>Lender_ShortName</t>
+        </is>
+      </c>
+      <c r="Y1" s="29" t="inlineStr">
+        <is>
+          <t>Remittance_Instruction</t>
+        </is>
+      </c>
+      <c r="Z1" s="29" t="inlineStr">
+        <is>
+          <t>Remittance_Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="9">
+      <c r="A2" s="15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>CBA_UAT_03</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>UAT3_05092020213342</t>
+        </is>
+      </c>
+      <c r="D2" s="30" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E2" s="30" t="inlineStr">
+        <is>
+          <t>Deal/Facility</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>TCAF_08102019155309PPE</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>60000090</t>
+        </is>
+      </c>
+      <c r="H2" s="30" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I2" s="9" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AU-DBU</t>
+        </is>
+      </c>
+      <c r="J2" s="9" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="K2" s="30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L2" s="9" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/NR_COL</t>
+        </is>
+      </c>
+      <c r="M2" s="9" t="inlineStr">
+        <is>
+          <t>RE_RES-Real Estate Solutions</t>
+        </is>
+      </c>
+      <c r="N2" s="30" t="inlineStr">
+        <is>
+          <t>BBSY</t>
+        </is>
+      </c>
+      <c r="O2" s="30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P2" s="30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q2" s="30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="R2" s="30" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="S2" s="9" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="U2" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Break Cost Fee </t>
+        </is>
+      </c>
+      <c r="V2" s="18" t="inlineStr">
+        <is>
+          <t>Awaiting Release</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT57117</t>
+        </is>
+      </c>
+      <c r="X2" s="9" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AU-DBU</t>
+        </is>
+      </c>
+      <c r="Y2" s="15" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="Z2" s="9" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-3211</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customFormat="1" customHeight="1" s="9">
+      <c r="A3" s="15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>CBA_UAT_03</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>UAT3_05092020213342</t>
+        </is>
+      </c>
+      <c r="D3" s="30" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E3" s="30" t="inlineStr">
+        <is>
+          <t>Deal/Facility</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>SCAF_08102019154546PJL</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>06000214</t>
+        </is>
+      </c>
+      <c r="H3" s="30" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="I3" s="9" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AU-DBU</t>
+        </is>
+      </c>
+      <c r="J3" s="9" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="K3" s="30" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L3" s="9" t="inlineStr">
+        <is>
+          <t>CB001/Hold for Investment - Australia/NR_COL</t>
+        </is>
+      </c>
+      <c r="M3" s="9" t="inlineStr">
+        <is>
+          <t>RE_RES-Real Estate Solutions</t>
+        </is>
+      </c>
+      <c r="N3" s="30" t="inlineStr">
+        <is>
+          <t>BBSY</t>
+        </is>
+      </c>
+      <c r="O3" s="30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P3" s="30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="Q3" s="30" t="inlineStr">
+        <is>
+          <t>Approved</t>
+        </is>
+      </c>
+      <c r="R3" s="30" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="S3" s="9" t="inlineStr">
+        <is>
+          <t>Payments</t>
+        </is>
+      </c>
+      <c r="T3" s="9" t="inlineStr">
+        <is>
+          <t>Awaiting Approval</t>
+        </is>
+      </c>
+      <c r="U3" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Break Cost Fee </t>
+        </is>
+      </c>
+      <c r="V3" s="18" t="inlineStr">
+        <is>
+          <t>Awaiting Release</t>
+        </is>
+      </c>
+      <c r="W3" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT57117</t>
+        </is>
+      </c>
+      <c r="X3" s="9" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AU-DBU</t>
+        </is>
+      </c>
+      <c r="Y3" s="15" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="Z3" s="9" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-3211</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8296,7 +9911,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
@@ -8366,7 +9981,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -8436,7 +10051,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
@@ -8506,7 +10121,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
@@ -8566,21 +10181,21 @@
     <row r="6">
       <c r="C6" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
@@ -8588,42 +10203,42 @@
     <row r="9">
       <c r="C9" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="C10" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="C11" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="C12" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="C13" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D14" s="1" t="n"/>
@@ -8631,7 +10246,7 @@
     <row r="15">
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
@@ -8639,7 +10254,7 @@
     <row r="16">
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
@@ -8647,7 +10262,7 @@
     <row r="17">
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D17" s="1" t="n"/>
@@ -8659,7 +10274,1063 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:HC2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="15" customWidth="1" style="1" min="2" max="2"/>
+    <col width="20.85546875" customWidth="1" style="1" min="3" max="3"/>
+    <col width="23.42578125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="25" customWidth="1" style="1" min="5" max="5"/>
+    <col width="7.42578125" customWidth="1" style="1" min="6" max="6"/>
+    <col width="12" customWidth="1" style="1" min="7" max="8"/>
+    <col width="18.42578125" customWidth="1" style="1" min="9" max="9"/>
+    <col width="6.5703125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="19.5703125" customWidth="1" style="1" min="11" max="13"/>
+    <col width="22.28515625" customWidth="1" style="1" min="14" max="14"/>
+    <col width="20.7109375" customWidth="1" style="1" min="15" max="15"/>
+    <col width="24.7109375" customWidth="1" style="1" min="16" max="16"/>
+    <col width="14.5703125" customWidth="1" style="1" min="17" max="17"/>
+    <col width="20.42578125" customWidth="1" style="1" min="18" max="18"/>
+    <col width="34.28515625" customWidth="1" style="1" min="19" max="19"/>
+    <col width="14.85546875" customWidth="1" style="1" min="20" max="20"/>
+    <col width="10.5703125" customWidth="1" style="1" min="21" max="21"/>
+    <col width="24.140625" customWidth="1" style="1" min="22" max="22"/>
+    <col width="30.140625" customWidth="1" style="1" min="23" max="24"/>
+    <col width="28.140625" customWidth="1" style="1" min="25" max="25"/>
+    <col width="25.28515625" customWidth="1" style="1" min="26" max="27"/>
+    <col width="39.28515625" customWidth="1" style="1" min="28" max="28"/>
+    <col width="41.140625" customWidth="1" style="1" min="29" max="29"/>
+    <col width="41" customWidth="1" style="1" min="30" max="30"/>
+    <col width="28.7109375" customWidth="1" style="1" min="31" max="31"/>
+    <col width="29.85546875" customWidth="1" style="1" min="32" max="33"/>
+    <col width="22.28515625" customWidth="1" style="1" min="34" max="34"/>
+    <col width="25.28515625" customWidth="1" style="1" min="35" max="35"/>
+    <col width="24" customWidth="1" style="1" min="36" max="36"/>
+    <col width="24.28515625" customWidth="1" style="1" min="37" max="37"/>
+    <col width="24.7109375" customWidth="1" style="1" min="38" max="38"/>
+    <col width="23.28515625" customWidth="1" style="1" min="39" max="39"/>
+    <col width="24.5703125" customWidth="1" style="1" min="40" max="40"/>
+    <col width="21.5703125" customWidth="1" style="1" min="41" max="41"/>
+    <col width="23.85546875" customWidth="1" style="1" min="42" max="42"/>
+    <col width="31" customWidth="1" style="1" min="43" max="43"/>
+    <col width="24.140625" customWidth="1" style="1" min="44" max="44"/>
+    <col width="20.5703125" customWidth="1" style="1" min="45" max="45"/>
+    <col width="30.7109375" customWidth="1" style="1" min="46" max="46"/>
+    <col width="31.28515625" customWidth="1" style="1" min="47" max="47"/>
+    <col width="14.140625" customWidth="1" style="1" min="48" max="48"/>
+    <col width="10.140625" customWidth="1" style="1" min="49" max="49"/>
+    <col width="20.85546875" customWidth="1" style="1" min="50" max="50"/>
+    <col width="20.42578125" customWidth="1" style="1" min="51" max="51"/>
+    <col width="16" customWidth="1" style="1" min="52" max="52"/>
+    <col width="19.85546875" customWidth="1" style="1" min="53" max="53"/>
+    <col width="16.28515625" customWidth="1" style="1" min="54" max="54"/>
+    <col width="23.28515625" customWidth="1" style="1" min="55" max="55"/>
+    <col width="5.7109375" customWidth="1" style="1" min="56" max="56"/>
+    <col width="17.7109375" customWidth="1" style="1" min="143" max="146"/>
+    <col width="22.7109375" customWidth="1" style="1" min="147" max="178"/>
+    <col width="17.42578125" customWidth="1" style="1" min="179" max="211"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="2" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>rowid</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Test_Case</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Deal_Name</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>OutstandingSelect_Type</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Facility_Name</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Branch</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Alias_Loan1</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Alias_Loan2</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Alias_LoanMerge</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Outstandings_Loan1</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Outstandings_Loan2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>LoanMerge_Amount</t>
+        </is>
+      </c>
+      <c r="N1" s="2" t="inlineStr">
+        <is>
+          <t>Repricing_Type</t>
+        </is>
+      </c>
+      <c r="O1" s="2" t="inlineStr">
+        <is>
+          <t>RepricingDate_Loan1</t>
+        </is>
+      </c>
+      <c r="P1" s="2" t="inlineStr">
+        <is>
+          <t>Repricing_Add_Option</t>
+        </is>
+      </c>
+      <c r="Q1" s="2" t="inlineStr">
+        <is>
+          <t>Pricing_Option</t>
+        </is>
+      </c>
+      <c r="R1" s="2" t="inlineStr">
+        <is>
+          <t>ShortName</t>
+        </is>
+      </c>
+      <c r="S1" s="3" t="inlineStr">
+        <is>
+          <t>Legal_Entity</t>
+        </is>
+      </c>
+      <c r="T1" s="2" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="U1" s="2" t="inlineStr">
+        <is>
+          <t>Base_Rate</t>
+        </is>
+      </c>
+      <c r="V1" s="2" t="inlineStr">
+        <is>
+          <t>GLEntriesPercentageAmt</t>
+        </is>
+      </c>
+      <c r="W1" s="2" t="inlineStr">
+        <is>
+          <t>Loan1_Outstanding_AfterMerge</t>
+        </is>
+      </c>
+      <c r="X1" s="2" t="inlineStr">
+        <is>
+          <t>Loan2_Outstanding_AfterMerge</t>
+        </is>
+      </c>
+      <c r="Y1" s="2" t="inlineStr">
+        <is>
+          <t>LegalEntity_ExpectedAmount</t>
+        </is>
+      </c>
+      <c r="Z1" s="2" t="inlineStr">
+        <is>
+          <t>Lender1_ExpectedAmount</t>
+        </is>
+      </c>
+      <c r="AA1" s="2" t="inlineStr">
+        <is>
+          <t>Lender2_ExpectedAmount</t>
+        </is>
+      </c>
+      <c r="AB1" s="2" t="inlineStr">
+        <is>
+          <t>Facility_HostBankContrGross_Percentage</t>
+        </is>
+      </c>
+      <c r="AC1" s="2" t="inlineStr">
+        <is>
+          <t>Facility_HostBankOutstandings_Percentage</t>
+        </is>
+      </c>
+      <c r="AD1" s="2" t="inlineStr">
+        <is>
+          <t>Facility_HostBankAvailToDraw_Percentage</t>
+        </is>
+      </c>
+      <c r="AE1" s="2" t="inlineStr">
+        <is>
+          <t>LenderShareHost_Percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="2" t="inlineStr">
+        <is>
+          <t>Lender1ShareHost_Percentage</t>
+        </is>
+      </c>
+      <c r="AG1" s="2" t="inlineStr">
+        <is>
+          <t>Lender2ShareHost_Percentage</t>
+        </is>
+      </c>
+      <c r="AH1" s="2" t="inlineStr">
+        <is>
+          <t>BaseRate_OptionName</t>
+        </is>
+      </c>
+      <c r="AI1" s="3" t="inlineStr">
+        <is>
+          <t>Loan_RepricingFrequency</t>
+        </is>
+      </c>
+      <c r="AJ1" s="2" t="inlineStr">
+        <is>
+          <t>Loan_BorrowerBaseRate</t>
+        </is>
+      </c>
+      <c r="AK1" s="2" t="inlineStr">
+        <is>
+          <t>Loan_TotalGlobalInterest</t>
+        </is>
+      </c>
+      <c r="AL1" s="4" t="inlineStr">
+        <is>
+          <t>Facility_ProposedCmtAmt</t>
+        </is>
+      </c>
+      <c r="AM1" s="3" t="inlineStr">
+        <is>
+          <t>Facility_NewCurrentAmt</t>
+        </is>
+      </c>
+      <c r="AN1" s="3" t="inlineStr">
+        <is>
+          <t>Loan_CurrentOutstanding</t>
+        </is>
+      </c>
+      <c r="AO1" s="5" t="inlineStr">
+        <is>
+          <t>Loan_NewOutstanding</t>
+        </is>
+      </c>
+      <c r="AP1" s="5" t="inlineStr">
+        <is>
+          <t>Loan_TotalGlobalInterest</t>
+        </is>
+      </c>
+      <c r="AQ1" s="5" t="inlineStr">
+        <is>
+          <t>Loan_PrincipalAndGlobalInterest</t>
+        </is>
+      </c>
+      <c r="AR1" s="5" t="inlineStr">
+        <is>
+          <t>Repricing_Type</t>
+        </is>
+      </c>
+      <c r="AS1" s="6" t="inlineStr">
+        <is>
+          <t>Borrower_ShortName</t>
+        </is>
+      </c>
+      <c r="AT1" s="5" t="inlineStr">
+        <is>
+          <t>Borrower_RemittanceInstruction</t>
+        </is>
+      </c>
+      <c r="AU1" s="7" t="inlineStr">
+        <is>
+          <t>Borrower_RemittanceDescription</t>
+        </is>
+      </c>
+      <c r="AV1" s="5" t="inlineStr">
+        <is>
+          <t>Loan_Currency</t>
+        </is>
+      </c>
+      <c r="AW1" s="5" t="inlineStr">
+        <is>
+          <t>Base_Rate</t>
+        </is>
+      </c>
+      <c r="AX1" s="8" t="inlineStr">
+        <is>
+          <t>Interest_SpreadValue</t>
+        </is>
+      </c>
+      <c r="AY1" s="7" t="inlineStr">
+        <is>
+          <t>Borrower_LegalName</t>
+        </is>
+      </c>
+      <c r="AZ1" s="5" t="inlineStr">
+        <is>
+          <t>NoticeStatus</t>
+        </is>
+      </c>
+      <c r="BA1" s="5" t="inlineStr">
+        <is>
+          <t>Repricing_Frequency</t>
+        </is>
+      </c>
+      <c r="BB1" s="5" t="inlineStr">
+        <is>
+          <t>Interest_Amount</t>
+        </is>
+      </c>
+      <c r="BC1" s="5" t="inlineStr">
+        <is>
+          <t>Payment_Effective_Date</t>
+        </is>
+      </c>
+      <c r="BD1" s="5" t="inlineStr">
+        <is>
+          <t>Cycle</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="9" t="inlineStr">
+        <is>
+          <t>CBA UAT Deal 3</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>UAT3_05092020213342</t>
+        </is>
+      </c>
+      <c r="D2" s="9" t="inlineStr">
+        <is>
+          <t>Loan</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>TCAF_08102019155309PPE</t>
+        </is>
+      </c>
+      <c r="F2" s="11" t="inlineStr">
+        <is>
+          <t>CB001</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>60000090</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>60000097</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT200018</t>
+        </is>
+      </c>
+      <c r="J2" s="11" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>80,000,000.00</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>180,000,000.00</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>260,000,000.00</t>
+        </is>
+      </c>
+      <c r="N2" s="9" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>16-Aug-2018</t>
+        </is>
+      </c>
+      <c r="P2" s="9" t="inlineStr">
+        <is>
+          <t>Rollover/Conversion To New:</t>
+        </is>
+      </c>
+      <c r="Q2" s="9" t="inlineStr">
+        <is>
+          <t>BBSW - Mid</t>
+        </is>
+      </c>
+      <c r="R2" s="9" t="inlineStr">
+        <is>
+          <t>Principal Loan Account</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>COMMONWEALTH BANK AUST -DBU</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="U2" s="9" t="inlineStr">
+        <is>
+          <t>1.8533%</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="W2" s="9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X2" s="9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y2" s="9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Z2" s="9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AA2" s="9" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>28.9866666666667</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>37.3333333333333</t>
+        </is>
+      </c>
+      <c r="AH2" s="9" t="inlineStr">
+        <is>
+          <t>BBSY - Bid</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="AJ2" s="9" t="inlineStr">
+        <is>
+          <t>1.7112</t>
+        </is>
+      </c>
+      <c r="AK2" s="9" t="inlineStr">
+        <is>
+          <t>149,182.03</t>
+        </is>
+      </c>
+      <c r="AL2" s="12" t="inlineStr">
+        <is>
+          <t>124,605,140.61</t>
+        </is>
+      </c>
+      <c r="AM2" s="12" t="inlineStr">
+        <is>
+          <t>117,841,315.98</t>
+        </is>
+      </c>
+      <c r="AN2" s="13" t="inlineStr">
+        <is>
+          <t>175,000,000.00</t>
+        </is>
+      </c>
+      <c r="AO2" s="13" t="inlineStr">
+        <is>
+          <t>26,000,000.00</t>
+        </is>
+      </c>
+      <c r="AP2" s="14" t="inlineStr">
+        <is>
+          <t>774,261.98</t>
+        </is>
+      </c>
+      <c r="AQ2" s="14" t="n"/>
+      <c r="AR2" s="13" t="inlineStr">
+        <is>
+          <t>Comprehensive Repricing</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT57117</t>
+        </is>
+      </c>
+      <c r="AT2" s="15" t="inlineStr">
+        <is>
+          <t>RTGS</t>
+        </is>
+      </c>
+      <c r="AU2" s="9" t="inlineStr">
+        <is>
+          <t>RTGSAUD1-3211</t>
+        </is>
+      </c>
+      <c r="AV2" s="16" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="AW2" s="17" t="inlineStr">
+        <is>
+          <t>1.711200</t>
+        </is>
+      </c>
+      <c r="AX2" s="17" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT57117</t>
+        </is>
+      </c>
+      <c r="AZ2" s="18" t="inlineStr">
+        <is>
+          <t>Awaiting release</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>1 Months</t>
+        </is>
+      </c>
+      <c r="BB2" s="14" t="inlineStr">
+        <is>
+          <t>1,614,524.59</t>
+        </is>
+      </c>
+      <c r="BC2" s="9" t="inlineStr">
+        <is>
+          <t>21-Feb-2019</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="BE2" s="9" t="n"/>
+      <c r="BF2" s="9" t="n"/>
+      <c r="BG2" s="9" t="n"/>
+      <c r="BH2" s="9" t="n"/>
+      <c r="BI2" s="9" t="n"/>
+      <c r="BJ2" s="9" t="n"/>
+      <c r="BK2" s="9" t="n"/>
+      <c r="BL2" s="9" t="n"/>
+      <c r="BM2" s="9" t="n"/>
+      <c r="BN2" s="9" t="n"/>
+      <c r="BO2" s="9" t="n"/>
+      <c r="BP2" s="9" t="n"/>
+      <c r="BQ2" s="9" t="n"/>
+      <c r="BR2" s="9" t="n"/>
+      <c r="BS2" s="9" t="n"/>
+      <c r="BT2" s="9" t="n"/>
+      <c r="BU2" s="9" t="n"/>
+      <c r="BV2" s="9" t="n"/>
+      <c r="BW2" s="9" t="n"/>
+      <c r="BX2" s="9" t="n"/>
+      <c r="BY2" s="9" t="n"/>
+      <c r="BZ2" s="9" t="n"/>
+      <c r="CA2" s="9" t="n"/>
+      <c r="CB2" s="9" t="n"/>
+      <c r="CC2" s="9" t="n"/>
+      <c r="CD2" s="9" t="n"/>
+      <c r="CE2" s="9" t="n"/>
+      <c r="CF2" s="9" t="n"/>
+      <c r="CG2" s="9" t="n"/>
+      <c r="CH2" s="9" t="n"/>
+      <c r="CI2" s="9" t="n"/>
+      <c r="CJ2" s="9" t="n"/>
+      <c r="CK2" s="9" t="n"/>
+      <c r="CL2" s="9" t="n"/>
+      <c r="CM2" s="9" t="n"/>
+      <c r="CN2" s="9" t="n"/>
+      <c r="CO2" s="9" t="n"/>
+      <c r="CP2" s="9" t="n"/>
+      <c r="CQ2" s="9" t="n"/>
+      <c r="CR2" s="9" t="n"/>
+      <c r="CS2" s="9" t="n"/>
+      <c r="CT2" s="9" t="n"/>
+      <c r="CU2" s="9" t="n"/>
+      <c r="CV2" s="9" t="n"/>
+      <c r="CW2" s="9" t="n"/>
+      <c r="CX2" s="9" t="n"/>
+      <c r="CY2" s="9" t="n"/>
+      <c r="CZ2" s="9" t="n"/>
+      <c r="DA2" s="9" t="n"/>
+      <c r="DB2" s="9" t="n"/>
+      <c r="DC2" s="9" t="n"/>
+      <c r="DD2" s="9" t="n"/>
+      <c r="DE2" s="9" t="n"/>
+      <c r="DF2" s="9" t="n"/>
+      <c r="DG2" s="9" t="n"/>
+      <c r="DH2" s="9" t="n"/>
+      <c r="DI2" s="9" t="n"/>
+      <c r="DJ2" s="9" t="n"/>
+      <c r="DK2" s="9" t="n"/>
+      <c r="DL2" s="9" t="n"/>
+      <c r="DM2" s="9" t="n"/>
+      <c r="DN2" s="9" t="n"/>
+      <c r="DO2" s="9" t="n"/>
+      <c r="DP2" s="9" t="n"/>
+      <c r="DQ2" s="9" t="n"/>
+      <c r="DR2" s="9" t="n"/>
+      <c r="DS2" s="9" t="n"/>
+      <c r="DT2" s="9" t="n"/>
+      <c r="DU2" s="9" t="n"/>
+      <c r="DV2" s="9" t="n"/>
+      <c r="DW2" s="9" t="n"/>
+      <c r="DX2" s="9" t="n"/>
+      <c r="DY2" s="9" t="n"/>
+      <c r="DZ2" s="9" t="n"/>
+      <c r="EA2" s="9" t="n"/>
+      <c r="EM2" s="1" t="inlineStr">
+        <is>
+          <t>IEEBRW764256142</t>
+        </is>
+      </c>
+      <c r="EN2" s="1" t="inlineStr">
+        <is>
+          <t>IEEBRW764256142</t>
+        </is>
+      </c>
+      <c r="EO2" s="1" t="inlineStr">
+        <is>
+          <t>IEEBRW764256142</t>
+        </is>
+      </c>
+      <c r="EP2" s="1" t="inlineStr">
+        <is>
+          <t>IEEBRW764256142</t>
+        </is>
+      </c>
+      <c r="EQ2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="ER2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="ES2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="ET2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EU2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EV2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EW2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EX2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EY2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="EZ2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FA2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FB2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FC2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FD2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FE2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FF2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FG2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FH2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FI2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FJ2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FK2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FL2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FM2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FN2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FO2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FP2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FQ2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FR2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FS2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FT2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FU2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FV2" s="1" t="inlineStr">
+        <is>
+          <t>LIQIDT7473BRWS843145</t>
+        </is>
+      </c>
+      <c r="FW2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="FX2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="FY2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="FZ2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GA2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GB2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GC2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GD2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GE2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GF2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GG2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GH2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GI2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GJ2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GK2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GL2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT34130</t>
+        </is>
+      </c>
+      <c r="GM2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GN2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GO2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GP2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GQ2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GR2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT20120</t>
+        </is>
+      </c>
+      <c r="GS2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GT2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GU2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GV2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GW2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GX2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GY2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="GZ2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="HA2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT04148</t>
+        </is>
+      </c>
+      <c r="HB2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT11112</t>
+        </is>
+      </c>
+      <c r="HC2" s="1" t="inlineStr">
+        <is>
+          <t>CUSTSHORT11112</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9224,1063 +11895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:HC2"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15" customWidth="1" style="1" min="2" max="2"/>
-    <col width="20.85546875" customWidth="1" style="1" min="3" max="3"/>
-    <col width="23.42578125" customWidth="1" style="1" min="4" max="4"/>
-    <col width="25" customWidth="1" style="1" min="5" max="5"/>
-    <col width="7.42578125" customWidth="1" style="1" min="6" max="6"/>
-    <col width="12" customWidth="1" style="1" min="7" max="8"/>
-    <col width="18.42578125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="6.5703125" customWidth="1" style="1" min="10" max="10"/>
-    <col width="19.5703125" customWidth="1" style="1" min="11" max="13"/>
-    <col width="22.28515625" customWidth="1" style="1" min="14" max="14"/>
-    <col width="20.7109375" customWidth="1" style="1" min="15" max="15"/>
-    <col width="24.7109375" customWidth="1" style="1" min="16" max="16"/>
-    <col width="14.5703125" customWidth="1" style="1" min="17" max="17"/>
-    <col width="20.42578125" customWidth="1" style="1" min="18" max="18"/>
-    <col width="34.28515625" customWidth="1" style="1" min="19" max="19"/>
-    <col width="14.85546875" customWidth="1" style="1" min="20" max="20"/>
-    <col width="10.5703125" customWidth="1" style="1" min="21" max="21"/>
-    <col width="24.140625" customWidth="1" style="1" min="22" max="22"/>
-    <col width="30.140625" customWidth="1" style="1" min="23" max="24"/>
-    <col width="28.140625" customWidth="1" style="1" min="25" max="25"/>
-    <col width="25.28515625" customWidth="1" style="1" min="26" max="27"/>
-    <col width="39.28515625" customWidth="1" style="1" min="28" max="28"/>
-    <col width="41.140625" customWidth="1" style="1" min="29" max="29"/>
-    <col width="41" customWidth="1" style="1" min="30" max="30"/>
-    <col width="28.7109375" customWidth="1" style="1" min="31" max="31"/>
-    <col width="29.85546875" customWidth="1" style="1" min="32" max="33"/>
-    <col width="22.28515625" customWidth="1" style="1" min="34" max="34"/>
-    <col width="25.28515625" customWidth="1" style="1" min="35" max="35"/>
-    <col width="24" customWidth="1" style="1" min="36" max="36"/>
-    <col width="24.28515625" customWidth="1" style="1" min="37" max="37"/>
-    <col width="24.7109375" customWidth="1" style="1" min="38" max="38"/>
-    <col width="23.28515625" customWidth="1" style="1" min="39" max="39"/>
-    <col width="24.5703125" customWidth="1" style="1" min="40" max="40"/>
-    <col width="21.5703125" customWidth="1" style="1" min="41" max="41"/>
-    <col width="23.85546875" customWidth="1" style="1" min="42" max="42"/>
-    <col width="31" customWidth="1" style="1" min="43" max="43"/>
-    <col width="24.140625" customWidth="1" style="1" min="44" max="44"/>
-    <col width="20.5703125" customWidth="1" style="1" min="45" max="45"/>
-    <col width="30.7109375" customWidth="1" style="1" min="46" max="46"/>
-    <col width="31.28515625" customWidth="1" style="1" min="47" max="47"/>
-    <col width="14.140625" customWidth="1" style="1" min="48" max="48"/>
-    <col width="10.140625" customWidth="1" style="1" min="49" max="49"/>
-    <col width="20.85546875" customWidth="1" style="1" min="50" max="50"/>
-    <col width="20.42578125" customWidth="1" style="1" min="51" max="51"/>
-    <col width="16" customWidth="1" style="1" min="52" max="52"/>
-    <col width="19.85546875" customWidth="1" style="1" min="53" max="53"/>
-    <col width="16.28515625" customWidth="1" style="1" min="54" max="54"/>
-    <col width="23.28515625" customWidth="1" style="1" min="55" max="55"/>
-    <col width="5.7109375" customWidth="1" style="1" min="56" max="56"/>
-    <col width="17.7109375" customWidth="1" style="1" min="143" max="146"/>
-    <col width="22.7109375" customWidth="1" style="1" min="147" max="178"/>
-    <col width="17.42578125" customWidth="1" style="1" min="179" max="211"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customFormat="1" customHeight="1" s="2" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>OutstandingSelect_Type</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Facility_Name</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Branch</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Alias_Loan1</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Alias_Loan2</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Alias_LoanMerge</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Status</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Outstandings_Loan1</t>
-        </is>
-      </c>
-      <c r="L1" s="2" t="inlineStr">
-        <is>
-          <t>Outstandings_Loan2</t>
-        </is>
-      </c>
-      <c r="M1" s="2" t="inlineStr">
-        <is>
-          <t>LoanMerge_Amount</t>
-        </is>
-      </c>
-      <c r="N1" s="2" t="inlineStr">
-        <is>
-          <t>Repricing_Type</t>
-        </is>
-      </c>
-      <c r="O1" s="2" t="inlineStr">
-        <is>
-          <t>RepricingDate_Loan1</t>
-        </is>
-      </c>
-      <c r="P1" s="2" t="inlineStr">
-        <is>
-          <t>Repricing_Add_Option</t>
-        </is>
-      </c>
-      <c r="Q1" s="2" t="inlineStr">
-        <is>
-          <t>Pricing_Option</t>
-        </is>
-      </c>
-      <c r="R1" s="2" t="inlineStr">
-        <is>
-          <t>ShortName</t>
-        </is>
-      </c>
-      <c r="S1" s="3" t="inlineStr">
-        <is>
-          <t>Legal_Entity</t>
-        </is>
-      </c>
-      <c r="T1" s="2" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="U1" s="2" t="inlineStr">
-        <is>
-          <t>Base_Rate</t>
-        </is>
-      </c>
-      <c r="V1" s="2" t="inlineStr">
-        <is>
-          <t>GLEntriesPercentageAmt</t>
-        </is>
-      </c>
-      <c r="W1" s="2" t="inlineStr">
-        <is>
-          <t>Loan1_Outstanding_AfterMerge</t>
-        </is>
-      </c>
-      <c r="X1" s="2" t="inlineStr">
-        <is>
-          <t>Loan2_Outstanding_AfterMerge</t>
-        </is>
-      </c>
-      <c r="Y1" s="2" t="inlineStr">
-        <is>
-          <t>LegalEntity_ExpectedAmount</t>
-        </is>
-      </c>
-      <c r="Z1" s="2" t="inlineStr">
-        <is>
-          <t>Lender1_ExpectedAmount</t>
-        </is>
-      </c>
-      <c r="AA1" s="2" t="inlineStr">
-        <is>
-          <t>Lender2_ExpectedAmount</t>
-        </is>
-      </c>
-      <c r="AB1" s="2" t="inlineStr">
-        <is>
-          <t>Facility_HostBankContrGross_Percentage</t>
-        </is>
-      </c>
-      <c r="AC1" s="2" t="inlineStr">
-        <is>
-          <t>Facility_HostBankOutstandings_Percentage</t>
-        </is>
-      </c>
-      <c r="AD1" s="2" t="inlineStr">
-        <is>
-          <t>Facility_HostBankAvailToDraw_Percentage</t>
-        </is>
-      </c>
-      <c r="AE1" s="2" t="inlineStr">
-        <is>
-          <t>LenderShareHost_Percentage</t>
-        </is>
-      </c>
-      <c r="AF1" s="2" t="inlineStr">
-        <is>
-          <t>Lender1ShareHost_Percentage</t>
-        </is>
-      </c>
-      <c r="AG1" s="2" t="inlineStr">
-        <is>
-          <t>Lender2ShareHost_Percentage</t>
-        </is>
-      </c>
-      <c r="AH1" s="2" t="inlineStr">
-        <is>
-          <t>BaseRate_OptionName</t>
-        </is>
-      </c>
-      <c r="AI1" s="3" t="inlineStr">
-        <is>
-          <t>Loan_RepricingFrequency</t>
-        </is>
-      </c>
-      <c r="AJ1" s="2" t="inlineStr">
-        <is>
-          <t>Loan_BorrowerBaseRate</t>
-        </is>
-      </c>
-      <c r="AK1" s="2" t="inlineStr">
-        <is>
-          <t>Loan_TotalGlobalInterest</t>
-        </is>
-      </c>
-      <c r="AL1" s="4" t="inlineStr">
-        <is>
-          <t>Facility_ProposedCmtAmt</t>
-        </is>
-      </c>
-      <c r="AM1" s="3" t="inlineStr">
-        <is>
-          <t>Facility_NewCurrentAmt</t>
-        </is>
-      </c>
-      <c r="AN1" s="3" t="inlineStr">
-        <is>
-          <t>Loan_CurrentOutstanding</t>
-        </is>
-      </c>
-      <c r="AO1" s="5" t="inlineStr">
-        <is>
-          <t>Loan_NewOutstanding</t>
-        </is>
-      </c>
-      <c r="AP1" s="5" t="inlineStr">
-        <is>
-          <t>Loan_TotalGlobalInterest</t>
-        </is>
-      </c>
-      <c r="AQ1" s="5" t="inlineStr">
-        <is>
-          <t>Loan_PrincipalAndGlobalInterest</t>
-        </is>
-      </c>
-      <c r="AR1" s="5" t="inlineStr">
-        <is>
-          <t>Repricing_Type</t>
-        </is>
-      </c>
-      <c r="AS1" s="6" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="AT1" s="5" t="inlineStr">
-        <is>
-          <t>Borrower_RemittanceInstruction</t>
-        </is>
-      </c>
-      <c r="AU1" s="7" t="inlineStr">
-        <is>
-          <t>Borrower_RemittanceDescription</t>
-        </is>
-      </c>
-      <c r="AV1" s="5" t="inlineStr">
-        <is>
-          <t>Loan_Currency</t>
-        </is>
-      </c>
-      <c r="AW1" s="5" t="inlineStr">
-        <is>
-          <t>Base_Rate</t>
-        </is>
-      </c>
-      <c r="AX1" s="8" t="inlineStr">
-        <is>
-          <t>Interest_SpreadValue</t>
-        </is>
-      </c>
-      <c r="AY1" s="7" t="inlineStr">
-        <is>
-          <t>Borrower_LegalName</t>
-        </is>
-      </c>
-      <c r="AZ1" s="5" t="inlineStr">
-        <is>
-          <t>NoticeStatus</t>
-        </is>
-      </c>
-      <c r="BA1" s="5" t="inlineStr">
-        <is>
-          <t>Repricing_Frequency</t>
-        </is>
-      </c>
-      <c r="BB1" s="5" t="inlineStr">
-        <is>
-          <t>Interest_Amount</t>
-        </is>
-      </c>
-      <c r="BC1" s="5" t="inlineStr">
-        <is>
-          <t>Payment_Effective_Date</t>
-        </is>
-      </c>
-      <c r="BD1" s="5" t="inlineStr">
-        <is>
-          <t>Cycle</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customFormat="1" customHeight="1" s="1">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>CBA UAT Deal 3</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>UAT3_05092020131214</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>Loan</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>TCAF_08102019155309PPE</t>
-        </is>
-      </c>
-      <c r="F2" s="11" t="inlineStr">
-        <is>
-          <t>CB001</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>60000090</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>60000097</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT200018</t>
-        </is>
-      </c>
-      <c r="J2" s="11" t="inlineStr">
-        <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t>80,000,000.00</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>180,000,000.00</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>260,000,000.00</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>Comprehensive Repricing</t>
-        </is>
-      </c>
-      <c r="O2" s="1" t="inlineStr">
-        <is>
-          <t>16-Aug-2018</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t>Rollover/Conversion To New:</t>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>Principal Loan Account</t>
-        </is>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AUST -DBU</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="U2" s="9" t="inlineStr">
-        <is>
-          <t>1.8533%</t>
-        </is>
-      </c>
-      <c r="V2" s="1" t="inlineStr">
-        <is>
-          <t>33.68</t>
-        </is>
-      </c>
-      <c r="W2" s="9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="X2" s="9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Y2" s="9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="Z2" s="9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AA2" s="9" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>33.68</t>
-        </is>
-      </c>
-      <c r="AC2" s="1" t="inlineStr">
-        <is>
-          <t>33.68</t>
-        </is>
-      </c>
-      <c r="AD2" s="1" t="inlineStr">
-        <is>
-          <t>33.68</t>
-        </is>
-      </c>
-      <c r="AE2" s="1" t="inlineStr">
-        <is>
-          <t>33.68</t>
-        </is>
-      </c>
-      <c r="AF2" s="1" t="inlineStr">
-        <is>
-          <t>28.9866666666667</t>
-        </is>
-      </c>
-      <c r="AG2" s="1" t="inlineStr">
-        <is>
-          <t>37.3333333333333</t>
-        </is>
-      </c>
-      <c r="AH2" s="9" t="inlineStr">
-        <is>
-          <t>BBSY - Bid</t>
-        </is>
-      </c>
-      <c r="AI2" s="1" t="inlineStr">
-        <is>
-          <t>1 Months</t>
-        </is>
-      </c>
-      <c r="AJ2" s="9" t="inlineStr">
-        <is>
-          <t>1.7112</t>
-        </is>
-      </c>
-      <c r="AK2" s="9" t="inlineStr">
-        <is>
-          <t>149,182.03</t>
-        </is>
-      </c>
-      <c r="AL2" s="12" t="inlineStr">
-        <is>
-          <t>124,605,140.61</t>
-        </is>
-      </c>
-      <c r="AM2" s="12" t="inlineStr">
-        <is>
-          <t>117,841,315.98</t>
-        </is>
-      </c>
-      <c r="AN2" s="13" t="inlineStr">
-        <is>
-          <t>175,000,000.00</t>
-        </is>
-      </c>
-      <c r="AO2" s="13" t="inlineStr">
-        <is>
-          <t>26,000,000.00</t>
-        </is>
-      </c>
-      <c r="AP2" s="14" t="inlineStr">
-        <is>
-          <t>774,261.98</t>
-        </is>
-      </c>
-      <c r="AQ2" s="14" t="n"/>
-      <c r="AR2" s="13" t="inlineStr">
-        <is>
-          <t>Comprehensive Repricing</t>
-        </is>
-      </c>
-      <c r="AS2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT57117</t>
-        </is>
-      </c>
-      <c r="AT2" s="15" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="AU2" s="9" t="inlineStr">
-        <is>
-          <t>RTGSAUD1-3211</t>
-        </is>
-      </c>
-      <c r="AV2" s="16" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="AW2" s="17" t="inlineStr">
-        <is>
-          <t>1.711200</t>
-        </is>
-      </c>
-      <c r="AX2" s="17" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="AY2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT57117</t>
-        </is>
-      </c>
-      <c r="AZ2" s="18" t="inlineStr">
-        <is>
-          <t>Awaiting release</t>
-        </is>
-      </c>
-      <c r="BA2" s="1" t="inlineStr">
-        <is>
-          <t>1 Months</t>
-        </is>
-      </c>
-      <c r="BB2" s="14" t="inlineStr">
-        <is>
-          <t>1,614,524.59</t>
-        </is>
-      </c>
-      <c r="BC2" s="9" t="inlineStr">
-        <is>
-          <t>21-Feb-2019</t>
-        </is>
-      </c>
-      <c r="BD2" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BE2" s="9" t="n"/>
-      <c r="BF2" s="9" t="n"/>
-      <c r="BG2" s="9" t="n"/>
-      <c r="BH2" s="9" t="n"/>
-      <c r="BI2" s="9" t="n"/>
-      <c r="BJ2" s="9" t="n"/>
-      <c r="BK2" s="9" t="n"/>
-      <c r="BL2" s="9" t="n"/>
-      <c r="BM2" s="9" t="n"/>
-      <c r="BN2" s="9" t="n"/>
-      <c r="BO2" s="9" t="n"/>
-      <c r="BP2" s="9" t="n"/>
-      <c r="BQ2" s="9" t="n"/>
-      <c r="BR2" s="9" t="n"/>
-      <c r="BS2" s="9" t="n"/>
-      <c r="BT2" s="9" t="n"/>
-      <c r="BU2" s="9" t="n"/>
-      <c r="BV2" s="9" t="n"/>
-      <c r="BW2" s="9" t="n"/>
-      <c r="BX2" s="9" t="n"/>
-      <c r="BY2" s="9" t="n"/>
-      <c r="BZ2" s="9" t="n"/>
-      <c r="CA2" s="9" t="n"/>
-      <c r="CB2" s="9" t="n"/>
-      <c r="CC2" s="9" t="n"/>
-      <c r="CD2" s="9" t="n"/>
-      <c r="CE2" s="9" t="n"/>
-      <c r="CF2" s="9" t="n"/>
-      <c r="CG2" s="9" t="n"/>
-      <c r="CH2" s="9" t="n"/>
-      <c r="CI2" s="9" t="n"/>
-      <c r="CJ2" s="9" t="n"/>
-      <c r="CK2" s="9" t="n"/>
-      <c r="CL2" s="9" t="n"/>
-      <c r="CM2" s="9" t="n"/>
-      <c r="CN2" s="9" t="n"/>
-      <c r="CO2" s="9" t="n"/>
-      <c r="CP2" s="9" t="n"/>
-      <c r="CQ2" s="9" t="n"/>
-      <c r="CR2" s="9" t="n"/>
-      <c r="CS2" s="9" t="n"/>
-      <c r="CT2" s="9" t="n"/>
-      <c r="CU2" s="9" t="n"/>
-      <c r="CV2" s="9" t="n"/>
-      <c r="CW2" s="9" t="n"/>
-      <c r="CX2" s="9" t="n"/>
-      <c r="CY2" s="9" t="n"/>
-      <c r="CZ2" s="9" t="n"/>
-      <c r="DA2" s="9" t="n"/>
-      <c r="DB2" s="9" t="n"/>
-      <c r="DC2" s="9" t="n"/>
-      <c r="DD2" s="9" t="n"/>
-      <c r="DE2" s="9" t="n"/>
-      <c r="DF2" s="9" t="n"/>
-      <c r="DG2" s="9" t="n"/>
-      <c r="DH2" s="9" t="n"/>
-      <c r="DI2" s="9" t="n"/>
-      <c r="DJ2" s="9" t="n"/>
-      <c r="DK2" s="9" t="n"/>
-      <c r="DL2" s="9" t="n"/>
-      <c r="DM2" s="9" t="n"/>
-      <c r="DN2" s="9" t="n"/>
-      <c r="DO2" s="9" t="n"/>
-      <c r="DP2" s="9" t="n"/>
-      <c r="DQ2" s="9" t="n"/>
-      <c r="DR2" s="9" t="n"/>
-      <c r="DS2" s="9" t="n"/>
-      <c r="DT2" s="9" t="n"/>
-      <c r="DU2" s="9" t="n"/>
-      <c r="DV2" s="9" t="n"/>
-      <c r="DW2" s="9" t="n"/>
-      <c r="DX2" s="9" t="n"/>
-      <c r="DY2" s="9" t="n"/>
-      <c r="DZ2" s="9" t="n"/>
-      <c r="EA2" s="9" t="n"/>
-      <c r="EM2" s="1" t="inlineStr">
-        <is>
-          <t>IEEBRW764256142</t>
-        </is>
-      </c>
-      <c r="EN2" s="1" t="inlineStr">
-        <is>
-          <t>IEEBRW764256142</t>
-        </is>
-      </c>
-      <c r="EO2" s="1" t="inlineStr">
-        <is>
-          <t>IEEBRW764256142</t>
-        </is>
-      </c>
-      <c r="EP2" s="1" t="inlineStr">
-        <is>
-          <t>IEEBRW764256142</t>
-        </is>
-      </c>
-      <c r="EQ2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="ER2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="ES2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="ET2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EU2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EV2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EW2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EX2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EY2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="EZ2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FA2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FB2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FC2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FD2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FE2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FF2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FG2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FH2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FI2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FJ2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FK2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FL2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FM2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FN2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FO2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FP2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FQ2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FR2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FS2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FT2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FU2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FV2" s="1" t="inlineStr">
-        <is>
-          <t>LIQIDT7473BRWS843145</t>
-        </is>
-      </c>
-      <c r="FW2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="FX2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="FY2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="FZ2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GA2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GB2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GC2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GD2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GE2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GF2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GG2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GH2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GI2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GJ2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GK2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GL2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT34130</t>
-        </is>
-      </c>
-      <c r="GM2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GN2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GO2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GP2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GQ2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GR2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT20120</t>
-        </is>
-      </c>
-      <c r="GS2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GT2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GU2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GV2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GW2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GX2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GY2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="GZ2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="HA2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT04148</t>
-        </is>
-      </c>
-      <c r="HB2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT11112</t>
-        </is>
-      </c>
-      <c r="HC2" s="1" t="inlineStr">
-        <is>
-          <t>CUSTSHORT11112</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11641,7 +13256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11822,7 +13437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11991,7 +13606,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -12107,7 +13722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12576,7 +14191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12636,7 +14251,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -12663,7 +14278,7 @@
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
@@ -12690,7 +14305,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -12717,7 +14332,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>UAT3_05092020131214</t>
+          <t>UAT3_05092020213342</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -12738,7 +14353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12747,7 +14362,7 @@
   <dimension ref="A1:BS28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -13202,7 +14817,7 @@
       </c>
       <c r="E2" s="77" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>BORROWER1111</t>
         </is>
       </c>
       <c r="F2" s="48" t="inlineStr">
@@ -14544,1050 +16159,6 @@
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>27</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" pageOrder="overThenDown" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:BP6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
-  <cols>
-    <col width="6.140625" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17" customWidth="1" style="1" min="3" max="3"/>
-    <col width="16.140625" customWidth="1" style="1" min="4" max="4"/>
-    <col width="20.85546875" customWidth="1" style="1" min="5" max="5"/>
-    <col width="19.85546875" customWidth="1" style="1" min="6" max="6"/>
-    <col width="14.42578125" customWidth="1" style="1" min="7" max="7"/>
-    <col width="16.85546875" customWidth="1" style="1" min="8" max="8"/>
-    <col width="20.85546875" customWidth="1" style="1" min="9" max="9"/>
-    <col width="21" customWidth="1" style="1" min="10" max="10"/>
-    <col width="18.85546875" customWidth="1" style="1" min="11" max="11"/>
-    <col width="19.7109375" customWidth="1" style="1" min="12" max="12"/>
-    <col width="23" customWidth="1" style="1" min="13" max="13"/>
-    <col width="26.85546875" customWidth="1" style="1" min="14" max="14"/>
-    <col width="17.5703125" customWidth="1" style="1" min="15" max="15"/>
-    <col width="21.42578125" customWidth="1" style="1" min="16" max="16"/>
-    <col width="20.5703125" customWidth="1" style="1" min="17" max="17"/>
-    <col width="21.5703125" customWidth="1" style="1" min="18" max="18"/>
-    <col width="25.85546875" customWidth="1" style="1" min="19" max="19"/>
-    <col width="22.140625" customWidth="1" style="1" min="20" max="20"/>
-    <col width="23.28515625" customWidth="1" style="1" min="21" max="21"/>
-    <col width="22.85546875" customWidth="1" style="1" min="22" max="22"/>
-    <col width="20.5703125" customWidth="1" style="1" min="23" max="23"/>
-    <col width="19.28515625" customWidth="1" style="1" min="24" max="24"/>
-    <col width="15.42578125" customWidth="1" style="1" min="25" max="25"/>
-    <col width="18.5703125" customWidth="1" style="1" min="26" max="26"/>
-    <col width="21.85546875" customWidth="1" style="1" min="27" max="27"/>
-    <col width="16.85546875" customWidth="1" style="1" min="28" max="28"/>
-    <col width="18.85546875" customWidth="1" style="1" min="29" max="29"/>
-    <col width="15.85546875" customWidth="1" style="1" min="30" max="30"/>
-    <col width="44.85546875" customWidth="1" style="1" min="31" max="31"/>
-    <col width="18" customWidth="1" style="1" min="32" max="32"/>
-    <col width="25" customWidth="1" style="1" min="33" max="33"/>
-    <col width="26.140625" customWidth="1" style="1" min="34" max="34"/>
-    <col width="24.42578125" customWidth="1" style="1" min="35" max="35"/>
-    <col width="27.28515625" customWidth="1" style="1" min="36" max="36"/>
-    <col width="27.85546875" customWidth="1" style="1" min="37" max="37"/>
-    <col width="28.85546875" customWidth="1" style="1" min="38" max="38"/>
-    <col width="29.28515625" customWidth="1" style="1" min="39" max="39"/>
-    <col width="36" customWidth="1" style="1" min="40" max="40"/>
-    <col width="34.42578125" customWidth="1" style="1" min="41" max="41"/>
-    <col width="24.85546875" customWidth="1" style="1" min="42" max="42"/>
-    <col width="25" customWidth="1" style="1" min="43" max="43"/>
-    <col width="19.7109375" customWidth="1" style="1" min="44" max="45"/>
-    <col width="34.140625" customWidth="1" style="1" min="46" max="46"/>
-    <col width="35.140625" customWidth="1" style="1" min="47" max="47"/>
-    <col width="28.85546875" customWidth="1" style="1" min="48" max="49"/>
-    <col width="22" customWidth="1" style="1" min="50" max="50"/>
-    <col width="31.28515625" customWidth="1" style="1" min="51" max="51"/>
-    <col width="18.140625" customWidth="1" style="1" min="52" max="52"/>
-    <col width="26.140625" customWidth="1" style="1" min="53" max="53"/>
-    <col width="22.42578125" customWidth="1" style="1" min="54" max="54"/>
-    <col width="19" customWidth="1" style="1" min="55" max="55"/>
-    <col width="26.28515625" customWidth="1" style="1" min="56" max="56"/>
-    <col width="23.5703125" customWidth="1" style="1" min="57" max="57"/>
-    <col width="28" customWidth="1" style="1" min="58" max="58"/>
-    <col width="25.140625" customWidth="1" style="1" min="59" max="59"/>
-    <col width="23.140625" customWidth="1" style="1" min="60" max="60"/>
-    <col width="18.5703125" customWidth="1" style="1" min="61" max="61"/>
-    <col width="23.5703125" customWidth="1" style="1" min="62" max="62"/>
-    <col width="21.140625" customWidth="1" style="1" min="63" max="63"/>
-    <col width="31.28515625" customWidth="1" style="1" min="64" max="64"/>
-    <col width="28.28515625" customWidth="1" style="1" min="65" max="65"/>
-    <col width="24.140625" customWidth="1" style="1" min="66" max="67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="1" s="34">
-      <c r="A1" s="34" t="inlineStr">
-        <is>
-          <t>rowid</t>
-        </is>
-      </c>
-      <c r="B1" s="34" t="inlineStr">
-        <is>
-          <t>Test_Case</t>
-        </is>
-      </c>
-      <c r="C1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_NamePrefix</t>
-        </is>
-      </c>
-      <c r="D1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_AliasPrefix</t>
-        </is>
-      </c>
-      <c r="E1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Name</t>
-        </is>
-      </c>
-      <c r="F1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Alias</t>
-        </is>
-      </c>
-      <c r="G1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Currency</t>
-        </is>
-      </c>
-      <c r="H1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_SalesGroup</t>
-        </is>
-      </c>
-      <c r="I1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_ShortName</t>
-        </is>
-      </c>
-      <c r="J1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_Location</t>
-        </is>
-      </c>
-      <c r="K1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_SG_Alias</t>
-        </is>
-      </c>
-      <c r="L1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_SG_Name</t>
-        </is>
-      </c>
-      <c r="M1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_ContactName</t>
-        </is>
-      </c>
-      <c r="N1" s="34" t="inlineStr">
-        <is>
-          <t>Borrower_PreferredRIMthd1</t>
-        </is>
-      </c>
-      <c r="O1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_AdminAgent</t>
-        </is>
-      </c>
-      <c r="P1" s="34" t="inlineStr">
-        <is>
-          <t>AdminAgent_Location</t>
-        </is>
-      </c>
-      <c r="Q1" s="34" t="inlineStr">
-        <is>
-          <t>AdminAgent_SGAlias</t>
-        </is>
-      </c>
-      <c r="R1" s="34" t="inlineStr">
-        <is>
-          <t>AdminAgent_SGName</t>
-        </is>
-      </c>
-      <c r="S1" s="34" t="inlineStr">
-        <is>
-          <t>AdminAgent_ContactName</t>
-        </is>
-      </c>
-      <c r="T1" s="34" t="inlineStr">
-        <is>
-          <t>AdminAgent_RIMethod</t>
-        </is>
-      </c>
-      <c r="U1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_ClassificationCode</t>
-        </is>
-      </c>
-      <c r="V1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_ClassificationDesc</t>
-        </is>
-      </c>
-      <c r="W1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_AgreementDate</t>
-        </is>
-      </c>
-      <c r="X1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_ApprovedDate</t>
-        </is>
-      </c>
-      <c r="Y1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_CloseDate</t>
-        </is>
-      </c>
-      <c r="Z1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_ProposedCmt</t>
-        </is>
-      </c>
-      <c r="AA1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_DepartmentCode</t>
-        </is>
-      </c>
-      <c r="AB1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Department</t>
-        </is>
-      </c>
-      <c r="AC1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_ExpenseCode</t>
-        </is>
-      </c>
-      <c r="AD1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_Calendar</t>
-        </is>
-      </c>
-      <c r="AE1" s="34" t="inlineStr">
-        <is>
-          <t>Deal_PricingOption</t>
-        </is>
-      </c>
-      <c r="AF1" s="34" t="inlineStr">
-        <is>
-          <t>InitialFractionRate</t>
-        </is>
-      </c>
-      <c r="AG1" s="34" t="inlineStr">
-        <is>
-          <t>InitialFractionRate_Round</t>
-        </is>
-      </c>
-      <c r="AH1" s="34" t="inlineStr">
-        <is>
-          <t>RoundingDecimalPrecision</t>
-        </is>
-      </c>
-      <c r="AI1" s="34" t="inlineStr">
-        <is>
-          <t>RoundingDecimal_Round</t>
-        </is>
-      </c>
-      <c r="AJ1" s="34" t="inlineStr">
-        <is>
-          <t>RoundingApplicationMethod</t>
-        </is>
-      </c>
-      <c r="AK1" s="34" t="inlineStr">
-        <is>
-          <t>PercentOfRateFormulaUsage</t>
-        </is>
-      </c>
-      <c r="AL1" s="34" t="inlineStr">
-        <is>
-          <t>NonBusinessDayRule</t>
-        </is>
-      </c>
-      <c r="AM1" s="34" t="inlineStr">
-        <is>
-          <t>RepricingNonBusinessDayRule</t>
-        </is>
-      </c>
-      <c r="AN1" s="34" t="inlineStr">
-        <is>
-          <t>PricingOption_MatrixChangeAppMthd</t>
-        </is>
-      </c>
-      <c r="AO1" s="34" t="inlineStr">
-        <is>
-          <t>PricingOption_RateChangeAppMthd</t>
-        </is>
-      </c>
-      <c r="AP1" s="34" t="inlineStr">
-        <is>
-          <t>MinimumPaymentAmount</t>
-        </is>
-      </c>
-      <c r="AQ1" s="34" t="inlineStr">
-        <is>
-          <t>MinimumAmountMultiples</t>
-        </is>
-      </c>
-      <c r="AR1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_Fee</t>
-        </is>
-      </c>
-      <c r="AS1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_Fee2</t>
-        </is>
-      </c>
-      <c r="AT1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_MatrixChangeAppMthd</t>
-        </is>
-      </c>
-      <c r="AU1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_MatrixChangeAppMthd2</t>
-        </is>
-      </c>
-      <c r="AV1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_NonBussDayRule</t>
-        </is>
-      </c>
-      <c r="AW1" s="34" t="inlineStr">
-        <is>
-          <t>PricingRule_NonBussDayRule2</t>
-        </is>
-      </c>
-      <c r="AX1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_Type</t>
-        </is>
-      </c>
-      <c r="AY1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_BankName</t>
-        </is>
-      </c>
-      <c r="AZ1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_SGAlias</t>
-        </is>
-      </c>
-      <c r="BA1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_SGContactName</t>
-        </is>
-      </c>
-      <c r="BB1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_SGRIMethod</t>
-        </is>
-      </c>
-      <c r="BC1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_SGName</t>
-        </is>
-      </c>
-      <c r="BD1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_Portfolio</t>
-        </is>
-      </c>
-      <c r="BE1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_ExpenseCode</t>
-        </is>
-      </c>
-      <c r="BF1" s="34" t="inlineStr">
-        <is>
-          <t>BankRole_ExpenseCodeDesc</t>
-        </is>
-      </c>
-      <c r="BG1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_IncomeMethod</t>
-        </is>
-      </c>
-      <c r="BH1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_AmountType</t>
-        </is>
-      </c>
-      <c r="BI1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_Amount</t>
-        </is>
-      </c>
-      <c r="BJ1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_EffectiveDate</t>
-        </is>
-      </c>
-      <c r="BK1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_Frequency</t>
-        </is>
-      </c>
-      <c r="BL1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_Customer</t>
-        </is>
-      </c>
-      <c r="BM1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_CustomerLocation</t>
-        </is>
-      </c>
-      <c r="BN1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_ExpenseCode</t>
-        </is>
-      </c>
-      <c r="BO1" s="34" t="inlineStr">
-        <is>
-          <t>AdminFee_PercentOfFee</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" customFormat="1" s="9">
-      <c r="A2" s="9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="inlineStr">
-        <is>
-          <t>CBA UAT Deal 3</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t>UAT3_</t>
-        </is>
-      </c>
-      <c r="D2" s="9" t="inlineStr">
-        <is>
-          <t>UAT3</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>UAT3_05092020131214</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>UAT305092020131214</t>
-        </is>
-      </c>
-      <c r="G2" s="9" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
-      <c r="H2" s="9" t="inlineStr">
-        <is>
-          <t>Sales Group 1</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t>Sydney, NSW,Australia</t>
-        </is>
-      </c>
-      <c r="K2" s="9" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="L2" s="1" t="inlineStr">
-        <is>
-          <t>Bear,  Grylls</t>
-        </is>
-      </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>Bear,  Grylls</t>
-        </is>
-      </c>
-      <c r="N2" s="9" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="O2" s="9" t="inlineStr">
-        <is>
-          <t>%DBU</t>
-        </is>
-      </c>
-      <c r="P2" s="9" t="inlineStr">
-        <is>
-          <t>Sydney, NSW,Australia</t>
-        </is>
-      </c>
-      <c r="Q2" s="9" t="inlineStr">
-        <is>
-          <t>OL</t>
-        </is>
-      </c>
-      <c r="R2" s="9" t="inlineStr">
-        <is>
-          <t>LENDING</t>
-        </is>
-      </c>
-      <c r="S2" s="9" t="inlineStr">
-        <is>
-          <t>Lending,  Ops</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="U2" s="9" t="inlineStr">
-        <is>
-          <t>GCP</t>
-        </is>
-      </c>
-      <c r="V2" s="9" t="inlineStr">
-        <is>
-          <t>General Corp Purpose</t>
-        </is>
-      </c>
-      <c r="W2" s="9" t="inlineStr">
-        <is>
-          <t>31-Mar-2017</t>
-        </is>
-      </c>
-      <c r="X2" s="9" t="inlineStr">
-        <is>
-          <t>31-Mar-2017</t>
-        </is>
-      </c>
-      <c r="Y2" s="9" t="inlineStr">
-        <is>
-          <t>31-Mar-2017</t>
-        </is>
-      </c>
-      <c r="Z2" s="9" t="inlineStr">
-        <is>
-          <t>440,000,000.00</t>
-        </is>
-      </c>
-      <c r="AA2" s="9" t="inlineStr">
-        <is>
-          <t>GLB</t>
-        </is>
-      </c>
-      <c r="AB2" s="9" t="inlineStr">
-        <is>
-          <t>Global</t>
-        </is>
-      </c>
-      <c r="AC2" s="9" t="inlineStr">
-        <is>
-          <t>RE_RES</t>
-        </is>
-      </c>
-      <c r="AD2" s="9" t="inlineStr">
-        <is>
-          <t>Sydney, Australia</t>
-        </is>
-      </c>
-      <c r="AE2" s="9" t="inlineStr">
-        <is>
-          <t>BBSY - Bid</t>
-        </is>
-      </c>
-      <c r="AG2" s="9" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AH2" s="9" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI2" s="9" t="inlineStr">
-        <is>
-          <t>Up</t>
-        </is>
-      </c>
-      <c r="AJ2" s="9" t="inlineStr">
-        <is>
-          <t>Base Rate Only By Formula</t>
-        </is>
-      </c>
-      <c r="AK2" s="9" t="inlineStr">
-        <is>
-          <t>(Base + Spread + RAC) * PCT</t>
-        </is>
-      </c>
-      <c r="AL2" s="9" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AM2" s="9" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AN2" s="9" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AO2" s="9" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AP2" s="9" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AQ2" s="9" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AR2" s="9" t="inlineStr">
-        <is>
-          <t>Commitment Fee</t>
-        </is>
-      </c>
-      <c r="AS2" s="9" t="inlineStr">
-        <is>
-          <t>Line Fee</t>
-        </is>
-      </c>
-      <c r="AT2" s="9" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AU2" s="9" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AV2" s="9" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AW2" s="9" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AX2" s="9" t="inlineStr">
-        <is>
-          <t>SBLC/Guarantee Issuer</t>
-        </is>
-      </c>
-      <c r="AY2" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="AZ2" s="9" t="inlineStr">
-        <is>
-          <t>OL</t>
-        </is>
-      </c>
-      <c r="BA2" s="9" t="inlineStr">
-        <is>
-          <t>Lending,  Ops</t>
-        </is>
-      </c>
-      <c r="BB2" s="9" t="inlineStr">
-        <is>
-          <t>RTGS</t>
-        </is>
-      </c>
-      <c r="BC2" s="9" t="inlineStr">
-        <is>
-          <t>LENDING</t>
-        </is>
-      </c>
-      <c r="BD2" s="9" t="inlineStr">
-        <is>
-          <t>Hold for Investment - Australia</t>
-        </is>
-      </c>
-      <c r="BE2" s="9" t="inlineStr">
-        <is>
-          <t>RE_RES</t>
-        </is>
-      </c>
-      <c r="BF2" s="9" t="inlineStr">
-        <is>
-          <t>Real Estate Solutions</t>
-        </is>
-      </c>
-      <c r="BG2" s="9" t="inlineStr">
-        <is>
-          <t>Accrue</t>
-        </is>
-      </c>
-      <c r="BH2" s="9" t="inlineStr">
-        <is>
-          <t>Formula</t>
-        </is>
-      </c>
-      <c r="BI2" s="9" t="inlineStr">
-        <is>
-          <t>0.8</t>
-        </is>
-      </c>
-      <c r="BJ2" s="9" t="inlineStr">
-        <is>
-          <t>26-Jun-2018</t>
-        </is>
-      </c>
-      <c r="BK2" s="9" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="BL2" s="9" t="inlineStr">
-        <is>
-          <t>COMMONWEALTH BANK AU-DBU</t>
-        </is>
-      </c>
-      <c r="BM2" s="9" t="inlineStr">
-        <is>
-          <t>Sydney, NSW,Australia</t>
-        </is>
-      </c>
-      <c r="BN2" s="1" t="inlineStr">
-        <is>
-          <t>RE_RES</t>
-        </is>
-      </c>
-      <c r="BO2" s="9" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="BP2" s="1" t="inlineStr">
-        <is>
-          <t>440,000,000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD3" s="1" t="inlineStr">
-        <is>
-          <t>Perth, Australia</t>
-        </is>
-      </c>
-      <c r="AE3" s="1" t="inlineStr">
-        <is>
-          <t>USD LIBOR Option</t>
-        </is>
-      </c>
-      <c r="AG3" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AH3" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI3" s="1" t="inlineStr">
-        <is>
-          <t>Up</t>
-        </is>
-      </c>
-      <c r="AJ3" s="1" t="inlineStr">
-        <is>
-          <t>Base Rate Only By Formula</t>
-        </is>
-      </c>
-      <c r="AK3" s="1" t="inlineStr">
-        <is>
-          <t>(Base + Spread + RAC) * PCT</t>
-        </is>
-      </c>
-      <c r="AL3" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AM3" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AN3" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AO3" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AP3" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AQ3" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AR3" s="1" t="inlineStr">
-        <is>
-          <t>Issuance Fee (BG/LC)</t>
-        </is>
-      </c>
-      <c r="AT3" s="1" t="inlineStr">
-        <is>
-          <t>Start of next cycle</t>
-        </is>
-      </c>
-      <c r="AV3" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="BE3" s="9" t="inlineStr">
-        <is>
-          <t>RE_RES</t>
-        </is>
-      </c>
-      <c r="BF3" s="9" t="inlineStr">
-        <is>
-          <t>Real Estate Solutions</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AE4" s="1" t="inlineStr">
-        <is>
-          <t>BBSW - Mid</t>
-        </is>
-      </c>
-      <c r="AG4" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AH4" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI4" s="1" t="inlineStr">
-        <is>
-          <t>Nearest</t>
-        </is>
-      </c>
-      <c r="AJ4" s="1" t="inlineStr">
-        <is>
-          <t>Base Rate Only By Formula</t>
-        </is>
-      </c>
-      <c r="AK4" s="1" t="inlineStr">
-        <is>
-          <t>(Base + Spread + RAC) * PCT</t>
-        </is>
-      </c>
-      <c r="AL4" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AM4" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AN4" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AO4" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AP4" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE5" s="1" t="inlineStr">
-        <is>
-          <t>GBP LIBOR Option</t>
-        </is>
-      </c>
-      <c r="AG5" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AH5" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AI5" s="1" t="inlineStr">
-        <is>
-          <t>Nearest</t>
-        </is>
-      </c>
-      <c r="AJ5" s="1" t="inlineStr">
-        <is>
-          <t>Base Rate Only By Formula</t>
-        </is>
-      </c>
-      <c r="AK5" s="1" t="inlineStr">
-        <is>
-          <t>(Base + Spread + RAC) * PCT</t>
-        </is>
-      </c>
-      <c r="AL5" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AM5" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AN5" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AO5" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AP5" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AE6" s="1" t="inlineStr">
-        <is>
-          <t>Bank Guarantee/Letter of Credit/Synd Fronted Bank</t>
-        </is>
-      </c>
-      <c r="AG6" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AI6" s="1" t="inlineStr">
-        <is>
-          <t>Actual</t>
-        </is>
-      </c>
-      <c r="AJ6" s="1" t="inlineStr">
-        <is>
-          <t>Base Rate Only By Formula</t>
-        </is>
-      </c>
-      <c r="AK6" s="1" t="inlineStr">
-        <is>
-          <t>(Base + Spread + RAC) * PCT</t>
-        </is>
-      </c>
-      <c r="AL6" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AM6" s="1" t="inlineStr">
-        <is>
-          <t>Modified Following Business Day</t>
-        </is>
-      </c>
-      <c r="AN6" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AO6" s="1" t="inlineStr">
-        <is>
-          <t>Effective date of change</t>
-        </is>
-      </c>
-      <c r="AP6" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
-        </is>
-      </c>
-      <c r="AQ6" s="1" t="inlineStr">
-        <is>
-          <t>1,000,000.00</t>
         </is>
       </c>
     </row>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECBEA3F4-89DA-40AF-BEB6-C1B587F8569C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF9791-2049-4382-902C-77E55B4E20C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="854">
   <si>
     <t>rowid</t>
   </si>
@@ -2610,9 +2610,6 @@
   </si>
   <si>
     <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>28-Nov-2019</t>
   </si>
   <si>
     <t>Fee_Type</t>
@@ -12411,7 +12408,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12442,7 +12439,7 @@
         <v>76</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F1" s="87" t="s">
         <v>281</v>
@@ -12473,7 +12470,7 @@
       <c r="D2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>179</v>
       </c>
       <c r="F2" s="85" t="s">
@@ -12505,11 +12502,11 @@
       <c r="D3" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>179</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G3" s="77" t="s">
         <v>850</v>
@@ -12537,11 +12534,11 @@
       <c r="D4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>179</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G4" s="77" t="s">
         <v>850</v>
@@ -12569,7 +12566,7 @@
       <c r="D5" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>200</v>
       </c>
       <c r="F5" s="85" t="s">
@@ -12579,7 +12576,7 @@
         <v>662</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>852</v>
+        <v>282</v>
       </c>
       <c r="I5" t="s">
         <v>712</v>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF9791-2049-4382-902C-77E55B4E20C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB965DB-7250-4AE5-BEE8-84772ACE49A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -35,22 +35,12 @@
     <sheet name="CRED01_UpfrontFee" sheetId="20" r:id="rId20"/>
     <sheet name="COM06_LoanMerge" sheetId="21" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="855">
   <si>
     <t>rowid</t>
   </si>
@@ -346,7 +336,7 @@
     <t>CBA_UAT_03</t>
   </si>
   <si>
-    <t>UAT3_06092020112258</t>
+    <t>UAT3_06092020195407</t>
   </si>
   <si>
     <t>Loan</t>
@@ -415,7 +405,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>SCAF_06092020141832JGL</t>
+    <t>SCAF_06092020201917VOF</t>
   </si>
   <si>
     <t>06000214</t>
@@ -577,7 +567,7 @@
     <t>Penalty_Status</t>
   </si>
   <si>
-    <t>MOF_06092020124133DCP</t>
+    <t>MOF_06092020200456PFJ</t>
   </si>
   <si>
     <t>Facility Ongoing Fee</t>
@@ -628,7 +618,7 @@
     <t>Off</t>
   </si>
   <si>
-    <t>FCAF_06092020140827QNC</t>
+    <t>FCAF_06092020201301GPN</t>
   </si>
   <si>
     <t>0.475%</t>
@@ -649,7 +639,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>TCAF_06092020142642UOC</t>
+    <t>TCAF_06092020202550WSP</t>
   </si>
   <si>
     <t>Line Fee</t>
@@ -802,6 +792,9 @@
     <t>Primary_CircledDate</t>
   </si>
   <si>
+    <t>COMMONWEALTHBANKOFAUSTCB001</t>
+  </si>
+  <si>
     <t>Sydney, NSW,Australia</t>
   </si>
   <si>
@@ -817,21 +810,18 @@
     <t>For UAT</t>
   </si>
   <si>
-    <t>Lending,  Ops</t>
-  </si>
-  <si>
-    <t>OL</t>
+    <t>AGENCY</t>
   </si>
   <si>
     <t>Commonwealth Bank of Australia - DBU</t>
   </si>
   <si>
+    <t>100,000,000.00</t>
+  </si>
+  <si>
     <t>200,000,000.00</t>
   </si>
   <si>
-    <t>100,000,000.00</t>
-  </si>
-  <si>
     <t>90,000,000.00</t>
   </si>
   <si>
@@ -895,10 +885,49 @@
     <t>UAT_Deal3_BaseRate_06.csv</t>
   </si>
   <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
     <t>Effective_Date</t>
   </si>
   <si>
+    <t>Actual_DueDate</t>
+  </si>
+  <si>
+    <t>Adjusted_DueDate</t>
+  </si>
+  <si>
+    <t>Cycle_Frequency</t>
+  </si>
+  <si>
+    <t>Accrue</t>
+  </si>
+  <si>
+    <t>29-Sep-2018</t>
+  </si>
+  <si>
+    <t>29-Dec-2018</t>
+  </si>
+  <si>
+    <t>31-Dec-2018</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>to the actual due date</t>
+  </si>
+  <si>
+    <t>'29-Sep-2018</t>
+  </si>
+  <si>
     <t>28-Nov-2018</t>
+  </si>
+  <si>
+    <t>28-Dec-2018</t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
   <si>
     <t>LIQCustomer_LegalName</t>
@@ -1574,13 +1603,16 @@
     <t>AdminFee_PercentOfFee</t>
   </si>
   <si>
+    <t>Primary_PortfolioAllocation</t>
+  </si>
+  <si>
     <t>UAT3_</t>
   </si>
   <si>
     <t>UAT3</t>
   </si>
   <si>
-    <t>UAT306092020112259</t>
+    <t>UAT306092020195407</t>
   </si>
   <si>
     <t>Sales Group 1</t>
@@ -1592,12 +1624,15 @@
     <t>Bear,  Grylls</t>
   </si>
   <si>
-    <t>COMMONWEALTHBANKOFAUSTCB001</t>
+    <t>OL</t>
   </si>
   <si>
     <t>LENDING</t>
   </si>
   <si>
+    <t>Lending,  Ops</t>
+  </si>
+  <si>
     <t>GCP</t>
   </si>
   <si>
@@ -1637,27 +1672,18 @@
     <t>SBLC/Guarantee Issuer</t>
   </si>
   <si>
-    <t>AGENCY</t>
-  </si>
-  <si>
     <t>Hold for Investment - Australia</t>
   </si>
   <si>
     <t>Real Estate Solutions</t>
   </si>
   <si>
-    <t>Accrue</t>
-  </si>
-  <si>
     <t>0.8</t>
   </si>
   <si>
     <t>26-Jun-2018</t>
   </si>
   <si>
-    <t>Quarterly</t>
-  </si>
-  <si>
     <t>Perth, Australia</t>
   </si>
   <si>
@@ -1865,9 +1891,6 @@
     <t>SBLC_Status</t>
   </si>
   <si>
-    <t>Cycle_Frequency</t>
-  </si>
-  <si>
     <t>Performing_Status</t>
   </si>
   <si>
@@ -2042,9 +2065,6 @@
     <t>20,000,000.00</t>
   </si>
   <si>
-    <t>28-Dec-2018</t>
-  </si>
-  <si>
     <t>2.05820</t>
   </si>
   <si>
@@ -2159,9 +2179,6 @@
     <t>28-Sep-2018</t>
   </si>
   <si>
-    <t>31-Dec-2018</t>
-  </si>
-  <si>
     <t>19-Mar-2019</t>
   </si>
   <si>
@@ -2192,9 +2209,6 @@
     <t>Projected Due</t>
   </si>
   <si>
-    <t>Monthly</t>
-  </si>
-  <si>
     <t>28-Dec-2019</t>
   </si>
   <si>
@@ -2595,27 +2609,6 @@
   </si>
   <si>
     <t>CUSTSHORT11112</t>
-  </si>
-  <si>
-    <t>29-Sep-2018</t>
-  </si>
-  <si>
-    <t>Actual_DueDate</t>
-  </si>
-  <si>
-    <t>Adjusted_DueDate</t>
-  </si>
-  <si>
-    <t>29-Dec-2018</t>
-  </si>
-  <si>
-    <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>'29-Sep-2018</t>
   </si>
 </sst>
 </file>
@@ -3682,8 +3675,8 @@
   </sheetPr>
   <dimension ref="A1:BP6"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BP7" sqref="BP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3752,6 +3745,7 @@
     <col min="64" max="64" width="31.28515625" style="1" customWidth="1"/>
     <col min="65" max="65" width="28.28515625" style="1" customWidth="1"/>
     <col min="66" max="67" width="24.140625" style="1" customWidth="1"/>
+    <col min="68" max="68" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="34" customFormat="1" x14ac:dyDescent="0.2">
@@ -3762,199 +3756,202 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="R1" s="34" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="S1" s="34" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="T1" s="34" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="U1" s="34" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="V1" s="34" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="W1" s="34" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="X1" s="34" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="AA1" s="34" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="AB1" s="34" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="AC1" s="34" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="AD1" s="34" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="AE1" s="34" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="AF1" s="34" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="AG1" s="34" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="AH1" s="34" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="AI1" s="34" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="AJ1" s="34" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="AK1" s="34" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="AL1" s="34" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="AM1" s="34" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="AN1" s="34" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="AO1" s="34" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="AP1" s="34" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="AQ1" s="34" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="AR1" s="34" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="AS1" s="34" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="AT1" s="34" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AU1" s="34" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AV1" s="34" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
       <c r="AW1" s="34" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="AX1" s="34" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="AY1" s="34" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="AZ1" s="34" t="s">
         <v>241</v>
       </c>
       <c r="BA1" s="34" t="s">
-        <v>491</v>
+        <v>504</v>
       </c>
       <c r="BB1" s="34" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="BC1" s="34" t="s">
-        <v>493</v>
+        <v>506</v>
       </c>
       <c r="BD1" s="34" t="s">
-        <v>494</v>
+        <v>507</v>
       </c>
       <c r="BE1" s="34" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="BF1" s="34" t="s">
-        <v>496</v>
+        <v>509</v>
       </c>
       <c r="BG1" s="34" t="s">
-        <v>497</v>
+        <v>510</v>
       </c>
       <c r="BH1" s="34" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="BI1" s="34" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="BJ1" s="34" t="s">
-        <v>500</v>
+        <v>513</v>
       </c>
       <c r="BK1" s="34" t="s">
-        <v>501</v>
+        <v>514</v>
       </c>
       <c r="BL1" s="34" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="BM1" s="34" t="s">
-        <v>503</v>
+        <v>516</v>
       </c>
       <c r="BN1" s="34" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="BO1" s="34" t="s">
-        <v>505</v>
+        <v>518</v>
+      </c>
+      <c r="BP1" s="34" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3962,67 +3959,67 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>506</v>
+        <v>520</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>507</v>
+        <v>521</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>509</v>
+        <v>523</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>255</v>
+        <v>528</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>262</v>
@@ -4034,55 +4031,55 @@
         <v>262</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>198</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>179</v>
@@ -4091,73 +4088,73 @@
         <v>200</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="BB2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="BD2" s="9" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="BE2" s="9" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="BF2" s="9" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>530</v>
+        <v>286</v>
       </c>
       <c r="BH2" s="9" t="s">
         <v>184</v>
       </c>
       <c r="BI2" s="9" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>532</v>
+        <v>545</v>
       </c>
       <c r="BK2" s="9" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="BL2" s="9" t="s">
         <v>104</v>
       </c>
       <c r="BM2" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="BO2" s="9" t="s">
         <v>106</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
@@ -4165,58 +4162,58 @@
         <v>120</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>202</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
@@ -4227,34 +4224,34 @@
         <v>103</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI4" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AJ4" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="AK4" s="1" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AM4" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AO4" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
@@ -4265,34 +4262,34 @@
         <v>203</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI5" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AJ5" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="AK5" s="1" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AO5" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
@@ -4300,37 +4297,37 @@
         <v>277</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AG6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="AL6" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AM6" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="AN6" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="AP6" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="AQ6" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>73</v>
@@ -4405,118 +4402,118 @@
         <v>76</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="L1" s="28" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="M1" s="28" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="N1" s="28" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="O1" s="28" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="P1" s="28" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="Q1" s="28" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="R1" s="28" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="T1" s="28" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="U1" s="28" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="V1" s="28" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="W1" s="28" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="X1" s="28" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="Y1" s="28" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="Z1" s="28" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="AA1" s="28" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="AB1" s="28" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="AC1" s="28" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="AD1" s="28" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="AE1" s="28" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="AF1" s="28" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AG1" s="28" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="AH1" s="28" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AI1" s="28" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="AJ1" s="28" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="AK1" s="28" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="AL1" s="28" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AM1" s="28" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="AN1" s="28" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="AO1" s="28" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AP1" s="28" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AQ1" s="28" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4527,7 +4524,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>98</v>
@@ -4539,10 +4536,10 @@
         <v>110</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>110</v>
@@ -4554,40 +4551,40 @@
         <v>262</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>99</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>178</v>
@@ -4599,25 +4596,25 @@
         <v>178</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>178</v>
@@ -4632,7 +4629,7 @@
         <v>178</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>178</v>
@@ -4647,7 +4644,7 @@
         <v>178</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4658,7 +4655,7 @@
         <v>97</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
@@ -4670,10 +4667,10 @@
         <v>110</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>110</v>
@@ -4685,16 +4682,16 @@
         <v>262</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>99</v>
@@ -4703,25 +4700,25 @@
         <v>178</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>110</v>
@@ -4730,55 +4727,55 @@
         <v>178</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>110</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AN3" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="AO3" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4789,7 +4786,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>98</v>
@@ -4801,7 +4798,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>260</v>
@@ -4810,22 +4807,22 @@
         <v>110</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>262</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>99</v>
@@ -4834,22 +4831,22 @@
         <v>178</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>178</v>
@@ -4861,25 +4858,25 @@
         <v>178</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AF4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>178</v>
@@ -4894,22 +4891,22 @@
         <v>178</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AN4" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="AO4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4920,7 +4917,7 @@
         <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
@@ -4932,7 +4929,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>261</v>
@@ -4941,22 +4938,22 @@
         <v>110</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>262</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>527</v>
+        <v>256</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>99</v>
@@ -4965,22 +4962,22 @@
         <v>178</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>178</v>
@@ -4989,28 +4986,28 @@
         <v>110</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>178</v>
@@ -5019,28 +5016,28 @@
         <v>110</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AN5" s="9" t="s">
-        <v>512</v>
+        <v>250</v>
       </c>
       <c r="AO5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>256</v>
+        <v>526</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5101,13 +5098,13 @@
         <v>73</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>78</v>
@@ -5116,52 +5113,52 @@
         <v>85</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>603</v>
+        <v>285</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>604</v>
+        <v>615</v>
       </c>
       <c r="P1" s="21" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="Q1" s="21" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="R1" s="21" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -5175,58 +5172,58 @@
         <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>112</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>114</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="U2" s="11" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>114</v>
@@ -5235,7 +5232,7 @@
         <v>116</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>624</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -5249,58 +5246,58 @@
         <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="J3" s="40" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>112</v>
       </c>
       <c r="N3" s="11" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>114</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>622</v>
+        <v>633</v>
       </c>
       <c r="U3" s="11" t="s">
-        <v>623</v>
+        <v>634</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>114</v>
@@ -5365,10 +5362,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>73</v>
@@ -5377,40 +5374,40 @@
         <v>76</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="I1" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="K1" s="53" t="s">
         <v>87</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="M1" s="53" t="s">
-        <v>632</v>
+        <v>643</v>
       </c>
       <c r="N1" s="53" t="s">
-        <v>633</v>
+        <v>644</v>
       </c>
       <c r="O1" s="53" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="P1" s="53" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
       <c r="Q1" s="53" t="s">
-        <v>636</v>
+        <v>647</v>
       </c>
       <c r="R1" s="53" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>87</v>
@@ -5431,7 +5428,7 @@
         <v>81</v>
       </c>
       <c r="Y1" s="53" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5439,10 +5436,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>110</v>
@@ -5454,13 +5451,13 @@
         <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>188</v>
@@ -5469,25 +5466,25 @@
         <v>110</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>646</v>
+        <v>657</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>110</v>
@@ -5502,7 +5499,7 @@
         <v>118</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>106</v>
@@ -5511,13 +5508,13 @@
         <v>178</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5525,10 +5522,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>110</v>
@@ -5540,13 +5537,13 @@
         <v>192</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>188</v>
@@ -5555,25 +5552,25 @@
         <v>110</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>644</v>
+        <v>655</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>645</v>
+        <v>656</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>110</v>
@@ -5588,7 +5585,7 @@
         <v>118</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>106</v>
@@ -5597,13 +5594,13 @@
         <v>178</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5611,10 +5608,10 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>110</v>
@@ -5626,13 +5623,13 @@
         <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>188</v>
@@ -5641,22 +5638,22 @@
         <v>110</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>658</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>646</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>647</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>197</v>
@@ -5674,7 +5671,7 @@
         <v>118</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>106</v>
@@ -5683,13 +5680,13 @@
         <v>178</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5697,10 +5694,10 @@
         <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>659</v>
+        <v>670</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>110</v>
@@ -5712,7 +5709,7 @@
         <v>199</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>99</v>
@@ -5727,22 +5724,22 @@
         <v>110</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>662</v>
+        <v>294</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>41</v>
@@ -5760,22 +5757,22 @@
         <v>118</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5783,10 +5780,10 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>110</v>
@@ -5798,13 +5795,13 @@
         <v>199</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>103</v>
@@ -5813,22 +5810,22 @@
         <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>662</v>
+        <v>294</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>41</v>
@@ -5846,22 +5843,22 @@
         <v>118</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -5869,10 +5866,10 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>110</v>
@@ -5884,39 +5881,39 @@
         <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>99</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>98</v>
@@ -5925,43 +5922,43 @@
         <v>199</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>202</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="O8" s="55" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P8" s="55" t="s">
         <v>178</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>41</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="T8" s="1">
         <v>7125114</v>
@@ -5970,39 +5967,39 @@
         <v>107</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="X8" s="54" t="s">
         <v>106</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>681</v>
+        <v>691</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>682</v>
+        <v>692</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>98</v>
@@ -6011,43 +6008,43 @@
         <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>203</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="T9" s="1">
         <v>7125114</v>
@@ -6056,39 +6053,39 @@
         <v>107</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="X9" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>98</v>
@@ -6097,43 +6094,43 @@
         <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>202</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="T10" s="1">
         <v>7125114</v>
@@ -6142,25 +6139,25 @@
         <v>107</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>648</v>
+        <v>659</v>
       </c>
       <c r="AA10" s="1" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -6319,19 +6316,19 @@
         <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="J1" s="56" t="s">
         <v>74</v>
@@ -6340,10 +6337,10 @@
         <v>75</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>95</v>
@@ -6355,7 +6352,7 @@
         <v>82</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
@@ -6415,7 +6412,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -6424,7 +6421,7 @@
         <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="F2" s="1">
         <v>7125114</v>
@@ -6433,13 +6430,13 @@
         <v>39406.910000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>100</v>
@@ -6448,7 +6445,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>118</v>
@@ -6457,13 +6454,13 @@
         <v>106</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="Q2" s="40" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -6559,7 +6556,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -6568,7 +6565,7 @@
         <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="F3" s="1">
         <v>7125114</v>
@@ -6577,13 +6574,13 @@
         <v>1836.32</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>100</v>
@@ -6592,7 +6589,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>118</v>
@@ -6601,10 +6598,10 @@
         <v>106</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -6701,7 +6698,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -6710,7 +6707,7 @@
         <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="F4" s="1">
         <v>7125114</v>
@@ -6719,13 +6716,13 @@
         <v>433.04</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>100</v>
@@ -6734,7 +6731,7 @@
         <v>120</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>118</v>
@@ -6743,10 +6740,10 @@
         <v>106</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -6995,19 +6992,19 @@
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>95</v>
@@ -7016,19 +7013,19 @@
         <v>96</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>603</v>
+        <v>285</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>82</v>
@@ -7042,7 +7039,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -7054,13 +7051,13 @@
         <v>199</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="I2" s="1">
         <v>7125114</v>
@@ -7072,25 +7069,25 @@
         <v>118</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>262</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>712</v>
+        <v>295</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>106</v>
@@ -7101,7 +7098,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -7113,13 +7110,13 @@
         <v>101</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="I3" s="1">
         <v>7125114</v>
@@ -7131,25 +7128,25 @@
         <v>118</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>262</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>712</v>
+        <v>295</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="Q3" s="76" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>106</v>
@@ -7197,10 +7194,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>96</v>
@@ -7209,25 +7206,25 @@
         <v>95</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7250,10 +7247,10 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>118</v>
@@ -7274,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>116</v>
@@ -7300,10 +7297,10 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>118</v>
@@ -7324,7 +7321,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>116</v>
@@ -7350,10 +7347,10 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>118</v>
@@ -7374,7 +7371,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>116</v>
@@ -7531,34 +7528,34 @@
         <v>76</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="P1" s="58" t="s">
         <v>87</v>
@@ -7570,16 +7567,16 @@
         <v>82</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="T1" s="58" t="s">
         <v>86</v>
       </c>
       <c r="U1" s="58" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="V1" s="58" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>93</v>
@@ -7588,7 +7585,7 @@
         <v>95</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7608,34 +7605,34 @@
         <v>199</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>110</v>
@@ -7647,7 +7644,7 @@
         <v>107</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>111</v>
@@ -7665,7 +7662,7 @@
         <v>118</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7679,40 +7676,40 @@
         <v>98</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="K3" s="74">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="N3" s="74">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>110</v>
@@ -7724,7 +7721,7 @@
         <v>107</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>111</v>
@@ -7742,7 +7739,7 @@
         <v>118</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7762,37 +7759,37 @@
         <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="K4" s="74" t="s">
         <v>120</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>106</v>
@@ -7801,7 +7798,7 @@
         <v>107</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>111</v>
@@ -7816,10 +7813,10 @@
         <v>7125114</v>
       </c>
       <c r="X4" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8008,13 +8005,13 @@
         <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -8023,40 +8020,40 @@
         <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8064,22 +8061,22 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H2" s="60" t="s">
         <v>188</v>
@@ -8091,16 +8088,16 @@
         <v>118</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="O2" s="61">
         <v>7125114</v>
@@ -8109,19 +8106,19 @@
         <v>112</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -8156,22 +8153,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>188</v>
@@ -8183,16 +8180,16 @@
         <v>118</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="O3" s="61">
         <v>7125114</v>
@@ -8201,19 +8198,19 @@
         <v>112</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8248,22 +8245,22 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>188</v>
@@ -8275,13 +8272,13 @@
         <v>118</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>197</v>
@@ -8293,19 +8290,19 @@
         <v>112</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -8340,22 +8337,22 @@
         <v>198</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>761</v>
-      </c>
-      <c r="G5" s="63" t="s">
-        <v>753</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>188</v>
@@ -8367,16 +8364,16 @@
         <v>118</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>110</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="O5" s="67">
         <v>7125114</v>
@@ -8385,19 +8382,19 @@
         <v>112</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R5" s="69" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -8432,22 +8429,22 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>188</v>
@@ -8459,16 +8456,16 @@
         <v>118</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>654</v>
+        <v>665</v>
       </c>
       <c r="O6" s="61">
         <v>7125114</v>
@@ -8477,19 +8474,19 @@
         <v>112</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -8524,22 +8521,22 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>188</v>
@@ -8551,13 +8548,13 @@
         <v>118</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>197</v>
@@ -8569,19 +8566,19 @@
         <v>112</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -8613,10 +8610,10 @@
     </row>
     <row r="8" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -8628,10 +8625,10 @@
         <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>103</v>
@@ -8640,19 +8637,19 @@
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="N8" s="17" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="O8" s="61">
         <v>7125114</v>
@@ -8695,10 +8692,10 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>98</v>
@@ -8710,10 +8707,10 @@
         <v>99</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>202</v>
@@ -8722,16 +8719,16 @@
         <v>7125114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>41</v>
@@ -8743,10 +8740,10 @@
         <v>112</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>41</v>
@@ -8754,10 +8751,10 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>98</v>
@@ -8769,10 +8766,10 @@
         <v>99</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>203</v>
@@ -8781,16 +8778,16 @@
         <v>7125114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>41</v>
@@ -8802,10 +8799,10 @@
         <v>112</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>41</v>
@@ -8977,25 +8974,25 @@
         <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>605</v>
+        <v>616</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -9080,7 +9077,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -9089,22 +9086,22 @@
         <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="F2" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G2" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>41</v>
@@ -9136,7 +9133,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -9145,22 +9142,22 @@
         <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="F3" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G3" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>41</v>
@@ -9171,7 +9168,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -9180,22 +9177,22 @@
         <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G4" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>41</v>
@@ -9206,7 +9203,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -9215,22 +9212,22 @@
         <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="G5" s="72" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>41</v>
@@ -9576,22 +9573,22 @@
         <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>93</v>
@@ -9608,7 +9605,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -9620,22 +9617,22 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="L2" s="1">
         <v>7125114</v>
@@ -9644,7 +9641,7 @@
         <v>118</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9652,7 +9649,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -9664,22 +9661,22 @@
         <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="L3" s="61">
         <v>7125114</v>
@@ -9688,7 +9685,7 @@
         <v>118</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9696,7 +9693,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -9708,22 +9705,22 @@
         <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="L4" s="61">
         <v>7125114</v>
@@ -9732,7 +9729,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9740,7 +9737,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -9752,22 +9749,22 @@
         <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="L5" s="61">
         <v>7125114</v>
@@ -9776,7 +9773,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9930,49 +9927,49 @@
         <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>79</v>
@@ -9981,112 +9978,112 @@
         <v>87</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="AM1" s="3" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="AN1" s="3" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>744</v>
+        <v>752</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="AY1" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10094,7 +10091,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -10106,119 +10103,119 @@
         <v>199</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>103</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="AK2" s="9" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="AL2" s="12" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="AN2" s="13" t="s">
-        <v>643</v>
+        <v>654</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>117</v>
@@ -10233,10 +10230,10 @@
         <v>110</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>531</v>
+        <v>544</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>117</v>
@@ -10245,13 +10242,13 @@
         <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>41</v>
@@ -10332,211 +10329,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="EN2" s="1" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="EO2" s="1" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="EP2" s="1" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="EQ2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="ER2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="ES2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="ET2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EU2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EV2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EW2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EX2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EY2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="EZ2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FA2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FB2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FC2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FD2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FE2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FF2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FG2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FH2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FI2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FJ2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FK2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FL2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FM2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FN2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FO2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FP2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FQ2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FR2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FS2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FT2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FU2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FV2" s="1" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="FW2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="FX2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="FY2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="FZ2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GA2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GB2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GC2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GD2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GE2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GF2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GG2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GH2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GI2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GJ2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GK2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GL2" s="1" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="GM2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GN2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GO2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GP2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GQ2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GR2" s="1" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="GS2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GT2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GU2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GV2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GW2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GX2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GY2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="GZ2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="HA2" s="1" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="HB2" s="1" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="HC2" s="1" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -11917,10 +11914,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12042,43 +12039,43 @@
         <v>199</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>104</v>
+        <v>250</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J2" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>256</v>
       </c>
       <c r="Q2" s="30" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R2" s="30" t="s">
         <v>257</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>260</v>
@@ -12092,6 +12089,12 @@
       <c r="X2" s="40" t="s">
         <v>262</v>
       </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S4" s="12"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S6" s="12"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -12407,7 +12410,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -12439,22 +12442,22 @@
         <v>76</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>852</v>
+        <v>281</v>
       </c>
       <c r="F1" s="87" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G1" s="87" t="s">
-        <v>848</v>
+        <v>283</v>
       </c>
       <c r="H1" s="87" t="s">
-        <v>849</v>
+        <v>284</v>
       </c>
       <c r="I1" s="87" t="s">
-        <v>603</v>
+        <v>285</v>
       </c>
       <c r="J1" s="87" t="s">
-        <v>530</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12474,19 +12477,19 @@
         <v>179</v>
       </c>
       <c r="F2" s="85" t="s">
-        <v>847</v>
+        <v>287</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>850</v>
+        <v>288</v>
       </c>
       <c r="H2" s="77" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="I2" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="J2" s="77" t="s">
-        <v>851</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -12506,19 +12509,19 @@
         <v>179</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>853</v>
+        <v>292</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>850</v>
+        <v>288</v>
       </c>
       <c r="H3" s="77" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="I3" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="J3" s="77" t="s">
-        <v>851</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -12538,19 +12541,19 @@
         <v>179</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>853</v>
+        <v>292</v>
       </c>
       <c r="G4" s="77" t="s">
-        <v>850</v>
+        <v>288</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>701</v>
+        <v>289</v>
       </c>
       <c r="I4" t="s">
-        <v>533</v>
+        <v>290</v>
       </c>
       <c r="J4" s="77" t="s">
-        <v>851</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -12570,25 +12573,25 @@
         <v>200</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>662</v>
+        <v>294</v>
       </c>
       <c r="H5" s="85" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I5" t="s">
-        <v>712</v>
+        <v>295</v>
       </c>
       <c r="J5" s="77" t="s">
-        <v>851</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -12683,211 +12686,211 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="I1" s="33" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="K1" s="33" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="L1" s="33" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="M1" s="33" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="P1" s="33" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="Q1" s="33" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="X1" s="33" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="Y1" s="33" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="AE1" s="33" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="AF1" s="33" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="AG1" s="33" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AH1" s="33" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AI1" s="33" t="s">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="AJ1" s="33" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="AK1" s="33" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="AL1" s="33" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="AM1" s="33" t="s">
-        <v>317</v>
+        <v>330</v>
       </c>
       <c r="AN1" s="33" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="AO1" s="33" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="AP1" s="33" t="s">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="AQ1" s="33" t="s">
-        <v>321</v>
+        <v>334</v>
       </c>
       <c r="AR1" s="33" t="s">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="AS1" s="44" t="s">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="AT1" s="33" t="s">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="AU1" s="45" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="AV1" s="45" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="AW1" s="45" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="AX1" s="45" t="s">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="AY1" s="45" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="AZ1" s="45" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="BA1" s="45" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="BB1" s="45" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="BC1" s="45" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="BD1" s="45" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="BE1" s="46" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="BF1" s="45" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="BG1" s="45" t="s">
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="BH1" s="45" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="BI1" s="45" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="BJ1" s="45" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="BK1" s="45" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="BL1" s="45" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="BM1" s="45" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="BN1" s="45" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="BO1" s="45" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="BP1" s="45" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="BQ1" s="45" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="BR1" s="45" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="BS1" s="45" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12895,82 +12898,82 @@
         <v>41</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="G2" s="49" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="H2" s="49" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="I2" s="49" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="J2" s="49" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="K2" s="49" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="L2" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="O2" s="47" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="P2" s="49" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="Q2" s="49" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="R2" s="49" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="S2" s="49" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="T2" s="49" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="U2" s="49" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="V2" s="50" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="W2" s="49" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="X2" s="49" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="Y2" s="49" t="s">
-        <v>370</v>
+        <v>383</v>
       </c>
       <c r="Z2" s="49" t="s">
-        <v>371</v>
+        <v>384</v>
       </c>
       <c r="AA2" s="49" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="AB2" s="49" t="s">
         <v>52</v>
@@ -12979,103 +12982,103 @@
         <v>52</v>
       </c>
       <c r="AD2" s="49" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="AE2" s="49" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AF2" s="49" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="AG2" s="49" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="AH2" s="49" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="AI2" s="49" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>49</v>
       </c>
       <c r="AK2" s="49" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AL2" s="49" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="AM2" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AO2" s="49" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AP2" s="49" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="AQ2" s="49" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="AR2" s="49" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="AS2" s="49" t="s">
-        <v>383</v>
+        <v>396</v>
       </c>
       <c r="AT2" s="49" t="s">
-        <v>384</v>
+        <v>397</v>
       </c>
       <c r="AU2" s="49" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AV2" s="47" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="AW2" s="47" t="s">
         <v>110</v>
       </c>
       <c r="AX2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AY2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AZ2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BA2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BB2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BC2" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BD2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BE2" s="51" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="BF2" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG2" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH2" s="48" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BI2" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>45</v>
@@ -13084,10 +13087,10 @@
       <c r="BM2" s="48"/>
       <c r="BN2" s="48"/>
       <c r="BO2" s="48" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="BP2" s="47" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
@@ -13095,16 +13098,16 @@
         <v>120</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
@@ -13112,10 +13115,10 @@
         <v>195</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>45</v>
@@ -13126,50 +13129,50 @@
         <v>198</v>
       </c>
       <c r="AU5" s="49" t="s">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="AV5" s="47" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AW5" s="47" t="s">
         <v>110</v>
       </c>
       <c r="AX5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AY5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AZ5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BA5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BB5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BC5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BD5" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BE5" s="51"/>
       <c r="BF5" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG5" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH5" s="48" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BI5" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>45</v>
@@ -13178,10 +13181,10 @@
       <c r="BM5" s="48"/>
       <c r="BN5" s="48"/>
       <c r="BO5" s="48" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="BP5" s="47" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BQ5" s="47"/>
       <c r="BR5" s="47"/>
@@ -13192,16 +13195,16 @@
         <v>277</v>
       </c>
       <c r="AV6" s="47" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
@@ -13209,10 +13212,10 @@
         <v>279</v>
       </c>
       <c r="AV7" s="47" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>45</v>
@@ -13220,55 +13223,55 @@
     </row>
     <row r="8" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="AU8" s="49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AV8" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW8" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="AX8" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="AW8" s="47" t="s">
+      <c r="AY8" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ8" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA8" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BB8" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BC8" s="48" t="s">
         <v>401</v>
       </c>
-      <c r="AX8" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AY8" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AZ8" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA8" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BB8" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BC8" s="48" t="s">
-        <v>388</v>
-      </c>
       <c r="BD8" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BE8" s="51" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
       <c r="BF8" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG8" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH8" s="48" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BI8" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ8" s="48" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>45</v>
@@ -13277,10 +13280,10 @@
       <c r="BM8" s="48"/>
       <c r="BN8" s="48"/>
       <c r="BO8" s="48" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="BP8" s="47" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BQ8" s="47"/>
       <c r="BR8" s="47"/>
@@ -13288,30 +13291,30 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>45</v>
@@ -13319,91 +13322,91 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="AU11" s="49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AV11" s="47" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="AW11" s="47" t="s">
+        <v>414</v>
+      </c>
+      <c r="AX11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="AY11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="AZ11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BA11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BB11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BC11" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BD11" s="48" t="s">
         <v>401</v>
-      </c>
-      <c r="AX11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AY11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AZ11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BA11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BB11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BC11" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="BD11" s="48" t="s">
-        <v>388</v>
       </c>
       <c r="BE11" s="51"/>
       <c r="BF11" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG11" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH11" s="48" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BI11" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ11" s="48" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
       <c r="BM11" s="48"/>
       <c r="BN11" s="48"/>
       <c r="BO11" s="48" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="BP11" s="47" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="AV12" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="BI12" s="1" t="s">
         <v>408</v>
-      </c>
-      <c r="BI12" s="1" t="s">
-        <v>395</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="AV13" s="47" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>45</v>
@@ -13411,62 +13414,62 @@
     </row>
     <row r="14" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="AU14" s="49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AV14" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="AW14" s="47" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="AX14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AY14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AZ14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BA14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BB14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BC14" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BD14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BE14" s="51" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="BF14" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG14" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH14" s="48" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="BI14" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ14" s="1" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BL14" s="48"/>
       <c r="BM14" s="48" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="BN14" s="48"/>
       <c r="BO14" s="48"/>
@@ -13474,16 +13477,16 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>45</v>
@@ -13491,16 +13494,16 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI16" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>45</v>
@@ -13508,19 +13511,19 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="AV17" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG17" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI17" s="1" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="BJ17" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>45</v>
@@ -13528,71 +13531,71 @@
     </row>
     <row r="18" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AV18" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG18" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH18" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BI18" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BJ18" s="48" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BO18" s="48" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="BP18" s="1" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="BS18" s="52" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="AV19" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG19" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI19" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="BJ19" s="1" t="s">
         <v>429</v>
-      </c>
-      <c r="BJ19" s="1" t="s">
-        <v>416</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>45</v>
@@ -13600,36 +13603,36 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>45</v>
@@ -13637,107 +13640,107 @@
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="AU23" s="49" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="AV23" s="1" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="AW23" s="1" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="AX23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AY23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AZ23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BA23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BB23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BC23" s="48" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BD23" s="48" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BF23" s="1" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="BG23" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="BI23" s="48" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="BK23" s="1" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="BG24" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI24" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="BK24" s="1" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="BG25" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BI25" s="1" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="BK25" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="BO26" s="48" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB965DB-7250-4AE5-BEE8-84772ACE49A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D42C99-897C-40D1-961C-2FD5AED7CE31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="854">
   <si>
     <t>rowid</t>
   </si>
@@ -336,7 +336,7 @@
     <t>CBA_UAT_03</t>
   </si>
   <si>
-    <t>UAT3_06092020195407</t>
+    <t>UAT3_07092020012910</t>
   </si>
   <si>
     <t>Loan</t>
@@ -405,7 +405,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>SCAF_06092020201917VOF</t>
+    <t>SCAF_07092020015418JBS</t>
   </si>
   <si>
     <t>06000214</t>
@@ -567,7 +567,7 @@
     <t>Penalty_Status</t>
   </si>
   <si>
-    <t>MOF_06092020200456PFJ</t>
+    <t>MOF_07092020014007DLM</t>
   </si>
   <si>
     <t>Facility Ongoing Fee</t>
@@ -618,7 +618,7 @@
     <t>Off</t>
   </si>
   <si>
-    <t>FCAF_06092020201301GPN</t>
+    <t>FCAF_07092020014803EVP</t>
   </si>
   <si>
     <t>0.475%</t>
@@ -639,7 +639,7 @@
     <t>4</t>
   </si>
   <si>
-    <t>TCAF_06092020202550WSP</t>
+    <t>TCAF_07092020020052SUW</t>
   </si>
   <si>
     <t>Line Fee</t>
@@ -816,12 +816,12 @@
     <t>Commonwealth Bank of Australia - DBU</t>
   </si>
   <si>
+    <t>200,000,000.00</t>
+  </si>
+  <si>
     <t>100,000,000.00</t>
   </si>
   <si>
-    <t>200,000,000.00</t>
-  </si>
-  <si>
     <t>90,000,000.00</t>
   </si>
   <si>
@@ -916,9 +916,6 @@
   </si>
   <si>
     <t>to the actual due date</t>
-  </si>
-  <si>
-    <t>'29-Sep-2018</t>
   </si>
   <si>
     <t>28-Nov-2018</t>
@@ -1612,7 +1609,7 @@
     <t>UAT3</t>
   </si>
   <si>
-    <t>UAT306092020195407</t>
+    <t>UAT307092020012911</t>
   </si>
   <si>
     <t>Sales Group 1</t>
@@ -3756,202 +3753,202 @@
         <v>1</v>
       </c>
       <c r="C1" s="34" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>457</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>458</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>73</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>459</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="H1" s="34" t="s">
         <v>460</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>461</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="K1" s="34" t="s">
         <v>462</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>463</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>464</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>465</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>466</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="P1" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>469</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="S1" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>475</v>
       </c>
-      <c r="X1" s="34" t="s">
+      <c r="Y1" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="Y1" s="34" t="s">
+      <c r="Z1" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="AA1" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AB1" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AC1" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AD1" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AE1" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AF1" s="34" t="s">
         <v>483</v>
       </c>
-      <c r="AF1" s="34" t="s">
+      <c r="AG1" s="34" t="s">
         <v>484</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AH1" s="34" t="s">
         <v>485</v>
       </c>
-      <c r="AH1" s="34" t="s">
+      <c r="AI1" s="34" t="s">
         <v>486</v>
       </c>
-      <c r="AI1" s="34" t="s">
+      <c r="AJ1" s="34" t="s">
         <v>487</v>
       </c>
-      <c r="AJ1" s="34" t="s">
+      <c r="AK1" s="34" t="s">
         <v>488</v>
       </c>
-      <c r="AK1" s="34" t="s">
+      <c r="AL1" s="34" t="s">
         <v>489</v>
       </c>
-      <c r="AL1" s="34" t="s">
+      <c r="AM1" s="34" t="s">
         <v>490</v>
       </c>
-      <c r="AM1" s="34" t="s">
+      <c r="AN1" s="34" t="s">
         <v>491</v>
       </c>
-      <c r="AN1" s="34" t="s">
+      <c r="AO1" s="34" t="s">
         <v>492</v>
       </c>
-      <c r="AO1" s="34" t="s">
+      <c r="AP1" s="34" t="s">
         <v>493</v>
       </c>
-      <c r="AP1" s="34" t="s">
+      <c r="AQ1" s="34" t="s">
         <v>494</v>
       </c>
-      <c r="AQ1" s="34" t="s">
+      <c r="AR1" s="34" t="s">
         <v>495</v>
       </c>
-      <c r="AR1" s="34" t="s">
+      <c r="AS1" s="34" t="s">
         <v>496</v>
       </c>
-      <c r="AS1" s="34" t="s">
+      <c r="AT1" s="34" t="s">
         <v>497</v>
       </c>
-      <c r="AT1" s="34" t="s">
+      <c r="AU1" s="34" t="s">
         <v>498</v>
       </c>
-      <c r="AU1" s="34" t="s">
+      <c r="AV1" s="34" t="s">
         <v>499</v>
       </c>
-      <c r="AV1" s="34" t="s">
+      <c r="AW1" s="34" t="s">
         <v>500</v>
       </c>
-      <c r="AW1" s="34" t="s">
+      <c r="AX1" s="34" t="s">
         <v>501</v>
       </c>
-      <c r="AX1" s="34" t="s">
+      <c r="AY1" s="34" t="s">
         <v>502</v>
-      </c>
-      <c r="AY1" s="34" t="s">
-        <v>503</v>
       </c>
       <c r="AZ1" s="34" t="s">
         <v>241</v>
       </c>
       <c r="BA1" s="34" t="s">
+        <v>503</v>
+      </c>
+      <c r="BB1" s="34" t="s">
         <v>504</v>
       </c>
-      <c r="BB1" s="34" t="s">
+      <c r="BC1" s="34" t="s">
         <v>505</v>
       </c>
-      <c r="BC1" s="34" t="s">
+      <c r="BD1" s="34" t="s">
         <v>506</v>
       </c>
-      <c r="BD1" s="34" t="s">
+      <c r="BE1" s="34" t="s">
         <v>507</v>
       </c>
-      <c r="BE1" s="34" t="s">
+      <c r="BF1" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="BF1" s="34" t="s">
+      <c r="BG1" s="34" t="s">
         <v>509</v>
       </c>
-      <c r="BG1" s="34" t="s">
+      <c r="BH1" s="34" t="s">
         <v>510</v>
       </c>
-      <c r="BH1" s="34" t="s">
+      <c r="BI1" s="34" t="s">
         <v>511</v>
       </c>
-      <c r="BI1" s="34" t="s">
+      <c r="BJ1" s="34" t="s">
         <v>512</v>
       </c>
-      <c r="BJ1" s="34" t="s">
+      <c r="BK1" s="34" t="s">
         <v>513</v>
       </c>
-      <c r="BK1" s="34" t="s">
+      <c r="BL1" s="34" t="s">
         <v>514</v>
       </c>
-      <c r="BL1" s="34" t="s">
+      <c r="BM1" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="BM1" s="34" t="s">
+      <c r="BN1" s="34" t="s">
         <v>516</v>
       </c>
-      <c r="BN1" s="34" t="s">
+      <c r="BO1" s="34" t="s">
         <v>517</v>
       </c>
-      <c r="BO1" s="34" t="s">
+      <c r="BP1" s="34" t="s">
         <v>518</v>
-      </c>
-      <c r="BP1" s="34" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:68" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -3959,40 +3956,40 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>520</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>521</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>110</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>251</v>
       </c>
       <c r="K2" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>118</v>
@@ -4004,22 +4001,22 @@
         <v>251</v>
       </c>
       <c r="Q2" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>527</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>528</v>
       </c>
       <c r="T2" s="9" t="s">
         <v>118</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="V2" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="W2" s="9" t="s">
         <v>262</v>
@@ -4031,55 +4028,55 @@
         <v>262</v>
       </c>
       <c r="Z2" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="AC2" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="AC2" s="9" t="s">
+      <c r="AD2" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>533</v>
       </c>
       <c r="AE2" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>198</v>
       </c>
       <c r="AI2" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="AJ2" s="9" t="s">
+      <c r="AK2" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN2" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AQ2" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>540</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>540</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>179</v>
@@ -4088,19 +4085,19 @@
         <v>200</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>250</v>
@@ -4118,13 +4115,13 @@
         <v>256</v>
       </c>
       <c r="BD2" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="BF2" s="9" t="s">
         <v>542</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>532</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="BG2" s="9" t="s">
         <v>286</v>
@@ -4133,10 +4130,10 @@
         <v>184</v>
       </c>
       <c r="BI2" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
         <v>544</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
-        <v>545</v>
       </c>
       <c r="BK2" s="9" t="s">
         <v>290</v>
@@ -4148,13 +4145,13 @@
         <v>251</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BO2" s="9" t="s">
         <v>106</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:68" x14ac:dyDescent="0.2">
@@ -4162,58 +4159,58 @@
         <v>120</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>202</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI3" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>180</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="BF3" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4" spans="1:68" x14ac:dyDescent="0.2">
@@ -4224,34 +4221,34 @@
         <v>103</v>
       </c>
       <c r="AG4" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI4" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AJ4" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK4" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP4" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:68" x14ac:dyDescent="0.2">
@@ -4262,34 +4259,34 @@
         <v>203</v>
       </c>
       <c r="AG5" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>198</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AJ5" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AL5" s="1" t="s">
+      <c r="AM5" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AO5" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AN5" s="1" t="s">
+      <c r="AP5" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="AO5" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP5" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:68" x14ac:dyDescent="0.2">
@@ -4297,37 +4294,37 @@
         <v>277</v>
       </c>
       <c r="AE6" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="AG6" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AI6" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="AK6" s="1" t="s">
+      <c r="AL6" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="AL6" s="1" t="s">
+      <c r="AM6" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="AN6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AP6" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="AO6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="AP6" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="AQ6" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4393,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>73</v>
@@ -4402,118 +4399,118 @@
         <v>76</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G1" s="28" t="s">
+        <v>550</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>551</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>552</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="L1" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="M1" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>557</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
         <v>558</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="P1" s="28" t="s">
         <v>559</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>560</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="R1" s="28" t="s">
         <v>561</v>
       </c>
-      <c r="R1" s="28" t="s">
+      <c r="S1" s="28" t="s">
         <v>562</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="T1" s="28" t="s">
         <v>563</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="U1" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="V1" s="28" t="s">
         <v>565</v>
       </c>
-      <c r="V1" s="28" t="s">
+      <c r="W1" s="28" t="s">
         <v>566</v>
       </c>
-      <c r="W1" s="28" t="s">
+      <c r="X1" s="28" t="s">
         <v>567</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="Y1" s="28" t="s">
         <v>568</v>
       </c>
-      <c r="Y1" s="28" t="s">
+      <c r="Z1" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="Z1" s="28" t="s">
+      <c r="AA1" s="28" t="s">
         <v>570</v>
       </c>
-      <c r="AA1" s="28" t="s">
+      <c r="AB1" s="28" t="s">
         <v>571</v>
       </c>
-      <c r="AB1" s="28" t="s">
+      <c r="AC1" s="28" t="s">
         <v>572</v>
       </c>
-      <c r="AC1" s="28" t="s">
+      <c r="AD1" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="AD1" s="28" t="s">
+      <c r="AE1" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="AE1" s="28" t="s">
+      <c r="AF1" s="28" t="s">
         <v>575</v>
       </c>
-      <c r="AF1" s="28" t="s">
+      <c r="AG1" s="28" t="s">
         <v>576</v>
       </c>
-      <c r="AG1" s="28" t="s">
+      <c r="AH1" s="28" t="s">
         <v>577</v>
       </c>
-      <c r="AH1" s="28" t="s">
+      <c r="AI1" s="28" t="s">
         <v>578</v>
       </c>
-      <c r="AI1" s="28" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>579</v>
       </c>
-      <c r="AJ1" s="28" t="s">
+      <c r="AK1" s="28" t="s">
         <v>580</v>
       </c>
-      <c r="AK1" s="28" t="s">
+      <c r="AL1" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="AL1" s="28" t="s">
+      <c r="AM1" s="28" t="s">
         <v>582</v>
       </c>
-      <c r="AM1" s="28" t="s">
+      <c r="AN1" s="28" t="s">
         <v>583</v>
       </c>
-      <c r="AN1" s="28" t="s">
+      <c r="AO1" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="AO1" s="28" t="s">
+      <c r="AP1" s="28" t="s">
         <v>585</v>
       </c>
-      <c r="AP1" s="28" t="s">
+      <c r="AQ1" s="28" t="s">
         <v>586</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4524,7 +4521,7 @@
         <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>98</v>
@@ -4536,10 +4533,10 @@
         <v>110</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>110</v>
@@ -4551,10 +4548,10 @@
         <v>262</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>590</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>591</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>256</v>
@@ -4566,16 +4563,16 @@
         <v>99</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="S2" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="T2" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>250</v>
@@ -4584,7 +4581,7 @@
         <v>251</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>178</v>
@@ -4596,25 +4593,25 @@
         <v>178</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE2" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="AD2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>597</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>178</v>
@@ -4629,7 +4626,7 @@
         <v>178</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM2" s="9" t="s">
         <v>178</v>
@@ -4644,7 +4641,7 @@
         <v>178</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4655,7 +4652,7 @@
         <v>97</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>98</v>
@@ -4667,10 +4664,10 @@
         <v>110</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>110</v>
@@ -4682,10 +4679,10 @@
         <v>262</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>256</v>
@@ -4700,13 +4697,13 @@
         <v>178</v>
       </c>
       <c r="R3" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>250</v>
@@ -4715,10 +4712,10 @@
         <v>251</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Y3" s="9" t="s">
         <v>110</v>
@@ -4727,43 +4724,43 @@
         <v>178</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE3" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AF3" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="AE3" s="9" t="s">
+      <c r="AG3" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH3" s="9" t="s">
         <v>596</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>597</v>
       </c>
       <c r="AI3" s="9" t="s">
         <v>110</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AK3" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AL3" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM3" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AN3" s="9" t="s">
         <v>250</v>
@@ -4772,10 +4769,10 @@
         <v>250</v>
       </c>
       <c r="AP3" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AQ3" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4786,7 +4783,7 @@
         <v>97</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>98</v>
@@ -4798,7 +4795,7 @@
         <v>110</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>260</v>
@@ -4807,16 +4804,16 @@
         <v>110</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>262</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>605</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>606</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>256</v>
@@ -4831,13 +4828,13 @@
         <v>178</v>
       </c>
       <c r="R4" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="S4" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="T4" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>250</v>
@@ -4846,7 +4843,7 @@
         <v>251</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>178</v>
@@ -4858,25 +4855,25 @@
         <v>178</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE4" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="AD4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>596</v>
-      </c>
       <c r="AF4" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH4" s="9" t="s">
         <v>178</v>
@@ -4891,7 +4888,7 @@
         <v>178</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM4" s="9" t="s">
         <v>178</v>
@@ -4903,10 +4900,10 @@
         <v>178</v>
       </c>
       <c r="AP4" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AQ4" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
@@ -4917,7 +4914,7 @@
         <v>97</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>98</v>
@@ -4929,7 +4926,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>261</v>
@@ -4938,16 +4935,16 @@
         <v>110</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>262</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>256</v>
@@ -4962,13 +4959,13 @@
         <v>178</v>
       </c>
       <c r="R5" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="S5" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>594</v>
-      </c>
       <c r="T5" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U5" s="9" t="s">
         <v>250</v>
@@ -4977,7 +4974,7 @@
         <v>251</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>178</v>
@@ -4986,28 +4983,28 @@
         <v>110</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="AD5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>596</v>
-      </c>
       <c r="AF5" s="9" t="s">
         <v>178</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="AH5" s="9" t="s">
         <v>178</v>
@@ -5016,13 +5013,13 @@
         <v>110</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AK5" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AL5" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AM5" s="9" t="s">
         <v>178</v>
@@ -5034,10 +5031,10 @@
         <v>178</v>
       </c>
       <c r="AP5" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AQ5" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -5098,13 +5095,13 @@
         <v>73</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G1" s="21" t="s">
         <v>78</v>
@@ -5113,52 +5110,52 @@
         <v>85</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>282</v>
       </c>
       <c r="K1" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="L1" s="21" t="s">
         <v>612</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>613</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>614</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>285</v>
       </c>
       <c r="O1" s="21" t="s">
+        <v>614</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>615</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>616</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>617</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>618</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="T1" s="21" t="s">
         <v>619</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>620</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>621</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>622</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
@@ -5172,31 +5169,31 @@
         <v>98</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>112</v>
@@ -5205,25 +5202,25 @@
         <v>290</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q2" s="11" t="s">
         <v>114</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T2" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="U2" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="V2" s="11" t="s">
         <v>114</v>
@@ -5232,7 +5229,7 @@
         <v>116</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
@@ -5246,31 +5243,31 @@
         <v>98</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>175</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>110</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="J3" s="40" t="s">
         <v>636</v>
       </c>
-      <c r="J3" s="40" t="s">
-        <v>637</v>
-      </c>
       <c r="K3" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>629</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>630</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>112</v>
@@ -5279,25 +5276,25 @@
         <v>290</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="Q3" s="11" t="s">
         <v>114</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T3" s="11" t="s">
+        <v>632</v>
+      </c>
+      <c r="U3" s="11" t="s">
         <v>633</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>634</v>
       </c>
       <c r="V3" s="11" t="s">
         <v>114</v>
@@ -5362,10 +5359,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E1" s="53" t="s">
         <v>73</v>
@@ -5374,40 +5371,40 @@
         <v>76</v>
       </c>
       <c r="G1" s="53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I1" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J1" s="53" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K1" s="53" t="s">
         <v>87</v>
       </c>
       <c r="L1" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="M1" s="53" t="s">
         <v>642</v>
       </c>
-      <c r="M1" s="53" t="s">
+      <c r="N1" s="53" t="s">
         <v>643</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="O1" s="53" t="s">
         <v>644</v>
       </c>
-      <c r="O1" s="53" t="s">
+      <c r="P1" s="53" t="s">
         <v>645</v>
       </c>
-      <c r="P1" s="53" t="s">
+      <c r="Q1" s="53" t="s">
         <v>646</v>
       </c>
-      <c r="Q1" s="53" t="s">
+      <c r="R1" s="53" t="s">
         <v>647</v>
-      </c>
-      <c r="R1" s="53" t="s">
-        <v>648</v>
       </c>
       <c r="S1" s="53" t="s">
         <v>87</v>
@@ -5428,7 +5425,7 @@
         <v>81</v>
       </c>
       <c r="Y1" s="53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5436,10 +5433,10 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>651</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>110</v>
@@ -5451,13 +5448,13 @@
         <v>199</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>188</v>
@@ -5466,25 +5463,25 @@
         <v>110</v>
       </c>
       <c r="L2" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q2" s="12" t="s">
         <v>657</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>658</v>
-      </c>
       <c r="R2" s="12" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>110</v>
@@ -5499,7 +5496,7 @@
         <v>118</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X2" s="15" t="s">
         <v>106</v>
@@ -5508,13 +5505,13 @@
         <v>178</v>
       </c>
       <c r="Z2" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB2" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5522,10 +5519,10 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>661</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>662</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>110</v>
@@ -5537,13 +5534,13 @@
         <v>192</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>188</v>
@@ -5552,25 +5549,25 @@
         <v>110</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>656</v>
-      </c>
       <c r="O3" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>664</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>665</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>110</v>
@@ -5585,7 +5582,7 @@
         <v>118</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X3" s="15" t="s">
         <v>106</v>
@@ -5594,13 +5591,13 @@
         <v>178</v>
       </c>
       <c r="Z3" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB3" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5608,10 +5605,10 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>665</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>667</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>110</v>
@@ -5623,13 +5620,13 @@
         <v>121</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>188</v>
@@ -5638,22 +5635,22 @@
         <v>110</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>197</v>
@@ -5671,7 +5668,7 @@
         <v>118</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X4" s="15" t="s">
         <v>106</v>
@@ -5680,13 +5677,13 @@
         <v>178</v>
       </c>
       <c r="Z4" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA4" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB4" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="5" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5694,10 +5691,10 @@
         <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>671</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>110</v>
@@ -5709,7 +5706,7 @@
         <v>199</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>99</v>
@@ -5724,22 +5721,22 @@
         <v>110</v>
       </c>
       <c r="L5" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q5" s="12" t="s">
         <v>672</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>673</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>41</v>
@@ -5757,22 +5754,22 @@
         <v>118</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X5" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z5" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB5" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6" spans="1:28" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5780,10 +5777,10 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>675</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>676</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>110</v>
@@ -5795,13 +5792,13 @@
         <v>199</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>103</v>
@@ -5810,22 +5807,22 @@
         <v>110</v>
       </c>
       <c r="L6" s="12" t="s">
+        <v>677</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" s="12" t="s">
         <v>678</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="P6" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q6" s="12" t="s">
-        <v>679</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>41</v>
@@ -5843,22 +5840,22 @@
         <v>118</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="X6" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z6" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB6" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -5866,10 +5863,10 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>110</v>
@@ -5881,39 +5878,39 @@
         <v>199</v>
       </c>
       <c r="G7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>99</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Z7" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA7" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB7" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="8" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>684</v>
-      </c>
       <c r="D8" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>98</v>
@@ -5922,43 +5919,43 @@
         <v>199</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H8" s="55" t="s">
         <v>99</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>202</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L8" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="M8" s="10" t="s">
+      <c r="N8" s="10" t="s">
+        <v>607</v>
+      </c>
+      <c r="O8" s="55" t="s">
+        <v>663</v>
+      </c>
+      <c r="P8" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="10" t="s">
         <v>687</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>608</v>
-      </c>
-      <c r="O8" s="55" t="s">
-        <v>664</v>
-      </c>
-      <c r="P8" s="55" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="10" t="s">
-        <v>688</v>
       </c>
       <c r="R8" s="55" t="s">
         <v>41</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T8" s="1">
         <v>7125114</v>
@@ -5967,39 +5964,39 @@
         <v>107</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X8" s="54" t="s">
         <v>106</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB8" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>692</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>98</v>
@@ -6008,43 +6005,43 @@
         <v>199</v>
       </c>
       <c r="G9" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>203</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="L9" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>694</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>695</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T9" s="1">
         <v>7125114</v>
@@ -6053,39 +6050,39 @@
         <v>107</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="X9" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Z9" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA9" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB9" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>698</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>98</v>
@@ -6094,43 +6091,43 @@
         <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>99</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>202</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="P10" s="12" t="s">
         <v>178</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="T10" s="1">
         <v>7125114</v>
@@ -6139,25 +6136,25 @@
         <v>107</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="X10" s="15" t="s">
         <v>106</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Z10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA10" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="AA10" s="1" t="s">
-        <v>660</v>
-      </c>
       <c r="AB10" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6316,19 +6313,19 @@
         <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>700</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>701</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>702</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>703</v>
       </c>
       <c r="J1" s="56" t="s">
         <v>74</v>
@@ -6337,10 +6334,10 @@
         <v>75</v>
       </c>
       <c r="L1" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="M1" s="21" t="s">
         <v>704</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>705</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>95</v>
@@ -6352,7 +6349,7 @@
         <v>82</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
@@ -6412,7 +6409,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -6421,7 +6418,7 @@
         <v>175</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F2" s="1">
         <v>7125114</v>
@@ -6430,13 +6427,13 @@
         <v>39406.910000000003</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>100</v>
@@ -6445,7 +6442,7 @@
         <v>41</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>118</v>
@@ -6454,13 +6451,13 @@
         <v>106</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q2" s="40" t="s">
         <v>708</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="R2" s="40" t="s">
         <v>709</v>
-      </c>
-      <c r="R2" s="40" t="s">
-        <v>710</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -6556,7 +6553,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -6565,7 +6562,7 @@
         <v>175</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F3" s="1">
         <v>7125114</v>
@@ -6580,7 +6577,7 @@
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>100</v>
@@ -6589,7 +6586,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>118</v>
@@ -6598,10 +6595,10 @@
         <v>106</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q3" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -6698,7 +6695,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -6707,7 +6704,7 @@
         <v>175</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F4" s="1">
         <v>7125114</v>
@@ -6722,7 +6719,7 @@
         <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>100</v>
@@ -6731,7 +6728,7 @@
         <v>120</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>118</v>
@@ -6740,10 +6737,10 @@
         <v>106</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Q4" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -6992,19 +6989,19 @@
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>95</v>
@@ -7016,16 +7013,16 @@
         <v>282</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>285</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>82</v>
@@ -7039,7 +7036,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -7051,13 +7048,13 @@
         <v>199</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I2" s="1">
         <v>7125114</v>
@@ -7069,25 +7066,25 @@
         <v>118</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>262</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P2" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>722</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>106</v>
@@ -7098,7 +7095,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -7110,13 +7107,13 @@
         <v>101</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I3" s="1">
         <v>7125114</v>
@@ -7128,25 +7125,25 @@
         <v>118</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>262</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Q3" s="76" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>106</v>
@@ -7194,10 +7191,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>724</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>725</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>96</v>
@@ -7206,25 +7203,25 @@
         <v>95</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>725</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>726</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>727</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>728</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>729</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7247,10 +7244,10 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>118</v>
@@ -7271,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>116</v>
@@ -7297,10 +7294,10 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>118</v>
@@ -7321,7 +7318,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>116</v>
@@ -7347,10 +7344,10 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>118</v>
@@ -7371,7 +7368,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>116</v>
@@ -7528,34 +7525,34 @@
         <v>76</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G1" s="58" t="s">
+        <v>732</v>
+      </c>
+      <c r="H1" s="58" t="s">
         <v>733</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>734</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>735</v>
       </c>
       <c r="J1" s="58" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="58" t="s">
+        <v>735</v>
+      </c>
+      <c r="L1" s="58" t="s">
         <v>736</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="M1" s="58" t="s">
         <v>737</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="N1" s="58" t="s">
         <v>738</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="O1" s="58" t="s">
         <v>739</v>
-      </c>
-      <c r="O1" s="58" t="s">
-        <v>740</v>
       </c>
       <c r="P1" s="58" t="s">
         <v>87</v>
@@ -7567,16 +7564,16 @@
         <v>82</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T1" s="58" t="s">
         <v>86</v>
       </c>
       <c r="U1" s="58" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="V1" s="58" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>93</v>
@@ -7585,7 +7582,7 @@
         <v>95</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7605,34 +7602,34 @@
         <v>199</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="H2" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="I2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>745</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>746</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>110</v>
@@ -7644,7 +7641,7 @@
         <v>107</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T2" s="30" t="s">
         <v>111</v>
@@ -7662,7 +7659,7 @@
         <v>118</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7676,40 +7673,40 @@
         <v>98</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>121</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>745</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>746</v>
       </c>
       <c r="K3" s="74">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N3" s="74">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>110</v>
@@ -7721,7 +7718,7 @@
         <v>107</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T3" s="30" t="s">
         <v>111</v>
@@ -7739,7 +7736,7 @@
         <v>118</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7759,37 +7756,37 @@
         <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K4" s="74" t="s">
         <v>120</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q4" s="30" t="s">
         <v>106</v>
@@ -7798,7 +7795,7 @@
         <v>107</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="T4" s="30" t="s">
         <v>111</v>
@@ -7813,10 +7810,10 @@
         <v>7125114</v>
       </c>
       <c r="X4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -8005,13 +8002,13 @@
         <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -8020,40 +8017,40 @@
         <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>753</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>757</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -8061,22 +8058,22 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H2" s="60" t="s">
         <v>188</v>
@@ -8088,16 +8085,16 @@
         <v>118</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N2" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O2" s="61">
         <v>7125114</v>
@@ -8106,19 +8103,19 @@
         <v>112</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -8153,22 +8150,22 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H3" s="60" t="s">
         <v>188</v>
@@ -8180,16 +8177,16 @@
         <v>118</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L3" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O3" s="61">
         <v>7125114</v>
@@ -8198,19 +8195,19 @@
         <v>112</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
@@ -8245,22 +8242,22 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H4" s="60" t="s">
         <v>188</v>
@@ -8272,13 +8269,13 @@
         <v>118</v>
       </c>
       <c r="K4" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>197</v>
@@ -8290,19 +8287,19 @@
         <v>112</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -8337,22 +8334,22 @@
         <v>198</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H5" s="65" t="s">
         <v>188</v>
@@ -8364,16 +8361,16 @@
         <v>118</v>
       </c>
       <c r="K5" s="63" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L5" s="62" t="s">
         <v>110</v>
       </c>
       <c r="M5" s="63" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N5" s="66" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O5" s="67">
         <v>7125114</v>
@@ -8382,19 +8379,19 @@
         <v>112</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R5" s="69" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S5" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>41</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
@@ -8429,22 +8426,22 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H6" s="60" t="s">
         <v>188</v>
@@ -8456,16 +8453,16 @@
         <v>118</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L6" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="O6" s="61">
         <v>7125114</v>
@@ -8474,19 +8471,19 @@
         <v>112</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>765</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>766</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -8521,22 +8518,22 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H7" s="60" t="s">
         <v>188</v>
@@ -8548,13 +8545,13 @@
         <v>118</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>197</v>
@@ -8566,19 +8563,19 @@
         <v>112</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -8610,10 +8607,10 @@
     </row>
     <row r="8" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -8625,10 +8622,10 @@
         <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H8" s="60" t="s">
         <v>103</v>
@@ -8637,19 +8634,19 @@
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>771</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>774</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>775</v>
       </c>
       <c r="O8" s="61">
         <v>7125114</v>
@@ -8692,10 +8689,10 @@
     </row>
     <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>98</v>
@@ -8707,10 +8704,10 @@
         <v>99</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>202</v>
@@ -8719,16 +8716,16 @@
         <v>7125114</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N9" s="13" t="s">
         <v>41</v>
@@ -8740,10 +8737,10 @@
         <v>112</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>41</v>
@@ -8751,10 +8748,10 @@
     </row>
     <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>98</v>
@@ -8766,10 +8763,10 @@
         <v>99</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>203</v>
@@ -8778,16 +8775,16 @@
         <v>7125114</v>
       </c>
       <c r="J10" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="M10" s="13" t="s">
         <v>778</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>779</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>41</v>
@@ -8799,10 +8796,10 @@
         <v>112</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>41</v>
@@ -8974,25 +8971,25 @@
         <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>779</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>784</v>
-      </c>
       <c r="K1" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
@@ -9077,7 +9074,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -9086,22 +9083,22 @@
         <v>175</v>
       </c>
       <c r="E2" t="s">
+        <v>784</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G2" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>788</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>41</v>
@@ -9133,7 +9130,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -9142,22 +9139,22 @@
         <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G3" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="F3" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>41</v>
@@ -9168,7 +9165,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -9177,22 +9174,22 @@
         <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G4" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="F4" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>41</v>
@@ -9203,7 +9200,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -9212,22 +9209,22 @@
         <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G5" s="72" t="s">
+        <v>590</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>785</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="G5" s="72" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>786</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>41</v>
@@ -9573,22 +9570,22 @@
         <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>789</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>793</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>794</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>93</v>
@@ -9605,7 +9602,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -9617,22 +9614,22 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L2" s="1">
         <v>7125114</v>
@@ -9641,7 +9638,7 @@
         <v>118</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9649,7 +9646,7 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
@@ -9661,22 +9658,22 @@
         <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L3" s="61">
         <v>7125114</v>
@@ -9685,7 +9682,7 @@
         <v>118</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9693,7 +9690,7 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
@@ -9705,22 +9702,22 @@
         <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L4" s="61">
         <v>7125114</v>
@@ -9729,7 +9726,7 @@
         <v>118</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9737,7 +9734,7 @@
         <v>198</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>98</v>
@@ -9749,22 +9746,22 @@
         <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>796</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>798</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L5" s="61">
         <v>7125114</v>
@@ -9773,7 +9770,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -9927,49 +9924,49 @@
         <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>79</v>
@@ -9978,112 +9975,112 @@
         <v>87</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="AI1" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="AL1" s="4" t="s">
-        <v>552</v>
-      </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>827</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>752</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>753</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AW1" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="AY1" s="7" t="s">
-        <v>724</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>741</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10091,7 +10088,7 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
@@ -10103,119 +10100,119 @@
         <v>199</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>829</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>760</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>834</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>835</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>103</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>835</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>837</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>839</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>840</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>188</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>842</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>843</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="12" t="s">
         <v>844</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>845</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AN2" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="AO2" s="13" t="s">
         <v>846</v>
       </c>
-      <c r="AN2" s="13" t="s">
-        <v>654</v>
-      </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AP2" s="14" t="s">
         <v>847</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>848</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>117</v>
@@ -10230,10 +10227,10 @@
         <v>110</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AX2" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AY2" s="1" t="s">
         <v>117</v>
@@ -10242,13 +10239,13 @@
         <v>112</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="BC2" s="9" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BD2" s="1" t="s">
         <v>41</v>
@@ -10329,211 +10326,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="FW2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="GA2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="GB2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="FG2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="FW2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="FZ2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="GC2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="HB2" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>854</v>
       </c>
     </row>
   </sheetData>
@@ -11916,7 +11913,7 @@
   </sheetPr>
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
@@ -12072,10 +12069,10 @@
         <v>257</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="U2" s="12" t="s">
         <v>260</v>
@@ -12410,8 +12407,8 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12509,7 +12506,7 @@
         <v>179</v>
       </c>
       <c r="F3" s="85" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G3" s="77" t="s">
         <v>288</v>
@@ -12541,7 +12538,7 @@
         <v>179</v>
       </c>
       <c r="F4" s="85" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G4" s="77" t="s">
         <v>288</v>
@@ -12573,16 +12570,16 @@
         <v>200</v>
       </c>
       <c r="F5" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="G5" s="77" t="s">
         <v>293</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="H5" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="I5" t="s">
         <v>294</v>
-      </c>
-      <c r="H5" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="I5" t="s">
-        <v>295</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>291</v>
@@ -12686,211 +12683,211 @@
         <v>1</v>
       </c>
       <c r="C1" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>296</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>297</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G1" s="33" t="s">
         <v>83</v>
       </c>
       <c r="H1" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="L1" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="M1" s="33" t="s">
         <v>303</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="N1" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="O1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>309</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="T1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="U1" s="33" t="s">
+      <c r="V1" s="33" t="s">
         <v>312</v>
       </c>
-      <c r="V1" s="33" t="s">
+      <c r="W1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="W1" s="33" t="s">
+      <c r="X1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="X1" s="33" t="s">
+      <c r="Y1" s="33" t="s">
         <v>315</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Z1" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AA1" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AB1" s="33" t="s">
         <v>318</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AC1" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="AC1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="AD1" s="33" t="s">
+      <c r="AE1" s="33" t="s">
         <v>321</v>
       </c>
-      <c r="AE1" s="33" t="s">
+      <c r="AF1" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AG1" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="AG1" s="33" t="s">
+      <c r="AH1" s="33" t="s">
         <v>324</v>
       </c>
-      <c r="AH1" s="33" t="s">
+      <c r="AI1" s="33" t="s">
         <v>325</v>
       </c>
-      <c r="AI1" s="33" t="s">
+      <c r="AJ1" s="33" t="s">
         <v>326</v>
       </c>
-      <c r="AJ1" s="33" t="s">
+      <c r="AK1" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AL1" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AM1" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="AM1" s="33" t="s">
+      <c r="AN1" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="AN1" s="33" t="s">
+      <c r="AO1" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="AO1" s="33" t="s">
+      <c r="AP1" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="AP1" s="33" t="s">
+      <c r="AQ1" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="AQ1" s="33" t="s">
+      <c r="AR1" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="AR1" s="33" t="s">
+      <c r="AS1" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="AS1" s="44" t="s">
+      <c r="AT1" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="AT1" s="33" t="s">
+      <c r="AU1" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="AU1" s="45" t="s">
+      <c r="AV1" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="AV1" s="45" t="s">
+      <c r="AW1" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="AW1" s="45" t="s">
+      <c r="AX1" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="AX1" s="45" t="s">
+      <c r="AY1" s="45" t="s">
         <v>341</v>
       </c>
-      <c r="AY1" s="45" t="s">
+      <c r="AZ1" s="45" t="s">
         <v>342</v>
       </c>
-      <c r="AZ1" s="45" t="s">
+      <c r="BA1" s="45" t="s">
         <v>343</v>
       </c>
-      <c r="BA1" s="45" t="s">
+      <c r="BB1" s="45" t="s">
         <v>344</v>
       </c>
-      <c r="BB1" s="45" t="s">
+      <c r="BC1" s="45" t="s">
         <v>345</v>
       </c>
-      <c r="BC1" s="45" t="s">
+      <c r="BD1" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="BD1" s="45" t="s">
+      <c r="BE1" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="BE1" s="46" t="s">
+      <c r="BF1" s="45" t="s">
         <v>348</v>
       </c>
-      <c r="BF1" s="45" t="s">
+      <c r="BG1" s="45" t="s">
         <v>349</v>
       </c>
-      <c r="BG1" s="45" t="s">
+      <c r="BH1" s="45" t="s">
         <v>350</v>
       </c>
-      <c r="BH1" s="45" t="s">
+      <c r="BI1" s="45" t="s">
         <v>351</v>
       </c>
-      <c r="BI1" s="45" t="s">
+      <c r="BJ1" s="45" t="s">
         <v>352</v>
       </c>
-      <c r="BJ1" s="45" t="s">
+      <c r="BK1" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="BK1" s="45" t="s">
+      <c r="BL1" s="45" t="s">
         <v>354</v>
       </c>
-      <c r="BL1" s="45" t="s">
+      <c r="BM1" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="BM1" s="45" t="s">
+      <c r="BN1" s="45" t="s">
         <v>356</v>
       </c>
-      <c r="BN1" s="45" t="s">
+      <c r="BO1" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="BO1" s="45" t="s">
+      <c r="BP1" s="45" t="s">
         <v>358</v>
       </c>
-      <c r="BP1" s="45" t="s">
+      <c r="BQ1" s="45" t="s">
         <v>359</v>
       </c>
-      <c r="BQ1" s="45" t="s">
+      <c r="BR1" s="45" t="s">
         <v>360</v>
       </c>
-      <c r="BR1" s="45" t="s">
+      <c r="BS1" s="45" t="s">
         <v>361</v>
-      </c>
-      <c r="BS1" s="45" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="47" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -12898,82 +12895,82 @@
         <v>41</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="47" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="F2" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="49" t="s">
         <v>367</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="I2" s="49" t="s">
         <v>368</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>370</v>
-      </c>
-      <c r="K2" s="49" t="s">
-        <v>371</v>
       </c>
       <c r="L2" s="49" t="s">
         <v>251</v>
       </c>
       <c r="M2" s="49" t="s">
+        <v>371</v>
+      </c>
+      <c r="N2" s="49" t="s">
         <v>372</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="O2" s="47" t="s">
         <v>373</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="P2" s="49" t="s">
         <v>374</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="Q2" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="R2" s="49" t="s">
         <v>376</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="S2" s="49" t="s">
         <v>377</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="T2" s="49" t="s">
         <v>378</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="U2" s="49" t="s">
         <v>379</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="V2" s="50" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="W2" s="49" t="s">
+        <v>375</v>
+      </c>
+      <c r="X2" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="W2" s="49" t="s">
-        <v>376</v>
-      </c>
-      <c r="X2" s="49" t="s">
+      <c r="Y2" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Z2" s="49" t="s">
         <v>383</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="AA2" s="49" t="s">
         <v>384</v>
-      </c>
-      <c r="AA2" s="49" t="s">
-        <v>385</v>
       </c>
       <c r="AB2" s="49" t="s">
         <v>52</v>
@@ -12982,103 +12979,103 @@
         <v>52</v>
       </c>
       <c r="AD2" s="49" t="s">
+        <v>385</v>
+      </c>
+      <c r="AE2" s="49" t="s">
         <v>386</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AF2" s="49" t="s">
         <v>387</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AG2" s="49" t="s">
         <v>388</v>
       </c>
-      <c r="AG2" s="49" t="s">
+      <c r="AH2" s="49" t="s">
         <v>389</v>
       </c>
-      <c r="AH2" s="49" t="s">
+      <c r="AI2" s="49" t="s">
         <v>390</v>
-      </c>
-      <c r="AI2" s="49" t="s">
-        <v>391</v>
       </c>
       <c r="AJ2" s="49" t="s">
         <v>49</v>
       </c>
       <c r="AK2" s="49" t="s">
+        <v>391</v>
+      </c>
+      <c r="AL2" s="49" t="s">
         <v>392</v>
-      </c>
-      <c r="AL2" s="49" t="s">
-        <v>393</v>
       </c>
       <c r="AM2" s="49" t="s">
         <v>251</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AO2" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AP2" s="49" t="s">
         <v>394</v>
       </c>
-      <c r="AP2" s="49" t="s">
+      <c r="AQ2" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="AR2" s="49" t="s">
+        <v>376</v>
+      </c>
+      <c r="AS2" s="49" t="s">
         <v>395</v>
       </c>
-      <c r="AQ2" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="AR2" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="AS2" s="49" t="s">
+      <c r="AT2" s="49" t="s">
         <v>396</v>
       </c>
-      <c r="AT2" s="49" t="s">
+      <c r="AU2" s="49" t="s">
         <v>397</v>
       </c>
-      <c r="AU2" s="49" t="s">
+      <c r="AV2" s="47" t="s">
         <v>398</v>
-      </c>
-      <c r="AV2" s="47" t="s">
-        <v>399</v>
       </c>
       <c r="AW2" s="47" t="s">
         <v>110</v>
       </c>
       <c r="AX2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC2" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="AY2" s="48" t="s">
+      <c r="BD2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE2" s="51" t="s">
+        <v>401</v>
+      </c>
+      <c r="BF2" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="AZ2" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA2" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB2" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC2" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BD2" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BE2" s="51" t="s">
+      <c r="BG2" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH2" s="48" t="s">
         <v>402</v>
       </c>
-      <c r="BF2" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BG2" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BH2" s="48" t="s">
+      <c r="BI2" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="BI2" s="48" t="s">
+      <c r="BJ2" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>45</v>
@@ -13087,10 +13084,10 @@
       <c r="BM2" s="48"/>
       <c r="BN2" s="48"/>
       <c r="BO2" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP2" s="47" t="s">
         <v>406</v>
-      </c>
-      <c r="BP2" s="47" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:71" x14ac:dyDescent="0.2">
@@ -13098,16 +13095,16 @@
         <v>120</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK3" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4" spans="1:71" x14ac:dyDescent="0.2">
@@ -13115,10 +13112,10 @@
         <v>195</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK4" s="1" t="s">
         <v>45</v>
@@ -13129,50 +13126,50 @@
         <v>198</v>
       </c>
       <c r="AU5" s="49" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AV5" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AW5" s="47" t="s">
         <v>110</v>
       </c>
       <c r="AX5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC5" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BD5" s="48" t="s">
         <v>400</v>
-      </c>
-      <c r="AY5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC5" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BD5" s="48" t="s">
-        <v>401</v>
       </c>
       <c r="BE5" s="51"/>
       <c r="BF5" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BG5" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BH5" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI5" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="BI5" s="48" t="s">
+      <c r="BJ5" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="BJ5" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="BK5" s="1" t="s">
         <v>45</v>
@@ -13181,10 +13178,10 @@
       <c r="BM5" s="48"/>
       <c r="BN5" s="48"/>
       <c r="BO5" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP5" s="47" t="s">
         <v>406</v>
-      </c>
-      <c r="BP5" s="47" t="s">
-        <v>407</v>
       </c>
       <c r="BQ5" s="47"/>
       <c r="BR5" s="47"/>
@@ -13195,16 +13192,16 @@
         <v>277</v>
       </c>
       <c r="AV6" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BI6" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
@@ -13212,10 +13209,10 @@
         <v>279</v>
       </c>
       <c r="AV7" s="47" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BI7" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK7" s="1" t="s">
         <v>45</v>
@@ -13223,55 +13220,55 @@
     </row>
     <row r="8" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="AU8" s="49" t="s">
         <v>411</v>
       </c>
-      <c r="AU8" s="49" t="s">
+      <c r="AV8" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="AV8" s="1" t="s">
+      <c r="AW8" s="47" t="s">
         <v>413</v>
       </c>
-      <c r="AW8" s="47" t="s">
+      <c r="AX8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC8" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BD8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE8" s="51" t="s">
         <v>414</v>
       </c>
-      <c r="AX8" s="48" t="s">
+      <c r="BF8" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="AY8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC8" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BD8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BE8" s="51" t="s">
+      <c r="BG8" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH8" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI8" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ8" s="48" t="s">
         <v>415</v>
-      </c>
-      <c r="BF8" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BG8" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BH8" s="48" t="s">
-        <v>403</v>
-      </c>
-      <c r="BI8" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="BJ8" s="48" t="s">
-        <v>416</v>
       </c>
       <c r="BK8" s="1" t="s">
         <v>45</v>
@@ -13280,10 +13277,10 @@
       <c r="BM8" s="48"/>
       <c r="BN8" s="48"/>
       <c r="BO8" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP8" s="47" t="s">
         <v>406</v>
-      </c>
-      <c r="BP8" s="47" t="s">
-        <v>407</v>
       </c>
       <c r="BQ8" s="47"/>
       <c r="BR8" s="47"/>
@@ -13291,30 +13288,30 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AV9" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BI9" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN9" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AV10" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BI10" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK10" s="1" t="s">
         <v>45</v>
@@ -13322,91 +13319,91 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="AU11" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV11" s="47" t="s">
         <v>420</v>
       </c>
-      <c r="AU11" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV11" s="47" t="s">
-        <v>421</v>
-      </c>
       <c r="AW11" s="47" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AX11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC11" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BD11" s="48" t="s">
         <v>400</v>
-      </c>
-      <c r="AY11" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ11" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA11" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB11" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC11" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BD11" s="48" t="s">
-        <v>401</v>
       </c>
       <c r="BE11" s="51"/>
       <c r="BF11" s="48" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="BG11" s="48" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BH11" s="48" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI11" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="BI11" s="48" t="s">
-        <v>404</v>
-      </c>
       <c r="BJ11" s="48" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BK11" s="48"/>
       <c r="BL11" s="48"/>
       <c r="BM11" s="48"/>
       <c r="BN11" s="48"/>
       <c r="BO11" s="48" t="s">
+        <v>405</v>
+      </c>
+      <c r="BP11" s="47" t="s">
         <v>406</v>
-      </c>
-      <c r="BP11" s="47" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AV12" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BI12" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN12" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AV13" s="47" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="BI13" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK13" s="1" t="s">
         <v>45</v>
@@ -13414,62 +13411,62 @@
     </row>
     <row r="14" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="AU14" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV14" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="AU14" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="AW14" s="47" t="s">
+      <c r="AX14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC14" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BD14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BE14" s="51" t="s">
         <v>426</v>
       </c>
-      <c r="AX14" s="48" t="s">
+      <c r="BF14" s="48" t="s">
         <v>400</v>
       </c>
-      <c r="AY14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC14" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BD14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BE14" s="51" t="s">
+      <c r="BG14" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH14" s="48" t="s">
         <v>427</v>
       </c>
-      <c r="BF14" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BG14" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BH14" s="48" t="s">
+      <c r="BI14" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ14" s="1" t="s">
         <v>428</v>
-      </c>
-      <c r="BI14" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="BJ14" s="1" t="s">
-        <v>429</v>
       </c>
       <c r="BK14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BL14" s="48"/>
       <c r="BM14" s="48" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="BN14" s="48"/>
       <c r="BO14" s="48"/>
@@ -13477,16 +13474,16 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AV15" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BG15" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BI15" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK15" s="1" t="s">
         <v>45</v>
@@ -13494,16 +13491,16 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AV16" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BG16" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BI16" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK16" s="1" t="s">
         <v>45</v>
@@ -13511,19 +13508,19 @@
     </row>
     <row r="17" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="AV17" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG17" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BI17" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="AV17" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BG17" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BI17" s="1" t="s">
+      <c r="BJ17" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="BJ17" s="1" t="s">
-        <v>435</v>
       </c>
       <c r="BK17" s="1" t="s">
         <v>45</v>
@@ -13531,71 +13528,71 @@
     </row>
     <row r="18" spans="1:71" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AV18" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG18" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH18" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="BI18" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BJ18" s="48" t="s">
         <v>436</v>
-      </c>
-      <c r="AV18" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BG18" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BH18" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="BI18" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="BJ18" s="48" t="s">
-        <v>437</v>
       </c>
       <c r="BK18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BO18" s="48" t="s">
+        <v>437</v>
+      </c>
+      <c r="BP18" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="BP18" s="1" t="s">
+      <c r="BS18" s="52" t="s">
         <v>439</v>
-      </c>
-      <c r="BS18" s="52" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="19" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="AV19" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="BG19" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BI19" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="AV19" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="BG19" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BI19" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="BJ19" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="BK19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BM19" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AV20" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BG20" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BJ20" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BK20" s="1" t="s">
         <v>45</v>
@@ -13603,36 +13600,36 @@
     </row>
     <row r="21" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AV21" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BG21" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BI21" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="BK21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BN21" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV22" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="BG22" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BI22" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BK22" s="1" t="s">
         <v>45</v>
@@ -13640,107 +13637,107 @@
     </row>
     <row r="23" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AU23" s="49" t="s">
+        <v>411</v>
+      </c>
+      <c r="AV23" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="AU23" s="49" t="s">
-        <v>412</v>
-      </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="AX23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AY23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="AZ23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BA23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BB23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BC23" s="48" t="s">
+        <v>399</v>
+      </c>
+      <c r="BD23" s="48" t="s">
+        <v>400</v>
+      </c>
+      <c r="BF23" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BG23" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BH23" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="BI23" s="48" t="s">
+        <v>403</v>
+      </c>
+      <c r="BK23" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="AW23" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="AX23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AY23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="AZ23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BA23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BB23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BC23" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="BD23" s="48" t="s">
-        <v>401</v>
-      </c>
-      <c r="BF23" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="BG23" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BH23" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="BI23" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="BK23" s="1" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="BG24" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BI24" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BK24" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="BG24" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BI24" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="BK24" s="1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="25" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="BG25" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="BI25" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="BK25" s="1" t="s">
         <v>452</v>
-      </c>
-      <c r="BG25" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BI25" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="BK25" s="1" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="BG26" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BH26" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BO26" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="BP26" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="27" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="6" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding (2)" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED01_DealSetup" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CRED02_FacilitySetup" sheetId="11" state="visible" r:id="rId11"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV05_SBLCIssuance" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01A_LoanDrawdown" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV01_LoanDrawdown" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV18_FeeOnLenderSharesPayment" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_Payments" sheetId="15" state="visible" r:id="rId15"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SERV29_CommitmentFeePayment" sheetId="16" state="visible" r:id="rId16"/>
@@ -29,7 +29,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COM06_LoanMerge" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -374,6 +374,9 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2298,8 +2301,8 @@
   </sheetPr>
   <dimension ref="A1:AQ5"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3439,7 +3442,7 @@
   </sheetPr>
   <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="F6" sqref="F6"/>
     </sheetView>
@@ -3851,10 +3854,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB10"/>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3872,16 +3875,16 @@
     <col width="23.5703125" customWidth="1" style="1" min="12" max="12"/>
     <col width="18.7109375" customWidth="1" style="1" min="13" max="13"/>
     <col width="18.28515625" customWidth="1" style="1" min="14" max="14"/>
-    <col width="25.28515625" customWidth="1" style="1" min="15" max="15"/>
-    <col width="23.85546875" customWidth="1" style="1" min="16" max="16"/>
-    <col width="19.28515625" customWidth="1" style="1" min="17" max="18"/>
-    <col width="14.85546875" customWidth="1" style="1" min="19" max="19"/>
-    <col width="20.85546875" customWidth="1" style="1" min="20" max="20"/>
-    <col width="40.7109375" customWidth="1" style="1" min="21" max="21"/>
-    <col width="22.140625" customWidth="1" style="1" min="22" max="22"/>
-    <col width="22.85546875" customWidth="1" style="1" min="23" max="23"/>
-    <col width="18" customWidth="1" style="1" min="24" max="24"/>
-    <col width="19.7109375" customWidth="1" style="1" min="25" max="25"/>
+    <col width="25.28515625" customWidth="1" style="1" min="15" max="19"/>
+    <col width="23.85546875" customWidth="1" style="1" min="20" max="20"/>
+    <col width="19.28515625" customWidth="1" style="1" min="21" max="22"/>
+    <col width="14.85546875" customWidth="1" style="1" min="23" max="23"/>
+    <col width="20.85546875" customWidth="1" style="1" min="24" max="24"/>
+    <col width="40.7109375" customWidth="1" style="1" min="25" max="25"/>
+    <col width="22.140625" customWidth="1" style="1" min="26" max="26"/>
+    <col width="22.85546875" customWidth="1" style="1" min="27" max="27"/>
+    <col width="18" customWidth="1" style="1" min="28" max="28"/>
+    <col width="19.7109375" customWidth="1" style="1" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" customFormat="1" customHeight="1" s="53" thickBot="1">
@@ -3962,50 +3965,70 @@
       </c>
       <c r="P1" s="53" t="inlineStr">
         <is>
+          <t>Loan_RepricingDate</t>
+        </is>
+      </c>
+      <c r="Q1" s="53" t="inlineStr">
+        <is>
+          <t>Loan_PaymentMode</t>
+        </is>
+      </c>
+      <c r="R1" s="53" t="inlineStr">
+        <is>
+          <t>Loan_Accrue</t>
+        </is>
+      </c>
+      <c r="S1" s="53" t="inlineStr">
+        <is>
+          <t>Loan_AccrueEndDate</t>
+        </is>
+      </c>
+      <c r="T1" s="53" t="inlineStr">
+        <is>
           <t>Loan_IntCycleFrequency</t>
         </is>
       </c>
-      <c r="Q1" s="53" t="inlineStr">
+      <c r="U1" s="53" t="inlineStr">
         <is>
           <t>Borrower_BaseRate</t>
         </is>
       </c>
-      <c r="R1" s="53" t="inlineStr">
+      <c r="V1" s="53" t="inlineStr">
         <is>
           <t>Facility_Spread</t>
         </is>
       </c>
-      <c r="S1" s="53" t="inlineStr">
+      <c r="W1" s="53" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="T1" s="53" t="inlineStr">
+      <c r="X1" s="53" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="U1" s="53" t="inlineStr">
+      <c r="Y1" s="53" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="V1" s="53" t="inlineStr">
+      <c r="Z1" s="53" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="W1" s="53" t="inlineStr">
+      <c r="AA1" s="53" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="X1" s="53" t="inlineStr">
+      <c r="AB1" s="53" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="Y1" s="53" t="inlineStr">
+      <c r="AC1" s="53" t="inlineStr">
         <is>
           <t>Loan_RepricingDate</t>
         </is>
@@ -4039,12 +4062,12 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>TCAF_12092020195043BFH</t>
+          <t>MOF_12092020192849GVF</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H2" s="12" t="inlineStr">
@@ -4054,7 +4077,7 @@
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>60000028</t>
+          <t>60000003</t>
         </is>
       </c>
       <c r="J2" s="12" t="inlineStr">
@@ -4077,9 +4100,9 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N2" s="1" t="inlineStr">
-        <is>
-          <t>4-Jan-2019</t>
+      <c r="N2" s="77" t="inlineStr">
+        <is>
+          <t>31-Jul-2020</t>
         </is>
       </c>
       <c r="O2" s="12" t="inlineStr">
@@ -4087,67 +4110,74 @@
           <t>3 Months</t>
         </is>
       </c>
-      <c r="P2" s="12" t="inlineStr">
+      <c r="P2" s="77" t="inlineStr">
+        <is>
+          <t>04-Jan-2019</t>
+        </is>
+      </c>
+      <c r="Q2" s="12" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R2" s="12" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="S2" s="89" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
+      <c r="T2" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q2" s="12" t="inlineStr">
+      <c r="U2" s="12" t="inlineStr">
         <is>
           <t>2.82090</t>
         </is>
       </c>
-      <c r="R2" s="12" t="inlineStr">
+      <c r="V2" s="12" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
       </c>
-      <c r="S2" s="15" t="inlineStr">
+      <c r="W2" s="15" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="T2" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U2" s="1" t="inlineStr">
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>RTGS1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X2" s="15" t="inlineStr">
+      <c r="AB2" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y2" s="15" t="inlineStr">
+      <c r="AC2" s="15" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA2" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB2" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4184,7 +4214,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H3" s="12" t="inlineStr">
@@ -4217,9 +4247,9 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N3" s="1" t="inlineStr">
-        <is>
-          <t>4-Jan-2019</t>
+      <c r="N3" s="77" t="inlineStr">
+        <is>
+          <t>31-Jul-2020</t>
         </is>
       </c>
       <c r="O3" s="12" t="inlineStr">
@@ -4227,67 +4257,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P3" s="12" t="inlineStr">
+      <c r="P3" s="12" t="n"/>
+      <c r="Q3" s="12" t="n"/>
+      <c r="R3" s="12" t="n"/>
+      <c r="S3" s="12" t="n"/>
+      <c r="T3" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q3" s="12" t="inlineStr">
+      <c r="U3" s="12" t="inlineStr">
         <is>
           <t>2.82090</t>
         </is>
       </c>
-      <c r="R3" s="12" t="inlineStr">
+      <c r="V3" s="12" t="inlineStr">
         <is>
           <t>0.95</t>
         </is>
       </c>
-      <c r="S3" s="15" t="inlineStr">
+      <c r="W3" s="15" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="T3" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U3" s="1" t="inlineStr">
+      <c r="X3" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y3" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V3" s="1" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W3" s="1" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
         <is>
           <t>RTGS1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X3" s="15" t="inlineStr">
+      <c r="AB3" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y3" s="15" t="inlineStr">
+      <c r="AC3" s="15" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA3" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB3" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4324,7 +4345,7 @@
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H4" s="12" t="inlineStr">
@@ -4357,9 +4378,9 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N4" s="1" t="inlineStr">
-        <is>
-          <t>4-Jan-2019</t>
+      <c r="N4" s="77" t="inlineStr">
+        <is>
+          <t>31-Jul-2020</t>
         </is>
       </c>
       <c r="O4" s="12" t="inlineStr">
@@ -4367,67 +4388,58 @@
           <t>3 Months</t>
         </is>
       </c>
-      <c r="P4" s="12" t="inlineStr">
+      <c r="P4" s="12" t="n"/>
+      <c r="Q4" s="12" t="n"/>
+      <c r="R4" s="12" t="n"/>
+      <c r="S4" s="12" t="n"/>
+      <c r="T4" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q4" s="12" t="inlineStr">
+      <c r="U4" s="12" t="inlineStr">
         <is>
           <t>2.82090</t>
         </is>
       </c>
-      <c r="R4" s="12" t="inlineStr">
+      <c r="V4" s="12" t="inlineStr">
         <is>
           <t>1.05</t>
         </is>
       </c>
-      <c r="S4" s="15" t="inlineStr">
+      <c r="W4" s="15" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="T4" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U4" s="1" t="inlineStr">
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V4" s="1" t="inlineStr">
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W4" s="1" t="inlineStr">
+      <c r="AA4" s="1" t="inlineStr">
         <is>
           <t>RTGS1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X4" s="15" t="inlineStr">
+      <c r="AB4" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y4" s="15" t="inlineStr">
+      <c r="AC4" s="15" t="inlineStr">
         <is>
           <t>None</t>
-        </is>
-      </c>
-      <c r="Z4" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA4" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB4" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4464,7 +4476,7 @@
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H5" s="12" t="inlineStr">
@@ -4507,67 +4519,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P5" s="12" t="inlineStr">
+      <c r="P5" s="12" t="n"/>
+      <c r="Q5" s="12" t="n"/>
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="12" t="n"/>
+      <c r="T5" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q5" s="12" t="inlineStr">
+      <c r="U5" s="12" t="inlineStr">
         <is>
           <t>2.05820</t>
         </is>
       </c>
-      <c r="R5" s="12" t="inlineStr">
+      <c r="V5" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S5" s="15" t="inlineStr">
+      <c r="W5" s="15" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="T5" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U5" s="1" t="inlineStr">
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V5" s="1" t="inlineStr">
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W5" s="1" t="inlineStr">
+      <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>RTGS1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X5" s="15" t="inlineStr">
+      <c r="AB5" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y5" s="1" t="inlineStr">
+      <c r="AC5" s="1" t="inlineStr">
         <is>
           <t>21-Feb-2019</t>
-        </is>
-      </c>
-      <c r="Z5" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA5" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB5" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4604,7 +4607,7 @@
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H6" s="12" t="inlineStr">
@@ -4647,67 +4650,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P6" s="12" t="inlineStr">
+      <c r="P6" s="12" t="n"/>
+      <c r="Q6" s="12" t="n"/>
+      <c r="R6" s="12" t="n"/>
+      <c r="S6" s="12" t="n"/>
+      <c r="T6" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q6" s="12" t="inlineStr">
+      <c r="U6" s="12" t="inlineStr">
         <is>
           <t>2.06430</t>
         </is>
       </c>
-      <c r="R6" s="12" t="inlineStr">
+      <c r="V6" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S6" s="15" t="inlineStr">
+      <c r="W6" s="15" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="T6" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U6" s="1" t="inlineStr">
+      <c r="X6" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y6" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V6" s="1" t="inlineStr">
+      <c r="Z6" s="1" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="W6" s="1" t="inlineStr">
+      <c r="AA6" s="1" t="inlineStr">
         <is>
           <t>RTGS1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X6" s="15" t="inlineStr">
+      <c r="AB6" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y6" s="1" t="inlineStr">
+      <c r="AC6" s="1" t="inlineStr">
         <is>
           <t>21-Feb-2019</t>
-        </is>
-      </c>
-      <c r="Z6" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA6" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB6" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4742,9 +4736,9 @@
           <t>TCAF_12092020195043BFH</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1714916</t>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H7" s="12" t="inlineStr">
@@ -4752,29 +4746,19 @@
           <t>Loan</t>
         </is>
       </c>
-      <c r="Q7" s="1" t="inlineStr">
+      <c r="U7" s="1" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="R7" s="1" t="inlineStr">
+      <c r="V7" s="1" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Z7" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA7" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB7" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
+      <c r="X7" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4795,7 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>1714916</t>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H8" s="55" t="inlineStr">
@@ -4854,67 +4838,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P8" s="55" t="inlineStr">
+      <c r="P8" s="55" t="n"/>
+      <c r="Q8" s="55" t="n"/>
+      <c r="R8" s="55" t="n"/>
+      <c r="S8" s="55" t="n"/>
+      <c r="T8" s="55" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q8" s="10" t="inlineStr">
+      <c r="U8" s="10" t="inlineStr">
         <is>
           <t>2.5</t>
         </is>
       </c>
-      <c r="R8" s="55" t="inlineStr">
+      <c r="V8" s="55" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S8" s="10" t="inlineStr">
+      <c r="W8" s="10" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="T8" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U8" s="10" t="inlineStr">
+      <c r="X8" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y8" s="10" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V8" s="10" t="inlineStr">
+      <c r="Z8" s="10" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="W8" s="1" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr">
         <is>
           <t>IMT1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X8" s="54" t="inlineStr">
+      <c r="AB8" s="54" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y8" s="10" t="inlineStr">
+      <c r="AC8" s="10" t="inlineStr">
         <is>
           <t>22-Feb-2019</t>
-        </is>
-      </c>
-      <c r="Z8" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA8" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB8" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -4949,9 +4924,9 @@
           <t>TCAF_12092020195043BFH</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1714916</t>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H9" s="12" t="inlineStr">
@@ -4994,67 +4969,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P9" s="12" t="inlineStr">
+      <c r="P9" s="12" t="n"/>
+      <c r="Q9" s="12" t="n"/>
+      <c r="R9" s="12" t="n"/>
+      <c r="S9" s="12" t="n"/>
+      <c r="T9" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q9" s="1" t="inlineStr">
+      <c r="U9" s="1" t="inlineStr">
         <is>
           <t>0.73</t>
         </is>
       </c>
-      <c r="R9" s="12" t="inlineStr">
+      <c r="V9" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" s="1" t="inlineStr">
+      <c r="W9" s="1" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="T9" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U9" s="1" t="inlineStr">
+      <c r="X9" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y9" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V9" s="1" t="inlineStr">
+      <c r="Z9" s="1" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="W9" s="1" t="inlineStr">
+      <c r="AA9" s="1" t="inlineStr">
         <is>
           <t>IMT3</t>
         </is>
       </c>
-      <c r="X9" s="15" t="inlineStr">
+      <c r="AB9" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y9" s="1" t="inlineStr">
+      <c r="AC9" s="1" t="inlineStr">
         <is>
           <t>21-Mar-2019</t>
-        </is>
-      </c>
-      <c r="Z9" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA9" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB9" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -5089,9 +5055,9 @@
           <t>TCAF_12092020195043BFH</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1714916</t>
+      <c r="G10" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
         </is>
       </c>
       <c r="H10" s="12" t="inlineStr">
@@ -5134,67 +5100,58 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P10" s="12" t="inlineStr">
+      <c r="P10" s="12" t="n"/>
+      <c r="Q10" s="12" t="n"/>
+      <c r="R10" s="12" t="n"/>
+      <c r="S10" s="12" t="n"/>
+      <c r="T10" s="12" t="inlineStr">
         <is>
           <t>None</t>
         </is>
       </c>
-      <c r="Q10" s="1" t="inlineStr">
+      <c r="U10" s="1" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="R10" s="12" t="inlineStr">
+      <c r="V10" s="12" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S10" s="1" t="inlineStr">
+      <c r="W10" s="1" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="T10" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="U10" s="1" t="inlineStr">
+      <c r="X10" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="Y10" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/NR_COL</t>
         </is>
       </c>
-      <c r="V10" s="1" t="inlineStr">
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t>IMT</t>
         </is>
       </c>
-      <c r="W10" s="1" t="inlineStr">
+      <c r="AA10" s="1" t="inlineStr">
         <is>
           <t>IMT1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="X10" s="15" t="inlineStr">
+      <c r="AB10" s="15" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="Y10" s="1" t="inlineStr">
+      <c r="AC10" s="1" t="inlineStr">
         <is>
           <t>22-Feb-2019</t>
-        </is>
-      </c>
-      <c r="Z10" s="1" t="inlineStr">
-        <is>
-          <t>0810050</t>
-        </is>
-      </c>
-      <c r="AA10" s="1" t="inlineStr">
-        <is>
-          <t>7115851</t>
-        </is>
-      </c>
-      <c r="AB10" s="1" t="inlineStr">
-        <is>
-          <t>7125114</t>
         </is>
       </c>
     </row>
@@ -7769,7 +7726,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>60000028</t>
+          <t>60000003</t>
         </is>
       </c>
       <c r="G2" s="13" t="inlineStr">

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -29,7 +29,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="COM06_LoanMerge" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -316,7 +316,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -377,6 +376,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,87 +695,87 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
   <cols>
-    <col width="6.140625" customWidth="1" style="83" min="1" max="1"/>
-    <col width="41.85546875" customWidth="1" style="83" min="2" max="2"/>
-    <col width="53" customWidth="1" style="83" min="3" max="3"/>
-    <col width="24" customWidth="1" style="83" min="4" max="4"/>
-    <col width="42.28515625" customWidth="1" style="83" min="5" max="5"/>
-    <col width="8.5703125" customWidth="1" style="83" min="6" max="6"/>
-    <col width="31.7109375" customWidth="1" style="83" min="7" max="7"/>
-    <col width="11.5703125" customWidth="1" style="83" min="8" max="8"/>
-    <col width="16.7109375" customWidth="1" style="83" min="9" max="9"/>
-    <col width="11.140625" customWidth="1" style="83" min="10" max="10"/>
-    <col width="46.5703125" customWidth="1" style="83" min="11" max="11"/>
-    <col width="15" customWidth="1" style="83" min="12" max="12"/>
-    <col width="19.140625" customWidth="1" style="83" min="13" max="13"/>
-    <col width="24.5703125" customWidth="1" style="83" min="14" max="14"/>
-    <col width="13.28515625" customWidth="1" style="83" min="15" max="15"/>
-    <col width="23" customWidth="1" style="83" min="16" max="17"/>
-    <col width="20" customWidth="1" style="83" min="18" max="18"/>
-    <col width="28.5703125" customWidth="1" style="83" min="19" max="19"/>
-    <col width="15.28515625" customWidth="1" style="83" min="20" max="20"/>
-    <col width="14.42578125" customWidth="1" style="83" min="21" max="21"/>
-    <col width="15.5703125" customWidth="1" style="83" min="22" max="24"/>
-    <col width="13.7109375" customWidth="1" style="83" min="25" max="25"/>
-    <col width="15.5703125" customWidth="1" style="83" min="26" max="26"/>
-    <col width="10.5703125" customWidth="1" style="83" min="27" max="27"/>
-    <col width="35.42578125" customWidth="1" style="83" min="28" max="28"/>
-    <col width="15.28515625" customWidth="1" style="83" min="29" max="29"/>
-    <col width="10.42578125" customWidth="1" style="83" min="30" max="30"/>
-    <col width="14.85546875" customWidth="1" style="83" min="31" max="31"/>
-    <col width="19.7109375" customWidth="1" style="83" min="32" max="32"/>
-    <col width="14" customWidth="1" style="83" min="33" max="33"/>
-    <col width="14.42578125" customWidth="1" style="83" min="34" max="34"/>
-    <col width="20.7109375" customWidth="1" style="83" min="35" max="35"/>
-    <col width="13.85546875" customWidth="1" style="83" min="36" max="36"/>
-    <col width="10" customWidth="1" style="83" min="37" max="37"/>
-    <col width="38.28515625" customWidth="1" style="83" min="38" max="38"/>
-    <col width="21.140625" customWidth="1" style="83" min="39" max="39"/>
-    <col width="24.28515625" customWidth="1" style="83" min="40" max="40"/>
-    <col width="18.42578125" customWidth="1" style="83" min="41" max="41"/>
-    <col width="28.85546875" customWidth="1" style="83" min="42" max="42"/>
-    <col width="14.28515625" customWidth="1" style="83" min="43" max="43"/>
-    <col width="23" customWidth="1" style="83" min="44" max="44"/>
-    <col width="19.85546875" customWidth="1" style="83" min="45" max="48"/>
-    <col width="24.7109375" customWidth="1" style="83" min="49" max="50"/>
-    <col width="25" customWidth="1" style="83" min="51" max="51"/>
-    <col width="24.42578125" customWidth="1" style="83" min="52" max="52"/>
-    <col width="30.42578125" customWidth="1" style="83" min="53" max="53"/>
-    <col width="36" customWidth="1" style="83" min="54" max="54"/>
-    <col width="34.42578125" customWidth="1" style="83" min="55" max="55"/>
-    <col width="26.7109375" customWidth="1" style="83" min="56" max="56"/>
-    <col width="17.28515625" customWidth="1" style="83" min="57" max="58"/>
-    <col width="34.140625" customWidth="1" style="83" min="59" max="59"/>
-    <col width="28.42578125" customWidth="1" style="83" min="60" max="60"/>
-    <col width="24.7109375" customWidth="1" style="83" min="61" max="61"/>
-    <col width="30.28515625" customWidth="1" style="83" min="62" max="62"/>
-    <col width="17.5703125" customWidth="1" style="83" min="63" max="63"/>
-    <col width="20.28515625" customWidth="1" style="83" min="64" max="64"/>
-    <col width="12.140625" customWidth="1" style="83" min="65" max="65"/>
-    <col width="21.42578125" customWidth="1" style="83" min="66" max="66"/>
-    <col width="24.140625" customWidth="1" style="83" min="67" max="67"/>
-    <col width="16" customWidth="1" style="83" min="68" max="68"/>
-    <col width="14" customWidth="1" style="83" min="69" max="69"/>
-    <col width="16.7109375" customWidth="1" style="83" min="70" max="70"/>
-    <col width="10.42578125" customWidth="1" style="83" min="71" max="71"/>
-    <col width="37.7109375" customWidth="1" style="83" min="72" max="72"/>
-    <col width="16.7109375" customWidth="1" style="83" min="73" max="74"/>
-    <col width="20.140625" customWidth="1" style="83" min="75" max="77"/>
-    <col width="17.7109375" customWidth="1" style="83" min="78" max="78"/>
-    <col width="24.5703125" customWidth="1" style="83" min="79" max="79"/>
-    <col width="19.42578125" customWidth="1" style="83" min="80" max="82"/>
-    <col width="21.140625" customWidth="1" style="83" min="83" max="83"/>
-    <col width="32.42578125" customWidth="1" style="83" min="84" max="84"/>
-    <col width="17.28515625" customWidth="1" style="83" min="85" max="86"/>
-    <col width="17.5703125" customWidth="1" style="83" min="87" max="89"/>
-    <col width="26.28515625" customWidth="1" style="83" min="90" max="90"/>
-    <col width="35" customWidth="1" style="83" min="91" max="91"/>
-    <col width="26.5703125" customWidth="1" style="83" min="92" max="92"/>
-    <col width="24.85546875" customWidth="1" style="83" min="93" max="93"/>
-    <col width="20" customWidth="1" style="83" min="94" max="94"/>
+    <col width="6.140625" customWidth="1" style="82" min="1" max="1"/>
+    <col width="41.85546875" customWidth="1" style="82" min="2" max="2"/>
+    <col width="53" customWidth="1" style="82" min="3" max="3"/>
+    <col width="24" customWidth="1" style="82" min="4" max="4"/>
+    <col width="42.28515625" customWidth="1" style="82" min="5" max="5"/>
+    <col width="8.5703125" customWidth="1" style="82" min="6" max="6"/>
+    <col width="31.7109375" customWidth="1" style="82" min="7" max="7"/>
+    <col width="11.5703125" customWidth="1" style="82" min="8" max="8"/>
+    <col width="16.7109375" customWidth="1" style="82" min="9" max="9"/>
+    <col width="11.140625" customWidth="1" style="82" min="10" max="10"/>
+    <col width="46.5703125" customWidth="1" style="82" min="11" max="11"/>
+    <col width="15" customWidth="1" style="82" min="12" max="12"/>
+    <col width="19.140625" customWidth="1" style="82" min="13" max="13"/>
+    <col width="24.5703125" customWidth="1" style="82" min="14" max="14"/>
+    <col width="13.28515625" customWidth="1" style="82" min="15" max="15"/>
+    <col width="23" customWidth="1" style="82" min="16" max="17"/>
+    <col width="20" customWidth="1" style="82" min="18" max="18"/>
+    <col width="28.5703125" customWidth="1" style="82" min="19" max="19"/>
+    <col width="15.28515625" customWidth="1" style="82" min="20" max="20"/>
+    <col width="14.42578125" customWidth="1" style="82" min="21" max="21"/>
+    <col width="15.5703125" customWidth="1" style="82" min="22" max="24"/>
+    <col width="13.7109375" customWidth="1" style="82" min="25" max="25"/>
+    <col width="15.5703125" customWidth="1" style="82" min="26" max="26"/>
+    <col width="10.5703125" customWidth="1" style="82" min="27" max="27"/>
+    <col width="35.42578125" customWidth="1" style="82" min="28" max="28"/>
+    <col width="15.28515625" customWidth="1" style="82" min="29" max="29"/>
+    <col width="10.42578125" customWidth="1" style="82" min="30" max="30"/>
+    <col width="14.85546875" customWidth="1" style="82" min="31" max="31"/>
+    <col width="19.7109375" customWidth="1" style="82" min="32" max="32"/>
+    <col width="14" customWidth="1" style="82" min="33" max="33"/>
+    <col width="14.42578125" customWidth="1" style="82" min="34" max="34"/>
+    <col width="20.7109375" customWidth="1" style="82" min="35" max="35"/>
+    <col width="13.85546875" customWidth="1" style="82" min="36" max="36"/>
+    <col width="10" customWidth="1" style="82" min="37" max="37"/>
+    <col width="38.28515625" customWidth="1" style="82" min="38" max="38"/>
+    <col width="21.140625" customWidth="1" style="82" min="39" max="39"/>
+    <col width="24.28515625" customWidth="1" style="82" min="40" max="40"/>
+    <col width="18.42578125" customWidth="1" style="82" min="41" max="41"/>
+    <col width="28.85546875" customWidth="1" style="82" min="42" max="42"/>
+    <col width="14.28515625" customWidth="1" style="82" min="43" max="43"/>
+    <col width="23" customWidth="1" style="82" min="44" max="44"/>
+    <col width="19.85546875" customWidth="1" style="82" min="45" max="48"/>
+    <col width="24.7109375" customWidth="1" style="82" min="49" max="50"/>
+    <col width="25" customWidth="1" style="82" min="51" max="51"/>
+    <col width="24.42578125" customWidth="1" style="82" min="52" max="52"/>
+    <col width="30.42578125" customWidth="1" style="82" min="53" max="53"/>
+    <col width="36" customWidth="1" style="82" min="54" max="54"/>
+    <col width="34.42578125" customWidth="1" style="82" min="55" max="55"/>
+    <col width="26.7109375" customWidth="1" style="82" min="56" max="56"/>
+    <col width="17.28515625" customWidth="1" style="82" min="57" max="58"/>
+    <col width="34.140625" customWidth="1" style="82" min="59" max="59"/>
+    <col width="28.42578125" customWidth="1" style="82" min="60" max="60"/>
+    <col width="24.7109375" customWidth="1" style="82" min="61" max="61"/>
+    <col width="30.28515625" customWidth="1" style="82" min="62" max="62"/>
+    <col width="17.5703125" customWidth="1" style="82" min="63" max="63"/>
+    <col width="20.28515625" customWidth="1" style="82" min="64" max="64"/>
+    <col width="12.140625" customWidth="1" style="82" min="65" max="65"/>
+    <col width="21.42578125" customWidth="1" style="82" min="66" max="66"/>
+    <col width="24.140625" customWidth="1" style="82" min="67" max="67"/>
+    <col width="16" customWidth="1" style="82" min="68" max="68"/>
+    <col width="14" customWidth="1" style="82" min="69" max="69"/>
+    <col width="16.7109375" customWidth="1" style="82" min="70" max="70"/>
+    <col width="10.42578125" customWidth="1" style="82" min="71" max="71"/>
+    <col width="37.7109375" customWidth="1" style="82" min="72" max="72"/>
+    <col width="16.7109375" customWidth="1" style="82" min="73" max="74"/>
+    <col width="20.140625" customWidth="1" style="82" min="75" max="77"/>
+    <col width="17.7109375" customWidth="1" style="82" min="78" max="78"/>
+    <col width="24.5703125" customWidth="1" style="82" min="79" max="79"/>
+    <col width="19.42578125" customWidth="1" style="82" min="80" max="82"/>
+    <col width="21.140625" customWidth="1" style="82" min="83" max="83"/>
+    <col width="32.42578125" customWidth="1" style="82" min="84" max="84"/>
+    <col width="17.28515625" customWidth="1" style="82" min="85" max="86"/>
+    <col width="17.5703125" customWidth="1" style="82" min="87" max="89"/>
+    <col width="26.28515625" customWidth="1" style="82" min="90" max="90"/>
+    <col width="35" customWidth="1" style="82" min="91" max="91"/>
+    <col width="26.5703125" customWidth="1" style="82" min="92" max="92"/>
+    <col width="24.85546875" customWidth="1" style="82" min="93" max="93"/>
+    <col width="20" customWidth="1" style="82" min="94" max="94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="82">
+    <row r="1" customFormat="1" s="81">
       <c r="A1" s="32" t="inlineStr">
         <is>
           <t>rowid</t>
@@ -1036,35 +1036,35 @@
       <c r="CP1" s="34" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="83" t="inlineStr">
+      <c r="A2" s="82" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B2" s="83" t="inlineStr">
+      <c r="B2" s="82" t="inlineStr">
         <is>
           <t>Create Quick Party Onboarding for CBA UAT Deal 2 - PTY001</t>
         </is>
       </c>
-      <c r="C2" s="83" t="inlineStr">
+      <c r="C2" s="82" t="inlineStr">
         <is>
           <t>MNC COMPANY LTD1215112</t>
         </is>
       </c>
-      <c r="D2" s="83" t="inlineStr">
+      <c r="D2" s="82" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="E2" s="83" t="inlineStr">
+      <c r="E2" s="82" t="inlineStr">
         <is>
           <t>MNC COMPANY LTD</t>
         </is>
       </c>
-      <c r="F2" s="83" t="n">
+      <c r="F2" s="82" t="n">
         <v>7125114</v>
       </c>
-      <c r="G2" s="83" t="inlineStr">
+      <c r="G2" s="82" t="inlineStr">
         <is>
           <t>MNC COMPANY LTD</t>
         </is>
@@ -1094,7 +1094,7 @@
           <t>Full</t>
         </is>
       </c>
-      <c r="M2" s="83" t="inlineStr">
+      <c r="M2" s="82" t="inlineStr">
         <is>
           <t>1014001</t>
         </is>
@@ -1225,12 +1225,12 @@
           <t>Quick Party Onboarding</t>
         </is>
       </c>
-      <c r="AN2" s="83" t="inlineStr">
+      <c r="AN2" s="82" t="inlineStr">
         <is>
           <t>1164f57726c6GBld</t>
         </is>
       </c>
-      <c r="AO2" s="83" t="inlineStr">
+      <c r="AO2" s="82" t="inlineStr">
         <is>
           <t>1164f57780d0GBvY</t>
         </is>
@@ -3856,8 +3856,8 @@
   </sheetPr>
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3887,150 +3887,150 @@
     <col width="19.7109375" customWidth="1" style="1" min="29" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="53" thickBot="1">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="89" thickBot="1">
       <c r="A1" s="20" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="53" t="inlineStr">
+      <c r="B1" s="89" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Drawdown_ID</t>
         </is>
       </c>
-      <c r="D1" s="53" t="inlineStr">
+      <c r="D1" s="89" t="inlineStr">
         <is>
           <t>Facility_Currency</t>
         </is>
       </c>
-      <c r="E1" s="53" t="inlineStr">
+      <c r="E1" s="89" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="F1" s="53" t="inlineStr">
+      <c r="F1" s="89" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="G1" s="53" t="inlineStr">
+      <c r="G1" s="89" t="inlineStr">
         <is>
           <t>Borrower_Name</t>
         </is>
       </c>
-      <c r="H1" s="53" t="inlineStr">
+      <c r="H1" s="89" t="inlineStr">
         <is>
           <t>Outstanding_Type</t>
         </is>
       </c>
-      <c r="I1" s="53" t="inlineStr">
+      <c r="I1" s="89" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="J1" s="53" t="inlineStr">
+      <c r="J1" s="89" t="inlineStr">
         <is>
           <t>Loan_PricingOption</t>
         </is>
       </c>
-      <c r="K1" s="53" t="inlineStr">
+      <c r="K1" s="89" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="L1" s="53" t="inlineStr">
+      <c r="L1" s="89" t="inlineStr">
         <is>
           <t>Loan_RequestedAmount</t>
         </is>
       </c>
-      <c r="M1" s="53" t="inlineStr">
+      <c r="M1" s="89" t="inlineStr">
         <is>
           <t>Loan_EffectiveDate</t>
         </is>
       </c>
-      <c r="N1" s="53" t="inlineStr">
+      <c r="N1" s="89" t="inlineStr">
         <is>
           <t>Loan_MaturityDate</t>
         </is>
       </c>
-      <c r="O1" s="53" t="inlineStr">
+      <c r="O1" s="89" t="inlineStr">
         <is>
           <t>Loan_RepricingFrequency</t>
         </is>
       </c>
-      <c r="P1" s="53" t="inlineStr">
+      <c r="P1" s="89" t="inlineStr">
         <is>
           <t>Loan_RepricingDate</t>
         </is>
       </c>
-      <c r="Q1" s="53" t="inlineStr">
+      <c r="Q1" s="89" t="inlineStr">
         <is>
           <t>Loan_PaymentMode</t>
         </is>
       </c>
-      <c r="R1" s="53" t="inlineStr">
+      <c r="R1" s="89" t="inlineStr">
         <is>
           <t>Loan_Accrue</t>
         </is>
       </c>
-      <c r="S1" s="53" t="inlineStr">
+      <c r="S1" s="89" t="inlineStr">
         <is>
           <t>Loan_AccrueEndDate</t>
         </is>
       </c>
-      <c r="T1" s="53" t="inlineStr">
+      <c r="T1" s="89" t="inlineStr">
         <is>
           <t>Loan_IntCycleFrequency</t>
         </is>
       </c>
-      <c r="U1" s="53" t="inlineStr">
+      <c r="U1" s="89" t="inlineStr">
         <is>
           <t>Borrower_BaseRate</t>
         </is>
       </c>
-      <c r="V1" s="53" t="inlineStr">
+      <c r="V1" s="89" t="inlineStr">
         <is>
           <t>Facility_Spread</t>
         </is>
       </c>
-      <c r="W1" s="53" t="inlineStr">
+      <c r="W1" s="89" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
       </c>
-      <c r="X1" s="53" t="inlineStr">
+      <c r="X1" s="89" t="inlineStr">
         <is>
           <t>Borrower_ShortName</t>
         </is>
       </c>
-      <c r="Y1" s="53" t="inlineStr">
+      <c r="Y1" s="89" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="Z1" s="53" t="inlineStr">
+      <c r="Z1" s="89" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="AA1" s="53" t="inlineStr">
+      <c r="AA1" s="89" t="inlineStr">
         <is>
           <t>Remittance_Description</t>
         </is>
       </c>
-      <c r="AB1" s="53" t="inlineStr">
+      <c r="AB1" s="89" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="AC1" s="53" t="inlineStr">
-        <is>
-          <t>Loan_RepricingDate</t>
+      <c r="AC1" s="89" t="inlineStr">
+        <is>
+          <t>Loan_RepricingDate_2</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N2" s="77" t="inlineStr">
+      <c r="N2" s="76" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -4110,7 +4110,7 @@
           <t>3 Months</t>
         </is>
       </c>
-      <c r="P2" s="77" t="inlineStr">
+      <c r="P2" s="76" t="inlineStr">
         <is>
           <t>04-Jan-2019</t>
         </is>
@@ -4125,7 +4125,7 @@
           <t>to the adjusted due date</t>
         </is>
       </c>
-      <c r="S2" s="89" t="inlineStr">
+      <c r="S2" s="88" t="inlineStr">
         <is>
           <t>03-Jan-2019</t>
         </is>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>60000029</t>
+          <t>60000009</t>
         </is>
       </c>
       <c r="J3" s="12" t="inlineStr">
@@ -4247,7 +4247,7 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N3" s="77" t="inlineStr">
+      <c r="N3" s="76" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -4257,10 +4257,26 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P3" s="12" t="n"/>
-      <c r="Q3" s="12" t="n"/>
-      <c r="R3" s="12" t="n"/>
-      <c r="S3" s="12" t="n"/>
+      <c r="P3" s="76" t="inlineStr">
+        <is>
+          <t>31-Jan-2019</t>
+        </is>
+      </c>
+      <c r="Q3" s="12" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R3" s="12" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="S3" s="88" t="inlineStr">
+        <is>
+          <t>30-Jan-2019</t>
+        </is>
+      </c>
       <c r="T3" s="12" t="inlineStr">
         <is>
           <t>None</t>
@@ -4355,7 +4371,7 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>60000030</t>
+          <t>60000010</t>
         </is>
       </c>
       <c r="J4" s="12" t="inlineStr">
@@ -4378,7 +4394,7 @@
           <t>04-Oct-2018</t>
         </is>
       </c>
-      <c r="N4" s="77" t="inlineStr">
+      <c r="N4" s="76" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -4388,10 +4404,26 @@
           <t>3 Months</t>
         </is>
       </c>
-      <c r="P4" s="12" t="n"/>
-      <c r="Q4" s="12" t="n"/>
-      <c r="R4" s="12" t="n"/>
-      <c r="S4" s="12" t="n"/>
+      <c r="P4" s="76" t="inlineStr">
+        <is>
+          <t>04-Jan-2019</t>
+        </is>
+      </c>
+      <c r="Q4" s="12" t="inlineStr">
+        <is>
+          <t>Pay in Arrears</t>
+        </is>
+      </c>
+      <c r="R4" s="12" t="inlineStr">
+        <is>
+          <t>to the adjusted due date</t>
+        </is>
+      </c>
+      <c r="S4" s="88" t="inlineStr">
+        <is>
+          <t>03-Jan-2019</t>
+        </is>
+      </c>
       <c r="T4" s="12" t="inlineStr">
         <is>
           <t>None</t>
@@ -4763,7 +4795,7 @@
       </c>
     </row>
     <row r="8" customFormat="1" s="10">
-      <c r="A8" s="54" t="inlineStr">
+      <c r="A8" s="53" t="inlineStr">
         <is>
           <t>7</t>
         </is>
@@ -4798,7 +4830,7 @@
           <t>BORROWER111</t>
         </is>
       </c>
-      <c r="H8" s="55" t="inlineStr">
+      <c r="H8" s="54" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
@@ -4833,16 +4865,16 @@
           <t>31-Jul-2022</t>
         </is>
       </c>
-      <c r="O8" s="55" t="inlineStr">
+      <c r="O8" s="54" t="inlineStr">
         <is>
           <t>1 Months</t>
         </is>
       </c>
-      <c r="P8" s="55" t="n"/>
-      <c r="Q8" s="55" t="n"/>
-      <c r="R8" s="55" t="n"/>
-      <c r="S8" s="55" t="n"/>
-      <c r="T8" s="55" t="inlineStr">
+      <c r="P8" s="54" t="n"/>
+      <c r="Q8" s="54" t="n"/>
+      <c r="R8" s="54" t="n"/>
+      <c r="S8" s="54" t="n"/>
+      <c r="T8" s="54" t="inlineStr">
         <is>
           <t>None</t>
         </is>
@@ -4852,7 +4884,7 @@
           <t>2.5</t>
         </is>
       </c>
-      <c r="V8" s="55" t="inlineStr">
+      <c r="V8" s="54" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -4882,7 +4914,7 @@
           <t>IMT1 - TO CUSTOMER</t>
         </is>
       </c>
-      <c r="AB8" s="54" t="inlineStr">
+      <c r="AB8" s="53" t="inlineStr">
         <is>
           <t>100</t>
         </is>
@@ -5344,12 +5376,12 @@
           <t>SBLCFeePayment_NoticeMethod</t>
         </is>
       </c>
-      <c r="J1" s="56" t="inlineStr">
+      <c r="J1" s="55" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="K1" s="56" t="inlineStr">
+      <c r="K1" s="55" t="inlineStr">
         <is>
           <t>Search_By</t>
         </is>
@@ -6397,7 +6429,7 @@
           <t>28-Dec-2019</t>
         </is>
       </c>
-      <c r="Q3" s="76" t="inlineStr">
+      <c r="Q3" s="75" t="inlineStr">
         <is>
           <t>30,821.92</t>
         </is>
@@ -6452,12 +6484,12 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="57" t="inlineStr">
+      <c r="C1" s="56" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="57" t="inlineStr">
+      <c r="D1" s="56" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
@@ -6898,83 +6930,83 @@
     <col width="23.140625" customWidth="1" style="9" min="25" max="25"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="58" thickBot="1">
-      <c r="A1" s="58" t="inlineStr">
+    <row r="1" ht="13.5" customFormat="1" customHeight="1" s="57" thickBot="1">
+      <c r="A1" s="57" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="58" t="inlineStr">
+      <c r="B1" s="57" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="58" t="inlineStr">
+      <c r="C1" s="57" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="58" t="inlineStr">
+      <c r="D1" s="57" t="inlineStr">
         <is>
           <t>Loan_Alias</t>
         </is>
       </c>
-      <c r="E1" s="58" t="inlineStr">
+      <c r="E1" s="57" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="F1" s="58" t="inlineStr">
+      <c r="F1" s="57" t="inlineStr">
         <is>
           <t>Payment_Type</t>
         </is>
       </c>
-      <c r="G1" s="58" t="inlineStr">
+      <c r="G1" s="57" t="inlineStr">
         <is>
           <t>Paperclip_EffectiveDate</t>
         </is>
       </c>
-      <c r="H1" s="58" t="inlineStr">
+      <c r="H1" s="57" t="inlineStr">
         <is>
           <t>Principal_Amount</t>
         </is>
       </c>
-      <c r="I1" s="58" t="inlineStr">
+      <c r="I1" s="57" t="inlineStr">
         <is>
           <t>Interest_Amount</t>
         </is>
       </c>
-      <c r="J1" s="58" t="inlineStr">
+      <c r="J1" s="57" t="inlineStr">
         <is>
           <t>Pricing_Option</t>
         </is>
       </c>
-      <c r="K1" s="58" t="inlineStr">
+      <c r="K1" s="57" t="inlineStr">
         <is>
           <t>SBLC_CycleNumber</t>
         </is>
       </c>
-      <c r="L1" s="58" t="inlineStr">
+      <c r="L1" s="57" t="inlineStr">
         <is>
           <t>SBLC_ProrateWith</t>
         </is>
       </c>
-      <c r="M1" s="58" t="inlineStr">
+      <c r="M1" s="57" t="inlineStr">
         <is>
           <t>Loan_Transaction_Type</t>
         </is>
       </c>
-      <c r="N1" s="58" t="inlineStr">
+      <c r="N1" s="57" t="inlineStr">
         <is>
           <t>Loan_CycleNumber</t>
         </is>
       </c>
-      <c r="O1" s="58" t="inlineStr">
+      <c r="O1" s="57" t="inlineStr">
         <is>
           <t>Loan_ProrateWith</t>
         </is>
       </c>
-      <c r="P1" s="58" t="inlineStr">
+      <c r="P1" s="57" t="inlineStr">
         <is>
           <t>Loan_Currency</t>
         </is>
@@ -6989,22 +7021,22 @@
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="S1" s="58" t="inlineStr">
+      <c r="S1" s="57" t="inlineStr">
         <is>
           <t>Repricing_Frequency</t>
         </is>
       </c>
-      <c r="T1" s="58" t="inlineStr">
+      <c r="T1" s="57" t="inlineStr">
         <is>
           <t>Remittance_Status</t>
         </is>
       </c>
-      <c r="U1" s="58" t="inlineStr">
+      <c r="U1" s="57" t="inlineStr">
         <is>
           <t>Customer_Legal_Name</t>
         </is>
       </c>
-      <c r="V1" s="58" t="inlineStr">
+      <c r="V1" s="57" t="inlineStr">
         <is>
           <t>NoticeStatus</t>
         </is>
@@ -7026,7 +7058,7 @@
       </c>
     </row>
     <row r="2" ht="12.75" customFormat="1" customHeight="1" s="9">
-      <c r="A2" s="59" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -7149,7 +7181,7 @@
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="59" t="inlineStr">
+      <c r="A3" s="58" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7164,9 +7196,9 @@
           <t>UAT3_12092020191633</t>
         </is>
       </c>
-      <c r="D3" s="74" t="inlineStr">
-        <is>
-          <t>60000233</t>
+      <c r="D3" s="73" t="inlineStr">
+        <is>
+          <t>60000010</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -7199,7 +7231,7 @@
           <t>BBSY - Bid Loan</t>
         </is>
       </c>
-      <c r="K3" s="74" t="n">
+      <c r="K3" s="73" t="n">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="inlineStr">
@@ -7212,7 +7244,7 @@
           <t>Principal</t>
         </is>
       </c>
-      <c r="N3" s="74" t="n">
+      <c r="N3" s="73" t="n">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="inlineStr">
@@ -7268,7 +7300,7 @@
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="59" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -7316,7 +7348,7 @@
           <t>USD LIBOR Option Loan</t>
         </is>
       </c>
-      <c r="K4" s="74" t="inlineStr">
+      <c r="K4" s="73" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -7503,7 +7535,7 @@
       <c r="K17" s="40" t="n"/>
       <c r="L17" s="14" t="n"/>
       <c r="M17" s="40" t="n"/>
-      <c r="N17" s="75" t="n"/>
+      <c r="N17" s="74" t="n"/>
       <c r="O17" s="14" t="n"/>
     </row>
     <row r="18">
@@ -7734,7 +7766,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H2" s="60" t="inlineStr">
+      <c r="H2" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -7767,7 +7799,7 @@
           <t>0.8</t>
         </is>
       </c>
-      <c r="O2" s="61" t="n">
+      <c r="O2" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P2" s="18" t="inlineStr">
@@ -7856,7 +7888,7 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>60000029</t>
+          <t>60000009</t>
         </is>
       </c>
       <c r="G3" s="13" t="inlineStr">
@@ -7864,7 +7896,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H3" s="60" t="inlineStr">
+      <c r="H3" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -7897,7 +7929,7 @@
           <t>0.95</t>
         </is>
       </c>
-      <c r="O3" s="61" t="n">
+      <c r="O3" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P3" s="18" t="inlineStr">
@@ -7986,7 +8018,7 @@
       </c>
       <c r="F4" s="13" t="inlineStr">
         <is>
-          <t>60000030</t>
+          <t>60000010</t>
         </is>
       </c>
       <c r="G4" s="13" t="inlineStr">
@@ -7994,7 +8026,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H4" s="60" t="inlineStr">
+      <c r="H4" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -8027,7 +8059,7 @@
           <t>1.05</t>
         </is>
       </c>
-      <c r="O4" s="61" t="n">
+      <c r="O4" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P4" s="18" t="inlineStr">
@@ -8088,13 +8120,13 @@
       <c r="AU4" s="1" t="n"/>
       <c r="AV4" s="1" t="n"/>
     </row>
-    <row r="5" customFormat="1" s="62">
-      <c r="A5" s="63" t="inlineStr">
+    <row r="5" customFormat="1" s="61">
+      <c r="A5" s="62" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B5" s="64" t="inlineStr">
+      <c r="B5" s="63" t="inlineStr">
         <is>
           <t>CBA_UAT_05</t>
         </is>
@@ -8109,7 +8141,7 @@
           <t>MOF_08102019153052VQL</t>
         </is>
       </c>
-      <c r="E5" s="63" t="inlineStr">
+      <c r="E5" s="62" t="inlineStr">
         <is>
           <t>Loan</t>
         </is>
@@ -8119,12 +8151,12 @@
           <t>60000225</t>
         </is>
       </c>
-      <c r="G5" s="63" t="inlineStr">
+      <c r="G5" s="62" t="inlineStr">
         <is>
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H5" s="65" t="inlineStr">
+      <c r="H5" s="64" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -8132,35 +8164,35 @@
       <c r="I5" s="10" t="n">
         <v>7125114</v>
       </c>
-      <c r="J5" s="54" t="inlineStr">
+      <c r="J5" s="53" t="inlineStr">
         <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="K5" s="63" t="inlineStr">
+      <c r="K5" s="62" t="inlineStr">
         <is>
           <t>RTGS2 -FROM CUSTOMER</t>
         </is>
       </c>
-      <c r="L5" s="62" t="inlineStr">
+      <c r="L5" s="61" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="M5" s="63" t="inlineStr">
+      <c r="M5" s="62" t="inlineStr">
         <is>
           <t>2.01950</t>
         </is>
       </c>
-      <c r="N5" s="66" t="inlineStr">
+      <c r="N5" s="65" t="inlineStr">
         <is>
           <t>0.8</t>
         </is>
       </c>
-      <c r="O5" s="67" t="n">
+      <c r="O5" s="66" t="n">
         <v>7125114</v>
       </c>
-      <c r="P5" s="68" t="inlineStr">
+      <c r="P5" s="67" t="inlineStr">
         <is>
           <t>Awaiting release</t>
         </is>
@@ -8170,12 +8202,12 @@
           <t>1 Months</t>
         </is>
       </c>
-      <c r="R5" s="69" t="inlineStr">
+      <c r="R5" s="68" t="inlineStr">
         <is>
           <t>1,614,524.59</t>
         </is>
       </c>
-      <c r="S5" s="70" t="inlineStr">
+      <c r="S5" s="69" t="inlineStr">
         <is>
           <t>31-Jan-2019</t>
         </is>
@@ -8254,7 +8286,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H6" s="60" t="inlineStr">
+      <c r="H6" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -8287,7 +8319,7 @@
           <t>0.95</t>
         </is>
       </c>
-      <c r="O6" s="61" t="n">
+      <c r="O6" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P6" s="18" t="inlineStr">
@@ -8384,7 +8416,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H7" s="60" t="inlineStr">
+      <c r="H7" s="59" t="inlineStr">
         <is>
           <t>BBSY - Bid</t>
         </is>
@@ -8417,7 +8449,7 @@
           <t>1.05</t>
         </is>
       </c>
-      <c r="O7" s="61" t="n">
+      <c r="O7" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P7" s="18" t="inlineStr">
@@ -8514,7 +8546,7 @@
           <t>Comprehensive Repricing</t>
         </is>
       </c>
-      <c r="H8" s="60" t="inlineStr">
+      <c r="H8" s="59" t="inlineStr">
         <is>
           <t>BBSW - Mid</t>
         </is>
@@ -8547,7 +8579,7 @@
           <t>1.7</t>
         </is>
       </c>
-      <c r="O8" s="61" t="n">
+      <c r="O8" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P8" s="18" t="inlineStr">
@@ -8657,7 +8689,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="O9" s="61" t="n">
+      <c r="O9" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P9" s="18" t="inlineStr">
@@ -8750,7 +8782,7 @@
           <t>1</t>
         </is>
       </c>
-      <c r="O10" s="61" t="n">
+      <c r="O10" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="P10" s="18" t="inlineStr">
@@ -8829,7 +8861,7 @@
           <t>UAT3_12092020191633</t>
         </is>
       </c>
-      <c r="I18" s="71" t="n"/>
+      <c r="I18" s="70" t="n"/>
     </row>
     <row r="19">
       <c r="C19" t="inlineStr">
@@ -8837,7 +8869,7 @@
           <t>UAT3_12092020191633</t>
         </is>
       </c>
-      <c r="I19" s="71" t="n"/>
+      <c r="I19" s="70" t="n"/>
     </row>
     <row r="20">
       <c r="C20" t="inlineStr">
@@ -8853,7 +8885,7 @@
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
-      <c r="I21" s="71" t="n"/>
+      <c r="I21" s="70" t="n"/>
     </row>
     <row r="22">
       <c r="C22" t="inlineStr">
@@ -8862,7 +8894,7 @@
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
-      <c r="I22" s="71" t="n"/>
+      <c r="I22" s="70" t="n"/>
     </row>
     <row r="23">
       <c r="C23" t="inlineStr">
@@ -8871,7 +8903,7 @@
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
-      <c r="I23" s="71" t="n"/>
+      <c r="I23" s="70" t="n"/>
     </row>
     <row r="24">
       <c r="C24" t="inlineStr">
@@ -8880,7 +8912,7 @@
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
-      <c r="I24" s="71" t="n"/>
+      <c r="I24" s="70" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -9090,7 +9122,7 @@
       <c r="CJ1" s="3" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="84" t="inlineStr">
+      <c r="A2" s="83" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -9115,12 +9147,12 @@
           <t>Expiry Date</t>
         </is>
       </c>
-      <c r="F2" s="72" t="inlineStr">
+      <c r="F2" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
       </c>
-      <c r="G2" s="72" t="inlineStr">
+      <c r="G2" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -9168,7 +9200,7 @@
       <c r="AF2" s="11" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="84" t="inlineStr">
+      <c r="A3" s="83" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -9193,12 +9225,12 @@
           <t>Expiry Date</t>
         </is>
       </c>
-      <c r="F3" s="72" t="inlineStr">
+      <c r="F3" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
       </c>
-      <c r="G3" s="72" t="inlineStr">
+      <c r="G3" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -9223,7 +9255,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="84" t="inlineStr">
+      <c r="A4" s="83" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -9248,12 +9280,12 @@
           <t>Expiry Date</t>
         </is>
       </c>
-      <c r="F4" s="72" t="inlineStr">
+      <c r="F4" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
       </c>
-      <c r="G4" s="72" t="inlineStr">
+      <c r="G4" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -9278,7 +9310,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="84" t="inlineStr">
+      <c r="A5" s="83" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -9303,12 +9335,12 @@
           <t>Expiry Date</t>
         </is>
       </c>
-      <c r="F5" s="72" t="inlineStr">
+      <c r="F5" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
       </c>
-      <c r="G5" s="72" t="inlineStr">
+      <c r="G5" s="71" t="inlineStr">
         <is>
           <t>31-Jul-2020</t>
         </is>
@@ -9956,7 +9988,7 @@
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="73" t="inlineStr">
+      <c r="A3" s="72" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -10011,7 +10043,7 @@
           <t>01-Feb-2019</t>
         </is>
       </c>
-      <c r="L3" s="61" t="n">
+      <c r="L3" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="M3" s="9" t="inlineStr">
@@ -10026,7 +10058,7 @@
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="73" t="inlineStr">
+      <c r="A4" s="72" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -10081,7 +10113,7 @@
           <t>01-Feb-2019</t>
         </is>
       </c>
-      <c r="L4" s="61" t="n">
+      <c r="L4" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="M4" s="9" t="inlineStr">
@@ -10096,7 +10128,7 @@
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="73" t="inlineStr">
+      <c r="A5" s="72" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -10151,7 +10183,7 @@
           <t>01-Feb-2019</t>
         </is>
       </c>
-      <c r="L5" s="61" t="n">
+      <c r="L5" s="60" t="n">
         <v>7125114</v>
       </c>
       <c r="M5" s="9" t="inlineStr">
@@ -10650,7 +10682,7 @@
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>60000097</t>
+          <t>60000010</t>
         </is>
       </c>
       <c r="I2" s="1" t="inlineStr">
@@ -11698,7 +11730,7 @@
           <t>MNC COMPANY LTD</t>
         </is>
       </c>
-      <c r="F2" s="77" t="inlineStr">
+      <c r="F2" s="76" t="inlineStr">
         <is>
           <t>1413932</t>
         </is>
@@ -13744,62 +13776,62 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="79" t="inlineStr">
+      <c r="A1" s="78" t="inlineStr">
         <is>
           <t>rowid</t>
         </is>
       </c>
-      <c r="B1" s="80" t="inlineStr">
+      <c r="B1" s="79" t="inlineStr">
         <is>
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="80" t="inlineStr">
+      <c r="C1" s="79" t="inlineStr">
         <is>
           <t>InputFilePath</t>
         </is>
       </c>
-      <c r="D1" s="80" t="inlineStr">
+      <c r="D1" s="79" t="inlineStr">
         <is>
           <t>InputGSFile</t>
         </is>
       </c>
-      <c r="E1" s="80" t="inlineStr">
+      <c r="E1" s="79" t="inlineStr">
         <is>
           <t>InputJson</t>
         </is>
       </c>
-      <c r="F1" s="80" t="inlineStr">
+      <c r="F1" s="79" t="inlineStr">
         <is>
           <t>InputFFCResponse</t>
         </is>
       </c>
-      <c r="G1" s="80" t="inlineStr">
+      <c r="G1" s="79" t="inlineStr">
         <is>
           <t>Expected_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="H1" s="80" t="inlineStr">
+      <c r="H1" s="79" t="inlineStr">
         <is>
           <t>OutputFilePath</t>
         </is>
       </c>
-      <c r="I1" s="80" t="inlineStr">
+      <c r="I1" s="79" t="inlineStr">
         <is>
           <t>OutputFFCResponse</t>
         </is>
       </c>
-      <c r="J1" s="80" t="inlineStr">
+      <c r="J1" s="79" t="inlineStr">
         <is>
           <t>Actual_wsFinalLIQDestination</t>
         </is>
       </c>
-      <c r="K1" s="81" t="inlineStr">
+      <c r="K1" s="80" t="inlineStr">
         <is>
           <t>Actual_CustomCBAPush_Response</t>
         </is>
       </c>
-      <c r="L1" s="81" t="inlineStr">
+      <c r="L1" s="80" t="inlineStr">
         <is>
           <t>Actual_ResponseMechanism</t>
         </is>
@@ -14221,42 +14253,42 @@
           <t>Test_Case</t>
         </is>
       </c>
-      <c r="C1" s="86" t="inlineStr">
+      <c r="C1" s="85" t="inlineStr">
         <is>
           <t>Deal_Name</t>
         </is>
       </c>
-      <c r="D1" s="86" t="inlineStr">
+      <c r="D1" s="85" t="inlineStr">
         <is>
           <t>Facility_Name</t>
         </is>
       </c>
-      <c r="E1" s="88" t="inlineStr">
+      <c r="E1" s="87" t="inlineStr">
         <is>
           <t>Fee_Type</t>
         </is>
       </c>
-      <c r="F1" s="87" t="inlineStr">
+      <c r="F1" s="86" t="inlineStr">
         <is>
           <t>Effective_Date</t>
         </is>
       </c>
-      <c r="G1" s="87" t="inlineStr">
+      <c r="G1" s="86" t="inlineStr">
         <is>
           <t>Actual_DueDate</t>
         </is>
       </c>
-      <c r="H1" s="87" t="inlineStr">
+      <c r="H1" s="86" t="inlineStr">
         <is>
           <t>Adjusted_DueDate</t>
         </is>
       </c>
-      <c r="I1" s="87" t="inlineStr">
+      <c r="I1" s="86" t="inlineStr">
         <is>
           <t>Cycle_Frequency</t>
         </is>
       </c>
-      <c r="J1" s="87" t="inlineStr">
+      <c r="J1" s="86" t="inlineStr">
         <is>
           <t>Accrue</t>
         </is>
@@ -14288,17 +14320,17 @@
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="F2" s="85" t="inlineStr">
+      <c r="F2" s="84" t="inlineStr">
         <is>
           <t>29-Sep-2018</t>
         </is>
       </c>
-      <c r="G2" s="77" t="inlineStr">
+      <c r="G2" s="76" t="inlineStr">
         <is>
           <t>29-Dec-2018</t>
         </is>
       </c>
-      <c r="H2" s="77" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
         <is>
           <t>31-Dec-2018</t>
         </is>
@@ -14308,7 +14340,7 @@
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="J2" s="77" t="inlineStr">
+      <c r="J2" s="76" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
@@ -14340,17 +14372,17 @@
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="F3" s="85" t="inlineStr">
+      <c r="F3" s="84" t="inlineStr">
         <is>
           <t>29-Sep-2018</t>
         </is>
       </c>
-      <c r="G3" s="77" t="inlineStr">
+      <c r="G3" s="76" t="inlineStr">
         <is>
           <t>29-Dec-2018</t>
         </is>
       </c>
-      <c r="H3" s="77" t="inlineStr">
+      <c r="H3" s="76" t="inlineStr">
         <is>
           <t>31-Dec-2018</t>
         </is>
@@ -14360,7 +14392,7 @@
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="J3" s="77" t="inlineStr">
+      <c r="J3" s="76" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
@@ -14392,17 +14424,17 @@
           <t>Commitment Fee</t>
         </is>
       </c>
-      <c r="F4" s="85" t="inlineStr">
+      <c r="F4" s="84" t="inlineStr">
         <is>
           <t>29-Sep-2018</t>
         </is>
       </c>
-      <c r="G4" s="77" t="inlineStr">
+      <c r="G4" s="76" t="inlineStr">
         <is>
           <t>29-Dec-2018</t>
         </is>
       </c>
-      <c r="H4" s="77" t="inlineStr">
+      <c r="H4" s="76" t="inlineStr">
         <is>
           <t>31-Dec-2018</t>
         </is>
@@ -14412,7 +14444,7 @@
           <t>Quarterly</t>
         </is>
       </c>
-      <c r="J4" s="77" t="inlineStr">
+      <c r="J4" s="76" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
@@ -14444,17 +14476,17 @@
           <t>Line Fee</t>
         </is>
       </c>
-      <c r="F5" s="85" t="inlineStr">
+      <c r="F5" s="84" t="inlineStr">
         <is>
           <t>28-Nov-2018</t>
         </is>
       </c>
-      <c r="G5" s="77" t="inlineStr">
+      <c r="G5" s="76" t="inlineStr">
         <is>
           <t>28-Dec-2018</t>
         </is>
       </c>
-      <c r="H5" s="85" t="inlineStr">
+      <c r="H5" s="84" t="inlineStr">
         <is>
           <t>28-Nov-2018</t>
         </is>
@@ -14464,7 +14496,7 @@
           <t>Monthly</t>
         </is>
       </c>
-      <c r="J5" s="77" t="inlineStr">
+      <c r="J5" s="76" t="inlineStr">
         <is>
           <t>to the actual due date</t>
         </is>
@@ -14582,7 +14614,7 @@
           <t>Customer_Search</t>
         </is>
       </c>
-      <c r="E1" s="78" t="inlineStr">
+      <c r="E1" s="77" t="inlineStr">
         <is>
           <t>Party_ID</t>
         </is>
@@ -14939,7 +14971,7 @@
           <t>Search by Customer ID</t>
         </is>
       </c>
-      <c r="E2" s="77" t="inlineStr">
+      <c r="E2" s="76" t="inlineStr">
         <is>
           <t>BORROWER111</t>
         </is>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="9" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PTY001_QuickPartyOnboarding (2)" sheetId="1" state="visible" r:id="rId1"/>
@@ -234,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -377,6 +377,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3444,7 +3445,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <selection pane="topRight" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -3856,7 +3857,7 @@
   </sheetPr>
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
@@ -5200,11 +5201,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DY20"/>
+  <dimension ref="A1:DY4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
@@ -5215,17 +5216,16 @@
     <col width="11.42578125" customWidth="1" style="1" min="5" max="5"/>
     <col width="20.85546875" customWidth="1" style="1" min="6" max="6"/>
     <col width="29.140625" customWidth="1" style="1" min="7" max="7"/>
-    <col width="34" customWidth="1" style="1" min="8" max="8"/>
-    <col width="31.5703125" customWidth="1" style="1" min="9" max="9"/>
-    <col width="15.140625" customWidth="1" style="1" min="10" max="10"/>
-    <col width="11.28515625" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13.28515625" customWidth="1" style="1" min="12" max="12"/>
-    <col width="41.85546875" customWidth="1" style="1" min="13" max="13"/>
-    <col width="22.140625" customWidth="1" style="1" min="14" max="14"/>
-    <col width="18" customWidth="1" style="1" min="15" max="15"/>
-    <col width="40.7109375" customWidth="1" style="1" min="16" max="16"/>
-    <col width="29.7109375" customWidth="1" style="1" min="17" max="17"/>
-    <col width="22.85546875" customWidth="1" style="1" min="18" max="18"/>
+    <col width="34" customWidth="1" style="1" min="8" max="9"/>
+    <col width="31.5703125" customWidth="1" style="1" min="10" max="10"/>
+    <col width="15.140625" customWidth="1" style="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13.28515625" customWidth="1" style="1" min="13" max="13"/>
+    <col width="41.85546875" customWidth="1" style="1" min="14" max="14"/>
+    <col width="22.140625" customWidth="1" style="1" min="15" max="15"/>
+    <col width="18" customWidth="1" style="1" min="16" max="16"/>
+    <col width="40.7109375" customWidth="1" style="1" min="17" max="17"/>
+    <col width="29.7109375" customWidth="1" style="1" min="18" max="18"/>
     <col width="18.5703125" customWidth="1" style="1" min="19" max="19"/>
     <col width="18" customWidth="1" style="1" min="20" max="20"/>
     <col width="21.85546875" customWidth="1" style="1" min="21" max="21"/>
@@ -5373,45 +5373,50 @@
       </c>
       <c r="I1" s="21" t="inlineStr">
         <is>
+          <t>Accrual_Rule</t>
+        </is>
+      </c>
+      <c r="J1" s="21" t="inlineStr">
+        <is>
           <t>SBLCFeePayment_NoticeMethod</t>
         </is>
       </c>
-      <c r="J1" s="55" t="inlineStr">
+      <c r="K1" s="55" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="K1" s="55" t="inlineStr">
+      <c r="L1" s="55" t="inlineStr">
         <is>
           <t>Search_By</t>
         </is>
       </c>
-      <c r="L1" s="21" t="inlineStr">
+      <c r="M1" s="21" t="inlineStr">
         <is>
           <t>CycleNumber</t>
         </is>
       </c>
-      <c r="M1" s="21" t="inlineStr">
+      <c r="N1" s="21" t="inlineStr">
         <is>
           <t>RemittanceInstruction_RTGSDescriptionAUD</t>
         </is>
       </c>
-      <c r="N1" s="21" t="inlineStr">
+      <c r="O1" s="21" t="inlineStr">
         <is>
           <t>Remittance_Instruction</t>
         </is>
       </c>
-      <c r="O1" s="3" t="inlineStr">
+      <c r="P1" s="3" t="inlineStr">
         <is>
           <t>HostBankSharePct</t>
         </is>
       </c>
-      <c r="P1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr">
         <is>
           <t>Host_Bank</t>
         </is>
       </c>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="R1" s="3" t="inlineStr">
         <is>
           <t>SBLC_DueDate</t>
         </is>
@@ -5495,65 +5500,67 @@
           <t>60000002</t>
         </is>
       </c>
-      <c r="F2" s="1" t="n">
-        <v>7125114</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
+      </c>
+      <c r="G2" s="90" t="n">
         <v>39406.91</v>
       </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>11-Nov-2018</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="H2" s="76" t="inlineStr">
+        <is>
+          <t>30-Nov-2018</t>
+        </is>
+      </c>
+      <c r="I2" s="76" t="inlineStr">
+        <is>
+          <t>Pay in Advance</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>SBLC/Guarantee</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="L2" s="11" t="inlineStr">
+      <c r="M2" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" s="1" t="inlineStr">
-        <is>
-          <t>RTGS1 - TO CUSTOMER</t>
-        </is>
-      </c>
       <c r="N2" s="1" t="inlineStr">
         <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="O2" s="11" t="inlineStr">
+      <c r="P2" s="11" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/RE_COL</t>
         </is>
       </c>
-      <c r="Q2" s="40" t="inlineStr">
+      <c r="R2" s="40" t="inlineStr">
         <is>
           <t>30-Dec-2018</t>
-        </is>
-      </c>
-      <c r="R2" s="40" t="inlineStr">
-        <is>
-          <t>28-Sep-2018</t>
         </is>
       </c>
       <c r="S2" s="11" t="n"/>
@@ -5671,8 +5678,10 @@
           <t>60000046</t>
         </is>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>7125114</v>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
       </c>
       <c r="G3" s="1" t="n">
         <v>1836.32</v>
@@ -5682,52 +5691,56 @@
           <t>31-Dec-2018</t>
         </is>
       </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="I3" s="76" t="inlineStr">
+        <is>
+          <t>Pay in Advance</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="K3" s="1" t="inlineStr">
         <is>
           <t>SBLC/Guarantee</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="L3" s="1" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="L3" s="11" t="inlineStr">
+      <c r="M3" s="11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>RTGS1 - TO CUSTOMER</t>
-        </is>
-      </c>
       <c r="N3" s="1" t="inlineStr">
         <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="O3" s="11" t="inlineStr">
+      <c r="P3" s="11" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
+      <c r="Q3" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/RE_COL</t>
         </is>
       </c>
-      <c r="Q3" s="40" t="inlineStr">
+      <c r="R3" s="40" t="inlineStr">
         <is>
           <t>19-Mar-2019</t>
         </is>
       </c>
-      <c r="R3" s="11" t="n"/>
       <c r="S3" s="11" t="n"/>
       <c r="T3" s="11" t="n"/>
       <c r="U3" s="11" t="n"/>
@@ -5843,8 +5856,10 @@
           <t>60000002</t>
         </is>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>7125114</v>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>BORROWER111</t>
+        </is>
       </c>
       <c r="G4" s="1" t="n">
         <v>433.04</v>
@@ -5854,52 +5869,56 @@
           <t>31-Dec-2018</t>
         </is>
       </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="I4" s="76" t="inlineStr">
+        <is>
+          <t>Pay in Advance</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
         <is>
           <t>Email</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>SBLC/Guarantee</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Deal/Facility</t>
         </is>
       </c>
-      <c r="L4" s="11" t="inlineStr">
+      <c r="M4" s="11" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>RTGS1 - TO CUSTOMER</t>
-        </is>
-      </c>
       <c r="N4" s="1" t="inlineStr">
         <is>
+          <t>RTGS1</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
           <t>RTGS</t>
         </is>
       </c>
-      <c r="O4" s="11" t="inlineStr">
+      <c r="P4" s="11" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
+      <c r="Q4" s="1" t="inlineStr">
         <is>
           <t>CB001/Hold for Investment - Australia/RE_COL</t>
         </is>
       </c>
-      <c r="Q4" s="40" t="inlineStr">
+      <c r="R4" s="40" t="inlineStr">
         <is>
           <t>29-Mar-2019</t>
         </is>
       </c>
-      <c r="R4" s="11" t="n"/>
       <c r="S4" s="11" t="n"/>
       <c r="T4" s="11" t="n"/>
       <c r="U4" s="11" t="n"/>
@@ -5988,138 +6007,6 @@
       <c r="DW4" s="11" t="n"/>
       <c r="DX4" s="11" t="n"/>
       <c r="DY4" s="11" t="n"/>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="Q11" s="40" t="n"/>
-      <c r="R11" s="40" t="n"/>
-      <c r="S11" s="40" t="n"/>
-      <c r="T11" s="14" t="n"/>
-      <c r="U11" s="14" t="n"/>
-      <c r="Z11" s="14" t="n"/>
-      <c r="AA11" s="14" t="n"/>
-    </row>
-    <row r="12">
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="T13" s="14" t="n"/>
-      <c r="U13" s="14" t="n"/>
-      <c r="Z13" s="14" t="n"/>
-      <c r="AA13" s="14" t="n"/>
-    </row>
-    <row r="14">
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="N16" s="14" t="n"/>
-    </row>
-    <row r="17">
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="I18" s="40" t="n"/>
-      <c r="J18" s="40" t="n"/>
-      <c r="K18" s="40" t="n"/>
-      <c r="R18" s="14" t="n"/>
-      <c r="S18" s="14" t="n"/>
-    </row>
-    <row r="19">
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="N19" s="14" t="n"/>
-    </row>
-    <row r="20">
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>UAT3_12092020191633</t>
-        </is>
-      </c>
-      <c r="R20" s="14" t="n"/>
-      <c r="S20" s="14" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A264A6-2E93-4886-865D-34F568BE67AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F2892-6787-4845-BBC1-8C294A511ABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29700" yWindow="1485" windowWidth="21600" windowHeight="11385" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -2233,9 +2233,6 @@
     <t>28-Dec-2019</t>
   </si>
   <si>
-    <t>31,164.38</t>
-  </si>
-  <si>
     <t>30,821.92</t>
   </si>
   <si>
@@ -2627,6 +2624,9 @@
   </si>
   <si>
     <t>CUSTSHORT11112</t>
+  </si>
+  <si>
+    <t>8,561.64</t>
   </si>
 </sst>
 </file>
@@ -6187,7 +6187,7 @@
   <dimension ref="A1:DY4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -6867,8 +6867,8 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6990,7 +6990,7 @@
         <v>715</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>262</v>
+        <v>713</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>292</v>
@@ -7001,8 +7001,8 @@
       <c r="P2" s="9" t="s">
         <v>728</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>729</v>
+      <c r="Q2" s="83" t="s">
+        <v>860</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>716</v>
@@ -7049,7 +7049,7 @@
         <v>715</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>262</v>
+        <v>713</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>292</v>
@@ -7061,7 +7061,7 @@
         <v>728</v>
       </c>
       <c r="Q3" s="75" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>716</v>
@@ -7112,10 +7112,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="34" t="s">
+        <v>730</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>731</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>732</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>96</v>
@@ -7127,22 +7127,22 @@
         <v>618</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>732</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>733</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>734</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>735</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>736</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7165,7 +7165,7 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>398</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>116</v>
@@ -7215,7 +7215,7 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>398</v>
@@ -7239,7 +7239,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>116</v>
@@ -7265,7 +7265,7 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>398</v>
@@ -7289,7 +7289,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>116</v>
@@ -7449,31 +7449,31 @@
         <v>720</v>
       </c>
       <c r="G1" s="57" t="s">
+        <v>739</v>
+      </c>
+      <c r="H1" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="I1" s="57" t="s">
         <v>741</v>
-      </c>
-      <c r="I1" s="57" t="s">
-        <v>742</v>
       </c>
       <c r="J1" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="57" t="s">
+        <v>742</v>
+      </c>
+      <c r="L1" s="57" t="s">
         <v>743</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="M1" s="57" t="s">
         <v>744</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="N1" s="57" t="s">
         <v>745</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="O1" s="57" t="s">
         <v>746</v>
-      </c>
-      <c r="O1" s="57" t="s">
-        <v>747</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>87</v>
@@ -7485,7 +7485,7 @@
         <v>82</v>
       </c>
       <c r="S1" s="57" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="T1" s="57" t="s">
         <v>86</v>
@@ -7494,7 +7494,7 @@
         <v>612</v>
       </c>
       <c r="V1" s="57" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>93</v>
@@ -7503,7 +7503,7 @@
         <v>95</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7523,7 +7523,7 @@
         <v>199</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>659</v>
@@ -7532,10 +7532,10 @@
         <v>691</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>751</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>752</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
@@ -7544,13 +7544,13 @@
         <v>727</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>110</v>
@@ -7600,7 +7600,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>679</v>
@@ -7609,10 +7609,10 @@
         <v>677</v>
       </c>
       <c r="I3" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>751</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>752</v>
       </c>
       <c r="K3" s="73">
         <v>1</v>
@@ -7621,7 +7621,7 @@
         <v>727</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N3" s="73">
         <v>1</v>
@@ -7677,7 +7677,7 @@
         <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>679</v>
@@ -7686,10 +7686,10 @@
         <v>539</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K4" s="73" t="s">
         <v>120</v>
@@ -7698,7 +7698,7 @@
         <v>727</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
@@ -7929,7 +7929,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -7938,40 +7938,40 @@
         <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>758</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>762</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7979,13 +7979,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>99</v>
@@ -7994,7 +7994,7 @@
         <v>655</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>188</v>
@@ -8012,7 +8012,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>543</v>
@@ -8027,7 +8027,7 @@
         <v>667</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>659</v>
@@ -8071,13 +8071,13 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>99</v>
@@ -8086,7 +8086,7 @@
         <v>666</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>188</v>
@@ -8104,7 +8104,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>670</v>
@@ -8119,10 +8119,10 @@
         <v>667</v>
       </c>
       <c r="R3" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>41</v>
@@ -8163,13 +8163,13 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>99</v>
@@ -8178,7 +8178,7 @@
         <v>673</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>188</v>
@@ -8196,7 +8196,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>197</v>
@@ -8211,7 +8211,7 @@
         <v>667</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>659</v>
@@ -8220,7 +8220,7 @@
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -8255,22 +8255,22 @@
         <v>198</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>188</v>
@@ -8288,7 +8288,7 @@
         <v>110</v>
       </c>
       <c r="M5" s="62" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N5" s="65" t="s">
         <v>543</v>
@@ -8303,7 +8303,7 @@
         <v>667</v>
       </c>
       <c r="R5" s="68" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S5" s="69" t="s">
         <v>668</v>
@@ -8347,22 +8347,22 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H6" s="59" t="s">
         <v>188</v>
@@ -8380,7 +8380,7 @@
         <v>110</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N6" s="17" t="s">
         <v>670</v>
@@ -8395,10 +8395,10 @@
         <v>667</v>
       </c>
       <c r="R6" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>41</v>
@@ -8439,22 +8439,22 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>188</v>
@@ -8472,7 +8472,7 @@
         <v>110</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>197</v>
@@ -8487,7 +8487,7 @@
         <v>667</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>659</v>
@@ -8496,7 +8496,7 @@
         <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -8531,7 +8531,7 @@
         <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -8546,7 +8546,7 @@
         <v>682</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>103</v>
@@ -8555,19 +8555,19 @@
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>777</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>778</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>779</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M8" s="13" t="s">
+        <v>779</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>780</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>781</v>
       </c>
       <c r="O8" s="60">
         <v>7125114</v>
@@ -8613,7 +8613,7 @@
         <v>416</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>98</v>
@@ -8625,10 +8625,10 @@
         <v>99</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>202</v>
@@ -8640,7 +8640,7 @@
         <v>694</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>413</v>
@@ -8672,7 +8672,7 @@
         <v>418</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>98</v>
@@ -8687,7 +8687,7 @@
         <v>698</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>203</v>
@@ -8699,13 +8699,13 @@
         <v>694</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="L10" s="13" t="s">
         <v>425</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="N10" s="13" t="s">
         <v>41</v>
@@ -8892,22 +8892,22 @@
         <v>76</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>615</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>789</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>790</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>618</v>
@@ -9004,7 +9004,7 @@
         <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F2" s="71" t="s">
         <v>590</v>
@@ -9013,13 +9013,13 @@
         <v>590</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="11" t="s">
         <v>793</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>794</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>41</v>
@@ -9060,7 +9060,7 @@
         <v>192</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F3" s="71" t="s">
         <v>590</v>
@@ -9069,13 +9069,13 @@
         <v>590</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>41</v>
@@ -9095,7 +9095,7 @@
         <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F4" s="71" t="s">
         <v>590</v>
@@ -9104,13 +9104,13 @@
         <v>590</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>41</v>
@@ -9130,7 +9130,7 @@
         <v>199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>590</v>
@@ -9139,13 +9139,13 @@
         <v>590</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>41</v>
@@ -9491,22 +9491,22 @@
         <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>799</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>800</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>93</v>
@@ -9535,22 +9535,22 @@
         <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L2" s="1">
         <v>7125114</v>
@@ -9579,22 +9579,22 @@
         <v>192</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="K3" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L3" s="60">
         <v>7125114</v>
@@ -9623,22 +9623,22 @@
         <v>121</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="K4" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L4" s="60">
         <v>7125114</v>
@@ -9667,22 +9667,22 @@
         <v>199</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>181</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>804</v>
-      </c>
       <c r="K5" s="9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="L5" s="60">
         <v>7125114</v>
@@ -9851,43 +9851,43 @@
         <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>813</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>814</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>78</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>79</v>
@@ -9896,112 +9896,112 @@
         <v>87</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>644</v>
       </c>
       <c r="AJ1" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>551</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="AN1" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>833</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AT1" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="AU1" s="7" t="s">
         <v>757</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>758</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AW1" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="AX1" s="8" t="s">
+      <c r="AY1" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="BC1" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="AY1" s="7" t="s">
-        <v>731</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>748</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="BC1" s="5" t="s">
+      <c r="BD1" s="5" t="s">
         <v>761</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10021,7 +10021,7 @@
         <v>199</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>102</v>
@@ -10030,79 +10030,79 @@
         <v>673</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>835</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>766</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>840</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>841</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>103</v>
       </c>
       <c r="R2" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>842</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>843</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>843</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="9" t="s">
         <v>845</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="X2" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="X2" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>846</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>188</v>
@@ -10111,29 +10111,29 @@
         <v>667</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>848</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>849</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="12" t="s">
         <v>850</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="12" t="s">
         <v>851</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>852</v>
       </c>
       <c r="AN2" s="13" t="s">
         <v>656</v>
       </c>
       <c r="AO2" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="AP2" s="14" t="s">
         <v>853</v>
-      </c>
-      <c r="AP2" s="14" t="s">
-        <v>854</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>117</v>
@@ -10148,7 +10148,7 @@
         <v>110</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AX2" s="17" t="s">
         <v>543</v>
@@ -10163,7 +10163,7 @@
         <v>667</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>679</v>
@@ -10247,211 +10247,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="FW2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="GA2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="GB2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="FG2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="FW2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="FZ2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>857</v>
       </c>
-      <c r="GC2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="HB2" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>859</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -12328,8 +12328,8 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA1131F-5C72-4AB9-9F9E-4178A834EDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89403554-CDA2-44C0-A895-8E6394A949BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="12" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="860">
   <si>
     <t>rowid</t>
   </si>
@@ -348,7 +348,7 @@
     <t>TCAF_08102019155309PPE</t>
   </si>
   <si>
-    <t>60000090</t>
+    <t>60000016</t>
   </si>
   <si>
     <t>BBSW - Mid</t>
@@ -2092,291 +2092,291 @@
     <t>D2</t>
   </si>
   <si>
+    <t>60000017</t>
+  </si>
+  <si>
+    <t>10,000,000.00</t>
+  </si>
+  <si>
+    <t>2.06430</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D3</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D4</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>60000184</t>
+  </si>
+  <si>
+    <t>5,000,000.00</t>
+  </si>
+  <si>
+    <t>21-Jan-2019</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>22-Feb-2019</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>60000185</t>
+  </si>
+  <si>
+    <t>500,000.00</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>21-Mar-2019</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>60000186</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>Computed_ProjectedCycleDue</t>
+  </si>
+  <si>
+    <t>IssuanceFeePayment_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Accrual_Rule</t>
+  </si>
+  <si>
+    <t>SBLCFeePayment_NoticeMethod</t>
+  </si>
+  <si>
+    <t>CycleNumber</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUD</t>
+  </si>
+  <si>
+    <t>SBLC_DueDate</t>
+  </si>
+  <si>
+    <t>30-Nov-2018</t>
+  </si>
+  <si>
+    <t>Pay in Advance</t>
+  </si>
+  <si>
+    <t>RTGS1</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment - Australia/RE_COL</t>
+  </si>
+  <si>
+    <t>30-Dec-2018</t>
+  </si>
+  <si>
+    <t>19-Mar-2019</t>
+  </si>
+  <si>
+    <t>29-Mar-2019</t>
+  </si>
+  <si>
+    <t>Payment_Type</t>
+  </si>
+  <si>
+    <t>Prorate_With</t>
+  </si>
+  <si>
+    <t>Borrower1_ShortName</t>
+  </si>
+  <si>
+    <t>Rate_Start_Date</t>
+  </si>
+  <si>
+    <t>Actual_Due</t>
+  </si>
+  <si>
+    <t>LineFee_Amount</t>
+  </si>
+  <si>
+    <t>Fee Payment</t>
+  </si>
+  <si>
+    <t>Projected Due</t>
+  </si>
+  <si>
+    <t>28-Dec-2019</t>
+  </si>
+  <si>
+    <t>8,561.64</t>
+  </si>
+  <si>
+    <t>127054.8</t>
+  </si>
+  <si>
+    <t>Borrower_LegalName</t>
+  </si>
+  <si>
+    <t>Borrower_Contact</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Computed_CycleDue</t>
+  </si>
+  <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
+    <t>John Bloggs</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment</t>
+  </si>
+  <si>
+    <t>Paperclip_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>SBLC_CycleNumber</t>
+  </si>
+  <si>
+    <t>SBLC_ProrateWith</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Loan_ProrateWith</t>
+  </si>
+  <si>
+    <t>Repricing_Frequency</t>
+  </si>
+  <si>
+    <t>Remittance1_Instruction</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>2,932.52</t>
+  </si>
+  <si>
+    <t>BBSY - Bid Loan</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Pro Rate Shares based on Partial Principal Prepayment</t>
+  </si>
+  <si>
+    <t>USD LIBOR Option Loan</t>
+  </si>
+  <si>
+    <t>Repricing_Type</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceInstruction</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDescription</t>
+  </si>
+  <si>
+    <t>Base_Rate</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue</t>
+  </si>
+  <si>
+    <t>Payment_Effective_Date</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Loan_NewOutstanding</t>
+  </si>
+  <si>
+    <t>CBA_UAT_05</t>
+  </si>
+  <si>
+    <t>MOF_08102019153052VQL</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing</t>
+  </si>
+  <si>
+    <t>1.711200</t>
+  </si>
+  <si>
+    <t>1,614,524.59</t>
+  </si>
+  <si>
+    <t>FCAF_08102019153940JKX</t>
+  </si>
+  <si>
+    <t>340,930.68</t>
+  </si>
+  <si>
+    <t>05-Nov-2018</t>
+  </si>
+  <si>
+    <t>SCAF_08102019154546PJL</t>
+  </si>
+  <si>
+    <t>73,000,000.00</t>
+  </si>
+  <si>
+    <t>2.01950</t>
+  </si>
+  <si>
+    <t>60000233</t>
+  </si>
+  <si>
     <t>60000097</t>
   </si>
   <si>
-    <t>10,000,000.00</t>
-  </si>
-  <si>
-    <t>2.06430</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D3</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D4</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>60000184</t>
-  </si>
-  <si>
-    <t>5,000,000.00</t>
-  </si>
-  <si>
-    <t>21-Jan-2019</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>22-Feb-2019</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>60000185</t>
-  </si>
-  <si>
-    <t>500,000.00</t>
-  </si>
-  <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>21-Mar-2019</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>60000186</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>Computed_ProjectedCycleDue</t>
-  </si>
-  <si>
-    <t>IssuanceFeePayment_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Accrual_Rule</t>
-  </si>
-  <si>
-    <t>SBLCFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>CycleNumber</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_RTGSDescriptionAUD</t>
-  </si>
-  <si>
-    <t>SBLC_DueDate</t>
-  </si>
-  <si>
-    <t>30-Nov-2018</t>
-  </si>
-  <si>
-    <t>Pay in Advance</t>
-  </si>
-  <si>
-    <t>RTGS1</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment - Australia/RE_COL</t>
-  </si>
-  <si>
-    <t>30-Dec-2018</t>
-  </si>
-  <si>
-    <t>19-Mar-2019</t>
-  </si>
-  <si>
-    <t>29-Mar-2019</t>
-  </si>
-  <si>
-    <t>Payment_Type</t>
-  </si>
-  <si>
-    <t>Prorate_With</t>
-  </si>
-  <si>
-    <t>Borrower1_ShortName</t>
-  </si>
-  <si>
-    <t>Rate_Start_Date</t>
-  </si>
-  <si>
-    <t>Actual_Due</t>
-  </si>
-  <si>
-    <t>LineFee_Amount</t>
-  </si>
-  <si>
-    <t>Fee Payment</t>
-  </si>
-  <si>
-    <t>Projected Due</t>
-  </si>
-  <si>
-    <t>28-Dec-2019</t>
-  </si>
-  <si>
-    <t>8,561.64</t>
-  </si>
-  <si>
-    <t>Borrower_LegalName</t>
-  </si>
-  <si>
-    <t>Borrower_Contact</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Balance_Amount</t>
-  </si>
-  <si>
-    <t>Rate_Basis</t>
-  </si>
-  <si>
-    <t>Computed_CycleDue</t>
-  </si>
-  <si>
-    <t>NoticeStatus</t>
-  </si>
-  <si>
-    <t>John Bloggs</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment</t>
-  </si>
-  <si>
-    <t>Paperclip_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Principal_Amount</t>
-  </si>
-  <si>
-    <t>Interest_Amount</t>
-  </si>
-  <si>
-    <t>SBLC_CycleNumber</t>
-  </si>
-  <si>
-    <t>SBLC_ProrateWith</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type</t>
-  </si>
-  <si>
-    <t>Loan_CycleNumber</t>
-  </si>
-  <si>
-    <t>Loan_ProrateWith</t>
-  </si>
-  <si>
-    <t>Repricing_Frequency</t>
-  </si>
-  <si>
-    <t>Remittance1_Instruction</t>
-  </si>
-  <si>
-    <t>Issuance</t>
-  </si>
-  <si>
-    <t>2,932.52</t>
-  </si>
-  <si>
-    <t>BBSY - Bid Loan</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Pro Rate Shares based on Partial Principal Prepayment</t>
-  </si>
-  <si>
-    <t>USD LIBOR Option Loan</t>
-  </si>
-  <si>
-    <t>Repricing_Type</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceInstruction</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceDescription</t>
-  </si>
-  <si>
-    <t>Base_Rate</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue</t>
-  </si>
-  <si>
-    <t>Payment_Effective_Date</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Loan_NewOutstanding</t>
-  </si>
-  <si>
-    <t>CBA_UAT_05</t>
-  </si>
-  <si>
-    <t>MOF_08102019153052VQL</t>
-  </si>
-  <si>
-    <t>Comprehensive Repricing</t>
-  </si>
-  <si>
-    <t>1.711200</t>
-  </si>
-  <si>
-    <t>1,614,524.59</t>
-  </si>
-  <si>
-    <t>FCAF_08102019153940JKX</t>
-  </si>
-  <si>
-    <t>340,930.68</t>
-  </si>
-  <si>
-    <t>05-Nov-2018</t>
-  </si>
-  <si>
-    <t>SCAF_08102019154546PJL</t>
-  </si>
-  <si>
-    <t>73,000,000.00</t>
-  </si>
-  <si>
-    <t>60000225</t>
-  </si>
-  <si>
-    <t>2.01950</t>
-  </si>
-  <si>
-    <t>60000029</t>
-  </si>
-  <si>
-    <t>60000233</t>
-  </si>
-  <si>
     <t>DDA</t>
   </si>
   <si>
@@ -2624,9 +2624,6 @@
   </si>
   <si>
     <t>CUSTSHORT11112</t>
-  </si>
-  <si>
-    <t>127054.8</t>
   </si>
 </sst>
 </file>
@@ -5345,8 +5342,8 @@
   </sheetPr>
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5804,7 +5801,7 @@
         <v>118</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AB5" s="15" t="s">
         <v>106</v>
@@ -5885,7 +5882,7 @@
         <v>118</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AB6" s="15" t="s">
         <v>106</v>
@@ -6867,7 +6864,7 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -7061,7 +7058,7 @@
         <v>728</v>
       </c>
       <c r="Q3" s="75" t="s">
-        <v>860</v>
+        <v>730</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>716</v>
@@ -7112,10 +7109,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>96</v>
@@ -7127,22 +7124,22 @@
         <v>618</v>
       </c>
       <c r="K1" s="34" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="O1" s="34" t="s">
         <v>82</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -7165,7 +7162,7 @@
         <v>7125114</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>398</v>
@@ -7189,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>116</v>
@@ -7215,7 +7212,7 @@
         <v>7125114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>398</v>
@@ -7239,7 +7236,7 @@
         <v>2602.7399999999998</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>116</v>
@@ -7265,7 +7262,7 @@
         <v>7125114</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>398</v>
@@ -7289,7 +7286,7 @@
         <v>6472.6</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>116</v>
@@ -7449,31 +7446,31 @@
         <v>720</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="J1" s="57" t="s">
         <v>78</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="O1" s="57" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>87</v>
@@ -7485,7 +7482,7 @@
         <v>82</v>
       </c>
       <c r="S1" s="57" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="T1" s="57" t="s">
         <v>86</v>
@@ -7494,7 +7491,7 @@
         <v>612</v>
       </c>
       <c r="V1" s="57" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>93</v>
@@ -7503,7 +7500,7 @@
         <v>95</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7523,7 +7520,7 @@
         <v>199</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>659</v>
@@ -7532,10 +7529,10 @@
         <v>691</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
@@ -7544,13 +7541,13 @@
         <v>727</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>110</v>
@@ -7600,7 +7597,7 @@
         <v>121</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>679</v>
@@ -7609,10 +7606,10 @@
         <v>677</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K3" s="73">
         <v>1</v>
@@ -7621,7 +7618,7 @@
         <v>727</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N3" s="73">
         <v>1</v>
@@ -7677,7 +7674,7 @@
         <v>199</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>679</v>
@@ -7686,10 +7683,10 @@
         <v>539</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K4" s="73" t="s">
         <v>120</v>
@@ -7698,7 +7695,7 @@
         <v>727</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
@@ -7929,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>78</v>
@@ -7938,40 +7935,40 @@
         <v>93</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
@@ -7979,13 +7976,13 @@
         <v>41</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>99</v>
@@ -7994,7 +7991,7 @@
         <v>655</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H2" s="59" t="s">
         <v>188</v>
@@ -8012,7 +8009,7 @@
         <v>110</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N2" s="17" t="s">
         <v>543</v>
@@ -8027,7 +8024,7 @@
         <v>667</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>659</v>
@@ -8071,13 +8068,13 @@
         <v>120</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>99</v>
@@ -8086,7 +8083,7 @@
         <v>666</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H3" s="59" t="s">
         <v>188</v>
@@ -8104,7 +8101,7 @@
         <v>110</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N3" s="17" t="s">
         <v>670</v>
@@ -8119,10 +8116,10 @@
         <v>667</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>41</v>
@@ -8163,13 +8160,13 @@
         <v>195</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>99</v>
@@ -8178,7 +8175,7 @@
         <v>673</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H4" s="59" t="s">
         <v>188</v>
@@ -8196,7 +8193,7 @@
         <v>110</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>197</v>
@@ -8211,7 +8208,7 @@
         <v>667</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>659</v>
@@ -8220,7 +8217,7 @@
         <v>41</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -8255,22 +8252,22 @@
         <v>198</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>98</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>773</v>
+        <v>682</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>188</v>
@@ -8303,7 +8300,7 @@
         <v>667</v>
       </c>
       <c r="R5" s="68" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S5" s="69" t="s">
         <v>668</v>
@@ -8347,22 +8344,22 @@
         <v>277</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>775</v>
+        <v>682</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H6" s="59" t="s">
         <v>188</v>
@@ -8395,10 +8392,10 @@
         <v>667</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>41</v>
@@ -8439,22 +8436,22 @@
         <v>279</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>188</v>
@@ -8487,7 +8484,7 @@
         <v>667</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>659</v>
@@ -8496,7 +8493,7 @@
         <v>41</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -8531,7 +8528,7 @@
         <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>98</v>
@@ -8543,10 +8540,10 @@
         <v>99</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>682</v>
+        <v>776</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>103</v>
@@ -8613,7 +8610,7 @@
         <v>416</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>98</v>
@@ -8628,7 +8625,7 @@
         <v>781</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>202</v>
@@ -8672,7 +8669,7 @@
         <v>418</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>98</v>
@@ -8687,7 +8684,7 @@
         <v>698</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>203</v>
@@ -9875,7 +9872,7 @@
         <v>811</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>812</v>
@@ -9896,7 +9893,7 @@
         <v>87</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>815</v>
@@ -9956,7 +9953,7 @@
         <v>831</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AP1" s="5" t="s">
         <v>829</v>
@@ -9965,43 +9962,43 @@
         <v>832</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>93</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>87</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AY1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10045,7 +10042,7 @@
         <v>838</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>839</v>
@@ -10133,7 +10130,7 @@
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>117</v>
@@ -10148,7 +10145,7 @@
         <v>110</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AX2" s="17" t="s">
         <v>543</v>
@@ -10163,7 +10160,7 @@
         <v>667</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>679</v>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3239A4CD-F3C1-4215-80A6-7330BDF6617F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4B4891-C65C-4B62-A4C5-3464FA7724D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6996,14 +6996,14 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
     <col min="6" max="10" width="23.28515625" style="1" customWidth="1"/>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA1131F-5C72-4AB9-9F9E-4178A834EDA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176A300-EB6E-4D6C-9ECA-08A11F84B95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="13" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="862">
   <si>
     <t>rowid</t>
   </si>
@@ -2627,6 +2627,9 @@
   </si>
   <si>
     <t>127054.8</t>
+  </si>
+  <si>
+    <t>Repricing_Date</t>
   </si>
 </sst>
 </file>
@@ -6867,7 +6870,7 @@
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
@@ -7879,10 +7882,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AV24"/>
+  <dimension ref="A1:AW24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:IV24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7903,13 +7906,13 @@
     <col min="14" max="14" width="20.85546875" style="13" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" style="13" customWidth="1"/>
     <col min="16" max="16" width="16" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="19.85546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7962,19 +7965,22 @@
         <v>747</v>
       </c>
       <c r="R1" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>41</v>
       </c>
@@ -8026,19 +8032,21 @@
       <c r="Q2" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S2" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -8065,8 +8073,9 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
-    </row>
-    <row r="3" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>120</v>
       </c>
@@ -8118,19 +8127,21 @@
       <c r="Q3" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S3" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>770</v>
-      </c>
       <c r="T3" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -8157,8 +8168,9 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
-    </row>
-    <row r="4" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>195</v>
       </c>
@@ -8210,19 +8222,21 @@
       <c r="Q4" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="R4" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="S4" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -8249,8 +8263,9 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
-    </row>
-    <row r="5" spans="1:48" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5" spans="1:49" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>198</v>
       </c>
@@ -8302,19 +8317,19 @@
       <c r="Q5" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="R5" s="68" t="s">
+      <c r="R5" s="10"/>
+      <c r="S5" s="68" t="s">
         <v>767</v>
       </c>
-      <c r="S5" s="69" t="s">
+      <c r="T5" s="69" t="s">
         <v>668</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>656</v>
       </c>
-      <c r="V5" s="10"/>
       <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
@@ -8341,8 +8356,9 @@
       <c r="AT5" s="10"/>
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
-    </row>
-    <row r="6" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW5" s="10"/>
+    </row>
+    <row r="6" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>277</v>
       </c>
@@ -8394,19 +8410,19 @@
       <c r="Q6" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="R6" s="14" t="s">
+      <c r="R6" s="1"/>
+      <c r="S6" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -8433,8 +8449,9 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
-    </row>
-    <row r="7" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>279</v>
       </c>
@@ -8486,19 +8503,19 @@
       <c r="Q7" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -8525,8 +8542,9 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
-    </row>
-    <row r="8" spans="1:48" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>410</v>
       </c>
@@ -8607,8 +8625,9 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
-    </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>416</v>
       </c>
@@ -8660,14 +8679,14 @@
       <c r="Q9" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="T9" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="T9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>418</v>
       </c>
@@ -8719,90 +8738,62 @@
       <c r="Q10" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="T10" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="T10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C11"/>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C12"/>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C13"/>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C14"/>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C15"/>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="C16"/>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>98</v>
-      </c>
+      <c r="C17"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>98</v>
-      </c>
+      <c r="C18"/>
       <c r="I18" s="70"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>98</v>
-      </c>
+      <c r="C19"/>
       <c r="I19" s="70"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>98</v>
-      </c>
+      <c r="C20"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>98</v>
-      </c>
+      <c r="C21"/>
       <c r="D21" s="1"/>
       <c r="I21" s="70"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>98</v>
-      </c>
+      <c r="C22"/>
       <c r="D22" s="1"/>
       <c r="I22" s="70"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>98</v>
-      </c>
+      <c r="C23"/>
       <c r="D23" s="1"/>
       <c r="I23" s="70"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>98</v>
-      </c>
+      <c r="C24"/>
       <c r="D24" s="1"/>
       <c r="I24" s="70"/>
     </row>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F51EE09-7B91-42D0-9897-125B4154CDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B938A-0F62-402B-8BDD-0475C3A013AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="9" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5355" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="CRED08_FacilityFeeSetup" sheetId="3" r:id="rId3"/>
-    <sheet name="FXRates_Fields" sheetId="4" r:id="rId4"/>
-    <sheet name="CRED01_Primaries" sheetId="5" r:id="rId5"/>
-    <sheet name="BaseRate_Fields" sheetId="6" r:id="rId6"/>
-    <sheet name="CRED08_OngoingFeeSetup" sheetId="7" r:id="rId7"/>
-    <sheet name="ORIG03_Customer" sheetId="8" r:id="rId8"/>
-    <sheet name="CRED01_DealSetup" sheetId="9" r:id="rId9"/>
-    <sheet name="CRED02_FacilitySetup" sheetId="10" r:id="rId10"/>
-    <sheet name="SERV05_SBLCIssuance" sheetId="11" r:id="rId11"/>
-    <sheet name="SERV01_LoanDrawdown" sheetId="12" r:id="rId12"/>
-    <sheet name="SERV18_FeeOnLenderSharesPayment" sheetId="13" r:id="rId13"/>
-    <sheet name="SERV29_LineFeePayment" sheetId="14" r:id="rId14"/>
-    <sheet name="SERV29_CommitmentFeePayment" sheetId="15" r:id="rId15"/>
-    <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="16" r:id="rId16"/>
-    <sheet name="SERV23_Paperclip" sheetId="17" r:id="rId17"/>
-    <sheet name="SERV08C_ComprehensiveRepricing" sheetId="18" r:id="rId18"/>
+    <sheet name="FXRates_Fields" sheetId="4" r:id="rId3"/>
+    <sheet name="CRED01_Primaries" sheetId="5" r:id="rId4"/>
+    <sheet name="BaseRate_Fields" sheetId="6" r:id="rId5"/>
+    <sheet name="CRED08_OngoingFeeSetup" sheetId="7" r:id="rId6"/>
+    <sheet name="ORIG03_Customer" sheetId="8" r:id="rId7"/>
+    <sheet name="CRED01_DealSetup" sheetId="9" r:id="rId8"/>
+    <sheet name="CRED02_FacilitySetup" sheetId="10" r:id="rId9"/>
+    <sheet name="SERV05_SBLCIssuance" sheetId="11" r:id="rId10"/>
+    <sheet name="SERV01_LoanDrawdown" sheetId="12" r:id="rId11"/>
+    <sheet name="SERV18_FeeOnLenderSharesPayment" sheetId="13" r:id="rId12"/>
+    <sheet name="SERV29_LineFeePayment" sheetId="14" r:id="rId13"/>
+    <sheet name="SERV29_CommitmentFeePayment" sheetId="15" r:id="rId14"/>
+    <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="16" r:id="rId15"/>
+    <sheet name="SERV23_Paperclip" sheetId="17" r:id="rId16"/>
+    <sheet name="SERV08C_ComprehensiveRepricing" sheetId="18" r:id="rId17"/>
+    <sheet name="CRED08_FacilityFeeSetup" sheetId="3" r:id="rId18"/>
     <sheet name="AMCH05_ExtendFacility" sheetId="19" r:id="rId19"/>
     <sheet name="CRED01_UpfrontFee" sheetId="20" r:id="rId20"/>
     <sheet name="COM06_LoanMerge" sheetId="21" r:id="rId21"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2572" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="874">
   <si>
     <t>rowid</t>
   </si>
@@ -2122,537 +2122,534 @@
     <t>D4</t>
   </si>
   <si>
+    <t>60000051</t>
+  </si>
+  <si>
     <t>5,000,000.00</t>
   </si>
   <si>
     <t>21-Jan-2019</t>
   </si>
   <si>
+    <t>22-Feb-2019</t>
+  </si>
+  <si>
+    <t>IMT</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D5</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>60000053</t>
+  </si>
+  <si>
+    <t>500,000.00</t>
+  </si>
+  <si>
+    <t>IMT3 - TO CUSTOMER</t>
+  </si>
+  <si>
+    <t>UAT_Drawdown_SERV01A_D6</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>60000052</t>
+  </si>
+  <si>
+    <t>Computed_ProjectedCycleDue</t>
+  </si>
+  <si>
+    <t>IssuanceFeePayment_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Accrual_Rule</t>
+  </si>
+  <si>
+    <t>SBLCFeePayment_NoticeMethod</t>
+  </si>
+  <si>
+    <t>CycleNumber</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_RTGSDescriptionAUD</t>
+  </si>
+  <si>
+    <t>SBLC_DueDate</t>
+  </si>
+  <si>
+    <t>30-Nov-2018</t>
+  </si>
+  <si>
+    <t>Pay in Advance</t>
+  </si>
+  <si>
+    <t>RTGS1</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment - Australia/RE_COL</t>
+  </si>
+  <si>
+    <t>30-Dec-2018</t>
+  </si>
+  <si>
+    <t>19-Mar-2019</t>
+  </si>
+  <si>
+    <t>29-Mar-2019</t>
+  </si>
+  <si>
+    <t>Payment_Type</t>
+  </si>
+  <si>
+    <t>Prorate_With</t>
+  </si>
+  <si>
+    <t>Borrower1_ShortName</t>
+  </si>
+  <si>
+    <t>Rate_Start_Date</t>
+  </si>
+  <si>
+    <t>Actual_Due</t>
+  </si>
+  <si>
+    <t>LineFee_Amount</t>
+  </si>
+  <si>
+    <t>Fee Payment</t>
+  </si>
+  <si>
+    <t>Projected Due</t>
+  </si>
+  <si>
+    <t>28-Dec-2019</t>
+  </si>
+  <si>
+    <t>8,561.64</t>
+  </si>
+  <si>
+    <t>125,000.00</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment - Australia/RE_RES</t>
+  </si>
+  <si>
+    <t>Borrower_LegalName</t>
+  </si>
+  <si>
+    <t>Borrower_Contact</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Computed_CycleDue</t>
+  </si>
+  <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
+    <t>John Bloggs</t>
+  </si>
+  <si>
+    <t>14931.59</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment</t>
+  </si>
+  <si>
+    <t>6506.85</t>
+  </si>
+  <si>
+    <t>46056.16</t>
+  </si>
+  <si>
+    <t>MNC COMPANY LTD1215112</t>
+  </si>
+  <si>
+    <t>Paperclip_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>SBLC_CycleNumber</t>
+  </si>
+  <si>
+    <t>SBLC_ProrateWith</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Loan_ProrateWith</t>
+  </si>
+  <si>
+    <t>Repricing_Frequency</t>
+  </si>
+  <si>
+    <t>Remittance1_Instruction</t>
+  </si>
+  <si>
+    <t>Issuance</t>
+  </si>
+  <si>
+    <t>2,932.52</t>
+  </si>
+  <si>
+    <t>BBSY - Bid Loan</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Pro Rate Shares based on Partial Principal Prepayment</t>
+  </si>
+  <si>
+    <t>MNC COMPANY LTD 001</t>
+  </si>
+  <si>
+    <t>USD LIBOR Option Loan</t>
+  </si>
+  <si>
+    <t>Repricing_Type</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceInstruction</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDescription</t>
+  </si>
+  <si>
+    <t>Borrower_RemittanceDescription_2</t>
+  </si>
+  <si>
+    <t>Base_Rate</t>
+  </si>
+  <si>
+    <t>Interest_SpreadValue</t>
+  </si>
+  <si>
+    <t>Repricing_Date</t>
+  </si>
+  <si>
+    <t>Payment_Effective_Date</t>
+  </si>
+  <si>
+    <t>Cycle</t>
+  </si>
+  <si>
+    <t>Loan_NewOutstanding</t>
+  </si>
+  <si>
+    <t>Loan_Increase</t>
+  </si>
+  <si>
+    <t>CBA_UAT_05</t>
+  </si>
+  <si>
+    <t>UAT3_MOF_200M</t>
+  </si>
+  <si>
+    <t>60000035</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing</t>
+  </si>
+  <si>
+    <t>RTGS2 - FROM CUSTOME</t>
+  </si>
+  <si>
+    <t>1.711200</t>
+  </si>
+  <si>
+    <t>UAT_FCAF_100M</t>
+  </si>
+  <si>
+    <t>60000019</t>
+  </si>
+  <si>
+    <t>UAT_SCAF_90M</t>
+  </si>
+  <si>
+    <t>73,000,000.00</t>
+  </si>
+  <si>
+    <t>15,000,000.00</t>
+  </si>
+  <si>
+    <t>2.01950</t>
+  </si>
+  <si>
+    <t>03-Apr-2019</t>
+  </si>
+  <si>
+    <t>60000078</t>
+  </si>
+  <si>
+    <t>60000090</t>
+  </si>
+  <si>
+    <t>TCAF_08102019155309PPE</t>
+  </si>
+  <si>
+    <t>60000097</t>
+  </si>
+  <si>
+    <t>DDA</t>
+  </si>
+  <si>
+    <t>DDAAUD1-1304</t>
+  </si>
+  <si>
+    <t>1.93</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>60000172</t>
+  </si>
+  <si>
+    <t>IMTUSD1-3211</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>IMT</t>
-  </si>
-  <si>
-    <t>22-Feb-2019</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D5</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>60000052</t>
-  </si>
-  <si>
-    <t>500,000.00</t>
-  </si>
-  <si>
-    <t>IMT3 - TO CUSTOMER</t>
-  </si>
-  <si>
-    <t>UAT_Drawdown_SERV01A_D6</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>Computed_ProjectedCycleDue</t>
-  </si>
-  <si>
-    <t>IssuanceFeePayment_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Accrual_Rule</t>
-  </si>
-  <si>
-    <t>SBLCFeePayment_NoticeMethod</t>
-  </si>
-  <si>
-    <t>CycleNumber</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_RTGSDescriptionAUD</t>
-  </si>
-  <si>
-    <t>SBLC_DueDate</t>
-  </si>
-  <si>
-    <t>30-Nov-2018</t>
-  </si>
-  <si>
-    <t>Pay in Advance</t>
-  </si>
-  <si>
-    <t>RTGS1</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment - Australia/RE_COL</t>
-  </si>
-  <si>
-    <t>30-Dec-2018</t>
-  </si>
-  <si>
-    <t>19-Mar-2019</t>
-  </si>
-  <si>
-    <t>29-Mar-2019</t>
-  </si>
-  <si>
-    <t>Payment_Type</t>
-  </si>
-  <si>
-    <t>Prorate_With</t>
-  </si>
-  <si>
-    <t>Borrower1_ShortName</t>
-  </si>
-  <si>
-    <t>Rate_Start_Date</t>
-  </si>
-  <si>
-    <t>Actual_Due</t>
-  </si>
-  <si>
-    <t>LineFee_Amount</t>
-  </si>
-  <si>
-    <t>Fee Payment</t>
-  </si>
-  <si>
-    <t>Projected Due</t>
-  </si>
-  <si>
-    <t>28-Dec-2019</t>
-  </si>
-  <si>
-    <t>8,561.64</t>
-  </si>
-  <si>
-    <t>125,000.00</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment - Australia/RE_RES</t>
-  </si>
-  <si>
-    <t>Borrower_LegalName</t>
-  </si>
-  <si>
-    <t>Borrower_Contact</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Balance_Amount</t>
-  </si>
-  <si>
-    <t>Rate_Basis</t>
-  </si>
-  <si>
-    <t>Computed_CycleDue</t>
-  </si>
-  <si>
-    <t>NoticeStatus</t>
-  </si>
-  <si>
-    <t>John Bloggs</t>
-  </si>
-  <si>
-    <t>14931.59</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment</t>
-  </si>
-  <si>
-    <t>6506.85</t>
-  </si>
-  <si>
-    <t>46056.16</t>
-  </si>
-  <si>
-    <t>MNC COMPANY LTD1215112</t>
-  </si>
-  <si>
-    <t>Paperclip_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Principal_Amount</t>
-  </si>
-  <si>
-    <t>Interest_Amount</t>
-  </si>
-  <si>
-    <t>SBLC_CycleNumber</t>
-  </si>
-  <si>
-    <t>SBLC_ProrateWith</t>
-  </si>
-  <si>
-    <t>Loan_Transaction_Type</t>
-  </si>
-  <si>
-    <t>Loan_CycleNumber</t>
-  </si>
-  <si>
-    <t>Loan_ProrateWith</t>
-  </si>
-  <si>
-    <t>Repricing_Frequency</t>
-  </si>
-  <si>
-    <t>Remittance1_Instruction</t>
-  </si>
-  <si>
-    <t>Issuance</t>
-  </si>
-  <si>
-    <t>2,932.52</t>
-  </si>
-  <si>
-    <t>BBSY - Bid Loan</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Pro Rate Shares based on Partial Principal Prepayment</t>
-  </si>
-  <si>
-    <t>MNC COMPANY LTD 001</t>
-  </si>
-  <si>
-    <t>USD LIBOR Option Loan</t>
-  </si>
-  <si>
-    <t>Repricing_Type</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceInstruction</t>
-  </si>
-  <si>
-    <t>Borrower_RemittanceDescription</t>
-  </si>
-  <si>
-    <t>Base_Rate</t>
-  </si>
-  <si>
-    <t>Interest_SpreadValue</t>
-  </si>
-  <si>
-    <t>Repricing_Date</t>
-  </si>
-  <si>
-    <t>Payment_Effective_Date</t>
-  </si>
-  <si>
-    <t>Cycle</t>
-  </si>
-  <si>
-    <t>Loan_NewOutstanding</t>
-  </si>
-  <si>
-    <t>Loan_Increase</t>
-  </si>
-  <si>
-    <t>CBA_UAT_05</t>
-  </si>
-  <si>
-    <t>UAT3_MOF_200M</t>
-  </si>
-  <si>
-    <t>60000026</t>
-  </si>
-  <si>
-    <t>Comprehensive Repricing</t>
-  </si>
-  <si>
-    <t>RTGS2 - FROM CUSTOME</t>
-  </si>
-  <si>
-    <t>1.711200</t>
-  </si>
-  <si>
-    <t>UAT_FCAF_100M</t>
-  </si>
-  <si>
-    <t>60000030</t>
-  </si>
-  <si>
-    <t>UAT_SCAF_90M</t>
-  </si>
-  <si>
-    <t>60000022</t>
-  </si>
-  <si>
-    <t>73,000,000.00</t>
-  </si>
-  <si>
-    <t>MOF_08102019153052VQL</t>
-  </si>
-  <si>
-    <t>2.01950</t>
+    <t>60000185</t>
+  </si>
+  <si>
+    <t>IMT2</t>
+  </si>
+  <si>
+    <t>0.7317</t>
+  </si>
+  <si>
+    <t>Facility_Field</t>
+  </si>
+  <si>
+    <t>Maturity_Date</t>
+  </si>
+  <si>
+    <t>Facility_Change_Type</t>
+  </si>
+  <si>
+    <t>Increase_Amount</t>
+  </si>
+  <si>
+    <t>PendingTran_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Expiry Date</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>01-Feb-2019</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Category</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Type</t>
+  </si>
+  <si>
+    <t>UpfrontFee_RateBasis</t>
+  </si>
+  <si>
+    <t>UpfrontFee_Amount</t>
+  </si>
+  <si>
+    <t>UpfrontFeePayment_Comment</t>
+  </si>
+  <si>
+    <t>EstablishmentFee_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Upfront Fee</t>
+  </si>
+  <si>
+    <t>Establishment/Extension Fee</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Alias_Loan1</t>
+  </si>
+  <si>
+    <t>Alias_Loan2</t>
+  </si>
+  <si>
+    <t>Alias_LoanMerge</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Outstandings_Loan1</t>
+  </si>
+  <si>
+    <t>Outstandings_Loan2</t>
+  </si>
+  <si>
+    <t>LoanMerge_Amount</t>
+  </si>
+  <si>
+    <t>RepricingDate_Loan1</t>
+  </si>
+  <si>
+    <t>Repricing_Add_Option</t>
+  </si>
+  <si>
+    <t>ShortName</t>
+  </si>
+  <si>
+    <t>GLEntriesPercentageAmt</t>
+  </si>
+  <si>
+    <t>Loan1_Outstanding_AfterMerge</t>
+  </si>
+  <si>
+    <t>Loan2_Outstanding_AfterMerge</t>
+  </si>
+  <si>
+    <t>LegalEntity_ExpectedAmount</t>
+  </si>
+  <si>
+    <t>Lender1_ExpectedAmount</t>
+  </si>
+  <si>
+    <t>Lender2_ExpectedAmount</t>
+  </si>
+  <si>
+    <t>Facility_HostBankContrGross_Percentage</t>
+  </si>
+  <si>
+    <t>Facility_HostBankOutstandings_Percentage</t>
+  </si>
+  <si>
+    <t>Facility_HostBankAvailToDraw_Percentage</t>
+  </si>
+  <si>
+    <t>LenderShareHost_Percentage</t>
+  </si>
+  <si>
+    <t>Lender1ShareHost_Percentage</t>
+  </si>
+  <si>
+    <t>Lender2ShareHost_Percentage</t>
+  </si>
+  <si>
+    <t>BaseRate_OptionName</t>
+  </si>
+  <si>
+    <t>Loan_BorrowerBaseRate</t>
+  </si>
+  <si>
+    <t>Loan_TotalGlobalInterest</t>
+  </si>
+  <si>
+    <t>Facility_NewCurrentAmt</t>
+  </si>
+  <si>
+    <t>Loan_CurrentOutstanding</t>
+  </si>
+  <si>
+    <t>Loan_PrincipalAndGlobalInterest</t>
+  </si>
+  <si>
+    <t>CB001</t>
+  </si>
+  <si>
+    <t>CUSTSHORT200018</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>80,000,000.00</t>
+  </si>
+  <si>
+    <t>180,000,000.00</t>
+  </si>
+  <si>
+    <t>260,000,000.00</t>
+  </si>
+  <si>
+    <t>16-Aug-2018</t>
+  </si>
+  <si>
+    <t>Rollover/Conversion To New:</t>
+  </si>
+  <si>
+    <t>Principal Loan Account</t>
+  </si>
+  <si>
+    <t>COMMONWEALTH BANK AUST -DBU</t>
+  </si>
+  <si>
+    <t>1.8533%</t>
+  </si>
+  <si>
+    <t>33.68</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>28.9866666666667</t>
+  </si>
+  <si>
+    <t>37.3333333333333</t>
+  </si>
+  <si>
+    <t>1.7112</t>
+  </si>
+  <si>
+    <t>149,182.03</t>
+  </si>
+  <si>
+    <t>124,605,140.61</t>
+  </si>
+  <si>
+    <t>117,841,315.98</t>
+  </si>
+  <si>
+    <t>26,000,000.00</t>
+  </si>
+  <si>
+    <t>774,261.98</t>
   </si>
   <si>
     <t>1,614,524.59</t>
   </si>
   <si>
-    <t>FCAF_08102019153940JKX</t>
-  </si>
-  <si>
-    <t>340,930.68</t>
-  </si>
-  <si>
-    <t>05-Nov-2018</t>
-  </si>
-  <si>
-    <t>SCAF_08102019154546PJL</t>
-  </si>
-  <si>
-    <t>60000233</t>
-  </si>
-  <si>
-    <t>TCAF_08102019155309PPE</t>
-  </si>
-  <si>
-    <t>60000097</t>
-  </si>
-  <si>
-    <t>DDA</t>
-  </si>
-  <si>
-    <t>DDAAUD1-1304</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>60000172</t>
-  </si>
-  <si>
-    <t>IMTUSD1-3211</t>
-  </si>
-  <si>
-    <t>60000185</t>
-  </si>
-  <si>
-    <t>IMT2</t>
-  </si>
-  <si>
-    <t>0.7317</t>
-  </si>
-  <si>
-    <t>Facility_Field</t>
-  </si>
-  <si>
-    <t>Maturity_Date</t>
-  </si>
-  <si>
-    <t>Facility_Change_Type</t>
-  </si>
-  <si>
-    <t>Increase_Amount</t>
-  </si>
-  <si>
-    <t>PendingTran_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Expiry Date</t>
-  </si>
-  <si>
-    <t>Increase</t>
-  </si>
-  <si>
-    <t>15,000,000.00</t>
-  </si>
-  <si>
-    <t>01-Feb-2019</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Category</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Type</t>
-  </si>
-  <si>
-    <t>UpfrontFee_RateBasis</t>
-  </si>
-  <si>
-    <t>UpfrontFee_Amount</t>
-  </si>
-  <si>
-    <t>UpfrontFeePayment_Comment</t>
-  </si>
-  <si>
-    <t>EstablishmentFee_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Upfront Fee</t>
-  </si>
-  <si>
-    <t>Establishment/Extension Fee</t>
-  </si>
-  <si>
-    <t>10,000.00</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Alias_Loan1</t>
-  </si>
-  <si>
-    <t>Alias_Loan2</t>
-  </si>
-  <si>
-    <t>Alias_LoanMerge</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Outstandings_Loan1</t>
-  </si>
-  <si>
-    <t>Outstandings_Loan2</t>
-  </si>
-  <si>
-    <t>LoanMerge_Amount</t>
-  </si>
-  <si>
-    <t>RepricingDate_Loan1</t>
-  </si>
-  <si>
-    <t>Repricing_Add_Option</t>
-  </si>
-  <si>
-    <t>ShortName</t>
-  </si>
-  <si>
-    <t>GLEntriesPercentageAmt</t>
-  </si>
-  <si>
-    <t>Loan1_Outstanding_AfterMerge</t>
-  </si>
-  <si>
-    <t>Loan2_Outstanding_AfterMerge</t>
-  </si>
-  <si>
-    <t>LegalEntity_ExpectedAmount</t>
-  </si>
-  <si>
-    <t>Lender1_ExpectedAmount</t>
-  </si>
-  <si>
-    <t>Lender2_ExpectedAmount</t>
-  </si>
-  <si>
-    <t>Facility_HostBankContrGross_Percentage</t>
-  </si>
-  <si>
-    <t>Facility_HostBankOutstandings_Percentage</t>
-  </si>
-  <si>
-    <t>Facility_HostBankAvailToDraw_Percentage</t>
-  </si>
-  <si>
-    <t>LenderShareHost_Percentage</t>
-  </si>
-  <si>
-    <t>Lender1ShareHost_Percentage</t>
-  </si>
-  <si>
-    <t>Lender2ShareHost_Percentage</t>
-  </si>
-  <si>
-    <t>BaseRate_OptionName</t>
-  </si>
-  <si>
-    <t>Loan_BorrowerBaseRate</t>
-  </si>
-  <si>
-    <t>Loan_TotalGlobalInterest</t>
-  </si>
-  <si>
-    <t>Facility_NewCurrentAmt</t>
-  </si>
-  <si>
-    <t>Loan_CurrentOutstanding</t>
-  </si>
-  <si>
-    <t>Loan_PrincipalAndGlobalInterest</t>
-  </si>
-  <si>
-    <t>CB001</t>
-  </si>
-  <si>
-    <t>CUSTSHORT200018</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>80,000,000.00</t>
-  </si>
-  <si>
-    <t>180,000,000.00</t>
-  </si>
-  <si>
-    <t>260,000,000.00</t>
-  </si>
-  <si>
-    <t>16-Aug-2018</t>
-  </si>
-  <si>
-    <t>Rollover/Conversion To New:</t>
-  </si>
-  <si>
-    <t>Principal Loan Account</t>
-  </si>
-  <si>
-    <t>COMMONWEALTH BANK AUST -DBU</t>
-  </si>
-  <si>
-    <t>1.8533%</t>
-  </si>
-  <si>
-    <t>33.68</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>28.9866666666667</t>
-  </si>
-  <si>
-    <t>37.3333333333333</t>
-  </si>
-  <si>
-    <t>1.7112</t>
-  </si>
-  <si>
-    <t>149,182.03</t>
-  </si>
-  <si>
-    <t>124,605,140.61</t>
-  </si>
-  <si>
-    <t>117,841,315.98</t>
-  </si>
-  <si>
-    <t>26,000,000.00</t>
-  </si>
-  <si>
-    <t>774,261.98</t>
-  </si>
-  <si>
     <t>IEEBRW764256142</t>
   </si>
   <si>
@@ -2669,12 +2666,6 @@
   </si>
   <si>
     <t>CUSTSHORT11112</t>
-  </si>
-  <si>
-    <t>60000051</t>
-  </si>
-  <si>
-    <t>60000053</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +2877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2995,9 +2986,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3351,8 +3339,8 @@
   </sheetPr>
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3641,716 +3629,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AQ5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="1" customWidth="1"/>
-    <col min="25" max="26" width="19.85546875" style="1" customWidth="1"/>
-    <col min="27" max="28" width="25.85546875" style="1" customWidth="1"/>
-    <col min="29" max="30" width="26.5703125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="25.5703125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="26.85546875" style="1" customWidth="1"/>
-    <col min="35" max="37" width="14.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="20.42578125" style="1" customWidth="1"/>
-    <col min="40" max="41" width="33" style="1" customWidth="1"/>
-    <col min="42" max="43" width="16.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4359,7 +3637,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E31" sqref="E31"/>
+      <selection pane="topRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4619,15 +3897,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:AC10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4657,92 +3935,92 @@
     <col min="29" max="29" width="19.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="89" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="88" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="88" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="88" t="s">
         <v>553</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="G1" s="88" t="s">
         <v>640</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="88" t="s">
         <v>621</v>
       </c>
-      <c r="I1" s="89" t="s">
+      <c r="I1" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="89" t="s">
+      <c r="J1" s="88" t="s">
         <v>641</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="89" t="s">
+      <c r="L1" s="88" t="s">
         <v>642</v>
       </c>
-      <c r="M1" s="89" t="s">
+      <c r="M1" s="88" t="s">
         <v>643</v>
       </c>
-      <c r="N1" s="89" t="s">
+      <c r="N1" s="88" t="s">
         <v>644</v>
       </c>
-      <c r="O1" s="89" t="s">
+      <c r="O1" s="88" t="s">
         <v>645</v>
       </c>
-      <c r="P1" s="89" t="s">
+      <c r="P1" s="88" t="s">
         <v>646</v>
       </c>
-      <c r="Q1" s="89" t="s">
+      <c r="Q1" s="88" t="s">
         <v>647</v>
       </c>
-      <c r="R1" s="89" t="s">
+      <c r="R1" s="88" t="s">
         <v>648</v>
       </c>
-      <c r="S1" s="89" t="s">
+      <c r="S1" s="88" t="s">
         <v>649</v>
       </c>
-      <c r="T1" s="89" t="s">
+      <c r="T1" s="88" t="s">
         <v>650</v>
       </c>
-      <c r="U1" s="89" t="s">
+      <c r="U1" s="88" t="s">
         <v>651</v>
       </c>
-      <c r="V1" s="89" t="s">
+      <c r="V1" s="88" t="s">
         <v>652</v>
       </c>
-      <c r="W1" s="89" t="s">
+      <c r="W1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="89" t="s">
+      <c r="X1" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="89" t="s">
+      <c r="Y1" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="Z1" s="89" t="s">
+      <c r="Z1" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="89" t="s">
+      <c r="AA1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="89" t="s">
+      <c r="AB1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="AC1" s="89" t="s">
+      <c r="AC1" s="88" t="s">
         <v>653</v>
       </c>
     </row>
@@ -4786,13 +4064,13 @@
       <c r="M2" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="75" t="s">
         <v>591</v>
       </c>
       <c r="O2" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="P2" s="76" t="s">
+      <c r="P2" s="75" t="s">
         <v>660</v>
       </c>
       <c r="Q2" s="12" t="s">
@@ -4801,7 +4079,7 @@
       <c r="R2" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S2" s="88" t="s">
+      <c r="S2" s="87" t="s">
         <v>663</v>
       </c>
       <c r="T2" s="12" t="s">
@@ -4875,13 +4153,13 @@
       <c r="M3" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="N3" s="76" t="s">
+      <c r="N3" s="75" t="s">
         <v>591</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="75" t="s">
         <v>669</v>
       </c>
       <c r="Q3" s="12" t="s">
@@ -4890,7 +4168,7 @@
       <c r="R3" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S3" s="88" t="s">
+      <c r="S3" s="87" t="s">
         <v>670</v>
       </c>
       <c r="T3" s="12" t="s">
@@ -4964,13 +4242,13 @@
       <c r="M4" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="N4" s="76" t="s">
+      <c r="N4" s="75" t="s">
         <v>591</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="75" t="s">
         <v>660</v>
       </c>
       <c r="Q4" s="12" t="s">
@@ -4979,7 +4257,7 @@
       <c r="R4" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S4" s="88" t="s">
+      <c r="S4" s="87" t="s">
         <v>663</v>
       </c>
       <c r="T4" s="12" t="s">
@@ -5113,7 +4391,7 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="75" t="s">
         <v>47</v>
       </c>
       <c r="H6" s="12" t="s">
@@ -5156,7 +4434,7 @@
       <c r="W6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="X6" s="76" t="s">
+      <c r="X6" s="75" t="s">
         <v>47</v>
       </c>
       <c r="Y6" s="1" t="s">
@@ -5229,14 +4507,14 @@
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="75" t="s">
         <v>47</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>875</v>
+        <v>692</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>205</v>
@@ -5245,10 +4523,10 @@
         <v>414</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="M8" s="92" t="s">
         <v>693</v>
+      </c>
+      <c r="M8" s="91" t="s">
+        <v>694</v>
       </c>
       <c r="N8" s="10" t="s">
         <v>608</v>
@@ -5256,8 +4534,8 @@
       <c r="O8" s="54" t="s">
         <v>668</v>
       </c>
-      <c r="P8" s="76" t="s">
-        <v>696</v>
+      <c r="P8" s="75" t="s">
+        <v>695</v>
       </c>
       <c r="Q8" s="12" t="s">
         <v>661</v>
@@ -5265,7 +4543,7 @@
       <c r="R8" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S8" s="76" t="s">
+      <c r="S8" s="75" t="s">
         <v>680</v>
       </c>
       <c r="T8" s="54" t="s">
@@ -5287,7 +4565,7 @@
         <v>37</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>413</v>
@@ -5295,8 +4573,8 @@
       <c r="AB8" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="AC8" s="76" t="s">
-        <v>696</v>
+      <c r="AC8" s="75" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
@@ -5318,14 +4596,14 @@
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="76" t="s">
+      <c r="G9" s="75" t="s">
         <v>47</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>876</v>
+        <v>699</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>206</v>
@@ -5337,7 +4615,7 @@
         <v>700</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>608</v>
@@ -5345,8 +4623,8 @@
       <c r="O9" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="P9" s="76" t="s">
-        <v>696</v>
+      <c r="P9" s="75" t="s">
+        <v>695</v>
       </c>
       <c r="Q9" s="12" t="s">
         <v>661</v>
@@ -5354,7 +4632,7 @@
       <c r="R9" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S9" s="76" t="s">
+      <c r="S9" s="75" t="s">
         <v>680</v>
       </c>
       <c r="T9" s="12" t="s">
@@ -5376,7 +4654,7 @@
         <v>37</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>701</v>
@@ -5384,8 +4662,8 @@
       <c r="AB9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC9" s="76" t="s">
-        <v>696</v>
+      <c r="AC9" s="75" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5407,14 +4685,14 @@
       <c r="F10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="75" t="s">
         <v>47</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>205</v>
@@ -5426,7 +4704,7 @@
         <v>540</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>608</v>
@@ -5434,8 +4712,8 @@
       <c r="O10" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="P10" s="76" t="s">
-        <v>696</v>
+      <c r="P10" s="75" t="s">
+        <v>695</v>
       </c>
       <c r="Q10" s="12" t="s">
         <v>661</v>
@@ -5443,7 +4721,7 @@
       <c r="R10" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="S10" s="76" t="s">
+      <c r="S10" s="75" t="s">
         <v>680</v>
       </c>
       <c r="T10" s="12" t="s">
@@ -5465,7 +4743,7 @@
         <v>37</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>413</v>
@@ -5473,8 +4751,8 @@
       <c r="AB10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="AC10" s="76" t="s">
-        <v>696</v>
+      <c r="AC10" s="75" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="27" spans="22:22" x14ac:dyDescent="0.2">
@@ -5487,7 +4765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5496,7 +4774,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q24" sqref="Q24"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5641,16 +4919,16 @@
         <v>22</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K1" s="55" t="s">
         <v>3</v>
@@ -5659,10 +4937,10 @@
         <v>4</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="O1" s="21" t="s">
         <v>24</v>
@@ -5674,7 +4952,7 @@
         <v>11</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="BZ1" s="21"/>
       <c r="CA1" s="21"/>
@@ -5748,14 +5026,14 @@
       <c r="F2" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G2" s="90">
+      <c r="G2" s="89">
         <v>39406.910000000003</v>
       </c>
-      <c r="H2" s="76" t="s">
-        <v>711</v>
-      </c>
-      <c r="I2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>712</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>713</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>88</v>
@@ -5770,7 +5048,7 @@
         <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>48</v>
@@ -5779,10 +5057,10 @@
         <v>36</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R2" s="40" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -5898,8 +5176,8 @@
       <c r="H3" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I3" s="76" t="s">
-        <v>712</v>
+      <c r="I3" s="75" t="s">
+        <v>713</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>88</v>
@@ -5914,7 +5192,7 @@
         <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>48</v>
@@ -5923,10 +5201,10 @@
         <v>36</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R3" s="40" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -6042,8 +5320,8 @@
       <c r="H4" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I4" s="76" t="s">
-        <v>712</v>
+      <c r="I4" s="75" t="s">
+        <v>713</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>88</v>
@@ -6058,7 +5336,7 @@
         <v>50</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>48</v>
@@ -6067,10 +5345,10 @@
         <v>36</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="R4" s="40" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -6168,14 +5446,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -6218,19 +5496,19 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>619</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>24</v>
@@ -6242,16 +5520,16 @@
         <v>284</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>287</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>11</v>
@@ -6277,13 +5555,13 @@
         <v>202</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>366</v>
@@ -6295,10 +5573,10 @@
         <v>48</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>294</v>
@@ -6307,13 +5585,13 @@
         <v>296</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q2" s="83" t="s">
         <v>727</v>
       </c>
+      <c r="Q2" s="82" t="s">
+        <v>728</v>
+      </c>
       <c r="R2" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>36</v>
@@ -6336,13 +5614,13 @@
         <v>31</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>26</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>47</v>
@@ -6354,10 +5632,10 @@
         <v>48</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>294</v>
@@ -6366,13 +5644,13 @@
         <v>296</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="Q3" s="75" t="s">
-        <v>728</v>
+        <v>727</v>
+      </c>
+      <c r="Q3" s="74" t="s">
+        <v>729</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="S3" s="9" t="s">
         <v>36</v>
@@ -6385,15 +5663,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6420,17 +5698,17 @@
       <c r="D1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="90" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="34" t="s">
         <v>22</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="I1" s="34" t="s">
         <v>25</v>
@@ -6442,22 +5720,22 @@
         <v>619</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="N1" s="34" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="P1" s="34" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="34" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
@@ -6483,10 +5761,10 @@
         <v>366</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>48</v>
@@ -6503,11 +5781,11 @@
       <c r="N2" s="1">
         <v>365</v>
       </c>
-      <c r="O2" s="76" t="s">
-        <v>738</v>
+      <c r="O2" s="75" t="s">
+        <v>739</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>46</v>
@@ -6536,10 +5814,10 @@
         <v>366</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>48</v>
@@ -6556,11 +5834,11 @@
       <c r="N3" s="1">
         <v>365</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="89" t="s">
+        <v>741</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>46</v>
@@ -6589,10 +5867,10 @@
         <v>366</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>48</v>
@@ -6609,11 +5887,11 @@
       <c r="N4" s="1">
         <v>365</v>
       </c>
-      <c r="O4" s="76" t="s">
-        <v>741</v>
+      <c r="O4" s="75" t="s">
+        <v>742</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>46</v>
@@ -6630,7 +5908,7 @@
         <v>202</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>48</v>
@@ -6643,7 +5921,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6657,87 +5935,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="82" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" style="82" customWidth="1"/>
-    <col min="3" max="3" width="53" style="82" customWidth="1"/>
-    <col min="4" max="4" width="24" style="82" customWidth="1"/>
-    <col min="5" max="5" width="42.28515625" style="82" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" style="82" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" style="82" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="82" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" style="82" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="82" customWidth="1"/>
-    <col min="11" max="11" width="46.5703125" style="82" customWidth="1"/>
-    <col min="12" max="12" width="15" style="82" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" style="82" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="82" customWidth="1"/>
-    <col min="15" max="15" width="13.28515625" style="82" customWidth="1"/>
-    <col min="16" max="17" width="23" style="82" customWidth="1"/>
-    <col min="18" max="18" width="20" style="82" customWidth="1"/>
-    <col min="19" max="19" width="28.5703125" style="82" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="82" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="82" customWidth="1"/>
-    <col min="22" max="24" width="15.5703125" style="82" customWidth="1"/>
-    <col min="25" max="25" width="13.7109375" style="82" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="82" customWidth="1"/>
-    <col min="27" max="27" width="10.5703125" style="82" customWidth="1"/>
-    <col min="28" max="28" width="35.42578125" style="82" customWidth="1"/>
-    <col min="29" max="29" width="15.28515625" style="82" customWidth="1"/>
-    <col min="30" max="30" width="10.42578125" style="82" customWidth="1"/>
-    <col min="31" max="31" width="14.85546875" style="82" customWidth="1"/>
-    <col min="32" max="32" width="19.7109375" style="82" customWidth="1"/>
-    <col min="33" max="33" width="14" style="82" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="82" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" style="82" customWidth="1"/>
-    <col min="36" max="36" width="13.85546875" style="82" customWidth="1"/>
-    <col min="37" max="37" width="10" style="82" customWidth="1"/>
-    <col min="38" max="38" width="38.28515625" style="82" customWidth="1"/>
-    <col min="39" max="39" width="21.140625" style="82" customWidth="1"/>
-    <col min="40" max="40" width="24.28515625" style="82" customWidth="1"/>
-    <col min="41" max="41" width="18.42578125" style="82" customWidth="1"/>
-    <col min="42" max="42" width="28.85546875" style="82" customWidth="1"/>
-    <col min="43" max="43" width="14.28515625" style="82" customWidth="1"/>
-    <col min="44" max="44" width="23" style="82" customWidth="1"/>
-    <col min="45" max="48" width="19.85546875" style="82" customWidth="1"/>
-    <col min="49" max="50" width="24.7109375" style="82" customWidth="1"/>
-    <col min="51" max="51" width="25" style="82" customWidth="1"/>
-    <col min="52" max="52" width="24.42578125" style="82" customWidth="1"/>
-    <col min="53" max="53" width="30.42578125" style="82" customWidth="1"/>
-    <col min="54" max="54" width="36" style="82" customWidth="1"/>
-    <col min="55" max="55" width="34.42578125" style="82" customWidth="1"/>
-    <col min="56" max="56" width="26.7109375" style="82" customWidth="1"/>
-    <col min="57" max="58" width="17.28515625" style="82" customWidth="1"/>
-    <col min="59" max="59" width="34.140625" style="82" customWidth="1"/>
-    <col min="60" max="60" width="28.42578125" style="82" customWidth="1"/>
-    <col min="61" max="61" width="24.7109375" style="82" customWidth="1"/>
-    <col min="62" max="62" width="30.28515625" style="82" customWidth="1"/>
-    <col min="63" max="63" width="17.5703125" style="82" customWidth="1"/>
-    <col min="64" max="64" width="20.28515625" style="82" customWidth="1"/>
-    <col min="65" max="65" width="12.140625" style="82" customWidth="1"/>
-    <col min="66" max="66" width="21.42578125" style="82" customWidth="1"/>
-    <col min="67" max="67" width="24.140625" style="82" customWidth="1"/>
-    <col min="68" max="68" width="16" style="82" customWidth="1"/>
-    <col min="69" max="69" width="14" style="82" customWidth="1"/>
-    <col min="70" max="70" width="16.7109375" style="82" customWidth="1"/>
-    <col min="71" max="71" width="10.42578125" style="82" customWidth="1"/>
-    <col min="72" max="72" width="37.7109375" style="82" customWidth="1"/>
-    <col min="73" max="74" width="16.7109375" style="82" customWidth="1"/>
-    <col min="75" max="77" width="20.140625" style="82" customWidth="1"/>
-    <col min="78" max="78" width="17.7109375" style="82" customWidth="1"/>
-    <col min="79" max="79" width="24.5703125" style="82" customWidth="1"/>
-    <col min="80" max="82" width="19.42578125" style="82" customWidth="1"/>
-    <col min="83" max="83" width="21.140625" style="82" customWidth="1"/>
-    <col min="84" max="84" width="32.42578125" style="82" customWidth="1"/>
-    <col min="85" max="86" width="17.28515625" style="82" customWidth="1"/>
-    <col min="87" max="89" width="17.5703125" style="82" customWidth="1"/>
-    <col min="90" max="90" width="26.28515625" style="82" customWidth="1"/>
-    <col min="91" max="91" width="35" style="82" customWidth="1"/>
-    <col min="92" max="92" width="26.5703125" style="82" customWidth="1"/>
-    <col min="93" max="93" width="24.85546875" style="82" customWidth="1"/>
-    <col min="94" max="94" width="20" style="82" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="81" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" style="81" customWidth="1"/>
+    <col min="3" max="3" width="53" style="81" customWidth="1"/>
+    <col min="4" max="4" width="24" style="81" customWidth="1"/>
+    <col min="5" max="5" width="42.28515625" style="81" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="81" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" style="81" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="81" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="81" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="81" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" style="81" customWidth="1"/>
+    <col min="12" max="12" width="15" style="81" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" style="81" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="81" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" style="81" customWidth="1"/>
+    <col min="16" max="17" width="23" style="81" customWidth="1"/>
+    <col min="18" max="18" width="20" style="81" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" style="81" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="81" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="81" customWidth="1"/>
+    <col min="22" max="24" width="15.5703125" style="81" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" style="81" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="81" customWidth="1"/>
+    <col min="27" max="27" width="10.5703125" style="81" customWidth="1"/>
+    <col min="28" max="28" width="35.42578125" style="81" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="81" customWidth="1"/>
+    <col min="30" max="30" width="10.42578125" style="81" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" style="81" customWidth="1"/>
+    <col min="32" max="32" width="19.7109375" style="81" customWidth="1"/>
+    <col min="33" max="33" width="14" style="81" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="81" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" style="81" customWidth="1"/>
+    <col min="36" max="36" width="13.85546875" style="81" customWidth="1"/>
+    <col min="37" max="37" width="10" style="81" customWidth="1"/>
+    <col min="38" max="38" width="38.28515625" style="81" customWidth="1"/>
+    <col min="39" max="39" width="21.140625" style="81" customWidth="1"/>
+    <col min="40" max="40" width="24.28515625" style="81" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="81" customWidth="1"/>
+    <col min="42" max="42" width="28.85546875" style="81" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" style="81" customWidth="1"/>
+    <col min="44" max="44" width="23" style="81" customWidth="1"/>
+    <col min="45" max="48" width="19.85546875" style="81" customWidth="1"/>
+    <col min="49" max="50" width="24.7109375" style="81" customWidth="1"/>
+    <col min="51" max="51" width="25" style="81" customWidth="1"/>
+    <col min="52" max="52" width="24.42578125" style="81" customWidth="1"/>
+    <col min="53" max="53" width="30.42578125" style="81" customWidth="1"/>
+    <col min="54" max="54" width="36" style="81" customWidth="1"/>
+    <col min="55" max="55" width="34.42578125" style="81" customWidth="1"/>
+    <col min="56" max="56" width="26.7109375" style="81" customWidth="1"/>
+    <col min="57" max="58" width="17.28515625" style="81" customWidth="1"/>
+    <col min="59" max="59" width="34.140625" style="81" customWidth="1"/>
+    <col min="60" max="60" width="28.42578125" style="81" customWidth="1"/>
+    <col min="61" max="61" width="24.7109375" style="81" customWidth="1"/>
+    <col min="62" max="62" width="30.28515625" style="81" customWidth="1"/>
+    <col min="63" max="63" width="17.5703125" style="81" customWidth="1"/>
+    <col min="64" max="64" width="20.28515625" style="81" customWidth="1"/>
+    <col min="65" max="65" width="12.140625" style="81" customWidth="1"/>
+    <col min="66" max="66" width="21.42578125" style="81" customWidth="1"/>
+    <col min="67" max="67" width="24.140625" style="81" customWidth="1"/>
+    <col min="68" max="68" width="16" style="81" customWidth="1"/>
+    <col min="69" max="69" width="14" style="81" customWidth="1"/>
+    <col min="70" max="70" width="16.7109375" style="81" customWidth="1"/>
+    <col min="71" max="71" width="10.42578125" style="81" customWidth="1"/>
+    <col min="72" max="72" width="37.7109375" style="81" customWidth="1"/>
+    <col min="73" max="74" width="16.7109375" style="81" customWidth="1"/>
+    <col min="75" max="77" width="20.140625" style="81" customWidth="1"/>
+    <col min="78" max="78" width="17.7109375" style="81" customWidth="1"/>
+    <col min="79" max="79" width="24.5703125" style="81" customWidth="1"/>
+    <col min="80" max="82" width="19.42578125" style="81" customWidth="1"/>
+    <col min="83" max="83" width="21.140625" style="81" customWidth="1"/>
+    <col min="84" max="84" width="32.42578125" style="81" customWidth="1"/>
+    <col min="85" max="86" width="17.28515625" style="81" customWidth="1"/>
+    <col min="87" max="89" width="17.5703125" style="81" customWidth="1"/>
+    <col min="90" max="90" width="26.28515625" style="81" customWidth="1"/>
+    <col min="91" max="91" width="35" style="81" customWidth="1"/>
+    <col min="92" max="92" width="26.5703125" style="81" customWidth="1"/>
+    <col min="93" max="93" width="24.85546875" style="81" customWidth="1"/>
+    <col min="94" max="94" width="20" style="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:94" s="80" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -6916,25 +6194,25 @@
       <c r="CP1" s="34"/>
     </row>
     <row r="2" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>742</v>
-      </c>
-      <c r="D2" s="82" t="s">
+      <c r="C2" s="81" t="s">
+        <v>743</v>
+      </c>
+      <c r="D2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="81">
         <v>7125114</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="G2" s="81" t="s">
         <v>100</v>
       </c>
       <c r="H2" s="11" t="s">
@@ -6952,7 +6230,7 @@
       <c r="L2" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="M2" s="81" t="s">
         <v>107</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -7031,10 +6309,10 @@
       <c r="AM2" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AN2" s="82" t="s">
+      <c r="AN2" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="AO2" s="82" t="s">
+      <c r="AO2" s="81" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7045,7 +6323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7053,7 +6331,7 @@
   <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7098,34 +6376,34 @@
         <v>5</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I1" s="57" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="J1" s="57" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="L1" s="57" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="M1" s="57" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="N1" s="57" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="O1" s="57" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="P1" s="57" t="s">
         <v>16</v>
@@ -7137,7 +6415,7 @@
         <v>11</v>
       </c>
       <c r="S1" s="57" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="T1" s="57" t="s">
         <v>15</v>
@@ -7146,7 +6424,7 @@
         <v>613</v>
       </c>
       <c r="V1" s="57" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="W1" s="2" t="s">
         <v>22</v>
@@ -7155,7 +6433,7 @@
         <v>24</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7175,34 +6453,34 @@
         <v>31</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>660</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>26</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>40</v>
@@ -7220,7 +6498,7 @@
         <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="V2" s="9" t="s">
         <v>42</v>
@@ -7245,14 +6523,14 @@
       <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>674</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>680</v>
@@ -7261,25 +6539,25 @@
         <v>678</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>755</v>
-      </c>
-      <c r="K3" s="73">
+        <v>756</v>
+      </c>
+      <c r="K3" s="72">
         <v>1</v>
       </c>
       <c r="L3" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="N3" s="73">
+        <v>757</v>
+      </c>
+      <c r="N3" s="72">
         <v>1</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P3" s="9" t="s">
         <v>40</v>
@@ -7329,7 +6607,7 @@
         <v>202</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>680</v>
@@ -7338,25 +6616,25 @@
         <v>540</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>759</v>
-      </c>
-      <c r="K4" s="73" t="s">
+        <v>760</v>
+      </c>
+      <c r="K4" s="72" t="s">
         <v>50</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="N4" s="1">
         <v>2</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="P4" s="9" t="s">
         <v>414</v>
@@ -7383,7 +6661,7 @@
         <v>7125114</v>
       </c>
       <c r="X4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="Y4" s="9" t="s">
         <v>421</v>
@@ -7480,7 +6758,7 @@
       <c r="K17" s="40"/>
       <c r="L17" s="14"/>
       <c r="M17" s="40"/>
-      <c r="N17" s="74"/>
+      <c r="N17" s="73"/>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.25">
@@ -7526,15 +6804,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AW24"/>
+  <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,22 +6827,22 @@
     <col min="8" max="8" width="17.28515625" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" style="16" customWidth="1"/>
     <col min="10" max="10" width="31.7109375" style="13" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11" style="13" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="23.7109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="16" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="1" customWidth="1"/>
-    <col min="18" max="19" width="16.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17" customWidth="1"/>
-    <col min="22" max="22" width="17.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" customWidth="1"/>
-    <col min="24" max="24" width="19.140625" customWidth="1"/>
+    <col min="11" max="12" width="32.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11" style="13" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="13" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="13" customWidth="1"/>
+    <col min="17" max="17" width="16" style="13" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="1" customWidth="1"/>
+    <col min="19" max="20" width="16.28515625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.5703125" customWidth="1"/>
+    <col min="23" max="23" width="21.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="21.85546875" customWidth="1"/>
+    <col min="25" max="25" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7584,7 +6862,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -7593,93 +6871,91 @@
         <v>22</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="L1" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="5" t="s">
-        <v>763</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>764</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>736</v>
+      <c r="N1" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>731</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="W1" s="5" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="2" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="F2" s="13" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="I2" s="59" t="s">
+      <c r="F2" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>774</v>
-      </c>
+      <c r="K2" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="L2" s="13"/>
       <c r="M2" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O2" s="17" t="s">
         <v>544</v>
@@ -7734,49 +7010,48 @@
       <c r="AU2" s="1"/>
       <c r="AV2" s="1"/>
       <c r="AW2" s="1"/>
-    </row>
-    <row r="3" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX2" s="1"/>
+    </row>
+    <row r="3" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>775</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>776</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>774</v>
-      </c>
+      <c r="L3" s="13"/>
       <c r="M3" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O3" s="17" t="s">
         <v>671</v>
@@ -7831,49 +7106,50 @@
       <c r="AU3" s="1"/>
       <c r="AV3" s="1"/>
       <c r="AW3" s="1"/>
-    </row>
-    <row r="4" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>770</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>29</v>
+        <v>774</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>779</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>773</v>
-      </c>
-      <c r="I4" s="59" t="s">
+        <v>775</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="15" t="s">
         <v>48</v>
       </c>
+      <c r="K4" s="13" t="s">
+        <v>776</v>
+      </c>
       <c r="L4" s="13" t="s">
-        <v>774</v>
+        <v>49</v>
       </c>
       <c r="M4" s="16" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="13" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="O4" s="17" t="s">
         <v>200</v>
@@ -7900,12 +7176,12 @@
         <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="X4" s="14">
-        <v>15000000</v>
-      </c>
-      <c r="Y4" s="1"/>
+        <v>781</v>
+      </c>
+      <c r="X4" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="Y4" s="14"/>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
@@ -7930,73 +7206,76 @@
       <c r="AU4" s="1"/>
       <c r="AV4" s="1"/>
       <c r="AW4" s="1"/>
-    </row>
-    <row r="5" spans="1:49" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="1:50" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>770</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>781</v>
+        <v>772</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>773</v>
       </c>
       <c r="E5" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>683</v>
+      <c r="F5" s="10">
+        <v>60000026</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H5" s="64" t="s">
         <v>191</v>
       </c>
-      <c r="I5" s="10">
-        <v>7125114</v>
+      <c r="I5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="L5" s="61" t="s">
+      <c r="K5" s="13" t="s">
+        <v>776</v>
+      </c>
+      <c r="L5" s="62"/>
+      <c r="M5" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="62" t="s">
-        <v>782</v>
-      </c>
-      <c r="N5" s="65" t="s">
+      <c r="N5" s="62" t="s">
+        <v>783</v>
+      </c>
+      <c r="O5" s="65" t="s">
         <v>544</v>
       </c>
-      <c r="O5" s="66">
-        <v>7125114</v>
-      </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="R5" s="68" t="s">
-        <v>783</v>
-      </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="69" t="s">
+      <c r="R5" s="10" t="s">
+        <v>659</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>784</v>
+      </c>
+      <c r="T5" s="67">
+        <v>838125.34</v>
+      </c>
+      <c r="U5" s="68" t="s">
         <v>669</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="V5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="V5" s="10" t="s">
+      <c r="W5" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="W5" s="10"/>
       <c r="X5" s="10"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
@@ -8023,73 +7302,76 @@
       <c r="AU5" s="10"/>
       <c r="AV5" s="10"/>
       <c r="AW5" s="10"/>
-    </row>
-    <row r="6" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX5" s="10"/>
+    </row>
+    <row r="6" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>279</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>683</v>
+        <v>785</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H6" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="I6" s="1">
-        <v>7125114</v>
+      <c r="I6" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L6" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M6" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>671</v>
       </c>
-      <c r="O6" s="60">
-        <v>7125114</v>
-      </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="R6" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="S6" s="83" t="s">
+        <v>784</v>
+      </c>
+      <c r="T6" s="14">
+        <v>504408.22</v>
+      </c>
+      <c r="U6" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -8116,73 +7398,76 @@
       <c r="AU6" s="1"/>
       <c r="AV6" s="1"/>
       <c r="AW6" s="1"/>
-    </row>
-    <row r="7" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="7" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>281</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H7" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="I7" s="1">
-        <v>7125114</v>
+      <c r="I7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>48</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="L7" s="16" t="s">
+        <v>776</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>782</v>
-      </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="13" t="s">
+        <v>783</v>
+      </c>
+      <c r="O7" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="O7" s="60">
-        <v>7125114</v>
-      </c>
-      <c r="P7" s="18" t="s">
+      <c r="P7" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>784</v>
+      </c>
+      <c r="T7" s="14">
+        <v>380618</v>
+      </c>
+      <c r="U7" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="W7" s="1"/>
+      <c r="W7" s="1" t="s">
+        <v>781</v>
+      </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
@@ -8209,28 +7494,29 @@
       <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
-    </row>
-    <row r="8" spans="1:49" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AX7" s="1"/>
+    </row>
+    <row r="8" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>411</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H8" s="59" t="s">
         <v>33</v>
@@ -8239,27 +7525,27 @@
         <v>7125114</v>
       </c>
       <c r="J8" s="16" t="s">
+        <v>789</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="13" t="s">
         <v>791</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="O8" s="17" t="s">
         <v>792</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="13" t="s">
-        <v>793</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>794</v>
-      </c>
-      <c r="O8" s="60">
+      <c r="P8" s="60">
         <v>7125114</v>
       </c>
-      <c r="P8" s="18" t="s">
+      <c r="Q8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -8292,28 +7578,29 @@
       <c r="AU8" s="1"/>
       <c r="AV8" s="1"/>
       <c r="AW8" s="1"/>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX8" s="1"/>
+    </row>
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>417</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>205</v>
@@ -8322,57 +7609,58 @@
         <v>7125114</v>
       </c>
       <c r="J9" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>795</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="60">
+        <v>7125114</v>
+      </c>
+      <c r="Q9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="U9" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>694</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="V9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="60">
-        <v>7125114</v>
-      </c>
-      <c r="P9" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>206</v>
@@ -8381,57 +7669,898 @@
         <v>7125114</v>
       </c>
       <c r="J10" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>798</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="60">
+        <v>7125114</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="U10" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="M10" s="13" t="s">
-        <v>799</v>
-      </c>
-      <c r="N10" s="13" t="s">
+      <c r="V10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="60">
-        <v>7125114</v>
-      </c>
-      <c r="P10" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>696</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I18" s="70"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I19" s="70"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
-      <c r="I21" s="70"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
-      <c r="I22" s="70"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
-      <c r="I23" s="70"/>
+      <c r="I23" s="69"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
-      <c r="I24" s="70"/>
+      <c r="I24" s="69"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AZ5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="22.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="23.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" style="1" customWidth="1"/>
+    <col min="14" max="15" width="22.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="26.42578125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="27.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="23.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="21.85546875" style="1" customWidth="1"/>
+    <col min="22" max="23" width="22.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" style="1" customWidth="1"/>
+    <col min="25" max="26" width="16.7109375" style="1" customWidth="1"/>
+    <col min="27" max="30" width="17.5703125" style="1" customWidth="1"/>
+    <col min="31" max="34" width="21.42578125" style="1" customWidth="1"/>
+    <col min="35" max="38" width="18.85546875" style="1" customWidth="1"/>
+    <col min="39" max="42" width="21" style="1" customWidth="1"/>
+    <col min="43" max="46" width="22" style="1" customWidth="1"/>
+    <col min="47" max="50" width="23.42578125" style="1" customWidth="1"/>
+    <col min="51" max="51" width="15.5703125" style="1" customWidth="1"/>
+    <col min="52" max="52" width="14.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="R2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="W2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM3" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP3" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="V4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP4" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY4" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="T5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="U5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="X5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y5" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AN5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AR5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="AY5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>194</v>
+      </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
@@ -8447,8 +8576,8 @@
   </sheetPr>
   <dimension ref="A1:CJ5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8519,22 +8648,22 @@
         <v>5</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>616</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>802</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>803</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>804</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>619</v>
@@ -8618,35 +8747,35 @@
       <c r="CJ1" s="3"/>
     </row>
     <row r="2" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>178</v>
+        <v>773</v>
       </c>
       <c r="E2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="F2" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>808</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>26</v>
@@ -8674,7 +8803,7 @@
       <c r="AF2" s="11"/>
     </row>
     <row r="3" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="82" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8687,29 +8816,29 @@
         <v>195</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K3" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="82" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -8722,29 +8851,29 @@
         <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="F4" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="G4" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K4" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A5" s="83" t="s">
+      <c r="A5" s="82" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -8757,22 +8886,22 @@
         <v>202</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="F5" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="G5" s="71" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K5" s="22" t="s">
         <v>26</v>
@@ -9073,7 +9202,7 @@
       <c r="E2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>101</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -9195,7 +9324,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9232,22 +9361,22 @@
         <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>812</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>814</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>22</v>
@@ -9267,34 +9396,34 @@
         <v>364</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>178</v>
+        <v>773</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="L2" s="1">
-        <v>7125114</v>
+        <v>806</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>48</v>
@@ -9304,7 +9433,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="71" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -9320,25 +9449,25 @@
         <v>195</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="L3" s="60">
-        <v>7125114</v>
+        <v>806</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>48</v>
@@ -9348,7 +9477,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>198</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -9364,25 +9493,25 @@
         <v>52</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="L4" s="60">
-        <v>7125114</v>
+        <v>806</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>48</v>
@@ -9392,7 +9521,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>201</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -9408,25 +9537,25 @@
         <v>202</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>184</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>808</v>
-      </c>
-      <c r="L5" s="60">
-        <v>7125114</v>
+        <v>806</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>48</v>
@@ -9592,43 +9721,43 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="S1" s="3" t="s">
         <v>8</v>
@@ -9637,112 +9766,112 @@
         <v>16</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>833</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>645</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>552</v>
       </c>
       <c r="AM1" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="AN1" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="AP1" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="AQ1" s="5" t="s">
-        <v>847</v>
-      </c>
       <c r="AR1" s="5" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AS1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="AT1" s="5" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AU1" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AV1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AX1" s="8" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="AY1" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AZ1" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BC1" s="5" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="BD1" s="5" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:211" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9762,7 +9891,7 @@
         <v>202</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>32</v>
@@ -9771,79 +9900,79 @@
         <v>674</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="L2" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="P2" s="9" t="s">
         <v>853</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>855</v>
       </c>
       <c r="Q2" s="9" t="s">
         <v>33</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U2" s="9" t="s">
+        <v>856</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="W2" s="9" t="s">
         <v>858</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>858</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="AG2" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>860</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>862</v>
       </c>
       <c r="AH2" s="9" t="s">
         <v>191</v>
@@ -9852,29 +9981,29 @@
         <v>668</v>
       </c>
       <c r="AJ2" s="9" t="s">
+        <v>861</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>862</v>
+      </c>
+      <c r="AL2" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AM2" s="12" t="s">
         <v>864</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>866</v>
       </c>
       <c r="AN2" s="13" t="s">
         <v>657</v>
       </c>
       <c r="AO2" s="13" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AQ2" s="14"/>
       <c r="AR2" s="13" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="AS2" s="1" t="s">
         <v>56</v>
@@ -9889,7 +10018,7 @@
         <v>40</v>
       </c>
       <c r="AW2" s="17" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="AX2" s="17" t="s">
         <v>544</v>
@@ -9904,7 +10033,7 @@
         <v>668</v>
       </c>
       <c r="BB2" s="14" t="s">
-        <v>783</v>
+        <v>867</v>
       </c>
       <c r="BC2" s="9" t="s">
         <v>680</v>
@@ -9988,211 +10117,211 @@
       <c r="DZ2" s="9"/>
       <c r="EA2" s="9"/>
       <c r="EM2" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="EN2" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="EO2" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="EP2" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="EN2" s="1" t="s">
+      <c r="ER2" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="EO2" s="1" t="s">
+      <c r="ES2" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="EP2" s="1" t="s">
+      <c r="ET2" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="EQ2" s="1" t="s">
+      <c r="EU2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="EV2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="EW2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="EX2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="EY2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="EZ2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FA2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FB2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FC2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FD2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FE2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FF2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FG2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FH2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FI2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FJ2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FK2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FL2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FM2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FN2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FO2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FP2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FQ2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FR2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FS2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FT2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FU2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FV2" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="FW2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="ER2" s="1" t="s">
+      <c r="FX2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="ES2" s="1" t="s">
+      <c r="FY2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="ET2" s="1" t="s">
+      <c r="FZ2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EU2" s="1" t="s">
+      <c r="GA2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EV2" s="1" t="s">
+      <c r="GB2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EW2" s="1" t="s">
+      <c r="GC2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EX2" s="1" t="s">
+      <c r="GD2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EY2" s="1" t="s">
+      <c r="GE2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="EZ2" s="1" t="s">
+      <c r="GF2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FA2" s="1" t="s">
+      <c r="GG2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FB2" s="1" t="s">
+      <c r="GH2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FC2" s="1" t="s">
+      <c r="GI2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FD2" s="1" t="s">
+      <c r="GJ2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FE2" s="1" t="s">
+      <c r="GK2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FF2" s="1" t="s">
+      <c r="GL2" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="FG2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FH2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FI2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FJ2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FK2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FL2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FM2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FN2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FO2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FP2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FQ2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FR2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FS2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FT2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FU2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FV2" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="FW2" s="1" t="s">
+      <c r="GM2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="FX2" s="1" t="s">
+      <c r="GN2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="FY2" s="1" t="s">
+      <c r="GO2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="FZ2" s="1" t="s">
+      <c r="GP2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="GA2" s="1" t="s">
+      <c r="GQ2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="GB2" s="1" t="s">
+      <c r="GR2" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="GC2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GD2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GE2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GF2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GG2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GH2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GI2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GJ2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GK2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GL2" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="GM2" s="1" t="s">
+      <c r="GS2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GN2" s="1" t="s">
+      <c r="GT2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GO2" s="1" t="s">
+      <c r="GU2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GP2" s="1" t="s">
+      <c r="GV2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GQ2" s="1" t="s">
+      <c r="GW2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GR2" s="1" t="s">
+      <c r="GX2" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="GS2" s="1" t="s">
+      <c r="GY2" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="GZ2" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="HA2" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="HB2" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="GT2" s="1" t="s">
+      <c r="HC2" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="GU2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="GV2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="GW2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="GX2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="GY2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="GZ2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="HA2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="HB2" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="HC2" s="1" t="s">
-        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -10203,846 +10332,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AZ5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="22.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="23.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" style="1" customWidth="1"/>
-    <col min="14" max="15" width="22.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="26.42578125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="27.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="23.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="21.85546875" style="1" customWidth="1"/>
-    <col min="22" max="23" width="22.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.7109375" style="1" customWidth="1"/>
-    <col min="25" max="26" width="16.7109375" style="1" customWidth="1"/>
-    <col min="27" max="30" width="17.5703125" style="1" customWidth="1"/>
-    <col min="31" max="34" width="21.42578125" style="1" customWidth="1"/>
-    <col min="35" max="38" width="18.85546875" style="1" customWidth="1"/>
-    <col min="39" max="42" width="21" style="1" customWidth="1"/>
-    <col min="43" max="46" width="22" style="1" customWidth="1"/>
-    <col min="47" max="50" width="23.42578125" style="1" customWidth="1"/>
-    <col min="51" max="51" width="15.5703125" style="1" customWidth="1"/>
-    <col min="52" max="52" width="14.5703125" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA1" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AB1" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AP1" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="AQ1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AR1" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="AV1" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ1" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K2" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M2" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="W2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="Z2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM2" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY2" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M3" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="T3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="V3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM3" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP3" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="AR3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU3" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY3" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="T4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="V4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="W4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="Y4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AM4" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AT4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AU4" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY4" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="S5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="T5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="V5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="W5" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="X5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AK5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AL5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AM5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP5" s="30" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AR5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AT5" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="AU5" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="AV5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="AW5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="AX5" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="AY5" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11166,15 +10455,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11360,7 +10649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11388,40 +10677,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="F1" s="79" t="s">
+      <c r="F1" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="G1" s="79" t="s">
+      <c r="G1" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="78" t="s">
         <v>214</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="I1" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="J1" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="L1" s="80" t="s">
+      <c r="L1" s="79" t="s">
         <v>218</v>
       </c>
     </row>
@@ -11660,7 +10949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11668,7 +10957,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11692,28 +10981,28 @@
       <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="86" t="s">
         <v>283</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="86" t="s">
+      <c r="H1" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="85" t="s">
         <v>288</v>
       </c>
     </row>
@@ -11733,19 +11022,19 @@
       <c r="E2" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="75" t="s">
         <v>291</v>
       </c>
       <c r="I2" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="75" t="s">
         <v>293</v>
       </c>
     </row>
@@ -11765,19 +11054,19 @@
       <c r="E3" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>291</v>
       </c>
       <c r="I3" t="s">
         <v>292</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="75" t="s">
         <v>293</v>
       </c>
     </row>
@@ -11797,19 +11086,19 @@
       <c r="E4" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="75" t="s">
         <v>291</v>
       </c>
       <c r="I4" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="75" t="s">
         <v>293</v>
       </c>
     </row>
@@ -11829,19 +11118,19 @@
       <c r="E5" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="84" t="s">
+      <c r="F5" s="83" t="s">
         <v>294</v>
       </c>
-      <c r="G5" s="76" t="s">
+      <c r="G5" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="83" t="s">
         <v>294</v>
       </c>
       <c r="I5" t="s">
         <v>296</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="75" t="s">
         <v>293</v>
       </c>
     </row>
@@ -11852,7 +11141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11948,7 +11237,7 @@
       <c r="D1" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="76" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="33" t="s">
@@ -12163,7 +11452,7 @@
       <c r="D2" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="75" t="s">
         <v>366</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -13007,7 +12296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -13674,4 +12963,714 @@
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AQ5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="26" width="19.85546875" style="1" customWidth="1"/>
+    <col min="27" max="28" width="25.85546875" style="1" customWidth="1"/>
+    <col min="29" max="30" width="26.5703125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="25.5703125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="26.85546875" style="1" customWidth="1"/>
+    <col min="35" max="37" width="14.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="20.42578125" style="1" customWidth="1"/>
+    <col min="40" max="41" width="33" style="1" customWidth="1"/>
+    <col min="42" max="43" width="16.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
 </file>
--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B938A-0F62-402B-8BDD-0475C3A013AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF8C2BC-C2A0-4F9B-81EF-2E0359269A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -3905,7 +3905,7 @@
   <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6811,8 +6811,8 @@
   </sheetPr>
   <dimension ref="A1:AX24"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8576,7 +8576,7 @@
   </sheetPr>
   <dimension ref="A1:CJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B938A-0F62-402B-8BDD-0475C3A013AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0F0CE-EAD2-4667-8823-65E35FC64F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5355" yWindow="1575" windowWidth="21600" windowHeight="11385" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
@@ -8577,7 +8577,7 @@
   <dimension ref="A1:CJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8810,19 +8810,19 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>195</v>
+        <v>778</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>804</v>
       </c>
       <c r="F3" s="70" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>805</v>
@@ -8845,19 +8845,19 @@
         <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>780</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>804</v>
       </c>
       <c r="F4" s="70" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="G4" s="70" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>805</v>
@@ -8880,19 +8880,19 @@
         <v>364</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>804</v>
       </c>
       <c r="F5" s="70" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>591</v>
+        <v>608</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>805</v>
@@ -9324,7 +9324,7 @@
   <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9440,13 +9440,13 @@
         <v>364</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>195</v>
+        <v>778</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>813</v>
@@ -9484,13 +9484,13 @@
         <v>364</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>52</v>
+        <v>780</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>813</v>
@@ -9528,13 +9528,13 @@
         <v>364</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>203</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>202</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>813</v>

--- a/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
+++ b/DataSet/CBAUATDeal_DataSet/EVG_CBAUAT03.xlsx
@@ -8,39 +8,40 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\CBAUATDeal_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0F0CE-EAD2-4667-8823-65E35FC64F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA31923-8AD2-4B23-9FF5-0C806AB30038}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="17" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SERV40_BreakFunding" sheetId="1" r:id="rId1"/>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="FXRates_Fields" sheetId="4" r:id="rId3"/>
-    <sheet name="CRED01_Primaries" sheetId="5" r:id="rId4"/>
-    <sheet name="BaseRate_Fields" sheetId="6" r:id="rId5"/>
-    <sheet name="CRED08_OngoingFeeSetup" sheetId="7" r:id="rId6"/>
-    <sheet name="ORIG03_Customer" sheetId="8" r:id="rId7"/>
-    <sheet name="CRED01_DealSetup" sheetId="9" r:id="rId8"/>
-    <sheet name="CRED02_FacilitySetup" sheetId="10" r:id="rId9"/>
-    <sheet name="SERV05_SBLCIssuance" sheetId="11" r:id="rId10"/>
-    <sheet name="SERV01_LoanDrawdown" sheetId="12" r:id="rId11"/>
-    <sheet name="SERV18_FeeOnLenderSharesPayment" sheetId="13" r:id="rId12"/>
-    <sheet name="SERV29_LineFeePayment" sheetId="14" r:id="rId13"/>
-    <sheet name="SERV29_CommitmentFeePayment" sheetId="15" r:id="rId14"/>
-    <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="16" r:id="rId15"/>
-    <sheet name="SERV23_Paperclip" sheetId="17" r:id="rId16"/>
-    <sheet name="SERV08C_ComprehensiveRepricing" sheetId="18" r:id="rId17"/>
-    <sheet name="CRED08_FacilityFeeSetup" sheetId="3" r:id="rId18"/>
-    <sheet name="AMCH05_ExtendFacility" sheetId="19" r:id="rId19"/>
-    <sheet name="CRED01_UpfrontFee" sheetId="20" r:id="rId20"/>
-    <sheet name="COM06_LoanMerge" sheetId="21" r:id="rId21"/>
+    <sheet name="AMCH06_PricingChangeTransaction" sheetId="22" r:id="rId4"/>
+    <sheet name="CRED01_Primaries" sheetId="5" r:id="rId5"/>
+    <sheet name="BaseRate_Fields" sheetId="6" r:id="rId6"/>
+    <sheet name="CRED08_OngoingFeeSetup" sheetId="7" r:id="rId7"/>
+    <sheet name="ORIG03_Customer" sheetId="8" r:id="rId8"/>
+    <sheet name="CRED01_DealSetup" sheetId="9" r:id="rId9"/>
+    <sheet name="CRED02_FacilitySetup" sheetId="10" r:id="rId10"/>
+    <sheet name="SERV05_SBLCIssuance" sheetId="11" r:id="rId11"/>
+    <sheet name="SERV01_LoanDrawdown" sheetId="12" r:id="rId12"/>
+    <sheet name="SERV18_FeeOnLenderSharesPayment" sheetId="13" r:id="rId13"/>
+    <sheet name="SERV29_LineFeePayment" sheetId="14" r:id="rId14"/>
+    <sheet name="SERV29_CommitmentFeePayment" sheetId="15" r:id="rId15"/>
+    <sheet name="PTY001_QuickPartyOnboarding (2)" sheetId="16" r:id="rId16"/>
+    <sheet name="SERV23_Paperclip" sheetId="17" r:id="rId17"/>
+    <sheet name="SERV08C_ComprehensiveRepricing" sheetId="18" r:id="rId18"/>
+    <sheet name="CRED08_FacilityFeeSetup" sheetId="3" r:id="rId19"/>
+    <sheet name="AMCH05_ExtendFacility" sheetId="19" r:id="rId20"/>
+    <sheet name="CRED01_UpfrontFee" sheetId="20" r:id="rId21"/>
+    <sheet name="COM06_LoanMerge" sheetId="21" r:id="rId22"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="930">
   <si>
     <t>rowid</t>
   </si>
@@ -2666,16 +2667,185 @@
   </si>
   <si>
     <t>CUSTSHORT11112</t>
+  </si>
+  <si>
+    <t>Pricing_Status</t>
+  </si>
+  <si>
+    <t>TransactionNo_Prefix</t>
+  </si>
+  <si>
+    <t>PricingChange_TransactionNo</t>
+  </si>
+  <si>
+    <t>PricingChange_EffectiveDate</t>
+  </si>
+  <si>
+    <t>PricingChange_Desc</t>
+  </si>
+  <si>
+    <t>OngoingFeeItem</t>
+  </si>
+  <si>
+    <t>OngoingFeeType</t>
+  </si>
+  <si>
+    <t>OngoingFeeItemAfter</t>
+  </si>
+  <si>
+    <t>FormulaCategoryType</t>
+  </si>
+  <si>
+    <t>OngoingFeePercent</t>
+  </si>
+  <si>
+    <t>RateBasis</t>
+  </si>
+  <si>
+    <t>UnutilizedRate</t>
+  </si>
+  <si>
+    <t>FeeString</t>
+  </si>
+  <si>
+    <t>Facility_OngoingFeeRateStr</t>
+  </si>
+  <si>
+    <t>Facility_OngoingFeeRate_SavedStr</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeRate_SavedStr</t>
+  </si>
+  <si>
+    <t>AvailablePricing_Window</t>
+  </si>
+  <si>
+    <t>FeeSelection_Window</t>
+  </si>
+  <si>
+    <t>Approval_Question</t>
+  </si>
+  <si>
+    <t>Release_Status</t>
+  </si>
+  <si>
+    <t>Created_Event</t>
+  </si>
+  <si>
+    <t>OngoingFeePricingChanged_Event</t>
+  </si>
+  <si>
+    <t>SentToApproval_Event</t>
+  </si>
+  <si>
+    <t>Approved_Event</t>
+  </si>
+  <si>
+    <t>Released_Event</t>
+  </si>
+  <si>
+    <t>OngoingFeeRate_Original</t>
+  </si>
+  <si>
+    <t>OngoingFeeRate_SaveOriginal</t>
+  </si>
+  <si>
+    <t>PricingChangeSheet</t>
+  </si>
+  <si>
+    <t>PricingChange_OngoingFeeStr</t>
+  </si>
+  <si>
+    <t>Interest_AddItem</t>
+  </si>
+  <si>
+    <t>Interest_RateBasis</t>
+  </si>
+  <si>
+    <t>Interest_SpreadAmt1</t>
+  </si>
+  <si>
+    <t>EVG_PTYLIQ01 Scenario1 Baseline Bilateral</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TRN02</t>
+  </si>
+  <si>
+    <t>5%</t>
+  </si>
+  <si>
+    <t>Ongoing Fee String</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (5%)</t>
+  </si>
+  <si>
+    <t>Available Pricing</t>
+  </si>
+  <si>
+    <t>Fee Selection</t>
+  </si>
+  <si>
+    <t>Are you sure you want to approve this transaction?</t>
+  </si>
+  <si>
+    <t>Release</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Ongoing Fee Pricing Changed</t>
+  </si>
+  <si>
+    <t>Sent to Approval</t>
+  </si>
+  <si>
+    <t>Released</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (4%)</t>
+  </si>
+  <si>
+    <t>4%</t>
+  </si>
+  <si>
+    <t>Pricing_Change_Transaction</t>
+  </si>
+  <si>
+    <t>Basis Points</t>
+  </si>
+  <si>
+    <t>Commitment Fee Change</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.55%</t>
+  </si>
+  <si>
+    <t>${SPACE}${SPACE}${SPACE}${SPACE}Unutilized X Rate (0.525%)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2739,6 +2909,13 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2877,7 +3054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3020,6 +3197,25 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3629,6 +3825,716 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AQ5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="19.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="32.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="20" style="1" customWidth="1"/>
+    <col min="25" max="26" width="19.85546875" style="1" customWidth="1"/>
+    <col min="27" max="28" width="25.85546875" style="1" customWidth="1"/>
+    <col min="29" max="30" width="26.5703125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="25.5703125" style="1" customWidth="1"/>
+    <col min="33" max="34" width="26.85546875" style="1" customWidth="1"/>
+    <col min="35" max="37" width="14.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="20.42578125" style="1" customWidth="1"/>
+    <col min="40" max="41" width="33" style="1" customWidth="1"/>
+    <col min="42" max="43" width="16.85546875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>551</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>553</v>
+      </c>
+      <c r="J1" s="28" t="s">
+        <v>554</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>555</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>556</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>557</v>
+      </c>
+      <c r="N1" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="O1" s="28" t="s">
+        <v>559</v>
+      </c>
+      <c r="P1" s="28" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q1" s="28" t="s">
+        <v>561</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>563</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="U1" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="V1" s="28" t="s">
+        <v>566</v>
+      </c>
+      <c r="W1" s="28" t="s">
+        <v>567</v>
+      </c>
+      <c r="X1" s="28" t="s">
+        <v>568</v>
+      </c>
+      <c r="Y1" s="28" t="s">
+        <v>569</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA1" s="28" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB1" s="28" t="s">
+        <v>572</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD1" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE1" s="28" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF1" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="AG1" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="AH1" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="AI1" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="AJ1" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="AK1" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="AL1" s="28" t="s">
+        <v>582</v>
+      </c>
+      <c r="AM1" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="AN1" s="28" t="s">
+        <v>584</v>
+      </c>
+      <c r="AO1" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="AP1" s="28" t="s">
+        <v>586</v>
+      </c>
+      <c r="AQ1" s="28" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL2" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF3" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AG3" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH3" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="AI3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ3" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK3" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM3" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AN3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP3" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ3" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP4" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ4" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="S5" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE5" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG5" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP5" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="AQ5" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -3897,7 +4803,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4765,7 +5671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5446,7 +6352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5663,7 +6569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5921,7 +6827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6323,7 +7229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6804,7 +7710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7729,7 +8635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8560,351 +9466,6 @@
       </c>
       <c r="AZ5" s="1" t="s">
         <v>194</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:CJ5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
-    <col min="11" max="35" width="22.28515625" style="1" customWidth="1"/>
-    <col min="36" max="36" width="28.85546875" style="1" customWidth="1"/>
-    <col min="37" max="37" width="14.28515625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23" style="1" customWidth="1"/>
-    <col min="39" max="42" width="19.85546875" style="1" customWidth="1"/>
-    <col min="43" max="44" width="24.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="25" style="1" customWidth="1"/>
-    <col min="46" max="46" width="24.42578125" style="1" customWidth="1"/>
-    <col min="47" max="47" width="30.42578125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="36" style="1" customWidth="1"/>
-    <col min="49" max="49" width="34.42578125" style="1" customWidth="1"/>
-    <col min="50" max="50" width="26.7109375" style="1" customWidth="1"/>
-    <col min="51" max="52" width="17.28515625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="34.140625" style="1" customWidth="1"/>
-    <col min="54" max="54" width="28.42578125" style="1" customWidth="1"/>
-    <col min="55" max="55" width="24.7109375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="30.28515625" style="1" customWidth="1"/>
-    <col min="57" max="57" width="17.5703125" style="1" customWidth="1"/>
-    <col min="58" max="58" width="20.28515625" style="1" customWidth="1"/>
-    <col min="59" max="59" width="12.140625" style="1" customWidth="1"/>
-    <col min="60" max="60" width="21.42578125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="24.140625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="16" style="1" customWidth="1"/>
-    <col min="63" max="63" width="14" style="1" customWidth="1"/>
-    <col min="64" max="64" width="16.7109375" style="1" customWidth="1"/>
-    <col min="65" max="65" width="10.42578125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="37.7109375" style="1" customWidth="1"/>
-    <col min="67" max="68" width="16.7109375" style="1" customWidth="1"/>
-    <col min="69" max="71" width="20.140625" style="1" customWidth="1"/>
-    <col min="72" max="72" width="17.7109375" style="1" customWidth="1"/>
-    <col min="73" max="73" width="24.5703125" style="1" customWidth="1"/>
-    <col min="74" max="76" width="19.42578125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="21.140625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="32.42578125" style="1" customWidth="1"/>
-    <col min="79" max="80" width="17.28515625" style="1" customWidth="1"/>
-    <col min="81" max="83" width="17.5703125" style="1" customWidth="1"/>
-    <col min="84" max="84" width="26.28515625" style="1" customWidth="1"/>
-    <col min="85" max="85" width="35" style="1" customWidth="1"/>
-    <col min="86" max="86" width="26.5703125" style="1" customWidth="1"/>
-    <col min="87" max="87" width="24.85546875" style="1" customWidth="1"/>
-    <col min="88" max="88" width="20" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:88" s="19" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="3"/>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="3"/>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="3"/>
-      <c r="BL1" s="3"/>
-      <c r="BM1" s="3"/>
-      <c r="BN1" s="3"/>
-      <c r="BO1" s="3"/>
-      <c r="BP1" s="3"/>
-      <c r="BQ1" s="3"/>
-      <c r="BR1" s="3"/>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="3"/>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="3"/>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="3"/>
-      <c r="BY1" s="3"/>
-      <c r="BZ1" s="3"/>
-      <c r="CA1" s="3"/>
-      <c r="CB1" s="3"/>
-      <c r="CC1" s="3"/>
-      <c r="CD1" s="3"/>
-      <c r="CE1" s="3"/>
-      <c r="CF1" s="3"/>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="3"/>
-      <c r="CI1" s="3"/>
-      <c r="CJ1" s="3"/>
-    </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="E2" t="s">
-        <v>804</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>591</v>
-      </c>
-      <c r="G2" s="70" t="s">
-        <v>591</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-    </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A3" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F3" s="70" t="s">
-        <v>600</v>
-      </c>
-      <c r="G3" s="70" t="s">
-        <v>600</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>600</v>
-      </c>
-      <c r="G4" s="70" t="s">
-        <v>600</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
-      <c r="A5" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="G5" s="70" t="s">
-        <v>608</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>806</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -9317,14 +9878,359 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:CJ5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" style="1" customWidth="1"/>
+    <col min="11" max="35" width="22.28515625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="28.85546875" style="1" customWidth="1"/>
+    <col min="37" max="37" width="14.28515625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="23" style="1" customWidth="1"/>
+    <col min="39" max="42" width="19.85546875" style="1" customWidth="1"/>
+    <col min="43" max="44" width="24.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="25" style="1" customWidth="1"/>
+    <col min="46" max="46" width="24.42578125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="30.42578125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="36" style="1" customWidth="1"/>
+    <col min="49" max="49" width="34.42578125" style="1" customWidth="1"/>
+    <col min="50" max="50" width="26.7109375" style="1" customWidth="1"/>
+    <col min="51" max="52" width="17.28515625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="34.140625" style="1" customWidth="1"/>
+    <col min="54" max="54" width="28.42578125" style="1" customWidth="1"/>
+    <col min="55" max="55" width="24.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="30.28515625" style="1" customWidth="1"/>
+    <col min="57" max="57" width="17.5703125" style="1" customWidth="1"/>
+    <col min="58" max="58" width="20.28515625" style="1" customWidth="1"/>
+    <col min="59" max="59" width="12.140625" style="1" customWidth="1"/>
+    <col min="60" max="60" width="21.42578125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="24.140625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="16" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14" style="1" customWidth="1"/>
+    <col min="64" max="64" width="16.7109375" style="1" customWidth="1"/>
+    <col min="65" max="65" width="10.42578125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="37.7109375" style="1" customWidth="1"/>
+    <col min="67" max="68" width="16.7109375" style="1" customWidth="1"/>
+    <col min="69" max="71" width="20.140625" style="1" customWidth="1"/>
+    <col min="72" max="72" width="17.7109375" style="1" customWidth="1"/>
+    <col min="73" max="73" width="24.5703125" style="1" customWidth="1"/>
+    <col min="74" max="76" width="19.42578125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="21.140625" style="1" customWidth="1"/>
+    <col min="78" max="78" width="32.42578125" style="1" customWidth="1"/>
+    <col min="79" max="80" width="17.28515625" style="1" customWidth="1"/>
+    <col min="81" max="83" width="17.5703125" style="1" customWidth="1"/>
+    <col min="84" max="84" width="26.28515625" style="1" customWidth="1"/>
+    <col min="85" max="85" width="35" style="1" customWidth="1"/>
+    <col min="86" max="86" width="26.5703125" style="1" customWidth="1"/>
+    <col min="87" max="87" width="24.85546875" style="1" customWidth="1"/>
+    <col min="88" max="88" width="20" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:88" s="19" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="3"/>
+      <c r="BH1" s="3"/>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="3"/>
+      <c r="BK1" s="3"/>
+      <c r="BL1" s="3"/>
+      <c r="BM1" s="3"/>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="3"/>
+      <c r="BP1" s="3"/>
+      <c r="BQ1" s="3"/>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="3"/>
+      <c r="BT1" s="3"/>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="3"/>
+      <c r="BX1" s="3"/>
+      <c r="BY1" s="3"/>
+      <c r="BZ1" s="3"/>
+      <c r="CA1" s="3"/>
+      <c r="CB1" s="3"/>
+      <c r="CC1" s="3"/>
+      <c r="CD1" s="3"/>
+      <c r="CE1" s="3"/>
+      <c r="CF1" s="3"/>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="3"/>
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="3"/>
+    </row>
+    <row r="2" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A2" s="82" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2" t="s">
+        <v>804</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>591</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="22"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="11"/>
+      <c r="AF2" s="11"/>
+    </row>
+    <row r="3" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A3" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>600</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>600</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F4" s="70" t="s">
+        <v>600</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>606</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" x14ac:dyDescent="0.2">
+      <c r="A5" s="82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="F5" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>608</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>806</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9636,7 +10542,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10456,6 +11362,318 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940E2D94-64DF-4F97-AE3C-B3EE91A208CF}">
+  <dimension ref="A1:AP2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AO2" sqref="AO2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="54.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="1" customWidth="1"/>
+    <col min="12" max="13" width="20.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="18" style="1" customWidth="1"/>
+    <col min="18" max="18" width="54" style="1" customWidth="1"/>
+    <col min="19" max="19" width="32.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="54" style="1" customWidth="1"/>
+    <col min="21" max="21" width="39" style="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="47" style="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="32.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="21.5703125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="15.28515625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="54" style="1" customWidth="1"/>
+    <col min="32" max="32" width="28.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="26.28515625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="28.28515625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.42578125" style="1" customWidth="1"/>
+    <col min="36" max="36" width="21.42578125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="17.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="21" style="1" customWidth="1"/>
+    <col min="40" max="40" width="22" style="1" customWidth="1"/>
+    <col min="41" max="41" width="20.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" s="94" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="93" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>874</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>875</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>876</v>
+      </c>
+      <c r="H1" s="93" t="s">
+        <v>877</v>
+      </c>
+      <c r="I1" s="92" t="s">
+        <v>878</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>879</v>
+      </c>
+      <c r="K1" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="L1" s="92" t="s">
+        <v>881</v>
+      </c>
+      <c r="M1" s="92" t="s">
+        <v>882</v>
+      </c>
+      <c r="N1" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="O1" s="92" t="s">
+        <v>884</v>
+      </c>
+      <c r="P1" s="92" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q1" s="92" t="s">
+        <v>886</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>887</v>
+      </c>
+      <c r="S1" s="92" t="s">
+        <v>888</v>
+      </c>
+      <c r="T1" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>890</v>
+      </c>
+      <c r="V1" s="92" t="s">
+        <v>891</v>
+      </c>
+      <c r="W1" s="92" t="s">
+        <v>892</v>
+      </c>
+      <c r="X1" s="92" t="s">
+        <v>893</v>
+      </c>
+      <c r="Y1" s="92" t="s">
+        <v>894</v>
+      </c>
+      <c r="Z1" s="92" t="s">
+        <v>895</v>
+      </c>
+      <c r="AA1" s="92" t="s">
+        <v>896</v>
+      </c>
+      <c r="AB1" s="92" t="s">
+        <v>897</v>
+      </c>
+      <c r="AC1" s="92" t="s">
+        <v>898</v>
+      </c>
+      <c r="AD1" s="92" t="s">
+        <v>899</v>
+      </c>
+      <c r="AE1" s="92" t="s">
+        <v>900</v>
+      </c>
+      <c r="AF1" s="92" t="s">
+        <v>901</v>
+      </c>
+      <c r="AG1" s="92" t="s">
+        <v>902</v>
+      </c>
+      <c r="AH1" s="92" t="s">
+        <v>903</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>908</v>
+      </c>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95" t="s">
+        <v>909</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>806</v>
+      </c>
+      <c r="I2" s="60" t="s">
+        <v>925</v>
+      </c>
+      <c r="J2" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="K2" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="95" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="N2" s="97" t="s">
+        <v>927</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="98" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q2" s="95" t="s">
+        <v>911</v>
+      </c>
+      <c r="R2" s="95" t="s">
+        <v>912</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="T2" s="95" t="s">
+        <v>929</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="V2" s="95" t="s">
+        <v>913</v>
+      </c>
+      <c r="W2" s="95" t="s">
+        <v>914</v>
+      </c>
+      <c r="X2" s="95" t="s">
+        <v>915</v>
+      </c>
+      <c r="Y2" s="95" t="s">
+        <v>916</v>
+      </c>
+      <c r="Z2" s="95" t="s">
+        <v>917</v>
+      </c>
+      <c r="AA2" s="95" t="s">
+        <v>918</v>
+      </c>
+      <c r="AB2" s="95" t="s">
+        <v>919</v>
+      </c>
+      <c r="AC2" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" s="95" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE2" s="95" t="s">
+        <v>921</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="AG2" s="95" t="s">
+        <v>923</v>
+      </c>
+      <c r="AH2" s="95" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL2" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM2" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO2" s="75" t="s">
+        <v>926</v>
+      </c>
+      <c r="AP2" s="75" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10649,7 +11867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -10949,7 +12167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -11141,7 +12359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12296,7 +13514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12963,714 +14181,4 @@
   <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AQ5"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18" style="1" customWidth="1"/>
-    <col min="17" max="17" width="21.5703125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="19.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="32.7109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="21" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="20" style="1" customWidth="1"/>
-    <col min="25" max="26" width="19.85546875" style="1" customWidth="1"/>
-    <col min="27" max="28" width="25.85546875" style="1" customWidth="1"/>
-    <col min="29" max="30" width="26.5703125" style="1" customWidth="1"/>
-    <col min="31" max="32" width="25.5703125" style="1" customWidth="1"/>
-    <col min="33" max="34" width="26.85546875" style="1" customWidth="1"/>
-    <col min="35" max="37" width="14.85546875" style="1" customWidth="1"/>
-    <col min="38" max="39" width="20.42578125" style="1" customWidth="1"/>
-    <col min="40" max="41" width="33" style="1" customWidth="1"/>
-    <col min="42" max="43" width="16.85546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:43" s="28" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>551</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>552</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>553</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>554</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>555</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>556</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>557</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>558</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>559</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>560</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>561</v>
-      </c>
-      <c r="R1" s="28" t="s">
-        <v>562</v>
-      </c>
-      <c r="S1" s="28" t="s">
-        <v>563</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>564</v>
-      </c>
-      <c r="U1" s="28" t="s">
-        <v>565</v>
-      </c>
-      <c r="V1" s="28" t="s">
-        <v>566</v>
-      </c>
-      <c r="W1" s="28" t="s">
-        <v>567</v>
-      </c>
-      <c r="X1" s="28" t="s">
-        <v>568</v>
-      </c>
-      <c r="Y1" s="28" t="s">
-        <v>569</v>
-      </c>
-      <c r="Z1" s="28" t="s">
-        <v>570</v>
-      </c>
-      <c r="AA1" s="28" t="s">
-        <v>571</v>
-      </c>
-      <c r="AB1" s="28" t="s">
-        <v>572</v>
-      </c>
-      <c r="AC1" s="28" t="s">
-        <v>573</v>
-      </c>
-      <c r="AD1" s="28" t="s">
-        <v>574</v>
-      </c>
-      <c r="AE1" s="28" t="s">
-        <v>575</v>
-      </c>
-      <c r="AF1" s="28" t="s">
-        <v>576</v>
-      </c>
-      <c r="AG1" s="28" t="s">
-        <v>577</v>
-      </c>
-      <c r="AH1" s="28" t="s">
-        <v>578</v>
-      </c>
-      <c r="AI1" s="28" t="s">
-        <v>579</v>
-      </c>
-      <c r="AJ1" s="28" t="s">
-        <v>580</v>
-      </c>
-      <c r="AK1" s="28" t="s">
-        <v>581</v>
-      </c>
-      <c r="AL1" s="28" t="s">
-        <v>582</v>
-      </c>
-      <c r="AM1" s="28" t="s">
-        <v>583</v>
-      </c>
-      <c r="AN1" s="28" t="s">
-        <v>584</v>
-      </c>
-      <c r="AO1" s="28" t="s">
-        <v>585</v>
-      </c>
-      <c r="AP1" s="28" t="s">
-        <v>586</v>
-      </c>
-      <c r="AQ1" s="28" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE3" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG3" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH3" s="9" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP3" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ3" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE4" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG4" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AK4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO4" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP4" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ4" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>599</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>604</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>608</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>593</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AN5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="AP5" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
-  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>